--- a/pipeline.xlsx
+++ b/pipeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorich\source\repos\cv-generator\cv-generator-fe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5F7D44E-1892-4604-937F-C10FBAD191BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88A9177F-391E-4E23-9568-2190F74E3FC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="10845" xr2:uid="{85A6193D-6764-4870-9E6C-E861DF98152E}"/>
   </bookViews>
@@ -953,7 +953,7 @@
       <pane xSplit="10" ySplit="6" topLeftCell="K7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomRight" activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2056,17 +2056,20 @@
       </c>
       <c r="K40" t="str">
         <f t="shared" si="4"/>
-        <v>snyk-protect</v>
+        <v>npm-run-all snyk-protect</v>
       </c>
       <c r="L40" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">    "prepare": "snyk-protect",</v>
+        <v xml:space="preserve">    "prepare": "npm-run-all snyk-protect",</v>
       </c>
       <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+      <c r="N40" s="2" t="str">
+        <f>IF(ISBLANK(P40),"",$N$5)</f>
+        <v>npm-run-all</v>
+      </c>
       <c r="O40" s="2" t="str">
         <f t="shared" ref="O40:O71" si="12">IF(ISBLANK(N40),CONCATENATE(" ",$O$3," ")," ")</f>
-        <v xml:space="preserve"> &amp;&amp; </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P40" t="s">
         <v>68</v>
@@ -2250,15 +2253,15 @@
         <v>71</v>
       </c>
       <c r="J48" s="1" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,E48:I48)</f>
+        <f t="shared" ref="J48:J54" si="13" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,E48:I48)</f>
         <v>build-prod-ngsw</v>
       </c>
       <c r="K48" t="str">
-        <f xml:space="preserve"> IF(NOT(COUNTA(P48:V48)),":",_xlfn.TEXTJOIN(O48,TRUE,N48,_xlfn.TEXTJOIN(O48,TRUE,P48:V48)))</f>
+        <f t="shared" ref="K48:K54" si="14" xml:space="preserve"> IF(NOT(COUNTA(P48:V48)),":",_xlfn.TEXTJOIN(O48,TRUE,N48,_xlfn.TEXTJOIN(O48,TRUE,P48:V48)))</f>
         <v>npm-run-all build</v>
       </c>
       <c r="L48" t="str">
-        <f>IF(ISBLANK(J48),"",CONCATENATE("    """,J48,""": ",IF(M48,"""echo ",""""),K48,""","))</f>
+        <f t="shared" ref="L48:L54" si="15">IF(ISBLANK(J48),"",CONCATENATE("    """,J48,""": ",IF(M48,"""echo ",""""),K48,""","))</f>
         <v xml:space="preserve">    "build-prod-ngsw": "npm-run-all build",</v>
       </c>
       <c r="M48" s="2"/>
@@ -2267,7 +2270,7 @@
         <v>npm-run-all</v>
       </c>
       <c r="O48" s="2" t="str">
-        <f>IF(ISBLANK(N48),CONCATENATE(" ",$O$3," ")," ")</f>
+        <f t="shared" ref="O48:O54" si="16">IF(ISBLANK(N48),CONCATENATE(" ",$O$3," ")," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P48" t="s">
@@ -2282,15 +2285,15 @@
         <v>72</v>
       </c>
       <c r="J49" s="1" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,E49:I49)</f>
+        <f t="shared" si="13"/>
         <v>build-prod-ngsw:staging</v>
       </c>
       <c r="K49" t="str">
-        <f xml:space="preserve"> IF(NOT(COUNTA(P49:V49)),":",_xlfn.TEXTJOIN(O49,TRUE,N49,_xlfn.TEXTJOIN(O49,TRUE,P49:V49)))</f>
+        <f t="shared" si="14"/>
         <v>npm-run-all build:staging</v>
       </c>
       <c r="L49" t="str">
-        <f>IF(ISBLANK(J49),"",CONCATENATE("    """,J49,""": ",IF(M49,"""echo ",""""),K49,""","))</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">    "build-prod-ngsw:staging": "npm-run-all build:staging",</v>
       </c>
       <c r="M49" s="2"/>
@@ -2299,7 +2302,7 @@
         <v>npm-run-all</v>
       </c>
       <c r="O49" s="2" t="str">
-        <f>IF(ISBLANK(N49),CONCATENATE(" ",$O$3," ")," ")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P49" t="s">
@@ -2314,15 +2317,15 @@
         <v>73</v>
       </c>
       <c r="J50" s="1" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,E50:I50)</f>
+        <f t="shared" si="13"/>
         <v>postbuild</v>
       </c>
       <c r="K50" t="str">
-        <f xml:space="preserve"> IF(NOT(COUNTA(P50:V50)),":",_xlfn.TEXTJOIN(O50,TRUE,N50,_xlfn.TEXTJOIN(O50,TRUE,P50:V50)))</f>
+        <f t="shared" si="14"/>
         <v>npm-run-all dev:test-phase:integrate:package:action</v>
       </c>
       <c r="L50" t="str">
-        <f>IF(ISBLANK(J50),"",CONCATENATE("    """,J50,""": ",IF(M50,"""echo ",""""),K50,""","))</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">    "postbuild": "npm-run-all dev:test-phase:integrate:package:action",</v>
       </c>
       <c r="M50" s="2"/>
@@ -2331,7 +2334,7 @@
         <v>npm-run-all</v>
       </c>
       <c r="O50" s="2" t="str">
-        <f>IF(ISBLANK(N50),CONCATENATE(" ",$O$3," ")," ")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P50" t="s">
@@ -2346,15 +2349,15 @@
         <v>74</v>
       </c>
       <c r="J51" s="1" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,E51:I51)</f>
+        <f t="shared" si="13"/>
         <v>postbuild:staging</v>
       </c>
       <c r="K51" t="str">
-        <f xml:space="preserve"> IF(NOT(COUNTA(P51:V51)),":",_xlfn.TEXTJOIN(O51,TRUE,N51,_xlfn.TEXTJOIN(O51,TRUE,P51:V51)))</f>
+        <f t="shared" si="14"/>
         <v>npm-run-all postbuild</v>
       </c>
       <c r="L51" t="str">
-        <f>IF(ISBLANK(J51),"",CONCATENATE("    """,J51,""": ",IF(M51,"""echo ",""""),K51,""","))</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">    "postbuild:staging": "npm-run-all postbuild",</v>
       </c>
       <c r="M51" s="2"/>
@@ -2363,7 +2366,7 @@
         <v>npm-run-all</v>
       </c>
       <c r="O51" s="2" t="str">
-        <f>IF(ISBLANK(N51),CONCATENATE(" ",$O$3," ")," ")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P51" t="s">
@@ -2378,21 +2381,21 @@
         <v>75</v>
       </c>
       <c r="J52" s="1" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,E52:I52)</f>
+        <f t="shared" si="13"/>
         <v>serve-prod-ngsw</v>
       </c>
       <c r="K52" t="str">
-        <f xml:space="preserve"> IF(NOT(COUNTA(P52:V52)),":",_xlfn.TEXTJOIN(O52,TRUE,N52,_xlfn.TEXTJOIN(O52,TRUE,P52:V52)))</f>
+        <f t="shared" si="14"/>
         <v>http-server dist -p 5000</v>
       </c>
       <c r="L52" t="str">
-        <f>IF(ISBLANK(J52),"",CONCATENATE("    """,J52,""": ",IF(M52,"""echo ",""""),K52,""","))</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">    "serve-prod-ngsw": "http-server dist -p 5000",</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2" t="str">
-        <f>IF(ISBLANK(N52),CONCATENATE(" ",$O$3," ")," ")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P52" t="s">
@@ -2407,15 +2410,15 @@
         <v>102</v>
       </c>
       <c r="J53" s="1" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,E53:I53)</f>
+        <f t="shared" si="13"/>
         <v>build-n-serve-prod-ngsw</v>
       </c>
       <c r="K53" t="str">
-        <f xml:space="preserve"> IF(NOT(COUNTA(P53:V53)),":",_xlfn.TEXTJOIN(O53,TRUE,N53,_xlfn.TEXTJOIN(O53,TRUE,P53:V53)))</f>
+        <f t="shared" si="14"/>
         <v>npm-run-all build-prod-ngsw serve-prod-ngsw</v>
       </c>
       <c r="L53" t="str">
-        <f>IF(ISBLANK(J53),"",CONCATENATE("    """,J53,""": ",IF(M53,"""echo ",""""),K53,""","))</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">    "build-n-serve-prod-ngsw": "npm-run-all build-prod-ngsw serve-prod-ngsw",</v>
       </c>
       <c r="M53" s="2"/>
@@ -2424,7 +2427,7 @@
         <v>npm-run-all</v>
       </c>
       <c r="O53" s="2" t="str">
-        <f>IF(ISBLANK(N53),CONCATENATE(" ",$O$3," ")," ")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P53" t="s">
@@ -2442,15 +2445,15 @@
         <v>76</v>
       </c>
       <c r="J54" s="1" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,E54:I54)</f>
+        <f t="shared" si="13"/>
         <v>postinstall</v>
       </c>
       <c r="K54" t="str">
-        <f xml:space="preserve"> IF(NOT(COUNTA(P54:V54)),":",_xlfn.TEXTJOIN(O54,TRUE,N54,_xlfn.TEXTJOIN(O54,TRUE,P54:V54)))</f>
+        <f t="shared" si="14"/>
         <v>npm-run-all build-prod-ngsw:staging</v>
       </c>
       <c r="L54" t="str">
-        <f>IF(ISBLANK(J54),"",CONCATENATE("    """,J54,""": ",IF(M54,"""echo ",""""),K54,""","))</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">    "postinstall": "npm-run-all build-prod-ngsw:staging",</v>
       </c>
       <c r="M54" s="2"/>
@@ -2459,7 +2462,7 @@
         <v>npm-run-all</v>
       </c>
       <c r="O54" s="2" t="str">
-        <f>IF(ISBLANK(N54),CONCATENATE(" ",$O$3," ")," ")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P54" t="s">
@@ -2708,7 +2711,7 @@
         <v>2</v>
       </c>
       <c r="J64" s="1" t="str">
-        <f t="shared" ref="J64:J75" si="13" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,E64:I64)</f>
+        <f t="shared" ref="J64:J75" si="17" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,E64:I64)</f>
         <v>test</v>
       </c>
       <c r="K64" t="str">
@@ -2731,7 +2734,7 @@
     </row>
     <row r="65" spans="3:16" x14ac:dyDescent="0.25">
       <c r="J65" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="K65" t="str">
@@ -2753,7 +2756,7 @@
         <v>147</v>
       </c>
       <c r="J66" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>ops:deploy:package:dockerize:build:action</v>
       </c>
       <c r="K66" t="str">
@@ -2761,7 +2764,7 @@
         <v>npm-run-all dockerize-build</v>
       </c>
       <c r="L66" t="str">
-        <f t="shared" ref="L66:L71" si="14">IF(ISBLANK(J66),"",CONCATENATE("    """,J66,""": ",IF(M66,"""echo ",""""),K66,""","))</f>
+        <f t="shared" ref="L66:L71" si="18">IF(ISBLANK(J66),"",CONCATENATE("    """,J66,""": ",IF(M66,"""echo ",""""),K66,""","))</f>
         <v xml:space="preserve">    "ops:deploy:package:dockerize:build:action": "npm-run-all dockerize-build",</v>
       </c>
       <c r="M66" s="2"/>
@@ -2785,7 +2788,7 @@
         <v>97</v>
       </c>
       <c r="J67" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>dockerize-build</v>
       </c>
       <c r="K67" t="str">
@@ -2793,7 +2796,7 @@
         <v>docker image build -t jorich/cv-generator-fe:%npm_package_version% -t jorich/cv-generator-fe .</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">    "dockerize-build": "docker image build -t jorich/cv-generator-fe:%npm_package_version% -t jorich/cv-generator-fe .",</v>
       </c>
       <c r="M67" s="2"/>
@@ -2814,7 +2817,7 @@
         <v>147</v>
       </c>
       <c r="J68" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>ops:deploy:package:dockerize:push:action</v>
       </c>
       <c r="K68" t="str">
@@ -2822,7 +2825,7 @@
         <v>npm-run-all dockerize-push</v>
       </c>
       <c r="L68" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">    "ops:deploy:package:dockerize:push:action": "npm-run-all dockerize-push",</v>
       </c>
       <c r="M68" s="2"/>
@@ -2846,7 +2849,7 @@
         <v>98</v>
       </c>
       <c r="J69" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>dockerize-push</v>
       </c>
       <c r="K69" t="str">
@@ -2854,7 +2857,7 @@
         <v>docker push jorich/cv-generator-fe:%npm_package_version% &amp;&amp; docker push jorich/cv-generator-fe:latest</v>
       </c>
       <c r="L69" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">    "dockerize-push": "docker push jorich/cv-generator-fe:%npm_package_version% &amp;&amp; docker push jorich/cv-generator-fe:latest",</v>
       </c>
       <c r="M69" s="2"/>
@@ -2875,7 +2878,7 @@
         <v>147</v>
       </c>
       <c r="J70" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>ops:deploy:package:provision:action</v>
       </c>
       <c r="K70" t="str">
@@ -2883,7 +2886,7 @@
         <v>npm-run-all provision</v>
       </c>
       <c r="L70" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">    "ops:deploy:package:provision:action": "npm-run-all provision",</v>
       </c>
       <c r="M70" s="2"/>
@@ -2907,7 +2910,7 @@
         <v>86</v>
       </c>
       <c r="J71" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>provision</v>
       </c>
       <c r="K71" t="str">
@@ -2915,7 +2918,7 @@
         <v>cd ../cv-generator-life-terraform &amp;&amp; terraform apply</v>
       </c>
       <c r="L71" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">    "provision": "cd ../cv-generator-life-terraform &amp;&amp; terraform apply",</v>
       </c>
       <c r="M71" s="2"/>
@@ -2930,7 +2933,7 @@
     </row>
     <row r="72" spans="3:16" x14ac:dyDescent="0.25">
       <c r="J72" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="K72" t="str">
@@ -2940,7 +2943,7 @@
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" s="2" t="str">
-        <f t="shared" ref="O72:O103" si="15">IF(ISBLANK(N72),CONCATENATE(" ",$O$3," ")," ")</f>
+        <f t="shared" ref="O72:O75" si="19">IF(ISBLANK(N72),CONCATENATE(" ",$O$3," ")," ")</f>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
     </row>
@@ -2952,7 +2955,7 @@
         <v>100</v>
       </c>
       <c r="J73" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>update:packages</v>
       </c>
       <c r="K73" t="str">
@@ -2960,13 +2963,13 @@
         <v>node wipe-dependencies.js &amp;&amp; rm -rf node_modules &amp;&amp; npm update --save-dev &amp;&amp; npm update --save</v>
       </c>
       <c r="L73" t="str">
-        <f t="shared" ref="L73:L128" si="16">IF(ISBLANK(J73),"",CONCATENATE("    """,J73,""": ",IF(M73,"""echo ",""""),K73,""","))</f>
+        <f t="shared" ref="L73:L128" si="20">IF(ISBLANK(J73),"",CONCATENATE("    """,J73,""": ",IF(M73,"""echo ",""""),K73,""","))</f>
         <v xml:space="preserve">    "update:packages": "node wipe-dependencies.js &amp;&amp; rm -rf node_modules &amp;&amp; npm update --save-dev &amp;&amp; npm update --save",</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P73" t="s">
@@ -2975,17 +2978,17 @@
     </row>
     <row r="74" spans="3:16" x14ac:dyDescent="0.25">
       <c r="K74" t="str">
-        <f t="shared" ref="K74:K137" si="17" xml:space="preserve"> IF(NOT(COUNTA(P74:V74)),":",_xlfn.TEXTJOIN(O74,TRUE,N74,_xlfn.TEXTJOIN(O74,TRUE,P74:V74)))</f>
+        <f t="shared" ref="K74:K137" si="21" xml:space="preserve"> IF(NOT(COUNTA(P74:V74)),":",_xlfn.TEXTJOIN(O74,TRUE,N74,_xlfn.TEXTJOIN(O74,TRUE,P74:V74)))</f>
         <v>:</v>
       </c>
       <c r="L74" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
     </row>
@@ -2997,21 +3000,21 @@
         <v>147</v>
       </c>
       <c r="J75" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>dev:plan-phase:plan:report:action</v>
       </c>
       <c r="K75" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>echo Plan: Include a full SD process in CI/CD pipeline</v>
       </c>
       <c r="L75" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "dev:plan-phase:plan:report:action": "echo Plan: Include a full SD process in CI/CD pipeline",</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P75" t="s">
@@ -3026,21 +3029,21 @@
         <v>147</v>
       </c>
       <c r="J76" s="1" t="str">
-        <f t="shared" ref="J76:J82" si="18" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,E76:I76)</f>
+        <f t="shared" ref="J76:J82" si="22" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,E76:I76)</f>
         <v>dev:plan-phase:update:report:action</v>
       </c>
       <c r="K76" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>echo Update: TODO: Update the dependencied to latest</v>
       </c>
       <c r="L76" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "dev:plan-phase:update:report:action": "echo Update: TODO: Update the dependencied to latest",</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" s="2" t="str">
-        <f t="shared" ref="O76:O83" si="19">IF(ISBLANK(N76),CONCATENATE(" ",$O$3," ")," ")</f>
+        <f t="shared" ref="O76:O83" si="23">IF(ISBLANK(N76),CONCATENATE(" ",$O$3," ")," ")</f>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P76" t="s">
@@ -3055,21 +3058,21 @@
         <v>147</v>
       </c>
       <c r="J77" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>dev:code-phase:code:report:action</v>
       </c>
       <c r="K77" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>echo TODO: Code: Implement the new features planned</v>
       </c>
       <c r="L77" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "dev:code-phase:code:report:action": "echo TODO: Code: Implement the new features planned",</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P77" t="s">
@@ -3084,21 +3087,21 @@
         <v>147</v>
       </c>
       <c r="J78" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>dev:build-phase:install:report:action</v>
       </c>
       <c r="K78" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>echo Install: TODO: Link to install logs</v>
       </c>
       <c r="L78" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "dev:build-phase:install:report:action": "echo Install: TODO: Link to install logs",</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P78" t="s">
@@ -3113,21 +3116,21 @@
         <v>147</v>
       </c>
       <c r="J79" s="1" t="str">
-        <f t="shared" ref="J79" si="20" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,E79:I79)</f>
+        <f t="shared" ref="J79" si="24" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,E79:I79)</f>
         <v>dev:build-phase:build:report:action</v>
       </c>
       <c r="K79" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>echo Build: TODO: Link to Build logs</v>
       </c>
       <c r="L79" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "dev:build-phase:build:report:action": "echo Build: TODO: Link to Build logs",</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" s="2" t="str">
-        <f t="shared" ref="O79" si="21">IF(ISBLANK(N79),CONCATENATE(" ",$O$3," ")," ")</f>
+        <f t="shared" ref="O79" si="25">IF(ISBLANK(N79),CONCATENATE(" ",$O$3," ")," ")</f>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P79" t="s">
@@ -3142,21 +3145,21 @@
         <v>147</v>
       </c>
       <c r="J80" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>ops:monitor:report:action</v>
       </c>
       <c r="K80" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>echo Observe: TODO: Lanch the observability dashboard</v>
       </c>
       <c r="L80" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "ops:monitor:report:action": "echo Observe: TODO: Lanch the observability dashboard",</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P80" t="s">
@@ -3165,17 +3168,17 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K81" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>:</v>
       </c>
       <c r="L81" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" s="2" t="str">
-        <f t="shared" ref="O81" si="22">IF(ISBLANK(N81),CONCATENATE(" ",$O$3," ")," ")</f>
+        <f t="shared" ref="O81" si="26">IF(ISBLANK(N81),CONCATENATE(" ",$O$3," ")," ")</f>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
     </row>
@@ -3187,37 +3190,37 @@
         <v>172</v>
       </c>
       <c r="J82" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>do-nothing</v>
       </c>
       <c r="K82" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>:</v>
       </c>
       <c r="L82" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "do-nothing": ":",</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K83" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>:</v>
       </c>
       <c r="L83" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
     </row>
@@ -3229,21 +3232,21 @@
         <v>101</v>
       </c>
       <c r="J84" s="1" t="str">
-        <f t="shared" ref="J84:J115" si="23" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,E84:I84)</f>
+        <f t="shared" ref="J84:J115" si="27" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,E84:I84)</f>
         <v>PIPELINE</v>
       </c>
       <c r="K84" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>npm-run-all dev:* &amp;&amp; npm-run-all ops:*</v>
       </c>
       <c r="L84" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "PIPELINE": "npm-run-all dev:* &amp;&amp; npm-run-all ops:*",</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" s="2" t="str">
-        <f t="shared" ref="O84:O122" si="24">IF(ISBLANK(N84),CONCATENATE(" ",$O$3," ")," ")</f>
+        <f t="shared" ref="O84:O122" si="28">IF(ISBLANK(N84),CONCATENATE(" ",$O$3," ")," ")</f>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P84" t="s">
@@ -3258,28 +3261,28 @@
         <v>132</v>
       </c>
       <c r="J85" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>dev</v>
       </c>
       <c r="K85" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>npm-run-all dev:*</v>
       </c>
       <c r="L85" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "dev": "npm-run-all dev:*",</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2" t="str">
-        <f t="shared" ref="N85:N122" si="25">IF(ISBLANK(P85),"",IF(ISNUMBER(SEARCH(":*",P85)),$N$5,$N$3))</f>
+        <f t="shared" ref="N85:N122" si="29">IF(ISBLANK(P85),"",IF(ISNUMBER(SEARCH(":*",P85)),$N$5,$N$3))</f>
         <v>npm-run-all</v>
       </c>
       <c r="O85" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P85" t="str">
-        <f t="shared" ref="P85" si="26">CONCATENATE(IF(CODE(J85)-CODE("a")&lt;0,LOWER(LEFT(J85,IF(ISERR(FIND(":",J85)),LEN(J85)+1,FIND(":",J85))-1)),J85),":*")</f>
+        <f t="shared" ref="P85" si="30">CONCATENATE(IF(CODE(J85)-CODE("a")&lt;0,LOWER(LEFT(J85,IF(ISERR(FIND(":",J85)),LEN(J85)+1,FIND(":",J85))-1)),J85),":*")</f>
         <v>dev:*</v>
       </c>
     </row>
@@ -3300,24 +3303,24 @@
         <v>137</v>
       </c>
       <c r="J86" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>dev:plan-phase</v>
       </c>
       <c r="K86" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>npm-run-all dev:plan-phase:*</v>
       </c>
       <c r="L86" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "dev:plan-phase": "npm-run-all dev:plan-phase:*",</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>npm-run-all</v>
       </c>
       <c r="O86" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P86" t="str">
@@ -3336,28 +3339,28 @@
         <v>109</v>
       </c>
       <c r="J87" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>dev:plan-phase:plan</v>
       </c>
       <c r="K87" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>npm-run-all dev:plan-phase:plan:*</v>
       </c>
       <c r="L87" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "dev:plan-phase:plan": "npm-run-all dev:plan-phase:plan:*",</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>npm-run-all</v>
       </c>
       <c r="O87" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P87" t="str">
-        <f t="shared" ref="P87:P101" si="27">CONCATENATE(IF(CODE(J87)-CODE("a")&lt;0,LOWER(LEFT(J87,IF(ISERR(FIND(":",J87)),LEN(J87)+1,FIND(":",J87))-1)),J87),":*")</f>
+        <f t="shared" ref="P87:P101" si="31">CONCATENATE(IF(CODE(J87)-CODE("a")&lt;0,LOWER(LEFT(J87,IF(ISERR(FIND(":",J87)),LEN(J87)+1,FIND(":",J87))-1)),J87),":*")</f>
         <v>dev:plan-phase:plan:*</v>
       </c>
     </row>
@@ -3375,28 +3378,28 @@
         <v>11</v>
       </c>
       <c r="J88" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>dev:plan-phase:plan:report</v>
       </c>
       <c r="K88" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>npm-run-all dev:plan-phase:plan:report:action</v>
       </c>
       <c r="L88" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "dev:plan-phase:plan:report": "npm-run-all dev:plan-phase:plan:report:action",</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>npm-run-all</v>
       </c>
       <c r="O88" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P88" t="str">
-        <f t="shared" ref="P88:P90" si="28" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,J88,"action")</f>
+        <f t="shared" ref="P88:P90" si="32" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,J88,"action")</f>
         <v>dev:plan-phase:plan:report:action</v>
       </c>
     </row>
@@ -3414,28 +3417,28 @@
         <v>64</v>
       </c>
       <c r="J89" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>dev:plan-phase:update</v>
       </c>
       <c r="K89" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>npm-run-all dev:plan-phase:update:*</v>
       </c>
       <c r="L89" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "dev:plan-phase:update": "npm-run-all dev:plan-phase:update:*",</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>npm-run-all</v>
       </c>
       <c r="O89" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P89" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>dev:plan-phase:update:*</v>
       </c>
     </row>
@@ -3453,28 +3456,28 @@
         <v>11</v>
       </c>
       <c r="J90" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>dev:plan-phase:update:report</v>
       </c>
       <c r="K90" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>npm-run-all dev:plan-phase:update:report:action</v>
       </c>
       <c r="L90" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "dev:plan-phase:update:report": "npm-run-all dev:plan-phase:update:report:action",</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>npm-run-all</v>
       </c>
       <c r="O90" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P90" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>dev:plan-phase:update:report:action</v>
       </c>
     </row>
@@ -3495,28 +3498,28 @@
         <v>136</v>
       </c>
       <c r="J91" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>dev:code-phase</v>
       </c>
       <c r="K91" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>npm-run-all dev:code-phase:*</v>
       </c>
       <c r="L91" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "dev:code-phase": "npm-run-all dev:code-phase:*",</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>npm-run-all</v>
       </c>
       <c r="O91" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P91" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>dev:code-phase:*</v>
       </c>
     </row>
@@ -3531,28 +3534,28 @@
         <v>110</v>
       </c>
       <c r="J92" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>dev:code-phase:code</v>
       </c>
       <c r="K92" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>npm-run-all dev:code-phase:code:*</v>
       </c>
       <c r="L92" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "dev:code-phase:code": "npm-run-all dev:code-phase:code:*",</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>npm-run-all</v>
       </c>
       <c r="O92" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P92" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>dev:code-phase:code:*</v>
       </c>
     </row>
@@ -3570,28 +3573,28 @@
         <v>11</v>
       </c>
       <c r="J93" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>dev:code-phase:code:report</v>
       </c>
       <c r="K93" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>npm-run-all dev:code-phase:code:report:action</v>
       </c>
       <c r="L93" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "dev:code-phase:code:report": "npm-run-all dev:code-phase:code:report:action",</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>npm-run-all</v>
       </c>
       <c r="O93" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P93" t="str">
-        <f t="shared" ref="P93" si="29" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,J93,"action")</f>
+        <f t="shared" ref="P93" si="33" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,J93,"action")</f>
         <v>dev:code-phase:code:report:action</v>
       </c>
     </row>
@@ -3609,28 +3612,28 @@
         <v>135</v>
       </c>
       <c r="J94" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>dev:build-phase</v>
       </c>
       <c r="K94" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>npm-run-all dev:build-phase:*</v>
       </c>
       <c r="L94" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "dev:build-phase": "npm-run-all dev:build-phase:*",</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>npm-run-all</v>
       </c>
       <c r="O94" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P94" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>dev:build-phase:*</v>
       </c>
     </row>
@@ -3648,28 +3651,28 @@
         <v>5</v>
       </c>
       <c r="J95" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>dev:build-phase:install</v>
       </c>
       <c r="K95" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>npm-run-all dev:build-phase:install:*</v>
       </c>
       <c r="L95" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "dev:build-phase:install": "npm-run-all dev:build-phase:install:*",</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>npm-run-all</v>
       </c>
       <c r="O95" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P95" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>dev:build-phase:install:*</v>
       </c>
     </row>
@@ -3687,24 +3690,24 @@
         <v>34</v>
       </c>
       <c r="J96" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>dev:build-phase:install:prepare</v>
       </c>
       <c r="K96" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>:</v>
       </c>
       <c r="L96" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "dev:build-phase:install:prepare": ":",</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="O96" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -3722,28 +3725,28 @@
         <v>7</v>
       </c>
       <c r="J97" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>dev:build-phase:install:package</v>
       </c>
       <c r="K97" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>npm-run-all dev:build-phase:install:package:*</v>
       </c>
       <c r="L97" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "dev:build-phase:install:package": "npm-run-all dev:build-phase:install:package:*",</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>npm-run-all</v>
       </c>
       <c r="O97" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P97" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>dev:build-phase:install:package:*</v>
       </c>
     </row>
@@ -3764,24 +3767,24 @@
         <v>6</v>
       </c>
       <c r="J98" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>dev:build-phase:install:package:environment</v>
       </c>
       <c r="K98" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>:</v>
       </c>
       <c r="L98" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "dev:build-phase:install:package:environment": ":",</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="O98" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -3802,24 +3805,24 @@
         <v>7</v>
       </c>
       <c r="J99" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>dev:build-phase:install:package:package</v>
       </c>
       <c r="K99" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>:</v>
       </c>
       <c r="L99" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "dev:build-phase:install:package:package": ":",</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="O99" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -3837,28 +3840,28 @@
         <v>11</v>
       </c>
       <c r="J100" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>dev:build-phase:install:report</v>
       </c>
       <c r="K100" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>npm-run-all dev:build-phase:install:report:action</v>
       </c>
       <c r="L100" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "dev:build-phase:install:report": "npm-run-all dev:build-phase:install:report:action",</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>npm-run-all</v>
       </c>
       <c r="O100" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P100" t="str">
-        <f t="shared" ref="P100" si="30" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,J100,"action")</f>
+        <f t="shared" ref="P100" si="34" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,J100,"action")</f>
         <v>dev:build-phase:install:report:action</v>
       </c>
     </row>
@@ -3876,28 +3879,28 @@
         <v>1</v>
       </c>
       <c r="J101" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>dev:build-phase:build</v>
       </c>
       <c r="K101" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>npm-run-all dev:build-phase:build:*</v>
       </c>
       <c r="L101" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "dev:build-phase:build": "npm-run-all dev:build-phase:build:*",</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>npm-run-all</v>
       </c>
       <c r="O101" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P101" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>dev:build-phase:build:*</v>
       </c>
     </row>
@@ -3915,24 +3918,24 @@
         <v>7</v>
       </c>
       <c r="J102" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>dev:build-phase:build:package</v>
       </c>
       <c r="K102" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>npm-run-all dev:build-phase:build:package:action</v>
       </c>
       <c r="L102" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "dev:build-phase:build:package": "npm-run-all dev:build-phase:build:package:action",</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>npm-run-all</v>
       </c>
       <c r="O102" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P102" t="str">
@@ -3954,28 +3957,28 @@
         <v>11</v>
       </c>
       <c r="J103" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>dev:build-phase:build:report</v>
       </c>
       <c r="K103" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>npm-run-all dev:build-phase:build:report:action</v>
       </c>
       <c r="L103" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "dev:build-phase:build:report": "npm-run-all dev:build-phase:build:report:action",</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>npm-run-all</v>
       </c>
       <c r="O103" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P103" t="str">
-        <f t="shared" ref="P103" si="31" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,J103,"action")</f>
+        <f t="shared" ref="P103" si="35" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,J103,"action")</f>
         <v>dev:build-phase:build:report:action</v>
       </c>
     </row>
@@ -3996,28 +3999,28 @@
         <v>134</v>
       </c>
       <c r="J104" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>dev:test-phase</v>
       </c>
       <c r="K104" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>npm-run-all dev:test-phase:*</v>
       </c>
       <c r="L104" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "dev:test-phase": "npm-run-all dev:test-phase:*",</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>npm-run-all</v>
       </c>
       <c r="O104" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P104" t="str">
-        <f t="shared" ref="P104:P106" si="32">CONCATENATE(IF(CODE(J104)-CODE("a")&lt;0,LOWER(LEFT(J104,IF(ISERR(FIND(":",J104)),LEN(J104)+1,FIND(":",J104))-1)),J104),":*")</f>
+        <f t="shared" ref="P104:P106" si="36">CONCATENATE(IF(CODE(J104)-CODE("a")&lt;0,LOWER(LEFT(J104,IF(ISERR(FIND(":",J104)),LEN(J104)+1,FIND(":",J104))-1)),J104),":*")</f>
         <v>dev:test-phase:*</v>
       </c>
     </row>
@@ -4032,28 +4035,28 @@
         <v>2</v>
       </c>
       <c r="J105" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>dev:test-phase:test</v>
       </c>
       <c r="K105" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>npm-run-all dev:test-phase:test:*</v>
       </c>
       <c r="L105" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "dev:test-phase:test": "npm-run-all dev:test-phase:test:*",</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>npm-run-all</v>
       </c>
       <c r="O105" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P105" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>dev:test-phase:test:*</v>
       </c>
     </row>
@@ -4071,28 +4074,28 @@
         <v>7</v>
       </c>
       <c r="J106" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>dev:test-phase:test:package</v>
       </c>
       <c r="K106" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>npm-run-all dev:test-phase:test:package:*</v>
       </c>
       <c r="L106" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "dev:test-phase:test:package": "npm-run-all dev:test-phase:test:package:*",</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>npm-run-all</v>
       </c>
       <c r="O106" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P106" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>dev:test-phase:test:package:*</v>
       </c>
     </row>
@@ -4113,28 +4116,28 @@
         <v>8</v>
       </c>
       <c r="J107" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>dev:test-phase:test:package:vulnerability</v>
       </c>
       <c r="K107" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>npm-run-all dev:test-phase:test:package:vulnerability:action</v>
       </c>
       <c r="L107" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "dev:test-phase:test:package:vulnerability": "npm-run-all dev:test-phase:test:package:vulnerability:action",</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>npm-run-all</v>
       </c>
       <c r="O107" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P107" t="str">
-        <f t="shared" ref="P107" si="33" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,J107,"action")</f>
+        <f t="shared" ref="P107" si="37" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,J107,"action")</f>
         <v>dev:test-phase:test:package:vulnerability:action</v>
       </c>
     </row>
@@ -4155,28 +4158,28 @@
         <v>9</v>
       </c>
       <c r="J108" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>dev:test-phase:test:package:unit</v>
       </c>
       <c r="K108" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>npm-run-all dev:test-phase:test:package:unit:action</v>
       </c>
       <c r="L108" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "dev:test-phase:test:package:unit": "npm-run-all dev:test-phase:test:package:unit:action",</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>npm-run-all</v>
       </c>
       <c r="O108" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P108" t="str">
-        <f t="shared" ref="P108:P110" si="34" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,J108,"action")</f>
+        <f t="shared" ref="P108:P110" si="38" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,J108,"action")</f>
         <v>dev:test-phase:test:package:unit:action</v>
       </c>
     </row>
@@ -4197,28 +4200,28 @@
         <v>10</v>
       </c>
       <c r="J109" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>dev:test-phase:test:package:integration</v>
       </c>
       <c r="K109" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>npm-run-all dev:test-phase:test:package:integration:action</v>
       </c>
       <c r="L109" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "dev:test-phase:test:package:integration": "npm-run-all dev:test-phase:test:package:integration:action",</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>npm-run-all</v>
       </c>
       <c r="O109" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P109" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>dev:test-phase:test:package:integration:action</v>
       </c>
     </row>
@@ -4236,28 +4239,28 @@
         <v>95</v>
       </c>
       <c r="J110" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>dev:test-phase:test:measure</v>
       </c>
       <c r="K110" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>npm-run-all dev:test-phase:test:measure:action</v>
       </c>
       <c r="L110" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "dev:test-phase:test:measure": "npm-run-all dev:test-phase:test:measure:action",</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>npm-run-all</v>
       </c>
       <c r="O110" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P110" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>dev:test-phase:test:measure:action</v>
       </c>
     </row>
@@ -4275,24 +4278,24 @@
         <v>11</v>
       </c>
       <c r="J111" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>dev:test-phase:test:report</v>
       </c>
       <c r="K111" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>:</v>
       </c>
       <c r="L111" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "dev:test-phase:test:report": ":",</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="O111" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -4310,24 +4313,24 @@
         <v>16</v>
       </c>
       <c r="J112" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>dev:test-phase:codecover</v>
       </c>
       <c r="K112" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>:</v>
       </c>
       <c r="L112" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "dev:test-phase:codecover": ":",</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="O112" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -4345,28 +4348,28 @@
         <v>7</v>
       </c>
       <c r="J113" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>dev:test-phase:codecover:package</v>
       </c>
       <c r="K113" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>npm-run-all dev:test-phase:codecover:package:action</v>
       </c>
       <c r="L113" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "dev:test-phase:codecover:package": "npm-run-all dev:test-phase:codecover:package:action",</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>npm-run-all</v>
       </c>
       <c r="O113" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P113" t="str">
-        <f t="shared" ref="P113" si="35" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,J113,"action")</f>
+        <f t="shared" ref="P113" si="39" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,J113,"action")</f>
         <v>dev:test-phase:codecover:package:action</v>
       </c>
     </row>
@@ -4384,24 +4387,24 @@
         <v>11</v>
       </c>
       <c r="J114" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>dev:test-phase:codecover:report</v>
       </c>
       <c r="K114" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>:</v>
       </c>
       <c r="L114" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "dev:test-phase:codecover:report": ":",</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="O114" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -4419,28 +4422,28 @@
         <v>3</v>
       </c>
       <c r="J115" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>dev:test-phase:document</v>
       </c>
       <c r="K115" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>npm-run-all dev:test-phase:document:*</v>
       </c>
       <c r="L115" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "dev:test-phase:document": "npm-run-all dev:test-phase:document:*",</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>npm-run-all</v>
       </c>
       <c r="O115" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P115" t="str">
-        <f t="shared" ref="P115" si="36">CONCATENATE(IF(CODE(J115)-CODE("a")&lt;0,LOWER(LEFT(J115,IF(ISERR(FIND(":",J115)),LEN(J115)+1,FIND(":",J115))-1)),J115),":*")</f>
+        <f t="shared" ref="P115" si="40">CONCATENATE(IF(CODE(J115)-CODE("a")&lt;0,LOWER(LEFT(J115,IF(ISERR(FIND(":",J115)),LEN(J115)+1,FIND(":",J115))-1)),J115),":*")</f>
         <v>dev:test-phase:document:*</v>
       </c>
     </row>
@@ -4458,28 +4461,28 @@
         <v>7</v>
       </c>
       <c r="J116" s="1" t="str">
-        <f t="shared" ref="J116:J147" si="37" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,E116:I116)</f>
+        <f t="shared" ref="J116:J147" si="41" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,E116:I116)</f>
         <v>dev:test-phase:document:package</v>
       </c>
       <c r="K116" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>npm-run-all dev:test-phase:document:package:action</v>
       </c>
       <c r="L116" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "dev:test-phase:document:package": "npm-run-all dev:test-phase:document:package:action",</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>npm-run-all</v>
       </c>
       <c r="O116" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P116" t="str">
-        <f t="shared" ref="P116" si="38" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,J116,"action")</f>
+        <f t="shared" ref="P116" si="42" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,J116,"action")</f>
         <v>dev:test-phase:document:package:action</v>
       </c>
     </row>
@@ -4497,24 +4500,24 @@
         <v>11</v>
       </c>
       <c r="J117" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>dev:test-phase:document:report</v>
       </c>
       <c r="K117" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>:</v>
       </c>
       <c r="L117" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "dev:test-phase:document:report": ":",</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="O117" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -4532,28 +4535,28 @@
         <v>23</v>
       </c>
       <c r="J118" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>dev:test-phase:integrate</v>
       </c>
       <c r="K118" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>npm-run-all dev:test-phase:integrate:*</v>
       </c>
       <c r="L118" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "dev:test-phase:integrate": "npm-run-all dev:test-phase:integrate:*",</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>npm-run-all</v>
       </c>
       <c r="O118" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P118" t="str">
-        <f t="shared" ref="P118" si="39">CONCATENATE(IF(CODE(J118)-CODE("a")&lt;0,LOWER(LEFT(J118,IF(ISERR(FIND(":",J118)),LEN(J118)+1,FIND(":",J118))-1)),J118),":*")</f>
+        <f t="shared" ref="P118" si="43">CONCATENATE(IF(CODE(J118)-CODE("a")&lt;0,LOWER(LEFT(J118,IF(ISERR(FIND(":",J118)),LEN(J118)+1,FIND(":",J118))-1)),J118),":*")</f>
         <v>dev:test-phase:integrate:*</v>
       </c>
     </row>
@@ -4571,28 +4574,28 @@
         <v>7</v>
       </c>
       <c r="J119" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>dev:test-phase:integrate:package</v>
       </c>
       <c r="K119" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>npm-run-all dev:test-phase:integrate:package:action</v>
       </c>
       <c r="L119" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "dev:test-phase:integrate:package": "npm-run-all dev:test-phase:integrate:package:action",</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>npm-run-all</v>
       </c>
       <c r="O119" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P119" t="str">
-        <f t="shared" ref="P119" si="40" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,J119,"action")</f>
+        <f t="shared" ref="P119" si="44" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,J119,"action")</f>
         <v>dev:test-phase:integrate:package:action</v>
       </c>
     </row>
@@ -4610,24 +4613,24 @@
         <v>93</v>
       </c>
       <c r="J120" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>dev:test-phase:integrate:copy</v>
       </c>
       <c r="K120" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>:</v>
       </c>
       <c r="L120" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "dev:test-phase:integrate:copy": ":",</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="O120" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -4645,24 +4648,24 @@
         <v>2</v>
       </c>
       <c r="J121" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>dev:test-phase:integrate:test</v>
       </c>
       <c r="K121" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>:</v>
       </c>
       <c r="L121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "dev:test-phase:integrate:test": ":",</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="O121" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -4680,24 +4683,24 @@
         <v>11</v>
       </c>
       <c r="J122" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>dev:test-phase:integrate:report</v>
       </c>
       <c r="K122" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>:</v>
       </c>
       <c r="L122" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "dev:test-phase:integrate:report": ":",</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="O122" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -4706,24 +4709,24 @@
         <v>131</v>
       </c>
       <c r="J123" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>ops</v>
       </c>
       <c r="K123" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>npm-run-all ops:*</v>
       </c>
       <c r="L123" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "ops": "npm-run-all ops:*",</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2" t="str">
-        <f t="shared" ref="N123:N124" si="41">IF(ISBLANK(P123),"",IF(ISNUMBER(SEARCH(":*",P123)),$N$5,$N$3))</f>
+        <f t="shared" ref="N123:N124" si="45">IF(ISBLANK(P123),"",IF(ISNUMBER(SEARCH(":*",P123)),$N$5,$N$3))</f>
         <v>npm-run-all</v>
       </c>
       <c r="O123" s="2" t="str">
-        <f t="shared" ref="O123" si="42">IF(ISBLANK(N123),CONCATENATE(" ",$O$3," ")," ")</f>
+        <f t="shared" ref="O123" si="46">IF(ISBLANK(N123),CONCATENATE(" ",$O$3," ")," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P123" t="str">
@@ -4748,24 +4751,24 @@
         <v>104</v>
       </c>
       <c r="J124" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>ops:release</v>
       </c>
       <c r="K124" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>npm-run-all ops:release:*</v>
       </c>
       <c r="L124" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "ops:release": "npm-run-all ops:release:*",</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>npm-run-all</v>
       </c>
       <c r="O124" s="2" t="str">
-        <f t="shared" ref="O124" si="43">IF(ISBLANK(N124),CONCATENATE(" ",$O$3," ")," ")</f>
+        <f t="shared" ref="O124" si="47">IF(ISBLANK(N124),CONCATENATE(" ",$O$3," ")," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P124" t="str">
@@ -4784,24 +4787,24 @@
         <v>7</v>
       </c>
       <c r="J125" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>ops:release:package</v>
       </c>
       <c r="K125" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>:</v>
       </c>
       <c r="L125" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "ops:release:package": ":",</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" s="2" t="str">
-        <f t="shared" ref="N125:N147" si="44">IF(ISBLANK(P125),"",IF(ISNUMBER(SEARCH(":*",P125)),$N$5,$N$3))</f>
+        <f t="shared" ref="N125:N147" si="48">IF(ISBLANK(P125),"",IF(ISNUMBER(SEARCH(":*",P125)),$N$5,$N$3))</f>
         <v/>
       </c>
       <c r="O125" s="2" t="str">
-        <f t="shared" ref="O125:O141" si="45">IF(ISBLANK(N125),CONCATENATE(" ",$O$3," ")," ")</f>
+        <f t="shared" ref="O125:O141" si="49">IF(ISBLANK(N125),CONCATENATE(" ",$O$3," ")," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -4816,24 +4819,24 @@
         <v>93</v>
       </c>
       <c r="J126" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>ops:release:copy</v>
       </c>
       <c r="K126" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>:</v>
       </c>
       <c r="L126" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "ops:release:copy": ":",</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="O126" s="2" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -4848,24 +4851,24 @@
         <v>11</v>
       </c>
       <c r="J127" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>ops:release:report</v>
       </c>
       <c r="K127" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>:</v>
       </c>
       <c r="L127" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "ops:release:report": ":",</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="O127" s="2" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -4886,28 +4889,28 @@
         <v>4</v>
       </c>
       <c r="J128" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>ops:deploy</v>
       </c>
       <c r="K128" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>npm-run-all ops:deploy:*</v>
       </c>
       <c r="L128" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">    "ops:deploy": "npm-run-all ops:deploy:*",</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>npm-run-all</v>
       </c>
       <c r="O128" s="2" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P128" t="str">
-        <f t="shared" ref="P128:P130" si="46">CONCATENATE(IF(CODE(J128)-CODE("a")&lt;0,LOWER(LEFT(J128,IF(ISERR(FIND(":",J128)),LEN(J128)+1,FIND(":",J128))-1)),J128),":*")</f>
+        <f t="shared" ref="P128:P130" si="50">CONCATENATE(IF(CODE(J128)-CODE("a")&lt;0,LOWER(LEFT(J128,IF(ISERR(FIND(":",J128)),LEN(J128)+1,FIND(":",J128))-1)),J128),":*")</f>
         <v>ops:deploy:*</v>
       </c>
     </row>
@@ -4922,11 +4925,11 @@
         <v>7</v>
       </c>
       <c r="J129" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>ops:deploy:package</v>
       </c>
       <c r="K129" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>npm-run-all ops:deploy:package:*</v>
       </c>
       <c r="L129" t="str">
@@ -4937,15 +4940,15 @@
         <v>1</v>
       </c>
       <c r="N129" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>npm-run-all</v>
       </c>
       <c r="O129" s="2" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P129" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>ops:deploy:package:*</v>
       </c>
     </row>
@@ -4963,28 +4966,28 @@
         <v>77</v>
       </c>
       <c r="J130" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>ops:deploy:package:dockerize</v>
       </c>
       <c r="K130" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>npm-run-all ops:deploy:package:dockerize:*</v>
       </c>
       <c r="L130" t="str">
-        <f t="shared" ref="L130:L151" si="47">IF(ISBLANK(J130),"",CONCATENATE("    """,J130,""": ",IF(M130,"""echo ",""""),K130,""","))</f>
+        <f t="shared" ref="L130:L151" si="51">IF(ISBLANK(J130),"",CONCATENATE("    """,J130,""": ",IF(M130,"""echo ",""""),K130,""","))</f>
         <v xml:space="preserve">    "ops:deploy:package:dockerize": "npm-run-all ops:deploy:package:dockerize:*",</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>npm-run-all</v>
       </c>
       <c r="O130" s="2" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P130" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>ops:deploy:package:dockerize:*</v>
       </c>
     </row>
@@ -5005,24 +5008,24 @@
         <v>1</v>
       </c>
       <c r="J131" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>ops:deploy:package:dockerize:build</v>
       </c>
       <c r="K131" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>npm-run-all ops:deploy:package:dockerize:build:action</v>
       </c>
       <c r="L131" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v xml:space="preserve">    "ops:deploy:package:dockerize:build": "npm-run-all ops:deploy:package:dockerize:build:action",</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>npm-run-all</v>
       </c>
       <c r="O131" s="2" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P131" t="str">
@@ -5047,24 +5050,24 @@
         <v>87</v>
       </c>
       <c r="J132" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>ops:deploy:package:dockerize:push</v>
       </c>
       <c r="K132" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>npm-run-all ops:deploy:package:dockerize:push:action</v>
       </c>
       <c r="L132" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v xml:space="preserve">    "ops:deploy:package:dockerize:push": "npm-run-all ops:deploy:package:dockerize:push:action",</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>npm-run-all</v>
       </c>
       <c r="O132" s="2" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P132" t="str">
@@ -5086,24 +5089,24 @@
         <v>86</v>
       </c>
       <c r="J133" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>ops:deploy:package:provision</v>
       </c>
       <c r="K133" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>npm-run-all ops:deploy:package:provision:action</v>
       </c>
       <c r="L133" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v xml:space="preserve">    "ops:deploy:package:provision": "npm-run-all ops:deploy:package:provision:action",</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>npm-run-all</v>
       </c>
       <c r="O133" s="2" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P133" t="str">
@@ -5125,24 +5128,24 @@
         <v>116</v>
       </c>
       <c r="J134" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>ops:deploy:package:orchestrate</v>
       </c>
       <c r="K134" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>:</v>
       </c>
       <c r="L134" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v xml:space="preserve">    "ops:deploy:package:orchestrate": ":",</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="O134" s="2" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -5157,24 +5160,24 @@
         <v>11</v>
       </c>
       <c r="J135" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>ops:deploy:report</v>
       </c>
       <c r="K135" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>:</v>
       </c>
       <c r="L135" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v xml:space="preserve">    "ops:deploy:report": ":",</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="O135" s="2" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -5195,28 +5198,28 @@
         <v>12</v>
       </c>
       <c r="J136" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>ops:run</v>
       </c>
       <c r="K136" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>npm-run-all ops:run:*</v>
       </c>
       <c r="L136" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v xml:space="preserve">    "ops:run": "npm-run-all ops:run:*",</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>npm-run-all</v>
       </c>
       <c r="O136" s="2" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P136" t="str">
-        <f t="shared" ref="P136" si="48">CONCATENATE(IF(CODE(J136)-CODE("a")&lt;0,LOWER(LEFT(J136,IF(ISERR(FIND(":",J136)),LEN(J136)+1,FIND(":",J136))-1)),J136),":*")</f>
+        <f t="shared" ref="P136" si="52">CONCATENATE(IF(CODE(J136)-CODE("a")&lt;0,LOWER(LEFT(J136,IF(ISERR(FIND(":",J136)),LEN(J136)+1,FIND(":",J136))-1)),J136),":*")</f>
         <v>ops:run:*</v>
       </c>
     </row>
@@ -5231,24 +5234,24 @@
         <v>33</v>
       </c>
       <c r="J137" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>ops:run:platform</v>
       </c>
       <c r="K137" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>npm-run-all ops:run:platform:action</v>
       </c>
       <c r="L137" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v xml:space="preserve">    "ops:run:platform": "npm-run-all ops:run:platform:action",</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>npm-run-all</v>
       </c>
       <c r="O137" s="2" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P137" t="str">
@@ -5267,24 +5270,24 @@
         <v>7</v>
       </c>
       <c r="J138" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>ops:run:package</v>
       </c>
       <c r="K138" t="str">
-        <f t="shared" ref="K138:K150" si="49" xml:space="preserve"> IF(NOT(COUNTA(P138:V138)),":",_xlfn.TEXTJOIN(O138,TRUE,N138,_xlfn.TEXTJOIN(O138,TRUE,P138:V138)))</f>
+        <f t="shared" ref="K138:K150" si="53" xml:space="preserve"> IF(NOT(COUNTA(P138:V138)),":",_xlfn.TEXTJOIN(O138,TRUE,N138,_xlfn.TEXTJOIN(O138,TRUE,P138:V138)))</f>
         <v>:</v>
       </c>
       <c r="L138" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v xml:space="preserve">    "ops:run:package": ":",</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="O138" s="2" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -5299,24 +5302,24 @@
         <v>115</v>
       </c>
       <c r="J139" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>ops:run:chaos</v>
       </c>
       <c r="K139" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>:</v>
       </c>
       <c r="L139" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v xml:space="preserve">    "ops:run:chaos": ":",</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="O139" s="2" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -5331,24 +5334,24 @@
         <v>11</v>
       </c>
       <c r="J140" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>ops:run:report</v>
       </c>
       <c r="K140" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>:</v>
       </c>
       <c r="L140" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v xml:space="preserve">    "ops:run:report": ":",</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="O140" s="2" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -5369,28 +5372,28 @@
         <v>105</v>
       </c>
       <c r="J141" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>ops:monitor</v>
       </c>
       <c r="K141" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>npm-run-all ops:monitor:*</v>
       </c>
       <c r="L141" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v xml:space="preserve">    "ops:monitor": "npm-run-all ops:monitor:*",</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>npm-run-all</v>
       </c>
       <c r="O141" s="2" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P141" t="str">
-        <f t="shared" ref="P141:P144" si="50">CONCATENATE(IF(CODE(J141)-CODE("a")&lt;0,LOWER(LEFT(J141,IF(ISERR(FIND(":",J141)),LEN(J141)+1,FIND(":",J141))-1)),J141),":*")</f>
+        <f t="shared" ref="P141:P144" si="54">CONCATENATE(IF(CODE(J141)-CODE("a")&lt;0,LOWER(LEFT(J141,IF(ISERR(FIND(":",J141)),LEN(J141)+1,FIND(":",J141))-1)),J141),":*")</f>
         <v>ops:monitor:*</v>
       </c>
     </row>
@@ -5405,24 +5408,24 @@
         <v>33</v>
       </c>
       <c r="J142" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>ops:monitor:platform</v>
       </c>
       <c r="K142" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>:</v>
       </c>
       <c r="L142" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v xml:space="preserve">    "ops:monitor:platform": ":",</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="O142" s="2" t="str">
-        <f t="shared" ref="O142" si="51">IF(ISBLANK(N142),CONCATENATE(" ",$O$3," ")," ")</f>
+        <f t="shared" ref="O142" si="55">IF(ISBLANK(N142),CONCATENATE(" ",$O$3," ")," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -5437,28 +5440,28 @@
         <v>7</v>
       </c>
       <c r="J143" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>ops:monitor:package</v>
       </c>
       <c r="K143" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>npm-run-all ops:monitor:package:*</v>
       </c>
       <c r="L143" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v xml:space="preserve">    "ops:monitor:package": "npm-run-all ops:monitor:package:*",</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>npm-run-all</v>
       </c>
       <c r="O143" s="2" t="str">
-        <f t="shared" ref="O143" si="52">IF(ISBLANK(N143),CONCATENATE(" ",$O$3," ")," ")</f>
+        <f t="shared" ref="O143" si="56">IF(ISBLANK(N143),CONCATENATE(" ",$O$3," ")," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P143" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>ops:monitor:package:*</v>
       </c>
     </row>
@@ -5476,28 +5479,28 @@
         <v>117</v>
       </c>
       <c r="J144" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>ops:monitor:package:trail</v>
       </c>
       <c r="K144" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>npm-run-all ops:monitor:package:trail:*</v>
       </c>
       <c r="L144" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v xml:space="preserve">    "ops:monitor:package:trail": "npm-run-all ops:monitor:package:trail:*",</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>npm-run-all</v>
       </c>
       <c r="O144" s="2" t="str">
-        <f t="shared" ref="O144" si="53">IF(ISBLANK(N144),CONCATENATE(" ",$O$3," ")," ")</f>
+        <f t="shared" ref="O144" si="57">IF(ISBLANK(N144),CONCATENATE(" ",$O$3," ")," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P144" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>ops:monitor:package:trail:*</v>
       </c>
     </row>
@@ -5518,24 +5521,24 @@
         <v>111</v>
       </c>
       <c r="J145" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>ops:monitor:package:trail:health</v>
       </c>
       <c r="K145" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>:</v>
       </c>
       <c r="L145" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v xml:space="preserve">    "ops:monitor:package:trail:health": ":",</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="O145" s="2" t="str">
-        <f t="shared" ref="O145" si="54">IF(ISBLANK(N145),CONCATENATE(" ",$O$3," ")," ")</f>
+        <f t="shared" ref="O145" si="58">IF(ISBLANK(N145),CONCATENATE(" ",$O$3," ")," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -5556,24 +5559,24 @@
         <v>112</v>
       </c>
       <c r="J146" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>ops:monitor:package:trail:performance</v>
       </c>
       <c r="K146" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>:</v>
       </c>
       <c r="L146" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v xml:space="preserve">    "ops:monitor:package:trail:performance": ":",</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="O146" s="2" t="str">
-        <f t="shared" ref="O146" si="55">IF(ISBLANK(N146),CONCATENATE(" ",$O$3," ")," ")</f>
+        <f t="shared" ref="O146" si="59">IF(ISBLANK(N146),CONCATENATE(" ",$O$3," ")," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -5594,24 +5597,24 @@
         <v>113</v>
       </c>
       <c r="J147" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>ops:monitor:package:trail:resilience</v>
       </c>
       <c r="K147" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>:</v>
       </c>
       <c r="L147" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v xml:space="preserve">    "ops:monitor:package:trail:resilience": ":",</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="O147" s="2" t="str">
-        <f t="shared" ref="O147" si="56">IF(ISBLANK(N147),CONCATENATE(" ",$O$3," ")," ")</f>
+        <f t="shared" ref="O147" si="60">IF(ISBLANK(N147),CONCATENATE(" ",$O$3," ")," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -5632,24 +5635,24 @@
         <v>114</v>
       </c>
       <c r="J148" s="1" t="str">
-        <f t="shared" ref="J148:J150" si="57" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,E148:I148)</f>
+        <f t="shared" ref="J148:J150" si="61" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,E148:I148)</f>
         <v>ops:monitor:package:trail:security</v>
       </c>
       <c r="K148" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>:</v>
       </c>
       <c r="L148" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v xml:space="preserve">    "ops:monitor:package:trail:security": ":",</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" s="2" t="str">
-        <f t="shared" ref="N148:N150" si="58">IF(ISBLANK(P148),"",IF(ISNUMBER(SEARCH(":*",P148)),$N$5,$N$3))</f>
+        <f t="shared" ref="N148:N150" si="62">IF(ISBLANK(P148),"",IF(ISNUMBER(SEARCH(":*",P148)),$N$5,$N$3))</f>
         <v/>
       </c>
       <c r="O148" s="2" t="str">
-        <f t="shared" ref="O148" si="59">IF(ISBLANK(N148),CONCATENATE(" ",$O$3," ")," ")</f>
+        <f t="shared" ref="O148" si="63">IF(ISBLANK(N148),CONCATENATE(" ",$O$3," ")," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -5667,20 +5670,20 @@
         <v>118</v>
       </c>
       <c r="J149" s="1" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>ops:monitor:package:showcase</v>
       </c>
       <c r="K149" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>:</v>
       </c>
       <c r="L149" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v xml:space="preserve">    "ops:monitor:package:showcase": ":",</v>
       </c>
       <c r="M149" s="2"/>
       <c r="N149" s="2" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="O149" s="2" t="str">
@@ -5699,20 +5702,20 @@
         <v>11</v>
       </c>
       <c r="J150" s="1" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>ops:monitor:report</v>
       </c>
       <c r="K150" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>npm-run-all ops:monitor:report:action</v>
       </c>
       <c r="L150" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v xml:space="preserve">    "ops:monitor:report": "npm-run-all ops:monitor:report:action",</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" s="2" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>npm-run-all</v>
       </c>
       <c r="O150" s="2" t="str">
@@ -5726,7 +5729,7 @@
     </row>
     <row r="151" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L151" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
     </row>
@@ -5744,75 +5747,75 @@
         <v>39</v>
       </c>
       <c r="E153">
-        <f>COUNTA(E9:E151)</f>
+        <f t="shared" ref="E153:V153" si="64">COUNTA(E9:E151)</f>
         <v>67</v>
       </c>
       <c r="F153">
-        <f>COUNTA(F9:F151)</f>
+        <f t="shared" si="64"/>
         <v>65</v>
       </c>
       <c r="G153">
-        <f>COUNTA(G9:G151)</f>
+        <f t="shared" si="64"/>
         <v>116</v>
       </c>
       <c r="H153">
-        <f>COUNTA(H9:H151)</f>
+        <f t="shared" si="64"/>
         <v>54</v>
       </c>
       <c r="I153">
-        <f>COUNTA(I9:I151)</f>
+        <f t="shared" si="64"/>
         <v>11</v>
       </c>
       <c r="J153" s="1">
-        <f>COUNTA(J9:J151)</f>
+        <f t="shared" si="64"/>
         <v>130</v>
       </c>
       <c r="K153">
-        <f>COUNTA(K9:K151)</f>
+        <f t="shared" si="64"/>
         <v>142</v>
       </c>
       <c r="L153">
-        <f>COUNTA(L9:L151)</f>
+        <f t="shared" si="64"/>
         <v>141</v>
       </c>
       <c r="M153">
-        <f>COUNTA(M9:M151)</f>
+        <f t="shared" si="64"/>
         <v>2</v>
       </c>
       <c r="N153">
-        <f>COUNTA(N9:N151)</f>
-        <v>89</v>
+        <f t="shared" si="64"/>
+        <v>90</v>
       </c>
       <c r="O153">
-        <f>COUNTA(O9:O151)</f>
+        <f t="shared" si="64"/>
         <v>142</v>
       </c>
       <c r="P153">
-        <f>COUNTA(P9:P151)</f>
+        <f t="shared" si="64"/>
         <v>102</v>
       </c>
       <c r="Q153">
-        <f>COUNTA(Q9:Q151)</f>
+        <f t="shared" si="64"/>
         <v>9</v>
       </c>
       <c r="R153">
-        <f>COUNTA(R9:R151)</f>
+        <f t="shared" si="64"/>
         <v>3</v>
       </c>
       <c r="S153">
-        <f>COUNTA(S9:S151)</f>
+        <f t="shared" si="64"/>
         <v>2</v>
       </c>
       <c r="T153">
-        <f>COUNTA(T9:T151)</f>
+        <f t="shared" si="64"/>
         <v>2</v>
       </c>
       <c r="U153">
-        <f>COUNTA(U9:U151)</f>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="V153">
-        <f>COUNTA(V9:V151)</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
     </row>

--- a/pipeline.xlsx
+++ b/pipeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorich\AppData\Local\Packages\C27EB4BA.DROPBOX_xbfy0k16fey96\LocalState\users\85455724\FilesCache\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4642E1-C771-4C4E-980B-778AB1D34319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E8E7E7-0691-49F6-A21D-E62C8A5857D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="10845" xr2:uid="{85A6193D-6764-4870-9E6C-E861DF98152E}"/>
   </bookViews>
@@ -573,18 +573,12 @@
     <t>git push heroku master</t>
   </si>
   <si>
-    <t>if [ ! \"$TRAVIS\" ] &amp;&amp; [ ! \"$HEROKU\" ] ; then env singleRun=true ng test --code-coverage ; fi</t>
-  </si>
-  <si>
     <t>if [ ! \"$TRAVIS\" ] &amp;&amp; [ ! \"$HEROKU\" ] ; then ng test --code-coverage ; fi</t>
   </si>
   <si>
     <t>if [ ! \"$HEROKU\" ] ; then ng e2e ; fi</t>
   </si>
   <si>
-    <t>if [ ! \"$TRAVIS\" ] &amp;&amp; [ ! \"$HEROKU\" ] ; then cp -r coverage dist/coverage/ ; fi</t>
-  </si>
-  <si>
     <t>if [ ! \"$HEROKU\" ] ; then curl https://cv-generator-fe.herokuapp.com/Webpage ; fi</t>
   </si>
   <si>
@@ -664,6 +658,12 @@
   </si>
   <si>
     <t>if test \"$HEROKU\" ; then npm run heroku-config | grep -v _TOKEN ; fi</t>
+  </si>
+  <si>
+    <t>env singleRun=true ng test --code-coverage</t>
+  </si>
+  <si>
+    <t>cp -r coverage dist/coverage/</t>
   </si>
 </sst>
 </file>
@@ -1037,10 +1037,10 @@
   <dimension ref="A1:V170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="9" ySplit="7" topLeftCell="K17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="7" topLeftCell="J131" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="K24" sqref="K24"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K8:K168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,7 +1106,7 @@
         <v>101</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>129</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="N3" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1195,7 +1195,7 @@
         <v>:</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" ref="K8:K23" si="2">IF(ISBLANK(I8),"",CONCATENATE("    """,I8,""": ",IF(M8,"""echo ",""""),IF(LEN(J8)&gt;1,CONCATENATE(IF(L8,"",N$3)," "),""),J8,""","))</f>
+        <f t="shared" ref="K8" si="2">IF(ISBLANK(I8),"",CONCATENATE("    """,I8,""": ","""",IF(LEN(J8)&gt;1,CONCATENATE(IF(L8,"",CONCATENATE(N$3," ")),""),""),IF(M8,"echo ",""),J8,""","))</f>
         <v xml:space="preserve">    "// TOOLS": ":",</v>
       </c>
       <c r="L8" s="2"/>
@@ -1219,10 +1219,12 @@
         <v>ng</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    "ng": "date &amp;&amp; time ng",</v>
-      </c>
-      <c r="L9" s="2"/>
+        <f>IF(ISBLANK(I9),"",CONCATENATE("    """,I9,""": ","""",IF(LEN(J9)&gt;1,CONCATENATE(IF(L9,"",CONCATENATE(N$3," ")),""),""),IF(M9,"echo ",""),J9,""","))</f>
+        <v xml:space="preserve">    "ng": "ng",</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2" t="str">
@@ -1246,7 +1248,7 @@
         <v>ng version &amp;&amp; echo Node, NPM and NVM version: &amp;&amp; node -v &amp;&amp; npm -v &amp;&amp; nvm v</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="K10:K73" si="3">IF(ISBLANK(I10),"",CONCATENATE("    """,I10,""": ","""",IF(LEN(J10)&gt;1,CONCATENATE(IF(L10,"",CONCATENATE(N$3," ")),""),""),IF(M10,"echo ",""),J10,""","))</f>
         <v xml:space="preserve">    "ver": "date &amp;&amp; time ng version &amp;&amp; echo Node, NPM and NVM version: &amp;&amp; node -v &amp;&amp; npm -v &amp;&amp; nvm v",</v>
       </c>
       <c r="L10" s="2"/>
@@ -1274,7 +1276,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1285,7 +1287,7 @@
         <v>heroku config</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">    "heroku-config": "date &amp;&amp; time heroku config",</v>
       </c>
       <c r="L11" s="2"/>
@@ -1296,7 +1298,7 @@
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -1307,21 +1309,23 @@
         <v>174</v>
       </c>
       <c r="I12" s="1" t="str">
-        <f t="shared" ref="I12:I18" si="3" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D12:H12)</f>
+        <f t="shared" ref="I12:I18" si="4" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D12:H12)</f>
         <v>build:plain</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" ref="J12:J18" si="4" xml:space="preserve"> IF(NOT(COUNTA(P12:V12)),":",_xlfn.TEXTJOIN(O12,TRUE,N12,_xlfn.TEXTJOIN(O12,TRUE,P12:V12)))</f>
+        <f t="shared" ref="J12:J18" si="5" xml:space="preserve"> IF(NOT(COUNTA(P12:V12)),":",_xlfn.TEXTJOIN(O12,TRUE,N12,_xlfn.TEXTJOIN(O12,TRUE,P12:V12)))</f>
         <v>npm-run-all build</v>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    "build:plain": "date &amp;&amp; time npm-run-all build",</v>
-      </c>
-      <c r="L12" s="2"/>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">    "build:plain": "npm-run-all build",</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2" t="str">
-        <f t="shared" ref="N12:N18" si="5">IF(ISBLANK(P12),"",$N$6)</f>
+        <f t="shared" ref="N12:N18" si="6">IF(ISBLANK(P12),"",$N$6)</f>
         <v>npm-run-all</v>
       </c>
       <c r="O12" s="2" t="str">
@@ -1340,21 +1344,21 @@
         <v>170</v>
       </c>
       <c r="I13" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>build:full</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="5"/>
+        <v>npm-run-all dev:build-phase</v>
+      </c>
+      <c r="K13" t="str">
         <f t="shared" si="3"/>
-        <v>build:full</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="4"/>
-        <v>npm-run-all dev:build-phase</v>
-      </c>
-      <c r="K13" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve">    "build:full": "date &amp;&amp; time npm-run-all dev:build-phase",</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>npm-run-all</v>
       </c>
       <c r="O13" s="2" t="str">
@@ -1377,17 +1381,19 @@
         <v>npm run</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>npm-run-all test</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    "npm run": "date &amp;&amp; time npm-run-all test",</v>
-      </c>
-      <c r="L14" s="2"/>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">    "npm run": "npm-run-all test",</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1</v>
+      </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>npm-run-all</v>
       </c>
       <c r="O14" s="2" t="str">
@@ -1406,21 +1412,21 @@
         <v>170</v>
       </c>
       <c r="I15" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>test:full</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="5"/>
+        <v>npm-run-all dev:test-phase</v>
+      </c>
+      <c r="K15" t="str">
         <f t="shared" si="3"/>
-        <v>test:full</v>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" si="4"/>
-        <v>npm-run-all dev:test-phase</v>
-      </c>
-      <c r="K15" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve">    "test:full": "date &amp;&amp; time npm-run-all dev:test-phase",</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>npm-run-all</v>
       </c>
       <c r="O15" s="2" t="str">
@@ -1439,21 +1445,23 @@
         <v>174</v>
       </c>
       <c r="I16" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>start:plain</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="5"/>
+        <v>npm-run-all start</v>
+      </c>
+      <c r="K16" t="str">
         <f t="shared" si="3"/>
-        <v>start:plain</v>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" si="4"/>
-        <v>npm-run-all start</v>
-      </c>
-      <c r="K16" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    "start:plain": "date &amp;&amp; time npm-run-all start",</v>
-      </c>
-      <c r="L16" s="2"/>
+        <v xml:space="preserve">    "start:plain": "npm-run-all start",</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1</v>
+      </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>npm-run-all</v>
       </c>
       <c r="O16" s="2" t="str">
@@ -1472,21 +1480,21 @@
         <v>170</v>
       </c>
       <c r="I17" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>start:full</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="5"/>
+        <v>npm-run-all ops:run</v>
+      </c>
+      <c r="K17" t="str">
         <f t="shared" si="3"/>
-        <v>start:full</v>
-      </c>
-      <c r="J17" t="str">
-        <f t="shared" si="4"/>
-        <v>npm-run-all ops:run</v>
-      </c>
-      <c r="K17" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve">    "start:full": "date &amp;&amp; time npm-run-all ops:run",</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>npm-run-all</v>
       </c>
       <c r="O17" s="2" t="str">
@@ -1502,21 +1510,21 @@
         <v>130</v>
       </c>
       <c r="I18" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>START-PIPELINE</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="5"/>
+        <v>npm-run-all PIPELINE</v>
+      </c>
+      <c r="K18" t="str">
         <f t="shared" si="3"/>
-        <v>START-PIPELINE</v>
-      </c>
-      <c r="J18" t="str">
-        <f t="shared" si="4"/>
-        <v>npm-run-all PIPELINE</v>
-      </c>
-      <c r="K18" t="str">
-        <f t="shared" si="2"/>
         <v xml:space="preserve">    "START-PIPELINE": "date &amp;&amp; time npm-run-all PIPELINE",</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>npm-run-all</v>
       </c>
       <c r="O18" s="2" t="str">
@@ -1529,7 +1537,7 @@
     </row>
     <row r="19" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I19" s="1" t="str">
         <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D19:H19)</f>
@@ -1540,8 +1548,8 @@
         <v>echo CI/CD pipeline START</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    "pipeline:start:action": " echo CI/CD pipeline START",</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">    "pipeline:start:action": "echo CI/CD pipeline START",</v>
       </c>
       <c r="L19" s="2">
         <v>1</v>
@@ -1553,12 +1561,12 @@
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I20" s="1" t="str">
         <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D20:H20)</f>
@@ -1569,8 +1577,8 @@
         <v>echo CI/CD pipeline FINISH</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    "pipeline:finish:action": " echo CI/CD pipeline FINISH",</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">    "pipeline:finish:action": "echo CI/CD pipeline FINISH",</v>
       </c>
       <c r="L20" s="2">
         <v>1</v>
@@ -1582,7 +1590,7 @@
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="3:17" x14ac:dyDescent="0.25">
@@ -1591,7 +1599,7 @@
         <v>:</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L21" s="2"/>
@@ -1611,15 +1619,15 @@
         <v>// PLAN</v>
       </c>
       <c r="I22" s="1" t="str">
-        <f t="shared" ref="I22" si="6" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D22:H22)</f>
+        <f t="shared" ref="I22" si="7" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D22:H22)</f>
         <v>// PLAN</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" ref="J22" si="7" xml:space="preserve"> IF(NOT(COUNTA(P22:V22)),":",_xlfn.TEXTJOIN(O22,TRUE,N22,_xlfn.TEXTJOIN(O22,TRUE,P22:V22)))</f>
+        <f t="shared" ref="J22" si="8" xml:space="preserve"> IF(NOT(COUNTA(P22:V22)),":",_xlfn.TEXTJOIN(O22,TRUE,N22,_xlfn.TEXTJOIN(O22,TRUE,P22:V22)))</f>
         <v>:</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">    "// PLAN": ":",</v>
       </c>
       <c r="L22" s="2"/>
@@ -1643,7 +1651,7 @@
         <v>npm-run-all sys-info:* report-goal</v>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">    "dev:plan-phase:plan:report:action": "date &amp;&amp; time npm-run-all sys-info:* report-goal",</v>
       </c>
       <c r="L23" s="2"/>
@@ -1657,18 +1665,18 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="P23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Q23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G24" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I24" s="1" t="str">
         <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D24:H24)</f>
@@ -1679,8 +1687,8 @@
         <v>if test \"$HEROKU\" ; then npm run heroku-config | grep -v _TOKEN ; fi &amp;&amp; if [ \"$HEROKU\" ] ; then env | grep -F HEROKU | grep -Fv _TOKEN ; fi</v>
       </c>
       <c r="K24" t="str">
-        <f>IF(ISBLANK(I24),"",CONCATENATE("    """,I24,""": ",IF(M24,"""echo ",""""),IF(LEN(J24)&gt;1,CONCATENATE(IF(L24,"",N$3)," "),""),J24,""","))</f>
-        <v xml:space="preserve">    "sys-info:heroku": " if test \"$HEROKU\" ; then npm run heroku-config | grep -v _TOKEN ; fi &amp;&amp; if [ \"$HEROKU\" ] ; then env | grep -F HEROKU | grep -Fv _TOKEN ; fi",</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">    "sys-info:heroku": "if test \"$HEROKU\" ; then npm run heroku-config | grep -v _TOKEN ; fi &amp;&amp; if [ \"$HEROKU\" ] ; then env | grep -F HEROKU | grep -Fv _TOKEN ; fi",</v>
       </c>
       <c r="L24" s="2">
         <v>1</v>
@@ -1692,7 +1700,7 @@
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P24" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Q24" t="str">
         <f xml:space="preserve"> CONCATENATE("if [ \""$",UPPER($G24),"\"" ] ; then env | grep -F ",UPPER($G24)," | grep -Fv _TOKEN ; fi", "")</f>
@@ -1701,10 +1709,10 @@
     </row>
     <row r="25" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I25" s="1" t="str">
         <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D25:H25)</f>
@@ -1715,8 +1723,8 @@
         <v>if [ \"$APPVEYOR\" ] ; then env | grep -F APPVEYOR | grep -Fv _TOKEN ; fi</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" ref="K25:K88" si="8">IF(ISBLANK(I25),"",CONCATENATE("    """,I25,""": ",IF(M25,"""echo ",""""),IF(LEN(J25)&gt;1,CONCATENATE(IF(L25,"",N$3)," "),""),J25,""","))</f>
-        <v xml:space="preserve">    "sys-info:appveyor": " if [ \"$APPVEYOR\" ] ; then env | grep -F APPVEYOR | grep -Fv _TOKEN ; fi",</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">    "sys-info:appveyor": "if [ \"$APPVEYOR\" ] ; then env | grep -F APPVEYOR | grep -Fv _TOKEN ; fi",</v>
       </c>
       <c r="L25" s="2">
         <v>1</v>
@@ -1734,10 +1742,10 @@
     </row>
     <row r="26" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I26" s="1" t="str">
         <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D26:H26)</f>
@@ -1748,8 +1756,8 @@
         <v>if [ \"$TRAVIS\" ] ; then env | grep -F TRAVIS | grep -Fv _TOKEN ; fi</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    "sys-info:travis": " if [ \"$TRAVIS\" ] ; then env | grep -F TRAVIS | grep -Fv _TOKEN ; fi",</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">    "sys-info:travis": "if [ \"$TRAVIS\" ] ; then env | grep -F TRAVIS | grep -Fv _TOKEN ; fi",</v>
       </c>
       <c r="L26" s="2">
         <v>1</v>
@@ -1767,10 +1775,10 @@
     </row>
     <row r="27" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G27" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I27" s="1" t="str">
         <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D27:H27)</f>
@@ -1781,8 +1789,8 @@
         <v>if [ \"$ANGULAR\" ] ; then env | grep -F ANGULAR | grep -Fv _TOKEN ; fi</v>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    "sys-info:angular": " if [ \"$ANGULAR\" ] ; then env | grep -F ANGULAR | grep -Fv _TOKEN ; fi",</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">    "sys-info:angular": "if [ \"$ANGULAR\" ] ; then env | grep -F ANGULAR | grep -Fv _TOKEN ; fi",</v>
       </c>
       <c r="L27" s="2">
         <v>1</v>
@@ -1800,10 +1808,10 @@
     </row>
     <row r="28" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G28" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I28" s="1" t="str">
         <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D28:H28)</f>
@@ -1814,8 +1822,8 @@
         <v>if [ \"$NODE\" ] ; then env | grep -F NODE | grep -Fv _TOKEN ; fi</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    "sys-info:node": " if [ \"$NODE\" ] ; then env | grep -F NODE | grep -Fv _TOKEN ; fi",</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">    "sys-info:node": "if [ \"$NODE\" ] ; then env | grep -F NODE | grep -Fv _TOKEN ; fi",</v>
       </c>
       <c r="L28" s="2">
         <v>1</v>
@@ -1833,10 +1841,10 @@
     </row>
     <row r="29" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G29" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I29" s="1" t="str">
         <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D29:H29)</f>
@@ -1847,8 +1855,8 @@
         <v>if [ \"$NPM\" ] ; then env | grep -F NPM | grep -Fv _TOKEN ; fi</v>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    "sys-info:npm": " if [ \"$NPM\" ] ; then env | grep -F NPM | grep -Fv _TOKEN ; fi",</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">    "sys-info:npm": "if [ \"$NPM\" ] ; then env | grep -F NPM | grep -Fv _TOKEN ; fi",</v>
       </c>
       <c r="L29" s="2">
         <v>1</v>
@@ -1866,10 +1874,10 @@
     </row>
     <row r="30" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G30" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I30" s="1" t="str">
         <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D30:H30)</f>
@@ -1880,8 +1888,8 @@
         <v>if [ \"$NVM\" ] ; then env | grep -F NVM | grep -Fv _TOKEN ; fi</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    "sys-info:nvm": " if [ \"$NVM\" ] ; then env | grep -F NVM | grep -Fv _TOKEN ; fi",</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">    "sys-info:nvm": "if [ \"$NVM\" ] ; then env | grep -F NVM | grep -Fv _TOKEN ; fi",</v>
       </c>
       <c r="L30" s="2">
         <v>1</v>
@@ -1899,7 +1907,7 @@
     </row>
     <row r="31" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I31" s="1" t="str">
         <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D31:H31)</f>
@@ -1910,7 +1918,7 @@
         <v>echo Plan: Include a full SD process in CI/CD pipeline</v>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">    "report-goal": "date &amp;&amp; time echo Plan: Include a full SD process in CI/CD pipeline",</v>
       </c>
       <c r="L31" s="2"/>
@@ -1937,7 +1945,7 @@
         <v>echo Update: TODO: Update the dependencies to latest</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">    "dev:plan-phase:update:report:action": "date &amp;&amp; time echo Update: TODO: Update the dependencies to latest",</v>
       </c>
       <c r="L32" s="2"/>
@@ -1964,7 +1972,7 @@
         <v>node wipe-dependencies.js &amp;&amp; rm -rf node_modules &amp;&amp; npm update --save-dev &amp;&amp; npm update --save</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">    "update-packages": "date &amp;&amp; time node wipe-dependencies.js &amp;&amp; rm -rf node_modules &amp;&amp; npm update --save-dev &amp;&amp; npm update --save",</v>
       </c>
       <c r="L33" s="2"/>
@@ -1984,7 +1992,7 @@
         <v>:</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L34" s="2"/>
@@ -2012,7 +2020,7 @@
         <v>:</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">    "// CODE": ":",</v>
       </c>
       <c r="L35" s="2"/>
@@ -2036,7 +2044,7 @@
         <v>echo TODO: Code: Implement the new features planned</v>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">    "dev:code-phase:code:report:action": "date &amp;&amp; time echo TODO: Code: Implement the new features planned",</v>
       </c>
       <c r="L36" s="2"/>
@@ -2056,7 +2064,7 @@
         <v>:</v>
       </c>
       <c r="K37" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L37" s="2"/>
@@ -2084,7 +2092,7 @@
         <v>:</v>
       </c>
       <c r="K38" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">    "// BUILD": ":",</v>
       </c>
       <c r="L38" s="2"/>
@@ -2108,7 +2116,7 @@
         <v>if test \"$CI\" ; then snyk auth $SNYK_TOKEN ; fi</v>
       </c>
       <c r="K39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">    "dev:build-phase:install:prepare:action": "date &amp;&amp; time if test \"$CI\" ; then snyk auth $SNYK_TOKEN ; fi",</v>
       </c>
       <c r="L39" s="2"/>
@@ -2135,7 +2143,7 @@
         <v>snyk protect</v>
       </c>
       <c r="K40" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">    "snyk-protect": "date &amp;&amp; time snyk protect",</v>
       </c>
       <c r="L40" s="2"/>
@@ -2165,7 +2173,7 @@
         <v>npm-run-all snyk-protect</v>
       </c>
       <c r="K41" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">    "prepare": "date &amp;&amp; time npm-run-all snyk-protect",</v>
       </c>
       <c r="L41" s="2"/>
@@ -2195,7 +2203,7 @@
         <v>npm install</v>
       </c>
       <c r="K42" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">    "dev:build-phase:install:package:package:action": "date &amp;&amp; time npm install",</v>
       </c>
       <c r="L42" s="2"/>
@@ -2222,7 +2230,7 @@
         <v>echo Install: TODO: Link to install logs</v>
       </c>
       <c r="K43" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">    "dev:build-phase:install:report:action": "date &amp;&amp; time echo Install: TODO: Link to install logs",</v>
       </c>
       <c r="L43" s="2"/>
@@ -2249,7 +2257,7 @@
         <v>if test \"$CI\" ; then npm run build-ci ; else npm run build ; fi</v>
       </c>
       <c r="K44" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">    "dev:build-phase:build:package:action": "date &amp;&amp; time if test \"$CI\" ; then npm run build-ci ; else npm run build ; fi",</v>
       </c>
       <c r="L44" s="2"/>
@@ -2276,7 +2284,7 @@
         <v>if test \"$CI\" ; then npm run PIPELINE ; else ng build ; fi</v>
       </c>
       <c r="K45" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">    "build": "date &amp;&amp; time if test \"$CI\" ; then npm run PIPELINE ; else ng build ; fi",</v>
       </c>
       <c r="L45" s="2"/>
@@ -2303,7 +2311,7 @@
         <v>ng build --configuration=\"production\"</v>
       </c>
       <c r="K46" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">    "build-prod": "date &amp;&amp; time ng build --configuration=\"production\"",</v>
       </c>
       <c r="L46" s="2"/>
@@ -2330,7 +2338,7 @@
         <v>ng build --configuration=\"heroku\"</v>
       </c>
       <c r="K47" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">    "build-ci": "date &amp;&amp; time ng build --configuration=\"heroku\"",</v>
       </c>
       <c r="L47" s="2"/>
@@ -2357,7 +2365,7 @@
         <v>git commit --allow-empty -m \"empty commit\" &amp;&amp; git push heroku master</v>
       </c>
       <c r="K48" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">    "rebuild-heroku": "date &amp;&amp; time git commit --allow-empty -m \"empty commit\" &amp;&amp; git push heroku master",</v>
       </c>
       <c r="L48" s="2"/>
@@ -2390,7 +2398,7 @@
         <v>auto-changelog -p &amp;&amp; git add CHANGELOG.md</v>
       </c>
       <c r="K49" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">    "version": "date &amp;&amp; time auto-changelog -p &amp;&amp; git add CHANGELOG.md",</v>
       </c>
       <c r="L49" s="2"/>
@@ -2420,7 +2428,7 @@
         <v>echo Build: TODO: Link to Build logs</v>
       </c>
       <c r="K50" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">    "dev:build-phase:build:report:action": "date &amp;&amp; time echo Build: TODO: Link to Build logs",</v>
       </c>
       <c r="L50" s="2"/>
@@ -2440,7 +2448,7 @@
         <v>:</v>
       </c>
       <c r="K51" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L51" s="2"/>
@@ -2468,7 +2476,7 @@
         <v>:</v>
       </c>
       <c r="K52" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">    "// TEST": ":",</v>
       </c>
       <c r="L52" s="2"/>
@@ -2492,7 +2500,7 @@
         <v>npm-run-all vulnerability-check</v>
       </c>
       <c r="K53" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">    "dev:test-phase:test:package:vulnerability:action": "date &amp;&amp; time npm-run-all vulnerability-check",</v>
       </c>
       <c r="L53" s="2"/>
@@ -2522,7 +2530,7 @@
         <v>snyk test</v>
       </c>
       <c r="K54" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">    "vulnerability-check": "date &amp;&amp; time snyk test",</v>
       </c>
       <c r="L54" s="2"/>
@@ -2549,7 +2557,7 @@
         <v>npm-run-all test-once</v>
       </c>
       <c r="K55" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">    "dev:test-phase:test:package:unit:action": "date &amp;&amp; time npm-run-all test-once",</v>
       </c>
       <c r="L55" s="2"/>
@@ -2576,11 +2584,11 @@
       </c>
       <c r="J56" t="str">
         <f t="shared" si="24"/>
-        <v>if [ ! \"$TRAVIS\" ] &amp;&amp; [ ! \"$HEROKU\" ] ; then env singleRun=true ng test --code-coverage ; fi</v>
+        <v>env singleRun=true ng test --code-coverage</v>
       </c>
       <c r="K56" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    "test-once": "date &amp;&amp; time if [ ! \"$TRAVIS\" ] &amp;&amp; [ ! \"$HEROKU\" ] ; then env singleRun=true ng test --code-coverage ; fi",</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">    "test-once": "date &amp;&amp; time env singleRun=true ng test --code-coverage",</v>
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
@@ -2590,7 +2598,7 @@
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P56" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
     </row>
     <row r="57" spans="3:17" x14ac:dyDescent="0.25">
@@ -2609,10 +2617,12 @@
         <v>if [ ! \"$TRAVIS\" ] &amp;&amp; [ ! \"$HEROKU\" ] ; then ng test --code-coverage ; fi</v>
       </c>
       <c r="K57" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    "test": "date &amp;&amp; time if [ ! \"$TRAVIS\" ] &amp;&amp; [ ! \"$HEROKU\" ] ; then ng test --code-coverage ; fi",</v>
-      </c>
-      <c r="L57" s="2"/>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">    "test": "if [ ! \"$TRAVIS\" ] &amp;&amp; [ ! \"$HEROKU\" ] ; then ng test --code-coverage ; fi",</v>
+      </c>
+      <c r="L57" s="2">
+        <v>1</v>
+      </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2" t="str">
@@ -2620,7 +2630,7 @@
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P57" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="3:17" x14ac:dyDescent="0.25">
@@ -2636,7 +2646,7 @@
         <v>npm-run-all e2e</v>
       </c>
       <c r="K58" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">    "dev:test-phase:test:package:integration:action": "date &amp;&amp; time npm-run-all e2e",</v>
       </c>
       <c r="L58" s="2"/>
@@ -2666,7 +2676,7 @@
         <v>if [ ! \"$HEROKU\" ] ; then ng e2e ; fi</v>
       </c>
       <c r="K59" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">    "e2e": "date &amp;&amp; time if [ ! \"$HEROKU\" ] ; then ng e2e ; fi",</v>
       </c>
       <c r="L59" s="2"/>
@@ -2677,7 +2687,7 @@
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="3:17" x14ac:dyDescent="0.25">
@@ -2693,7 +2703,7 @@
         <v>npm-run-all lint</v>
       </c>
       <c r="K60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">    "dev:test-phase:test:measure:action": "date &amp;&amp; time npm-run-all lint",</v>
       </c>
       <c r="L60" s="2"/>
@@ -2723,7 +2733,7 @@
         <v>ng  lint</v>
       </c>
       <c r="K61" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">    "lint": "date &amp;&amp; time ng  lint",</v>
       </c>
       <c r="L61" s="2"/>
@@ -2750,7 +2760,7 @@
         <v>npm-run-all codecov coveralls</v>
       </c>
       <c r="K62" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">    "dev:test-phase:codecover:package:action": "date &amp;&amp; time npm-run-all codecov coveralls",</v>
       </c>
       <c r="L62" s="2"/>
@@ -2783,7 +2793,7 @@
         <v>codecov</v>
       </c>
       <c r="K63" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">    "codecov": "date &amp;&amp; time codecov",</v>
       </c>
       <c r="L63" s="2"/>
@@ -2810,7 +2820,7 @@
         <v>node ./node_modules/coveralls/bin/coveralls.js &lt; ./coverage/lcov.info</v>
       </c>
       <c r="K64" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">    "coveralls": "date &amp;&amp; time node ./node_modules/coveralls/bin/coveralls.js &lt; ./coverage/lcov.info",</v>
       </c>
       <c r="L64" s="2"/>
@@ -2837,7 +2847,7 @@
         <v>npm-run-all compodoc</v>
       </c>
       <c r="K65" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">    "dev:test-phase:document:package:action": "date &amp;&amp; time npm-run-all compodoc",</v>
       </c>
       <c r="L65" s="2"/>
@@ -2867,7 +2877,7 @@
         <v>compodoc -p src/tsconfig.app.json --theme vagrant --hideGenerator --disableSourceCode --disablePrivate --disableTemplateTab --customFavicon \"./src/favicon/android-chrome-512x512.png\" -n \"CV Generator Documentation\"</v>
       </c>
       <c r="K66" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">    "compodoc": "date &amp;&amp; time compodoc -p src/tsconfig.app.json --theme vagrant --hideGenerator --disableSourceCode --disablePrivate --disableTemplateTab --customFavicon \"./src/favicon/android-chrome-512x512.png\" -n \"CV Generator Documentation\"",</v>
       </c>
       <c r="L66" s="2"/>
@@ -2894,7 +2904,7 @@
         <v>npm-run-all ngsw-config ngsw-copy favicon-copy google-copy manifest-copy cov-copy doc-copy</v>
       </c>
       <c r="K67" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">    "dev:test-phase:integrate:package:action": "date &amp;&amp; time npm-run-all ngsw-config ngsw-copy favicon-copy google-copy manifest-copy cov-copy doc-copy",</v>
       </c>
       <c r="L67" s="2"/>
@@ -2942,7 +2952,7 @@
         <v>node_modules/.bin/ngsw-config dist src/ngsw-config.json</v>
       </c>
       <c r="K68" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">    "ngsw-config": "date &amp;&amp; time node_modules/.bin/ngsw-config dist src/ngsw-config.json",</v>
       </c>
       <c r="L68" s="2"/>
@@ -2969,7 +2979,7 @@
         <v>cp node_modules/@angular/service-worker/ngsw-worker.js dist/</v>
       </c>
       <c r="K69" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">    "ngsw-copy": "date &amp;&amp; time cp node_modules/@angular/service-worker/ngsw-worker.js dist/",</v>
       </c>
       <c r="L69" s="2"/>
@@ -2996,7 +3006,7 @@
         <v>cp src/favicon/* dist/favicon/</v>
       </c>
       <c r="K70" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">    "favicon-copy": "date &amp;&amp; time cp src/favicon/* dist/favicon/",</v>
       </c>
       <c r="L70" s="2"/>
@@ -3023,7 +3033,7 @@
         <v>cp src/google/*.* dist/</v>
       </c>
       <c r="K71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">    "google-copy": "date &amp;&amp; time cp src/google/*.* dist/",</v>
       </c>
       <c r="L71" s="2"/>
@@ -3050,7 +3060,7 @@
         <v>cp src/manifest.json dist/</v>
       </c>
       <c r="K72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">    "manifest-copy": "date &amp;&amp; time cp src/manifest.json dist/",</v>
       </c>
       <c r="L72" s="2"/>
@@ -3074,11 +3084,11 @@
       </c>
       <c r="J73" t="str">
         <f t="shared" si="24"/>
-        <v>if [ ! \"$TRAVIS\" ] &amp;&amp; [ ! \"$HEROKU\" ] ; then cp -r coverage dist/coverage/ ; fi</v>
+        <v>cp -r coverage dist/coverage/</v>
       </c>
       <c r="K73" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    "cov-copy": "date &amp;&amp; time if [ ! \"$TRAVIS\" ] &amp;&amp; [ ! \"$HEROKU\" ] ; then cp -r coverage dist/coverage/ ; fi",</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">    "cov-copy": "date &amp;&amp; time cp -r coverage dist/coverage/",</v>
       </c>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
@@ -3088,7 +3098,7 @@
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P73" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
     </row>
     <row r="74" spans="3:22" x14ac:dyDescent="0.25">
@@ -3104,7 +3114,7 @@
         <v>cp -r documentation dist/documentation/</v>
       </c>
       <c r="K74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="K74:K137" si="27">IF(ISBLANK(I74),"",CONCATENATE("    """,I74,""": ","""",IF(LEN(J74)&gt;1,CONCATENATE(IF(L74,"",CONCATENATE(N$3," ")),""),""),IF(M74,"echo ",""),J74,""","))</f>
         <v xml:space="preserve">    "doc-copy": "date &amp;&amp; time cp -r documentation dist/documentation/",</v>
       </c>
       <c r="L74" s="2"/>
@@ -3124,7 +3134,7 @@
         <v>:</v>
       </c>
       <c r="K75" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="L75" s="2"/>
@@ -3144,15 +3154,15 @@
         <v>// RELEASE</v>
       </c>
       <c r="I76" s="1" t="str">
-        <f t="shared" ref="I76" si="27" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D76:H76)</f>
+        <f t="shared" ref="I76" si="28" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D76:H76)</f>
         <v>// RELEASE</v>
       </c>
       <c r="J76" t="str">
-        <f t="shared" ref="J76" si="28" xml:space="preserve"> IF(NOT(COUNTA(P76:V76)),":",_xlfn.TEXTJOIN(O76,TRUE,N76,_xlfn.TEXTJOIN(O76,TRUE,P76:V76)))</f>
+        <f t="shared" ref="J76" si="29" xml:space="preserve"> IF(NOT(COUNTA(P76:V76)),":",_xlfn.TEXTJOIN(O76,TRUE,N76,_xlfn.TEXTJOIN(O76,TRUE,P76:V76)))</f>
         <v>:</v>
       </c>
       <c r="K76" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "// RELEASE": ":",</v>
       </c>
       <c r="L76" s="2"/>
@@ -3169,7 +3179,7 @@
         <v>:</v>
       </c>
       <c r="K77" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="L77" s="2"/>
@@ -3189,15 +3199,15 @@
         <v>// CONFIGURE</v>
       </c>
       <c r="I78" s="1" t="str">
-        <f t="shared" ref="I78" si="29" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D78:H78)</f>
+        <f t="shared" ref="I78" si="30" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D78:H78)</f>
         <v>// CONFIGURE</v>
       </c>
       <c r="J78" t="str">
-        <f t="shared" ref="J78" si="30" xml:space="preserve"> IF(NOT(COUNTA(P78:V78)),":",_xlfn.TEXTJOIN(O78,TRUE,N78,_xlfn.TEXTJOIN(O78,TRUE,P78:V78)))</f>
+        <f t="shared" ref="J78" si="31" xml:space="preserve"> IF(NOT(COUNTA(P78:V78)),":",_xlfn.TEXTJOIN(O78,TRUE,N78,_xlfn.TEXTJOIN(O78,TRUE,P78:V78)))</f>
         <v>:</v>
       </c>
       <c r="K78" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "// CONFIGURE": ":",</v>
       </c>
       <c r="L78" s="2"/>
@@ -3213,7 +3223,7 @@
         <v>147</v>
       </c>
       <c r="I79" s="1" t="str">
-        <f t="shared" ref="I79:I84" si="31" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D79:H79)</f>
+        <f t="shared" ref="I79:I84" si="32" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D79:H79)</f>
         <v>ops:deploy:package:dockerize:build:action</v>
       </c>
       <c r="J79" t="str">
@@ -3221,7 +3231,7 @@
         <v>npm-run-all dockerize-build</v>
       </c>
       <c r="K79" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "ops:deploy:package:dockerize:build:action": "date &amp;&amp; time npm-run-all dockerize-build",</v>
       </c>
       <c r="L79" s="2"/>
@@ -3243,7 +3253,7 @@
         <v>78</v>
       </c>
       <c r="I80" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>dockerize-build</v>
       </c>
       <c r="J80" t="str">
@@ -3251,7 +3261,7 @@
         <v>docker image build -t jorich/cv-generator-fe:%npm_package_version% -t jorich/cv-generator-fe .</v>
       </c>
       <c r="K80" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "dockerize-build": "date &amp;&amp; time docker image build -t jorich/cv-generator-fe:%npm_package_version% -t jorich/cv-generator-fe .",</v>
       </c>
       <c r="L80" s="2"/>
@@ -3270,7 +3280,7 @@
         <v>148</v>
       </c>
       <c r="I81" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>ops:deploy:package:dockerize:push:action</v>
       </c>
       <c r="J81" t="str">
@@ -3278,7 +3288,7 @@
         <v>npm-run-all dockerize-push</v>
       </c>
       <c r="K81" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "ops:deploy:package:dockerize:push:action": "date &amp;&amp; time npm-run-all dockerize-push",</v>
       </c>
       <c r="L81" s="2"/>
@@ -3300,7 +3310,7 @@
         <v>79</v>
       </c>
       <c r="I82" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>dockerize-push</v>
       </c>
       <c r="J82" t="str">
@@ -3308,7 +3318,7 @@
         <v>docker push jorich/cv-generator-fe:%npm_package_version% &amp;&amp; docker push jorich/cv-generator-fe:latest</v>
       </c>
       <c r="K82" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "dockerize-push": "date &amp;&amp; time docker push jorich/cv-generator-fe:%npm_package_version% &amp;&amp; docker push jorich/cv-generator-fe:latest",</v>
       </c>
       <c r="L82" s="2"/>
@@ -3327,7 +3337,7 @@
         <v>149</v>
       </c>
       <c r="I83" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>ops:deploy:package:provision:action</v>
       </c>
       <c r="J83" t="str">
@@ -3335,7 +3345,7 @@
         <v>npm-run-all provision</v>
       </c>
       <c r="K83" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "ops:deploy:package:provision:action": "date &amp;&amp; time npm-run-all provision",</v>
       </c>
       <c r="L83" s="2"/>
@@ -3357,7 +3367,7 @@
         <v>69</v>
       </c>
       <c r="I84" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>provision</v>
       </c>
       <c r="J84" t="str">
@@ -3365,7 +3375,7 @@
         <v>cd ../cv-generator-life-terraform &amp;&amp; terraform apply</v>
       </c>
       <c r="K84" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "provision": "date &amp;&amp; time cd ../cv-generator-life-terraform &amp;&amp; terraform apply",</v>
       </c>
       <c r="L84" s="2"/>
@@ -3385,7 +3395,7 @@
         <v>:</v>
       </c>
       <c r="K85" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="L85" s="2"/>
@@ -3405,15 +3415,15 @@
         <v>// OPERATE</v>
       </c>
       <c r="I86" s="1" t="str">
-        <f t="shared" ref="I86" si="32" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D86:H86)</f>
+        <f t="shared" ref="I86" si="33" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D86:H86)</f>
         <v>// OPERATE</v>
       </c>
       <c r="J86" t="str">
-        <f t="shared" ref="J86" si="33" xml:space="preserve"> IF(NOT(COUNTA(P86:V86)),":",_xlfn.TEXTJOIN(O86,TRUE,N86,_xlfn.TEXTJOIN(O86,TRUE,P86:V86)))</f>
+        <f t="shared" ref="J86" si="34" xml:space="preserve"> IF(NOT(COUNTA(P86:V86)),":",_xlfn.TEXTJOIN(O86,TRUE,N86,_xlfn.TEXTJOIN(O86,TRUE,P86:V86)))</f>
         <v>:</v>
       </c>
       <c r="K86" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "// OPERATE": ":",</v>
       </c>
       <c r="L86" s="2"/>
@@ -3437,7 +3447,7 @@
         <v>npm-run-all wake-up-the-dynos:*</v>
       </c>
       <c r="K87" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "ops:run:platform:action": "date &amp;&amp; time npm-run-all wake-up-the-dynos:*",</v>
       </c>
       <c r="L87" s="2"/>
@@ -3456,10 +3466,10 @@
     </row>
     <row r="88" spans="3:20" x14ac:dyDescent="0.25">
       <c r="F88" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G88" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I88" s="1" t="str">
         <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D88:H88)</f>
@@ -3470,7 +3480,7 @@
         <v>if [ ! \"$HEROKU\" ] ; then curl https://cv-generator-fe.herokuapp.com/Webpage ; fi</v>
       </c>
       <c r="K88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "wake-up-the-dynos:heroku": "date &amp;&amp; time if [ ! \"$HEROKU\" ] ; then curl https://cv-generator-fe.herokuapp.com/Webpage ; fi",</v>
       </c>
       <c r="L88" s="2"/>
@@ -3481,26 +3491,26 @@
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P88" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="89" spans="3:20" x14ac:dyDescent="0.25">
       <c r="F89" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G89" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I89" s="1" t="str">
-        <f t="shared" ref="I89" si="34" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D89:H89)</f>
+        <f t="shared" ref="I89" si="35" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D89:H89)</f>
         <v>wake-up-the-dynos:ml</v>
       </c>
       <c r="J89" t="str">
-        <f t="shared" ref="J89" si="35" xml:space="preserve"> IF(NOT(COUNTA(P89:V89)),":",_xlfn.TEXTJOIN(O89,TRUE,N89,_xlfn.TEXTJOIN(O89,TRUE,P89:V89)))</f>
+        <f t="shared" ref="J89" si="36" xml:space="preserve"> IF(NOT(COUNTA(P89:V89)),":",_xlfn.TEXTJOIN(O89,TRUE,N89,_xlfn.TEXTJOIN(O89,TRUE,P89:V89)))</f>
         <v>if [ ! \"$CI\" ] ; then curl cvgenerator.ml ; fi</v>
       </c>
       <c r="K89" t="str">
-        <f t="shared" ref="K89:K152" si="36">IF(ISBLANK(I89),"",CONCATENATE("    """,I89,""": ",IF(M89,"""echo ",""""),IF(LEN(J89)&gt;1,CONCATENATE(IF(L89,"",N$3)," "),""),J89,""","))</f>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "wake-up-the-dynos:ml": "date &amp;&amp; time if [ ! \"$CI\" ] ; then curl cvgenerator.ml ; fi",</v>
       </c>
       <c r="L89" s="2"/>
@@ -3511,7 +3521,7 @@
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P89" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="90" spans="3:20" x14ac:dyDescent="0.25">
@@ -3530,10 +3540,12 @@
         <v>node server.js</v>
       </c>
       <c r="K90" t="str">
-        <f t="shared" si="36"/>
-        <v xml:space="preserve">    "start": "date &amp;&amp; time node server.js",</v>
-      </c>
-      <c r="L90" s="2"/>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">    "start": "node server.js",</v>
+      </c>
+      <c r="L90" s="2">
+        <v>1</v>
+      </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
       <c r="O90" s="2" t="str">
@@ -3550,7 +3562,7 @@
         <v>:</v>
       </c>
       <c r="K91" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="L91" s="2"/>
@@ -3578,7 +3590,7 @@
         <v>:</v>
       </c>
       <c r="K92" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "// OBSERVE": ":",</v>
       </c>
       <c r="L92" s="2"/>
@@ -3602,7 +3614,7 @@
         <v>echo Observe: TODO: Lanch the observability dashboard</v>
       </c>
       <c r="K93" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "ops:monitor:report:action": "date &amp;&amp; time echo Observe: TODO: Lanch the observability dashboard",</v>
       </c>
       <c r="L93" s="2"/>
@@ -3622,7 +3634,7 @@
         <v>:</v>
       </c>
       <c r="K94" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="L94" s="2"/>
@@ -3649,7 +3661,7 @@
         <v>npm-run-all pipeline:start dev ops report pipeline:finish</v>
       </c>
       <c r="K95" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "PIPELINE": "date &amp;&amp; time npm-run-all pipeline:start dev ops report pipeline:finish",</v>
       </c>
       <c r="L95" s="2"/>
@@ -3663,7 +3675,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="P95" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Q95" t="s">
         <v>111</v>
@@ -3675,12 +3687,12 @@
         <v>11</v>
       </c>
       <c r="T95" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="96" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E96" t="s">
         <v>0</v>
@@ -3694,7 +3706,7 @@
         <v>npm-run-all pipeline:start:action</v>
       </c>
       <c r="K96" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "pipeline:start": "date &amp;&amp; time npm-run-all pipeline:start:action",</v>
       </c>
       <c r="L96" s="2"/>
@@ -3725,7 +3737,7 @@
         <v>npm-run-all dev:*</v>
       </c>
       <c r="K97" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "dev": "date &amp;&amp; time npm-run-all dev:*",</v>
       </c>
       <c r="L97" s="2"/>
@@ -3768,7 +3780,7 @@
         <v>npm-run-all dev:plan-phase:*</v>
       </c>
       <c r="K98" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "dev:plan-phase": "date &amp;&amp; time npm-run-all dev:plan-phase:*",</v>
       </c>
       <c r="L98" s="2"/>
@@ -3805,7 +3817,7 @@
         <v>npm-run-all dev:plan-phase:plan:*</v>
       </c>
       <c r="K99" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "dev:plan-phase:plan": "date &amp;&amp; time npm-run-all dev:plan-phase:plan:*",</v>
       </c>
       <c r="L99" s="2"/>
@@ -3845,7 +3857,7 @@
         <v>npm-run-all dev:plan-phase:plan:report:action</v>
       </c>
       <c r="K100" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "dev:plan-phase:plan:report": "date &amp;&amp; time npm-run-all dev:plan-phase:plan:report:action",</v>
       </c>
       <c r="L100" s="2"/>
@@ -3885,7 +3897,7 @@
         <v>npm-run-all dev:plan-phase:update:*</v>
       </c>
       <c r="K101" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "dev:plan-phase:update": "date &amp;&amp; time npm-run-all dev:plan-phase:update:*",</v>
       </c>
       <c r="L101" s="2"/>
@@ -3925,7 +3937,7 @@
         <v>npm-run-all dev:plan-phase:update:report:action</v>
       </c>
       <c r="K102" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "dev:plan-phase:update:report": "date &amp;&amp; time npm-run-all dev:plan-phase:update:report:action",</v>
       </c>
       <c r="L102" s="2"/>
@@ -3968,7 +3980,7 @@
         <v>npm-run-all dev:code-phase:*</v>
       </c>
       <c r="K103" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "dev:code-phase": "date &amp;&amp; time npm-run-all dev:code-phase:*",</v>
       </c>
       <c r="L103" s="2"/>
@@ -4005,7 +4017,7 @@
         <v>npm-run-all dev:code-phase:code:*</v>
       </c>
       <c r="K104" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "dev:code-phase:code": "date &amp;&amp; time npm-run-all dev:code-phase:code:*",</v>
       </c>
       <c r="L104" s="2"/>
@@ -4045,7 +4057,7 @@
         <v>npm-run-all dev:code-phase:code:report:action</v>
       </c>
       <c r="K105" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "dev:code-phase:code:report": "date &amp;&amp; time npm-run-all dev:code-phase:code:report:action",</v>
       </c>
       <c r="L105" s="2"/>
@@ -4085,7 +4097,7 @@
         <v>npm-run-all dev:build-phase:*</v>
       </c>
       <c r="K106" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "dev:build-phase": "date &amp;&amp; time npm-run-all dev:build-phase:*",</v>
       </c>
       <c r="L106" s="2"/>
@@ -4125,7 +4137,7 @@
         <v>npm-run-all dev:build-phase:install:*</v>
       </c>
       <c r="K107" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "dev:build-phase:install": "date &amp;&amp; time npm-run-all dev:build-phase:install:*",</v>
       </c>
       <c r="L107" s="2"/>
@@ -4165,7 +4177,7 @@
         <v>npm-run-all dev:build-phase:install:prepare:action</v>
       </c>
       <c r="K108" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "dev:build-phase:install:prepare": "date &amp;&amp; time npm-run-all dev:build-phase:install:prepare:action",</v>
       </c>
       <c r="L108" s="2"/>
@@ -4205,7 +4217,7 @@
         <v>npm-run-all dev:build-phase:install:package:*</v>
       </c>
       <c r="K109" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "dev:build-phase:install:package": "date &amp;&amp; time npm-run-all dev:build-phase:install:package:*",</v>
       </c>
       <c r="L109" s="2"/>
@@ -4248,7 +4260,7 @@
         <v>:</v>
       </c>
       <c r="K110" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "dev:build-phase:install:package:environment": ":",</v>
       </c>
       <c r="L110" s="2"/>
@@ -4287,7 +4299,7 @@
         <v>npm-run-all dev:build-phase:install:package:package:action</v>
       </c>
       <c r="K111" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "dev:build-phase:install:package:package": "date &amp;&amp; time npm-run-all dev:build-phase:install:package:package:action",</v>
       </c>
       <c r="L111" s="2"/>
@@ -4327,7 +4339,7 @@
         <v>npm-run-all dev:build-phase:install:report:action</v>
       </c>
       <c r="K112" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "dev:build-phase:install:report": "date &amp;&amp; time npm-run-all dev:build-phase:install:report:action",</v>
       </c>
       <c r="L112" s="2"/>
@@ -4367,7 +4379,7 @@
         <v>npm-run-all dev:build-phase:build:*</v>
       </c>
       <c r="K113" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "dev:build-phase:build": "date &amp;&amp; time npm-run-all dev:build-phase:build:*",</v>
       </c>
       <c r="L113" s="2"/>
@@ -4407,7 +4419,7 @@
         <v>npm-run-all dev:build-phase:build:package:action</v>
       </c>
       <c r="K114" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "dev:build-phase:build:package": "date &amp;&amp; time npm-run-all dev:build-phase:build:package:action",</v>
       </c>
       <c r="L114" s="2"/>
@@ -4447,7 +4459,7 @@
         <v>npm-run-all dev:build-phase:build:report:action</v>
       </c>
       <c r="K115" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "dev:build-phase:build:report": "date &amp;&amp; time npm-run-all dev:build-phase:build:report:action",</v>
       </c>
       <c r="L115" s="2"/>
@@ -4490,7 +4502,7 @@
         <v>npm-run-all dev:test-phase:*</v>
       </c>
       <c r="K116" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "dev:test-phase": "date &amp;&amp; time npm-run-all dev:test-phase:*",</v>
       </c>
       <c r="L116" s="2"/>
@@ -4527,7 +4539,7 @@
         <v>npm-run-all dev:test-phase:test:*</v>
       </c>
       <c r="K117" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "dev:test-phase:test": "date &amp;&amp; time npm-run-all dev:test-phase:test:*",</v>
       </c>
       <c r="L117" s="2"/>
@@ -4567,7 +4579,7 @@
         <v>npm-run-all dev:test-phase:test:package:*</v>
       </c>
       <c r="K118" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "dev:test-phase:test:package": "date &amp;&amp; time npm-run-all dev:test-phase:test:package:*",</v>
       </c>
       <c r="L118" s="2"/>
@@ -4610,7 +4622,7 @@
         <v>npm-run-all dev:test-phase:test:package:vulnerability:action</v>
       </c>
       <c r="K119" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "dev:test-phase:test:package:vulnerability": "date &amp;&amp; time npm-run-all dev:test-phase:test:package:vulnerability:action",</v>
       </c>
       <c r="L119" s="2"/>
@@ -4653,7 +4665,7 @@
         <v>npm-run-all dev:test-phase:test:package:unit:action</v>
       </c>
       <c r="K120" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "dev:test-phase:test:package:unit": "date &amp;&amp; time npm-run-all dev:test-phase:test:package:unit:action",</v>
       </c>
       <c r="L120" s="2"/>
@@ -4696,7 +4708,7 @@
         <v>npm-run-all dev:test-phase:test:package:integration:action</v>
       </c>
       <c r="K121" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "dev:test-phase:test:package:integration": "date &amp;&amp; time npm-run-all dev:test-phase:test:package:integration:action",</v>
       </c>
       <c r="L121" s="2"/>
@@ -4736,7 +4748,7 @@
         <v>npm-run-all dev:test-phase:test:measure:action</v>
       </c>
       <c r="K122" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "dev:test-phase:test:measure": "date &amp;&amp; time npm-run-all dev:test-phase:test:measure:action",</v>
       </c>
       <c r="L122" s="2"/>
@@ -4776,7 +4788,7 @@
         <v>:</v>
       </c>
       <c r="K123" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "dev:test-phase:test:report": ":",</v>
       </c>
       <c r="L123" s="2"/>
@@ -4812,7 +4824,7 @@
         <v>:</v>
       </c>
       <c r="K124" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "dev:test-phase:codecover": ":",</v>
       </c>
       <c r="L124" s="2"/>
@@ -4848,7 +4860,7 @@
         <v>npm-run-all dev:test-phase:codecover:package:action</v>
       </c>
       <c r="K125" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "dev:test-phase:codecover:package": "date &amp;&amp; time npm-run-all dev:test-phase:codecover:package:action",</v>
       </c>
       <c r="L125" s="2"/>
@@ -4888,7 +4900,7 @@
         <v>:</v>
       </c>
       <c r="K126" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "dev:test-phase:codecover:report": ":",</v>
       </c>
       <c r="L126" s="2"/>
@@ -4924,7 +4936,7 @@
         <v>npm-run-all dev:test-phase:document:*</v>
       </c>
       <c r="K127" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "dev:test-phase:document": "date &amp;&amp; time npm-run-all dev:test-phase:document:*",</v>
       </c>
       <c r="L127" s="2"/>
@@ -4964,7 +4976,7 @@
         <v>npm-run-all dev:test-phase:document:package:action</v>
       </c>
       <c r="K128" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "dev:test-phase:document:package": "date &amp;&amp; time npm-run-all dev:test-phase:document:package:action",</v>
       </c>
       <c r="L128" s="2"/>
@@ -5004,7 +5016,7 @@
         <v>:</v>
       </c>
       <c r="K129" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "dev:test-phase:document:report": ":",</v>
       </c>
       <c r="L129" s="2"/>
@@ -5040,7 +5052,7 @@
         <v>npm-run-all dev:test-phase:integrate:*</v>
       </c>
       <c r="K130" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "dev:test-phase:integrate": "date &amp;&amp; time npm-run-all dev:test-phase:integrate:*",</v>
       </c>
       <c r="L130" s="2"/>
@@ -5080,7 +5092,7 @@
         <v>npm-run-all dev:test-phase:integrate:package:action</v>
       </c>
       <c r="K131" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "dev:test-phase:integrate:package": "date &amp;&amp; time npm-run-all dev:test-phase:integrate:package:action",</v>
       </c>
       <c r="L131" s="2"/>
@@ -5120,7 +5132,7 @@
         <v>:</v>
       </c>
       <c r="K132" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "dev:test-phase:integrate:copy": ":",</v>
       </c>
       <c r="L132" s="2"/>
@@ -5156,7 +5168,7 @@
         <v>:</v>
       </c>
       <c r="K133" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "dev:test-phase:integrate:test": ":",</v>
       </c>
       <c r="L133" s="2"/>
@@ -5192,7 +5204,7 @@
         <v>:</v>
       </c>
       <c r="K134" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "dev:test-phase:integrate:report": ":",</v>
       </c>
       <c r="L134" s="2"/>
@@ -5225,7 +5237,7 @@
         <v>:</v>
       </c>
       <c r="K135" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "dev:test-phase:report": ":",</v>
       </c>
       <c r="L135" s="2"/>
@@ -5255,7 +5267,7 @@
         <v>:</v>
       </c>
       <c r="K136" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "dev:report": ":",</v>
       </c>
       <c r="L136" s="2"/>
@@ -5282,7 +5294,7 @@
         <v>npm-run-all ops:*</v>
       </c>
       <c r="K137" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">    "ops": "date &amp;&amp; time npm-run-all ops:*",</v>
       </c>
       <c r="L137" s="2"/>
@@ -5325,7 +5337,7 @@
         <v>npm-run-all ops:release:*</v>
       </c>
       <c r="K138" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="K138:K168" si="73">IF(ISBLANK(I138),"",CONCATENATE("    """,I138,""": ","""",IF(LEN(J138)&gt;1,CONCATENATE(IF(L138,"",CONCATENATE(N$3," ")),""),""),IF(M138,"echo ",""),J138,""","))</f>
         <v xml:space="preserve">    "ops:release": "date &amp;&amp; time npm-run-all ops:release:*",</v>
       </c>
       <c r="L138" s="2"/>
@@ -5335,7 +5347,7 @@
         <v>npm-run-all</v>
       </c>
       <c r="O138" s="2" t="str">
-        <f t="shared" ref="O138" si="73">IF(ISBLANK(N138),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" ref="O138" si="74">IF(ISBLANK(N138),CONCATENATE(" ",$O$4," ")," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P138" t="str">
@@ -5362,17 +5374,17 @@
         <v>:</v>
       </c>
       <c r="K139" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="73"/>
         <v xml:space="preserve">    "ops:release:package": ":",</v>
       </c>
       <c r="L139" s="2"/>
       <c r="M139" s="2"/>
       <c r="N139" s="2" t="str">
-        <f t="shared" ref="N139:N161" si="74">IF(ISBLANK(P139),"",IF(ISNUMBER(SEARCH(":*",P139)),$N$6,$N$4))</f>
+        <f t="shared" ref="N139:N161" si="75">IF(ISBLANK(P139),"",IF(ISNUMBER(SEARCH(":*",P139)),$N$6,$N$4))</f>
         <v/>
       </c>
       <c r="O139" s="2" t="str">
-        <f t="shared" ref="O139:O155" si="75">IF(ISBLANK(N139),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" ref="O139:O155" si="76">IF(ISBLANK(N139),CONCATENATE(" ",$O$4," ")," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -5395,17 +5407,17 @@
         <v>:</v>
       </c>
       <c r="K140" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="73"/>
         <v xml:space="preserve">    "ops:release:copy": ":",</v>
       </c>
       <c r="L140" s="2"/>
       <c r="M140" s="2"/>
       <c r="N140" s="2" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="O140" s="2" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -5428,17 +5440,17 @@
         <v>:</v>
       </c>
       <c r="K141" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="73"/>
         <v xml:space="preserve">    "ops:release:report": ":",</v>
       </c>
       <c r="L141" s="2"/>
       <c r="M141" s="2"/>
       <c r="N141" s="2" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="O141" s="2" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -5467,21 +5479,21 @@
         <v>npm-run-all ops:deploy:*</v>
       </c>
       <c r="K142" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="73"/>
         <v xml:space="preserve">    "ops:deploy": "date &amp;&amp; time npm-run-all ops:deploy:*",</v>
       </c>
       <c r="L142" s="2"/>
       <c r="M142" s="2"/>
       <c r="N142" s="2" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>npm-run-all</v>
       </c>
       <c r="O142" s="2" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P142" t="str">
-        <f t="shared" ref="P142:P144" si="76">CONCATENATE(IF(CODE(I142)-CODE("a")&lt;0,LOWER(LEFT(I142,IF(ISERR(FIND(":",I142)),LEN(I142)+1,FIND(":",I142))-1)),I142),":*")</f>
+        <f t="shared" ref="P142:P144" si="77">CONCATENATE(IF(CODE(I142)-CODE("a")&lt;0,LOWER(LEFT(I142,IF(ISERR(FIND(":",I142)),LEN(I142)+1,FIND(":",I142))-1)),I142),":*")</f>
         <v>ops:deploy:*</v>
       </c>
     </row>
@@ -5504,23 +5516,23 @@
         <v>npm-run-all ops:deploy:package:*</v>
       </c>
       <c r="K143" t="str">
-        <f t="shared" si="36"/>
-        <v xml:space="preserve">    "ops:deploy:package": "echo date &amp;&amp; time npm-run-all ops:deploy:package:*",</v>
+        <f t="shared" si="73"/>
+        <v xml:space="preserve">    "ops:deploy:package": "date &amp;&amp; time echo npm-run-all ops:deploy:package:*",</v>
       </c>
       <c r="L143" s="2"/>
       <c r="M143" s="2">
         <v>1</v>
       </c>
       <c r="N143" s="2" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>npm-run-all</v>
       </c>
       <c r="O143" s="2" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P143" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>ops:deploy:package:*</v>
       </c>
     </row>
@@ -5546,21 +5558,21 @@
         <v>npm-run-all ops:deploy:package:dockerize:*</v>
       </c>
       <c r="K144" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="73"/>
         <v xml:space="preserve">    "ops:deploy:package:dockerize": "date &amp;&amp; time npm-run-all ops:deploy:package:dockerize:*",</v>
       </c>
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
       <c r="N144" s="2" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>npm-run-all</v>
       </c>
       <c r="O144" s="2" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P144" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>ops:deploy:package:dockerize:*</v>
       </c>
     </row>
@@ -5589,17 +5601,17 @@
         <v>npm-run-all ops:deploy:package:dockerize:build:action</v>
       </c>
       <c r="K145" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="73"/>
         <v xml:space="preserve">    "ops:deploy:package:dockerize:build": "date &amp;&amp; time npm-run-all ops:deploy:package:dockerize:build:action",</v>
       </c>
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
       <c r="N145" s="2" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>npm-run-all</v>
       </c>
       <c r="O145" s="2" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P145" t="str">
@@ -5632,17 +5644,17 @@
         <v>npm-run-all ops:deploy:package:dockerize:push:action</v>
       </c>
       <c r="K146" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="73"/>
         <v xml:space="preserve">    "ops:deploy:package:dockerize:push": "date &amp;&amp; time npm-run-all ops:deploy:package:dockerize:push:action",</v>
       </c>
       <c r="L146" s="2"/>
       <c r="M146" s="2"/>
       <c r="N146" s="2" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>npm-run-all</v>
       </c>
       <c r="O146" s="2" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P146" t="str">
@@ -5672,17 +5684,17 @@
         <v>npm-run-all ops:deploy:package:provision:action</v>
       </c>
       <c r="K147" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="73"/>
         <v xml:space="preserve">    "ops:deploy:package:provision": "date &amp;&amp; time npm-run-all ops:deploy:package:provision:action",</v>
       </c>
       <c r="L147" s="2"/>
       <c r="M147" s="2"/>
       <c r="N147" s="2" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>npm-run-all</v>
       </c>
       <c r="O147" s="2" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P147" t="str">
@@ -5712,17 +5724,17 @@
         <v>:</v>
       </c>
       <c r="K148" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="73"/>
         <v xml:space="preserve">    "ops:deploy:package:orchestrate": ":",</v>
       </c>
       <c r="L148" s="2"/>
       <c r="M148" s="2"/>
       <c r="N148" s="2" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="O148" s="2" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -5745,17 +5757,17 @@
         <v>:</v>
       </c>
       <c r="K149" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="73"/>
         <v xml:space="preserve">    "ops:deploy:report": ":",</v>
       </c>
       <c r="L149" s="2"/>
       <c r="M149" s="2"/>
       <c r="N149" s="2" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="O149" s="2" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -5784,21 +5796,21 @@
         <v>npm-run-all ops:run:*</v>
       </c>
       <c r="K150" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="73"/>
         <v xml:space="preserve">    "ops:run": "date &amp;&amp; time npm-run-all ops:run:*",</v>
       </c>
       <c r="L150" s="2"/>
       <c r="M150" s="2"/>
       <c r="N150" s="2" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>npm-run-all</v>
       </c>
       <c r="O150" s="2" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P150" t="str">
-        <f t="shared" ref="P150" si="77">CONCATENATE(IF(CODE(I150)-CODE("a")&lt;0,LOWER(LEFT(I150,IF(ISERR(FIND(":",I150)),LEN(I150)+1,FIND(":",I150))-1)),I150),":*")</f>
+        <f t="shared" ref="P150" si="78">CONCATENATE(IF(CODE(I150)-CODE("a")&lt;0,LOWER(LEFT(I150,IF(ISERR(FIND(":",I150)),LEN(I150)+1,FIND(":",I150))-1)),I150),":*")</f>
         <v>ops:run:*</v>
       </c>
     </row>
@@ -5821,17 +5833,17 @@
         <v>npm-run-all ops:run:platform:action</v>
       </c>
       <c r="K151" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="73"/>
         <v xml:space="preserve">    "ops:run:platform": "date &amp;&amp; time npm-run-all ops:run:platform:action",</v>
       </c>
       <c r="L151" s="2"/>
       <c r="M151" s="2"/>
       <c r="N151" s="2" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>npm-run-all</v>
       </c>
       <c r="O151" s="2" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P151" t="str">
@@ -5854,21 +5866,21 @@
         <v>ops:run:package</v>
       </c>
       <c r="J152" t="str">
-        <f t="shared" ref="J152:J168" si="78" xml:space="preserve"> IF(NOT(COUNTA(P152:V152)),":",_xlfn.TEXTJOIN(O152,TRUE,N152,_xlfn.TEXTJOIN(O152,TRUE,P152:V152)))</f>
+        <f t="shared" ref="J152:J168" si="79" xml:space="preserve"> IF(NOT(COUNTA(P152:V152)),":",_xlfn.TEXTJOIN(O152,TRUE,N152,_xlfn.TEXTJOIN(O152,TRUE,P152:V152)))</f>
         <v>:</v>
       </c>
       <c r="K152" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="73"/>
         <v xml:space="preserve">    "ops:run:package": ":",</v>
       </c>
       <c r="L152" s="2"/>
       <c r="M152" s="2"/>
       <c r="N152" s="2" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="O152" s="2" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -5887,21 +5899,21 @@
         <v>ops:run:chaos</v>
       </c>
       <c r="J153" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>:</v>
       </c>
       <c r="K153" t="str">
-        <f t="shared" ref="K153:K167" si="79">IF(ISBLANK(I153),"",CONCATENATE("    """,I153,""": ",IF(M153,"""echo ",""""),IF(LEN(J153)&gt;1,CONCATENATE(IF(L153,"",N$3)," "),""),J153,""","))</f>
+        <f t="shared" si="73"/>
         <v xml:space="preserve">    "ops:run:chaos": ":",</v>
       </c>
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
       <c r="N153" s="2" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="O153" s="2" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -5920,21 +5932,21 @@
         <v>ops:run:report</v>
       </c>
       <c r="J154" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>:</v>
       </c>
       <c r="K154" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v xml:space="preserve">    "ops:run:report": ":",</v>
       </c>
       <c r="L154" s="2"/>
       <c r="M154" s="2"/>
       <c r="N154" s="2" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="O154" s="2" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -5959,21 +5971,21 @@
         <v>ops:monitor</v>
       </c>
       <c r="J155" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>npm-run-all ops:monitor:*</v>
       </c>
       <c r="K155" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v xml:space="preserve">    "ops:monitor": "date &amp;&amp; time npm-run-all ops:monitor:*",</v>
       </c>
       <c r="L155" s="2"/>
       <c r="M155" s="2"/>
       <c r="N155" s="2" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>npm-run-all</v>
       </c>
       <c r="O155" s="2" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P155" t="str">
@@ -5996,17 +6008,17 @@
         <v>ops:monitor:platform</v>
       </c>
       <c r="J156" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>:</v>
       </c>
       <c r="K156" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v xml:space="preserve">    "ops:monitor:platform": ":",</v>
       </c>
       <c r="L156" s="2"/>
       <c r="M156" s="2"/>
       <c r="N156" s="2" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="O156" s="2" t="str">
@@ -6029,17 +6041,17 @@
         <v>ops:monitor:package</v>
       </c>
       <c r="J157" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>npm-run-all ops:monitor:package:*</v>
       </c>
       <c r="K157" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v xml:space="preserve">    "ops:monitor:package": "date &amp;&amp; time npm-run-all ops:monitor:package:*",</v>
       </c>
       <c r="L157" s="2"/>
       <c r="M157" s="2"/>
       <c r="N157" s="2" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>npm-run-all</v>
       </c>
       <c r="O157" s="2" t="str">
@@ -6069,17 +6081,17 @@
         <v>ops:monitor:package:trail</v>
       </c>
       <c r="J158" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>npm-run-all ops:monitor:package:trail:*</v>
       </c>
       <c r="K158" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v xml:space="preserve">    "ops:monitor:package:trail": "date &amp;&amp; time npm-run-all ops:monitor:package:trail:*",</v>
       </c>
       <c r="L158" s="2"/>
       <c r="M158" s="2"/>
       <c r="N158" s="2" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>npm-run-all</v>
       </c>
       <c r="O158" s="2" t="str">
@@ -6112,17 +6124,17 @@
         <v>ops:monitor:package:trail:health</v>
       </c>
       <c r="J159" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>:</v>
       </c>
       <c r="K159" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v xml:space="preserve">    "ops:monitor:package:trail:health": ":",</v>
       </c>
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
       <c r="N159" s="2" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="O159" s="2" t="str">
@@ -6151,17 +6163,17 @@
         <v>ops:monitor:package:trail:performance</v>
       </c>
       <c r="J160" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>:</v>
       </c>
       <c r="K160" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v xml:space="preserve">    "ops:monitor:package:trail:performance": ":",</v>
       </c>
       <c r="L160" s="2"/>
       <c r="M160" s="2"/>
       <c r="N160" s="2" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="O160" s="2" t="str">
@@ -6190,17 +6202,17 @@
         <v>ops:monitor:package:trail:resilience</v>
       </c>
       <c r="J161" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>:</v>
       </c>
       <c r="K161" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v xml:space="preserve">    "ops:monitor:package:trail:resilience": ":",</v>
       </c>
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
       <c r="N161" s="2" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="O161" s="2" t="str">
@@ -6229,11 +6241,11 @@
         <v>ops:monitor:package:trail:security</v>
       </c>
       <c r="J162" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>:</v>
       </c>
       <c r="K162" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v xml:space="preserve">    "ops:monitor:package:trail:security": ":",</v>
       </c>
       <c r="L162" s="2"/>
@@ -6265,11 +6277,11 @@
         <v>ops:monitor:package:showcase</v>
       </c>
       <c r="J163" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>:</v>
       </c>
       <c r="K163" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v xml:space="preserve">    "ops:monitor:package:showcase": ":",</v>
       </c>
       <c r="L163" s="2"/>
@@ -6298,11 +6310,11 @@
         <v>ops:monitor:report</v>
       </c>
       <c r="J164" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>npm-run-all ops:monitor:report:action</v>
       </c>
       <c r="K164" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v xml:space="preserve">    "ops:monitor:report": "date &amp;&amp; time npm-run-all ops:monitor:report:action",</v>
       </c>
       <c r="L164" s="2"/>
@@ -6336,7 +6348,7 @@
         <v>:</v>
       </c>
       <c r="K165" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v xml:space="preserve">    "ops:report": ":",</v>
       </c>
       <c r="L165" s="2"/>
@@ -6363,7 +6375,7 @@
         <v>:</v>
       </c>
       <c r="K166" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v xml:space="preserve">    "report": ":",</v>
       </c>
       <c r="L166" s="2"/>
@@ -6379,10 +6391,10 @@
     </row>
     <row r="167" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D167" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E167" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I167" s="1" t="str">
         <f t="shared" si="91"/>
@@ -6393,7 +6405,7 @@
         <v>npm-run-all pipeline:finish:action</v>
       </c>
       <c r="K167" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v xml:space="preserve">    "pipeline:finish": "date &amp;&amp; time npm-run-all pipeline:finish:action",</v>
       </c>
       <c r="L167" s="2"/>
@@ -6420,11 +6432,11 @@
         <v>// END PIPELINE</v>
       </c>
       <c r="J168" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>:</v>
       </c>
       <c r="K168" t="str">
-        <f>IF(ISBLANK(I168),"",CONCATENATE("    """,I168,""": ",IF(M168,"""echo ",""""),IF(LEN(J168)&gt;1,CONCATENATE(IF(L168,"",N$3)," "),""),J168,""""))</f>
+        <f>IF(ISBLANK(I168),"",CONCATENATE("    """,I168,""": ","""",IF(LEN(J168)&gt;1,CONCATENATE(IF(L168,"",CONCATENATE(N$3," ")),""),""),IF(M168,"echo ",""),J168,""""))</f>
         <v xml:space="preserve">    "// END PIPELINE": ":"</v>
       </c>
       <c r="L168" s="2"/>
@@ -6481,7 +6493,7 @@
       </c>
       <c r="L170">
         <f>COUNTA(L8:L168)</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M170">
         <f>COUNTA(M8:M168)</f>

--- a/pipeline.xlsx
+++ b/pipeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorich\AppData\Local\Packages\C27EB4BA.DROPBOX_xbfy0k16fey96\LocalState\users\85455724\FilesCache\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E8E7E7-0691-49F6-A21D-E62C8A5857D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089337B2-7F2A-4BC4-B168-C7E705838F4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="10845" xr2:uid="{85A6193D-6764-4870-9E6C-E861DF98152E}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$168</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$175</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="225">
   <si>
     <t>start</t>
   </si>
@@ -189,12 +189,6 @@
     <t>cp src/favicon/* dist/favicon/</t>
   </si>
   <si>
-    <t>cp node_modules/@angular/service-worker/ngsw-worker.js dist/</t>
-  </si>
-  <si>
-    <t>node_modules/.bin/ngsw-config dist src/ngsw-config.json</t>
-  </si>
-  <si>
     <t>vulnerability-check</t>
   </si>
   <si>
@@ -486,9 +480,6 @@
     <t>ops:deploy:package:provision:action</t>
   </si>
   <si>
-    <t>if test \"$CI\" ; then snyk auth $SNYK_TOKEN ; fi</t>
-  </si>
-  <si>
     <t>// END PIPELINE</t>
   </si>
   <si>
@@ -543,9 +534,6 @@
     <t>ng build --configuration=\"production\"</t>
   </si>
   <si>
-    <t>if test \"$CI\" ; then npm run build-ci ; else npm run build ; fi</t>
-  </si>
-  <si>
     <t>full</t>
   </si>
   <si>
@@ -561,9 +549,6 @@
     <t>plain</t>
   </si>
   <si>
-    <t>if test \"$CI\" ; then npm run PIPELINE ; else ng build ; fi</t>
-  </si>
-  <si>
     <t>rebuild-heroku</t>
   </si>
   <si>
@@ -657,13 +642,73 @@
     <t>Time opt-out</t>
   </si>
   <si>
-    <t>if test \"$HEROKU\" ; then npm run heroku-config | grep -v _TOKEN ; fi</t>
-  </si>
-  <si>
     <t>env singleRun=true ng test --code-coverage</t>
   </si>
   <si>
     <t>cp -r coverage dist/coverage/</t>
+  </si>
+  <si>
+    <t>npm outdated</t>
+  </si>
+  <si>
+    <t>ng update</t>
+  </si>
+  <si>
+    <t>npm update --save-dev</t>
+  </si>
+  <si>
+    <t>npm update --save</t>
+  </si>
+  <si>
+    <t>ng-update</t>
+  </si>
+  <si>
+    <t>ng-update-all</t>
+  </si>
+  <si>
+    <t>npm-update-save</t>
+  </si>
+  <si>
+    <t>npx-npm-check-updates-u</t>
+  </si>
+  <si>
+    <t>npm-outdated</t>
+  </si>
+  <si>
+    <t>if [ \"$CI\" ] ; then snyk auth $SNYK_TOKEN ; fi</t>
+  </si>
+  <si>
+    <t>if [ \"$CI\" ] ; then npm run build-ci ; else npm run build ; fi</t>
+  </si>
+  <si>
+    <t>if [ \"$CI\" ] ; then npm run PIPELINE ; else ng build ; fi</t>
+  </si>
+  <si>
+    <t>if [ \"$HEROKU\" ] ; then npm run heroku-config | grep -v _TOKEN ; fi</t>
+  </si>
+  <si>
+    <t>if [ ! \"$CI\" ] ; then npm-run-all update-packages:* ; fi</t>
+  </si>
+  <si>
+    <t>deprecated</t>
+  </si>
+  <si>
+    <t>npm-update-save-dev</t>
+  </si>
+  <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>ng update --all --allowDirty --force</t>
+  </si>
+  <si>
+    <t>npx npm-check-updates -u -x typescript</t>
+  </si>
+  <si>
+    <t>if [ \"$production\" ] ; then node_modules/.bin/ngsw-config dist src/ngsw-config.json ; fi</t>
+  </si>
+  <si>
+    <t>if [ \"$production\" ] ; then cp node_modules/@angular/service-worker/ngsw-worker.js dist/ ; fi</t>
   </si>
 </sst>
 </file>
@@ -1034,13 +1079,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD3F8E8-C4F8-4500-8DB7-FA9EF76D4FDE}">
-  <dimension ref="A1:V170"/>
+  <dimension ref="A1:V177"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="9" ySplit="7" topLeftCell="J131" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="7" topLeftCell="K46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K8:K168"/>
+      <selection pane="bottomRight" activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,7 +1095,7 @@
     <col min="3" max="8" width="4.140625" customWidth="1"/>
     <col min="9" max="9" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="76.42578125" customWidth="1"/>
-    <col min="11" max="11" width="64.140625" customWidth="1"/>
+    <col min="11" max="11" width="108.140625" customWidth="1"/>
     <col min="12" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -1073,28 +1118,28 @@
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>14</v>
@@ -1103,19 +1148,19 @@
         <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>18</v>
@@ -1141,57 +1186,45 @@
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="N3" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="M4" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="N4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="O4" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N5" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N6" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="M5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="M6" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
     <row r="7" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="M7" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="N7" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I8" s="1" t="str">
         <f t="shared" ref="I8:I11" si="0" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D8:H8)</f>
         <v>// TOOLS</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" ref="J8:J84" si="1" xml:space="preserve"> IF(NOT(COUNTA(P8:V8)),":",_xlfn.TEXTJOIN(O8,TRUE,N8,_xlfn.TEXTJOIN(O8,TRUE,P8:V8)))</f>
+        <f t="shared" ref="J8:J91" si="1" xml:space="preserve"> IF(NOT(COUNTA(P8:V8)),":",_xlfn.TEXTJOIN(O8,TRUE,N8,_xlfn.TEXTJOIN(O8,TRUE,P8:V8)))</f>
         <v>:</v>
       </c>
       <c r="K8" t="str">
@@ -1202,7 +1235,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2" t="str">
-        <f>IF(ISBLANK(N8),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" ref="O8:O43" si="3">IF(ISBLANK(N8),CONCATENATE(" ",$O$4," ")," ")</f>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
     </row>
@@ -1228,7 +1261,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2" t="str">
-        <f>IF(ISBLANK(N9),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P9" t="s">
@@ -1248,14 +1281,14 @@
         <v>ng version &amp;&amp; echo Node, NPM and NVM version: &amp;&amp; node -v &amp;&amp; npm -v &amp;&amp; nvm v</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" ref="K10:K73" si="3">IF(ISBLANK(I10),"",CONCATENATE("    """,I10,""": ","""",IF(LEN(J10)&gt;1,CONCATENATE(IF(L10,"",CONCATENATE(N$3," ")),""),""),IF(M10,"echo ",""),J10,""","))</f>
+        <f t="shared" ref="K10:K80" si="4">IF(ISBLANK(I10),"",CONCATENATE("    """,I10,""": ","""",IF(LEN(J10)&gt;1,CONCATENATE(IF(L10,"",CONCATENATE(N$3," ")),""),""),IF(M10,"echo ",""),J10,""","))</f>
         <v xml:space="preserve">    "ver": "date &amp;&amp; time ng version &amp;&amp; echo Node, NPM and NVM version: &amp;&amp; node -v &amp;&amp; npm -v &amp;&amp; nvm v",</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2" t="str">
-        <f>IF(ISBLANK(N10),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P10" t="s">
@@ -1276,7 +1309,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1287,18 +1320,18 @@
         <v>heroku config</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">    "heroku-config": "date &amp;&amp; time heroku config",</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2" t="str">
-        <f>IF(ISBLANK(N11),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P11" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -1306,18 +1339,18 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I12" s="1" t="str">
-        <f t="shared" ref="I12:I18" si="4" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D12:H12)</f>
+        <f t="shared" ref="I12:I18" si="5" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D12:H12)</f>
         <v>build:plain</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" ref="J12:J18" si="5" xml:space="preserve"> IF(NOT(COUNTA(P12:V12)),":",_xlfn.TEXTJOIN(O12,TRUE,N12,_xlfn.TEXTJOIN(O12,TRUE,P12:V12)))</f>
+        <f t="shared" ref="J12:J18" si="6" xml:space="preserve"> IF(NOT(COUNTA(P12:V12)),":",_xlfn.TEXTJOIN(O12,TRUE,N12,_xlfn.TEXTJOIN(O12,TRUE,P12:V12)))</f>
         <v>npm-run-all build</v>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">    "build:plain": "npm-run-all build",</v>
       </c>
       <c r="L12" s="2">
@@ -1325,11 +1358,11 @@
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2" t="str">
-        <f t="shared" ref="N12:N18" si="6">IF(ISBLANK(P12),"",$N$6)</f>
+        <f t="shared" ref="N12:N18" si="7">IF(ISBLANK(P12),"",$N$6)</f>
         <v>npm-run-all</v>
       </c>
       <c r="O12" s="2" t="str">
-        <f>IF(ISBLANK(N12),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P12" t="s">
@@ -1341,32 +1374,32 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I13" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>build:full</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="6"/>
+        <v>npm-run-all dev:build-phase</v>
+      </c>
+      <c r="K13" t="str">
         <f t="shared" si="4"/>
-        <v>build:full</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="5"/>
-        <v>npm-run-all dev:build-phase</v>
-      </c>
-      <c r="K13" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">    "build:full": "date &amp;&amp; time npm-run-all dev:build-phase",</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>npm-run-all</v>
       </c>
       <c r="O13" s="2" t="str">
-        <f>IF(ISBLANK(N13),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P13" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -1374,18 +1407,18 @@
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I14" s="1" t="str">
         <f>N4</f>
         <v>npm run</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>npm-run-all test</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">    "npm run": "npm-run-all test",</v>
       </c>
       <c r="L14" s="2">
@@ -1393,11 +1426,11 @@
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>npm-run-all</v>
       </c>
       <c r="O14" s="2" t="str">
-        <f>IF(ISBLANK(N14),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P14" t="s">
@@ -1409,32 +1442,32 @@
         <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I15" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>test:full</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="6"/>
+        <v>npm-run-all dev:test-phase</v>
+      </c>
+      <c r="K15" t="str">
         <f t="shared" si="4"/>
-        <v>test:full</v>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" si="5"/>
-        <v>npm-run-all dev:test-phase</v>
-      </c>
-      <c r="K15" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">    "test:full": "date &amp;&amp; time npm-run-all dev:test-phase",</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>npm-run-all</v>
       </c>
       <c r="O15" s="2" t="str">
-        <f>IF(ISBLANK(N15),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P15" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -1442,18 +1475,18 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I16" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>start:plain</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="6"/>
+        <v>npm-run-all start</v>
+      </c>
+      <c r="K16" t="str">
         <f t="shared" si="4"/>
-        <v>start:plain</v>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" si="5"/>
-        <v>npm-run-all start</v>
-      </c>
-      <c r="K16" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">    "start:plain": "npm-run-all start",</v>
       </c>
       <c r="L16" s="2">
@@ -1461,11 +1494,11 @@
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>npm-run-all</v>
       </c>
       <c r="O16" s="2" t="str">
-        <f>IF(ISBLANK(N16),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P16" t="s">
@@ -1477,67 +1510,67 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I17" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>start:full</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="6"/>
+        <v>npm-run-all ops:run</v>
+      </c>
+      <c r="K17" t="str">
         <f t="shared" si="4"/>
-        <v>start:full</v>
-      </c>
-      <c r="J17" t="str">
-        <f t="shared" si="5"/>
-        <v>npm-run-all ops:run</v>
-      </c>
-      <c r="K17" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">    "start:full": "date &amp;&amp; time npm-run-all ops:run",</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>npm-run-all</v>
       </c>
       <c r="O17" s="2" t="str">
-        <f>IF(ISBLANK(N17),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P17" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I18" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>START-PIPELINE</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="6"/>
+        <v>npm-run-all PIPELINE</v>
+      </c>
+      <c r="K18" t="str">
         <f t="shared" si="4"/>
-        <v>START-PIPELINE</v>
-      </c>
-      <c r="J18" t="str">
-        <f t="shared" si="5"/>
-        <v>npm-run-all PIPELINE</v>
-      </c>
-      <c r="K18" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">    "START-PIPELINE": "date &amp;&amp; time npm-run-all PIPELINE",</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>npm-run-all</v>
       </c>
       <c r="O18" s="2" t="str">
-        <f>IF(ISBLANK(N18),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I19" s="1" t="str">
         <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D19:H19)</f>
@@ -1548,7 +1581,7 @@
         <v>echo CI/CD pipeline START</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">    "pipeline:start:action": "echo CI/CD pipeline START",</v>
       </c>
       <c r="L19" s="2">
@@ -1557,16 +1590,16 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2" t="str">
-        <f>IF(ISBLANK(N19),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P19" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="I20" s="1" t="str">
         <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D20:H20)</f>
@@ -1577,7 +1610,7 @@
         <v>echo CI/CD pipeline FINISH</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">    "pipeline:finish:action": "echo CI/CD pipeline FINISH",</v>
       </c>
       <c r="L20" s="2">
@@ -1586,11 +1619,11 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2" t="str">
-        <f>IF(ISBLANK(N20),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="3:17" x14ac:dyDescent="0.25">
@@ -1599,59 +1632,59 @@
         <v>:</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2" t="str">
-        <f>IF(ISBLANK(N21),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
     </row>
     <row r="22" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E22" t="str">
         <f xml:space="preserve"> CONCATENATE("// ",C22)</f>
         <v>// PLAN</v>
       </c>
       <c r="I22" s="1" t="str">
-        <f t="shared" ref="I22" si="7" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D22:H22)</f>
+        <f t="shared" ref="I22" si="8" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D22:H22)</f>
         <v>// PLAN</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" ref="J22" si="8" xml:space="preserve"> IF(NOT(COUNTA(P22:V22)),":",_xlfn.TEXTJOIN(O22,TRUE,N22,_xlfn.TEXTJOIN(O22,TRUE,P22:V22)))</f>
+        <f t="shared" ref="J22" si="9" xml:space="preserve"> IF(NOT(COUNTA(P22:V22)),":",_xlfn.TEXTJOIN(O22,TRUE,N22,_xlfn.TEXTJOIN(O22,TRUE,P22:V22)))</f>
         <v>:</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">    "// PLAN": ":",</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2" t="str">
-        <f>IF(ISBLANK(N22),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
     </row>
     <row r="23" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I23" s="1" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D23:H23)</f>
+        <f t="shared" ref="I23:I40" si="10" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D23:H23)</f>
         <v>dev:plan-phase:plan:report:action</v>
       </c>
       <c r="J23" t="str">
-        <f xml:space="preserve"> IF(NOT(COUNTA(P23:V23)),":",_xlfn.TEXTJOIN(O23,TRUE,N23,_xlfn.TEXTJOIN(O23,TRUE,P23:V23)))</f>
+        <f t="shared" ref="J23:J40" si="11" xml:space="preserve"> IF(NOT(COUNTA(P23:V23)),":",_xlfn.TEXTJOIN(O23,TRUE,N23,_xlfn.TEXTJOIN(O23,TRUE,P23:V23)))</f>
         <v>npm-run-all sys-info:* report-goal</v>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">    "dev:plan-phase:plan:report:action": "date &amp;&amp; time npm-run-all sys-info:* report-goal",</v>
       </c>
       <c r="L23" s="2"/>
@@ -1661,34 +1694,34 @@
         <v>npm-run-all</v>
       </c>
       <c r="O23" s="2" t="str">
-        <f>IF(ISBLANK(N23),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P23" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="Q23" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G24" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I24" s="1" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D24:H24)</f>
+        <f t="shared" si="10"/>
         <v>sys-info:heroku</v>
       </c>
       <c r="J24" t="str">
-        <f xml:space="preserve"> IF(NOT(COUNTA(P24:V24)),":",_xlfn.TEXTJOIN(O24,TRUE,N24,_xlfn.TEXTJOIN(O24,TRUE,P24:V24)))</f>
-        <v>if test \"$HEROKU\" ; then npm run heroku-config | grep -v _TOKEN ; fi &amp;&amp; if [ \"$HEROKU\" ] ; then env | grep -F HEROKU | grep -Fv _TOKEN ; fi</v>
+        <f t="shared" si="11"/>
+        <v>if [ \"$HEROKU\" ] ; then npm run heroku-config | grep -v _TOKEN ; fi &amp;&amp; if [ \"$HEROKU\" ] ; then env | grep -F HEROKU | grep -Fv _TOKEN ; fi</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    "sys-info:heroku": "if test \"$HEROKU\" ; then npm run heroku-config | grep -v _TOKEN ; fi &amp;&amp; if [ \"$HEROKU\" ] ; then env | grep -F HEROKU | grep -Fv _TOKEN ; fi",</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "sys-info:heroku": "if [ \"$HEROKU\" ] ; then npm run heroku-config | grep -v _TOKEN ; fi &amp;&amp; if [ \"$HEROKU\" ] ; then env | grep -F HEROKU | grep -Fv _TOKEN ; fi",</v>
       </c>
       <c r="L24" s="2">
         <v>1</v>
@@ -1696,11 +1729,11 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2" t="str">
-        <f>IF(ISBLANK(N24),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P24" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="Q24" t="str">
         <f xml:space="preserve"> CONCATENATE("if [ \""$",UPPER($G24),"\"" ] ; then env | grep -F ",UPPER($G24)," | grep -Fv _TOKEN ; fi", "")</f>
@@ -1709,21 +1742,21 @@
     </row>
     <row r="25" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G25" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="I25" s="1" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D25:H25)</f>
+        <f t="shared" si="10"/>
         <v>sys-info:appveyor</v>
       </c>
       <c r="J25" t="str">
-        <f xml:space="preserve"> IF(NOT(COUNTA(P25:V25)),":",_xlfn.TEXTJOIN(O25,TRUE,N25,_xlfn.TEXTJOIN(O25,TRUE,P25:V25)))</f>
+        <f t="shared" si="11"/>
         <v>if [ \"$APPVEYOR\" ] ; then env | grep -F APPVEYOR | grep -Fv _TOKEN ; fi</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">    "sys-info:appveyor": "if [ \"$APPVEYOR\" ] ; then env | grep -F APPVEYOR | grep -Fv _TOKEN ; fi",</v>
       </c>
       <c r="L25" s="2">
@@ -1732,31 +1765,31 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2" t="str">
-        <f>IF(ISBLANK(N25),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P25" t="str">
-        <f xml:space="preserve"> CONCATENATE("if [ \""$",UPPER($G25),"\"" ] ; then env | grep -F ",UPPER($G25)," | grep -Fv _TOKEN ; fi", "")</f>
+        <f t="shared" ref="P25:P30" si="12" xml:space="preserve"> CONCATENATE("if [ \""$",UPPER($G25),"\"" ] ; then env | grep -F ",UPPER($G25)," | grep -Fv _TOKEN ; fi", "")</f>
         <v>if [ \"$APPVEYOR\" ] ; then env | grep -F APPVEYOR | grep -Fv _TOKEN ; fi</v>
       </c>
     </row>
     <row r="26" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G26" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="I26" s="1" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D26:H26)</f>
+        <f t="shared" si="10"/>
         <v>sys-info:travis</v>
       </c>
       <c r="J26" t="str">
-        <f xml:space="preserve"> IF(NOT(COUNTA(P26:V26)),":",_xlfn.TEXTJOIN(O26,TRUE,N26,_xlfn.TEXTJOIN(O26,TRUE,P26:V26)))</f>
+        <f t="shared" si="11"/>
         <v>if [ \"$TRAVIS\" ] ; then env | grep -F TRAVIS | grep -Fv _TOKEN ; fi</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">    "sys-info:travis": "if [ \"$TRAVIS\" ] ; then env | grep -F TRAVIS | grep -Fv _TOKEN ; fi",</v>
       </c>
       <c r="L26" s="2">
@@ -1765,31 +1798,31 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2" t="str">
-        <f>IF(ISBLANK(N26),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P26" t="str">
-        <f xml:space="preserve"> CONCATENATE("if [ \""$",UPPER($G26),"\"" ] ; then env | grep -F ",UPPER($G26)," | grep -Fv _TOKEN ; fi", "")</f>
+        <f t="shared" si="12"/>
         <v>if [ \"$TRAVIS\" ] ; then env | grep -F TRAVIS | grep -Fv _TOKEN ; fi</v>
       </c>
     </row>
     <row r="27" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G27" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="I27" s="1" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D27:H27)</f>
+        <f t="shared" si="10"/>
         <v>sys-info:angular</v>
       </c>
       <c r="J27" t="str">
-        <f xml:space="preserve"> IF(NOT(COUNTA(P27:V27)),":",_xlfn.TEXTJOIN(O27,TRUE,N27,_xlfn.TEXTJOIN(O27,TRUE,P27:V27)))</f>
+        <f t="shared" si="11"/>
         <v>if [ \"$ANGULAR\" ] ; then env | grep -F ANGULAR | grep -Fv _TOKEN ; fi</v>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">    "sys-info:angular": "if [ \"$ANGULAR\" ] ; then env | grep -F ANGULAR | grep -Fv _TOKEN ; fi",</v>
       </c>
       <c r="L27" s="2">
@@ -1798,31 +1831,31 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2" t="str">
-        <f>IF(ISBLANK(N27),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P27" t="str">
-        <f xml:space="preserve"> CONCATENATE("if [ \""$",UPPER($G27),"\"" ] ; then env | grep -F ",UPPER($G27)," | grep -Fv _TOKEN ; fi", "")</f>
+        <f t="shared" si="12"/>
         <v>if [ \"$ANGULAR\" ] ; then env | grep -F ANGULAR | grep -Fv _TOKEN ; fi</v>
       </c>
     </row>
     <row r="28" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G28" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="I28" s="1" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D28:H28)</f>
+        <f t="shared" si="10"/>
         <v>sys-info:node</v>
       </c>
       <c r="J28" t="str">
-        <f xml:space="preserve"> IF(NOT(COUNTA(P28:V28)),":",_xlfn.TEXTJOIN(O28,TRUE,N28,_xlfn.TEXTJOIN(O28,TRUE,P28:V28)))</f>
+        <f t="shared" si="11"/>
         <v>if [ \"$NODE\" ] ; then env | grep -F NODE | grep -Fv _TOKEN ; fi</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">    "sys-info:node": "if [ \"$NODE\" ] ; then env | grep -F NODE | grep -Fv _TOKEN ; fi",</v>
       </c>
       <c r="L28" s="2">
@@ -1831,31 +1864,31 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2" t="str">
-        <f>IF(ISBLANK(N28),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P28" t="str">
-        <f xml:space="preserve"> CONCATENATE("if [ \""$",UPPER($G28),"\"" ] ; then env | grep -F ",UPPER($G28)," | grep -Fv _TOKEN ; fi", "")</f>
+        <f t="shared" si="12"/>
         <v>if [ \"$NODE\" ] ; then env | grep -F NODE | grep -Fv _TOKEN ; fi</v>
       </c>
     </row>
     <row r="29" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G29" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="I29" s="1" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D29:H29)</f>
+        <f t="shared" si="10"/>
         <v>sys-info:npm</v>
       </c>
       <c r="J29" t="str">
-        <f xml:space="preserve"> IF(NOT(COUNTA(P29:V29)),":",_xlfn.TEXTJOIN(O29,TRUE,N29,_xlfn.TEXTJOIN(O29,TRUE,P29:V29)))</f>
+        <f t="shared" si="11"/>
         <v>if [ \"$NPM\" ] ; then env | grep -F NPM | grep -Fv _TOKEN ; fi</v>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">    "sys-info:npm": "if [ \"$NPM\" ] ; then env | grep -F NPM | grep -Fv _TOKEN ; fi",</v>
       </c>
       <c r="L29" s="2">
@@ -1864,31 +1897,31 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2" t="str">
-        <f>IF(ISBLANK(N29),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P29" t="str">
-        <f xml:space="preserve"> CONCATENATE("if [ \""$",UPPER($G29),"\"" ] ; then env | grep -F ",UPPER($G29)," | grep -Fv _TOKEN ; fi", "")</f>
+        <f t="shared" si="12"/>
         <v>if [ \"$NPM\" ] ; then env | grep -F NPM | grep -Fv _TOKEN ; fi</v>
       </c>
     </row>
     <row r="30" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G30" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I30" s="1" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D30:H30)</f>
+        <f t="shared" si="10"/>
         <v>sys-info:nvm</v>
       </c>
       <c r="J30" t="str">
-        <f xml:space="preserve"> IF(NOT(COUNTA(P30:V30)),":",_xlfn.TEXTJOIN(O30,TRUE,N30,_xlfn.TEXTJOIN(O30,TRUE,P30:V30)))</f>
+        <f t="shared" si="11"/>
         <v>if [ \"$NVM\" ] ; then env | grep -F NVM | grep -Fv _TOKEN ; fi</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">    "sys-info:nvm": "if [ \"$NVM\" ] ; then env | grep -F NVM | grep -Fv _TOKEN ; fi",</v>
       </c>
       <c r="L30" s="2">
@@ -1897,157 +1930,198 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2" t="str">
-        <f>IF(ISBLANK(N30),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P30" t="str">
-        <f xml:space="preserve"> CONCATENATE("if [ \""$",UPPER($G30),"\"" ] ; then env | grep -F ",UPPER($G30)," | grep -Fv _TOKEN ; fi", "")</f>
+        <f t="shared" si="12"/>
         <v>if [ \"$NVM\" ] ; then env | grep -F NVM | grep -Fv _TOKEN ; fi</v>
       </c>
     </row>
     <row r="31" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="I31" s="1" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D31:H31)</f>
+        <f t="shared" si="10"/>
         <v>report-goal</v>
       </c>
       <c r="J31" t="str">
-        <f xml:space="preserve"> IF(NOT(COUNTA(P31:V31)),":",_xlfn.TEXTJOIN(O31,TRUE,N31,_xlfn.TEXTJOIN(O31,TRUE,P31:V31)))</f>
+        <f t="shared" si="11"/>
         <v>echo Plan: Include a full SD process in CI/CD pipeline</v>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">    "report-goal": "date &amp;&amp; time echo Plan: Include a full SD process in CI/CD pipeline",</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2" t="str">
-        <f>IF(ISBLANK(N31),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I32" s="1" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D32:H32)</f>
+        <f t="shared" si="10"/>
         <v>dev:plan-phase:update:report:action</v>
       </c>
       <c r="J32" t="str">
-        <f xml:space="preserve"> IF(NOT(COUNTA(P32:V32)),":",_xlfn.TEXTJOIN(O32,TRUE,N32,_xlfn.TEXTJOIN(O32,TRUE,P32:V32)))</f>
-        <v>echo Update: TODO: Update the dependencies to latest</v>
+        <f t="shared" si="11"/>
+        <v>if [ ! \"$CI\" ] ; then npm-run-all update-packages:* ; fi</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    "dev:plan-phase:update:report:action": "date &amp;&amp; time echo Update: TODO: Update the dependencies to latest",</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "dev:plan-phase:update:report:action": "date &amp;&amp; time if [ ! \"$CI\" ] ; then npm-run-all update-packages:* ; fi",</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2" t="str">
-        <f>IF(ISBLANK(N32),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P32" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="33" spans="3:17" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>220</v>
+      </c>
       <c r="F33" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="G33" t="s">
+        <v>212</v>
       </c>
       <c r="I33" s="1" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D33:H33)</f>
-        <v>update-packages</v>
+        <f t="shared" si="10"/>
+        <v>off:update-packages:npm-outdated</v>
       </c>
       <c r="J33" t="str">
-        <f xml:space="preserve"> IF(NOT(COUNTA(P33:V33)),":",_xlfn.TEXTJOIN(O33,TRUE,N33,_xlfn.TEXTJOIN(O33,TRUE,P33:V33)))</f>
-        <v>node wipe-dependencies.js &amp;&amp; rm -rf node_modules &amp;&amp; npm update --save-dev &amp;&amp; npm update --save</v>
+        <f t="shared" si="11"/>
+        <v>npm outdated</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    "update-packages": "date &amp;&amp; time node wipe-dependencies.js &amp;&amp; rm -rf node_modules &amp;&amp; npm update --save-dev &amp;&amp; npm update --save",</v>
-      </c>
-      <c r="L33" s="2"/>
+        <f t="shared" ref="K33" si="13">IF(ISBLANK(I33),"",CONCATENATE("    """,I33,""": ","""",IF(LEN(J33)&gt;1,CONCATENATE(IF(L33,"",CONCATENATE(N$3," ")),""),""),IF(M33,"echo ",""),J33,""","))</f>
+        <v xml:space="preserve">    "off:update-packages:npm-outdated": "npm outdated",</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1</v>
+      </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2" t="str">
-        <f>IF(ISBLANK(N33),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="3:17" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>220</v>
+      </c>
+      <c r="F34" t="s">
+        <v>149</v>
+      </c>
+      <c r="G34" t="s">
+        <v>219</v>
+      </c>
+      <c r="I34" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>off:update-packages:npm-update-save-dev</v>
+      </c>
       <c r="J34" t="str">
-        <f t="shared" si="1"/>
-        <v>:</v>
+        <f t="shared" si="11"/>
+        <v>npm update --save-dev</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L34" s="2"/>
+        <f t="shared" ref="K34:K39" si="14">IF(ISBLANK(I34),"",CONCATENATE("    """,I34,""": ","""",IF(LEN(J34)&gt;1,CONCATENATE(IF(L34,"",CONCATENATE(N$3," ")),""),""),IF(M34,"echo ",""),J34,""","))</f>
+        <v xml:space="preserve">    "off:update-packages:npm-update-save-dev": "npm update --save-dev",</v>
+      </c>
+      <c r="L34" s="2">
+        <v>1</v>
+      </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2" t="str">
-        <f>IF(ISBLANK(N34),CONCATENATE(" ",$O$4," ")," ")</f>
-        <v xml:space="preserve"> &amp;&amp; </v>
-      </c>
-    </row>
-    <row r="35" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>160</v>
-      </c>
-      <c r="E35" t="str">
-        <f xml:space="preserve"> CONCATENATE("// ",C35)</f>
-        <v>// CODE</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
+      </c>
+      <c r="P34" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>220</v>
+      </c>
+      <c r="F35" t="s">
+        <v>149</v>
+      </c>
+      <c r="G35" t="s">
+        <v>210</v>
       </c>
       <c r="I35" s="1" t="str">
-        <f t="shared" ref="I35" si="9" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D35:H35)</f>
-        <v>// CODE</v>
+        <f t="shared" si="10"/>
+        <v>off:update-packages:npm-update-save</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="1"/>
-        <v>:</v>
+        <f t="shared" si="11"/>
+        <v>npm update --save</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    "// CODE": ":",</v>
-      </c>
-      <c r="L35" s="2"/>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">    "off:update-packages:npm-update-save": "npm update --save",</v>
+      </c>
+      <c r="L35" s="2">
+        <v>1</v>
+      </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2" t="str">
-        <f>IF(ISBLANK(N35),CONCATENATE(" ",$O$4," ")," ")</f>
-        <v xml:space="preserve"> &amp;&amp; </v>
-      </c>
-    </row>
-    <row r="36" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>135</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
+      </c>
+      <c r="P35" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>220</v>
+      </c>
+      <c r="F36" t="s">
+        <v>149</v>
+      </c>
+      <c r="G36" t="s">
+        <v>209</v>
       </c>
       <c r="I36" s="1" t="str">
         <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D36:H36)</f>
-        <v>dev:code-phase:code:report:action</v>
+        <v>off:update-packages:ng-update-all</v>
       </c>
       <c r="J36" t="str">
         <f xml:space="preserve"> IF(NOT(COUNTA(P36:V36)),":",_xlfn.TEXTJOIN(O36,TRUE,N36,_xlfn.TEXTJOIN(O36,TRUE,P36:V36)))</f>
-        <v>echo TODO: Code: Implement the new features planned</v>
+        <v>ng update --all --allowDirty --force</v>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    "dev:code-phase:code:report:action": "date &amp;&amp; time echo TODO: Code: Implement the new features planned",</v>
-      </c>
-      <c r="L36" s="2"/>
+        <f>IF(ISBLANK(I36),"",CONCATENATE("    """,I36,""": ","""",IF(LEN(J36)&gt;1,CONCATENATE(IF(L36,"",CONCATENATE(N$3," ")),""),""),IF(M36,"echo ",""),J36,""","))</f>
+        <v xml:space="preserve">    "off:update-packages:ng-update-all": "ng update --all --allowDirty --force",</v>
+      </c>
+      <c r="L36" s="2">
+        <v>1</v>
+      </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2" t="str">
@@ -2055,45 +2129,59 @@
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P36" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37" spans="3:17" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="37" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>149</v>
+      </c>
+      <c r="G37" t="s">
+        <v>208</v>
+      </c>
+      <c r="I37" s="1" t="str">
+        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D37:H37)</f>
+        <v>update-packages:ng-update</v>
+      </c>
       <c r="J37" t="str">
-        <f t="shared" ref="J37:J38" si="10" xml:space="preserve"> IF(NOT(COUNTA(P37:V37)),":",_xlfn.TEXTJOIN(O37,TRUE,N37,_xlfn.TEXTJOIN(O37,TRUE,P37:V37)))</f>
-        <v>:</v>
+        <f xml:space="preserve"> IF(NOT(COUNTA(P37:V37)),":",_xlfn.TEXTJOIN(O37,TRUE,N37,_xlfn.TEXTJOIN(O37,TRUE,P37:V37)))</f>
+        <v>ng update</v>
       </c>
       <c r="K37" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L37" s="2"/>
+        <f>IF(ISBLANK(I37),"",CONCATENATE("    """,I37,""": ","""",IF(LEN(J37)&gt;1,CONCATENATE(IF(L37,"",CONCATENATE(N$3," ")),""),""),IF(M37,"echo ",""),J37,""","))</f>
+        <v xml:space="preserve">    "update-packages:ng-update": "ng update",</v>
+      </c>
+      <c r="L37" s="2">
+        <v>1</v>
+      </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2" t="str">
-        <f t="shared" ref="O37" si="11">IF(ISBLANK(N37),CONCATENATE(" ",$O$4," ")," ")</f>
-        <v xml:space="preserve"> &amp;&amp; </v>
-      </c>
-    </row>
-    <row r="38" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>157</v>
-      </c>
-      <c r="E38" t="str">
-        <f xml:space="preserve"> CONCATENATE("// ",C38)</f>
-        <v>// BUILD</v>
+        <f>IF(ISBLANK(N37),CONCATENATE(" ",$O$4," ")," ")</f>
+        <v xml:space="preserve"> &amp;&amp; </v>
+      </c>
+      <c r="P37" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>149</v>
+      </c>
+      <c r="G38" t="s">
+        <v>211</v>
       </c>
       <c r="I38" s="1" t="str">
-        <f t="shared" ref="I38" si="12" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D38:H38)</f>
-        <v>// BUILD</v>
+        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D38:H38)</f>
+        <v>update-packages:npx-npm-check-updates-u</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="10"/>
-        <v>:</v>
+        <f xml:space="preserve"> IF(NOT(COUNTA(P38:V38)),":",_xlfn.TEXTJOIN(O38,TRUE,N38,_xlfn.TEXTJOIN(O38,TRUE,P38:V38)))</f>
+        <v>npx npm-check-updates -u -x typescript</v>
       </c>
       <c r="K38" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    "// BUILD": ":",</v>
+        <f>IF(ISBLANK(I38),"",CONCATENATE("    """,I38,""": ","""",IF(LEN(J38)&gt;1,CONCATENATE(IF(L38,"",CONCATENATE(N$3," ")),""),""),IF(M38,"echo ",""),J38,""","))</f>
+        <v xml:space="preserve">    "update-packages:npx-npm-check-updates-u": "date &amp;&amp; time npx npm-check-updates -u -x typescript",</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
@@ -2102,609 +2190,590 @@
         <f>IF(ISBLANK(N38),CONCATENATE(" ",$O$4," ")," ")</f>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
-    </row>
-    <row r="39" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>132</v>
+      <c r="P38" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>218</v>
+      </c>
+      <c r="F39" t="s">
+        <v>149</v>
       </c>
       <c r="I39" s="1" t="str">
-        <f t="shared" ref="I39:I48" si="13" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D39:H39)</f>
-        <v>dev:build-phase:install:prepare:action</v>
+        <f t="shared" si="10"/>
+        <v>deprecated:update-packages</v>
       </c>
       <c r="J39" t="str">
-        <f t="shared" ref="J39" si="14" xml:space="preserve"> IF(NOT(COUNTA(P39:V39)),":",_xlfn.TEXTJOIN(O39,TRUE,N39,_xlfn.TEXTJOIN(O39,TRUE,P39:V39)))</f>
-        <v>if test \"$CI\" ; then snyk auth $SNYK_TOKEN ; fi</v>
+        <f t="shared" si="11"/>
+        <v>node wipe-dependencies.js &amp;&amp; rm -rf node_modules &amp;&amp; npm update --save-dev &amp;&amp; npm update --save</v>
       </c>
       <c r="K39" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    "dev:build-phase:install:prepare:action": "date &amp;&amp; time if test \"$CI\" ; then snyk auth $SNYK_TOKEN ; fi",</v>
-      </c>
-      <c r="L39" s="2"/>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">    "deprecated:update-packages": "node wipe-dependencies.js &amp;&amp; rm -rf node_modules &amp;&amp; npm update --save-dev &amp;&amp; npm update --save",</v>
+      </c>
+      <c r="L39" s="2">
+        <v>1</v>
+      </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2" t="str">
-        <f t="shared" ref="O39" si="15">IF(ISBLANK(N39),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P39" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="40" spans="3:17" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="3:16" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
-        <v>61</v>
+        <v>149</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
       </c>
       <c r="I40" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>snyk-protect</v>
+        <f t="shared" si="10"/>
+        <v>update-packages:report</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" ref="J40:J51" si="16" xml:space="preserve"> IF(NOT(COUNTA(P40:V40)),":",_xlfn.TEXTJOIN(O40,TRUE,N40,_xlfn.TEXTJOIN(O40,TRUE,P40:V40)))</f>
-        <v>snyk protect</v>
+        <f t="shared" si="11"/>
+        <v>echo Update: TODO: Update the dependencies to latest</v>
       </c>
       <c r="K40" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    "snyk-protect": "date &amp;&amp; time snyk protect",</v>
-      </c>
-      <c r="L40" s="2"/>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "update-packages:report": "echo Update: TODO: Update the dependencies to latest",</v>
+      </c>
+      <c r="L40" s="2">
+        <v>1</v>
+      </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2" t="str">
-        <f t="shared" ref="O40:O49" si="17">IF(ISBLANK(N40),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>154</v>
-      </c>
-      <c r="F41" t="s">
-        <v>32</v>
-      </c>
-      <c r="I41" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>prepare</v>
-      </c>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="3:16" x14ac:dyDescent="0.25">
       <c r="J41" t="str">
-        <f t="shared" si="16"/>
-        <v>npm-run-all snyk-protect</v>
+        <f t="shared" si="1"/>
+        <v>:</v>
       </c>
       <c r="K41" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    "prepare": "date &amp;&amp; time npm-run-all snyk-protect",</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
-      <c r="N41" s="2" t="str">
-        <f>IF(ISBLANK(P41),"",$N$6)</f>
-        <v>npm-run-all</v>
-      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P41" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
-        <v>155</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
+      </c>
+    </row>
+    <row r="42" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>157</v>
+      </c>
+      <c r="E42" t="str">
+        <f xml:space="preserve"> CONCATENATE("// ",C42)</f>
+        <v>// CODE</v>
       </c>
       <c r="I42" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>dev:build-phase:install:package:package:action</v>
+        <f t="shared" ref="I42" si="15" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D42:H42)</f>
+        <v>// CODE</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="16"/>
-        <v>npm install</v>
+        <f t="shared" si="1"/>
+        <v>:</v>
       </c>
       <c r="K42" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    "dev:build-phase:install:package:package:action": "date &amp;&amp; time npm install",</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "// CODE": ":",</v>
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve"> &amp;&amp; </v>
-      </c>
-      <c r="P42" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="43" spans="3:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
+      </c>
+    </row>
+    <row r="43" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I43" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>dev:build-phase:install:report:action</v>
+        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D43:H43)</f>
+        <v>dev:code-phase:code:report:action</v>
       </c>
       <c r="J43" t="str">
-        <f t="shared" si="16"/>
-        <v>echo Install: TODO: Link to install logs</v>
+        <f xml:space="preserve"> IF(NOT(COUNTA(P43:V43)),":",_xlfn.TEXTJOIN(O43,TRUE,N43,_xlfn.TEXTJOIN(O43,TRUE,P43:V43)))</f>
+        <v>echo TODO: Code: Implement the new features planned</v>
       </c>
       <c r="K43" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    "dev:build-phase:install:report:action": "date &amp;&amp; time echo Install: TODO: Link to install logs",</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "dev:code-phase:code:report:action": "date &amp;&amp; time echo TODO: Code: Implement the new features planned",</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P43" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="44" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
-        <v>146</v>
-      </c>
-      <c r="I44" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>dev:build-phase:build:package:action</v>
-      </c>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="3:16" x14ac:dyDescent="0.25">
       <c r="J44" t="str">
-        <f t="shared" si="16"/>
-        <v>if test \"$CI\" ; then npm run build-ci ; else npm run build ; fi</v>
+        <f t="shared" ref="J44:J45" si="16" xml:space="preserve"> IF(NOT(COUNTA(P44:V44)),":",_xlfn.TEXTJOIN(O44,TRUE,N44,_xlfn.TEXTJOIN(O44,TRUE,P44:V44)))</f>
+        <v>:</v>
       </c>
       <c r="K44" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    "dev:build-phase:build:package:action": "date &amp;&amp; time if test \"$CI\" ; then npm run build-ci ; else npm run build ; fi",</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve"> &amp;&amp; </v>
-      </c>
-      <c r="P44" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="45" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="F45" t="s">
-        <v>1</v>
+        <f t="shared" ref="O44" si="17">IF(ISBLANK(N44),CONCATENATE(" ",$O$4," ")," ")</f>
+        <v xml:space="preserve"> &amp;&amp; </v>
+      </c>
+    </row>
+    <row r="45" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>154</v>
+      </c>
+      <c r="E45" t="str">
+        <f xml:space="preserve"> CONCATENATE("// ",C45)</f>
+        <v>// BUILD</v>
       </c>
       <c r="I45" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>build</v>
+        <f t="shared" ref="I45" si="18" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D45:H45)</f>
+        <v>// BUILD</v>
       </c>
       <c r="J45" t="str">
         <f t="shared" si="16"/>
-        <v>if test \"$CI\" ; then npm run PIPELINE ; else ng build ; fi</v>
+        <v>:</v>
       </c>
       <c r="K45" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    "build": "date &amp;&amp; time if test \"$CI\" ; then npm run PIPELINE ; else ng build ; fi",</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "// BUILD": ":",</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve"> &amp;&amp; </v>
-      </c>
-      <c r="P45" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="46" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="F46" t="s">
-        <v>167</v>
+        <f>IF(ISBLANK(N45),CONCATENATE(" ",$O$4," ")," ")</f>
+        <v xml:space="preserve"> &amp;&amp; </v>
+      </c>
+    </row>
+    <row r="46" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>130</v>
       </c>
       <c r="I46" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>build-prod</v>
+        <f t="shared" ref="I46:I55" si="19" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D46:H46)</f>
+        <v>dev:build-phase:install:prepare:action</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="16"/>
-        <v>ng build --configuration=\"production\"</v>
+        <f t="shared" ref="J46" si="20" xml:space="preserve"> IF(NOT(COUNTA(P46:V46)),":",_xlfn.TEXTJOIN(O46,TRUE,N46,_xlfn.TEXTJOIN(O46,TRUE,P46:V46)))</f>
+        <v>if [ \"$CI\" ] ; then snyk auth $SNYK_TOKEN ; fi</v>
       </c>
       <c r="K46" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    "build-prod": "date &amp;&amp; time ng build --configuration=\"production\"",</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "dev:build-phase:install:prepare:action": "date &amp;&amp; time if [ \"$CI\" ] ; then snyk auth $SNYK_TOKEN ; fi",</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="O46" si="21">IF(ISBLANK(N46),CONCATENATE(" ",$O$4," ")," ")</f>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P46" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="47" spans="3:17" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="47" spans="3:16" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
-        <v>166</v>
+        <v>59</v>
       </c>
       <c r="I47" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>build-ci</v>
+        <f t="shared" si="19"/>
+        <v>snyk-protect</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="16"/>
-        <v>ng build --configuration=\"heroku\"</v>
+        <f t="shared" ref="J47:J58" si="22" xml:space="preserve"> IF(NOT(COUNTA(P47:V47)),":",_xlfn.TEXTJOIN(O47,TRUE,N47,_xlfn.TEXTJOIN(O47,TRUE,P47:V47)))</f>
+        <v>snyk protect</v>
       </c>
       <c r="K47" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    "build-ci": "date &amp;&amp; time ng build --configuration=\"heroku\"",</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "snyk-protect": "date &amp;&amp; time snyk protect",</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="O47:O56" si="23">IF(ISBLANK(N47),CONCATENATE(" ",$O$4," ")," ")</f>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P47" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="48" spans="3:17" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>151</v>
+      </c>
       <c r="F48" t="s">
-        <v>176</v>
+        <v>32</v>
       </c>
       <c r="I48" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>rebuild-heroku</v>
+        <f t="shared" si="19"/>
+        <v>prepare</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="16"/>
-        <v>git commit --allow-empty -m \"empty commit\" &amp;&amp; git push heroku master</v>
+        <f t="shared" si="22"/>
+        <v>npm-run-all snyk-protect</v>
       </c>
       <c r="K48" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    "rebuild-heroku": "date &amp;&amp; time git commit --allow-empty -m \"empty commit\" &amp;&amp; git push heroku master",</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "prepare": "date &amp;&amp; time npm-run-all snyk-protect",</v>
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+      <c r="N48" s="2" t="str">
+        <f>IF(ISBLANK(P48),"",$N$6)</f>
+        <v>npm-run-all</v>
+      </c>
       <c r="O48" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve"> &amp;&amp; </v>
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P48" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>178</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
-        <v>154</v>
-      </c>
-      <c r="F49" t="s">
-        <v>60</v>
+      <c r="D49" t="s">
+        <v>152</v>
       </c>
       <c r="I49" s="1" t="str">
-        <f t="shared" ref="I49" si="18" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D49:H49)</f>
-        <v>version</v>
+        <f t="shared" si="19"/>
+        <v>dev:build-phase:install:package:package:action</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="16"/>
-        <v>auto-changelog -p &amp;&amp; git add CHANGELOG.md</v>
+        <f t="shared" si="22"/>
+        <v>npm install</v>
       </c>
       <c r="K49" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    "version": "date &amp;&amp; time auto-changelog -p &amp;&amp; git add CHANGELOG.md",</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "dev:build-phase:install:package:package:action": "date &amp;&amp; time npm install",</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P49" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>58</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I50" s="1" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D50:H50)</f>
-        <v>dev:build-phase:build:report:action</v>
+        <f t="shared" si="19"/>
+        <v>dev:build-phase:install:report:action</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="16"/>
-        <v>echo Build: TODO: Link to Build logs</v>
+        <f t="shared" si="22"/>
+        <v>echo Install: TODO: Link to install logs</v>
       </c>
       <c r="K50" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    "dev:build-phase:build:report:action": "date &amp;&amp; time echo Build: TODO: Link to Build logs",</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "dev:build-phase:install:report:action": "date &amp;&amp; time echo Install: TODO: Link to install logs",</v>
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2" t="str">
-        <f t="shared" ref="O50" si="19">IF(ISBLANK(N50),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>144</v>
+      </c>
+      <c r="I51" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>dev:build-phase:build:package:action</v>
+      </c>
       <c r="J51" t="str">
-        <f t="shared" si="16"/>
-        <v>:</v>
+        <f t="shared" si="22"/>
+        <v>if [ \"$CI\" ] ; then npm run build-ci ; else npm run build ; fi</v>
       </c>
       <c r="K51" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "dev:build-phase:build:package:action": "date &amp;&amp; time if [ \"$CI\" ] ; then npm run build-ci ; else npm run build ; fi",</v>
       </c>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2" t="str">
-        <f t="shared" ref="O51:O92" si="20">IF(ISBLANK(N51),CONCATENATE(" ",$O$4," ")," ")</f>
-        <v xml:space="preserve"> &amp;&amp; </v>
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
+      </c>
+      <c r="P51" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="52" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
-        <v>158</v>
-      </c>
-      <c r="E52" t="str">
-        <f xml:space="preserve"> CONCATENATE("// ",C52)</f>
-        <v>// TEST</v>
+      <c r="F52" t="s">
+        <v>1</v>
       </c>
       <c r="I52" s="1" t="str">
-        <f t="shared" ref="I52" si="21" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D52:H52)</f>
-        <v>// TEST</v>
+        <f t="shared" si="19"/>
+        <v>build</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" ref="J52" si="22" xml:space="preserve"> IF(NOT(COUNTA(P52:V52)),":",_xlfn.TEXTJOIN(O52,TRUE,N52,_xlfn.TEXTJOIN(O52,TRUE,P52:V52)))</f>
-        <v>:</v>
+        <f t="shared" si="22"/>
+        <v>if [ \"$CI\" ] ; then npm run PIPELINE ; else ng build ; fi</v>
       </c>
       <c r="K52" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    "// TEST": ":",</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "build": "date &amp;&amp; time if [ \"$CI\" ] ; then npm run PIPELINE ; else ng build ; fi",</v>
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve"> &amp;&amp; </v>
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
+      </c>
+      <c r="P52" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="53" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="D53" t="s">
-        <v>141</v>
+      <c r="F53" t="s">
+        <v>164</v>
       </c>
       <c r="I53" s="1" t="str">
-        <f t="shared" ref="I53:I74" si="23" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D53:H53)</f>
-        <v>dev:test-phase:test:package:vulnerability:action</v>
+        <f t="shared" si="19"/>
+        <v>build-prod</v>
       </c>
       <c r="J53" t="str">
-        <f t="shared" ref="J53:J75" si="24" xml:space="preserve"> IF(NOT(COUNTA(P53:V53)),":",_xlfn.TEXTJOIN(O53,TRUE,N53,_xlfn.TEXTJOIN(O53,TRUE,P53:V53)))</f>
-        <v>npm-run-all vulnerability-check</v>
+        <f t="shared" si="22"/>
+        <v>ng build --configuration=\"production\"</v>
       </c>
       <c r="K53" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    "dev:test-phase:test:package:vulnerability:action": "date &amp;&amp; time npm-run-all vulnerability-check",</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "build-prod": "date &amp;&amp; time ng build --configuration=\"production\"",</v>
       </c>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
-      <c r="N53" s="2" t="str">
-        <f>IF(ISBLANK(P53),"",$N$6)</f>
-        <v>npm-run-all</v>
-      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve"> </v>
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P53" t="s">
-        <v>53</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F54" t="s">
-        <v>53</v>
+        <v>163</v>
       </c>
       <c r="I54" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>vulnerability-check</v>
+        <f t="shared" si="19"/>
+        <v>build-ci</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="24"/>
-        <v>snyk test</v>
+        <f t="shared" si="22"/>
+        <v>ng build --configuration=\"heroku\"</v>
       </c>
       <c r="K54" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    "vulnerability-check": "date &amp;&amp; time snyk test",</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "build-ci": "date &amp;&amp; time ng build --configuration=\"heroku\"",</v>
       </c>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P54" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="D55" t="s">
-        <v>145</v>
+      <c r="F55" t="s">
+        <v>171</v>
       </c>
       <c r="I55" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>dev:test-phase:test:package:unit:action</v>
+        <f t="shared" si="19"/>
+        <v>rebuild-heroku</v>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="24"/>
-        <v>npm-run-all test-once</v>
+        <f t="shared" si="22"/>
+        <v>git commit --allow-empty -m \"empty commit\" &amp;&amp; git push heroku master</v>
       </c>
       <c r="K55" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    "dev:test-phase:test:package:unit:action": "date &amp;&amp; time npm-run-all test-once",</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "rebuild-heroku": "date &amp;&amp; time git commit --allow-empty -m \"empty commit\" &amp;&amp; git push heroku master",</v>
       </c>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
-      <c r="N55" s="2" t="str">
-        <f>IF(ISBLANK(P55),"",$N$6)</f>
-        <v>npm-run-all</v>
-      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve"> </v>
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P55" t="s">
-        <v>46</v>
+        <v>172</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="56" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>151</v>
+      </c>
       <c r="F56" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I56" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>test-once</v>
+        <f t="shared" ref="I56" si="24" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D56:H56)</f>
+        <v>version</v>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="24"/>
-        <v>env singleRun=true ng test --code-coverage</v>
+        <f t="shared" si="22"/>
+        <v>auto-changelog -p &amp;&amp; git add CHANGELOG.md</v>
       </c>
       <c r="K56" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    "test-once": "date &amp;&amp; time env singleRun=true ng test --code-coverage",</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "version": "date &amp;&amp; time auto-changelog -p &amp;&amp; git add CHANGELOG.md",</v>
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P56" t="s">
-        <v>208</v>
+        <v>57</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
-        <v>154</v>
-      </c>
-      <c r="F57" t="s">
-        <v>2</v>
+      <c r="D57" t="s">
+        <v>135</v>
       </c>
       <c r="I57" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>test</v>
+        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D57:H57)</f>
+        <v>dev:build-phase:build:report:action</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" si="24"/>
-        <v>if [ ! \"$TRAVIS\" ] &amp;&amp; [ ! \"$HEROKU\" ] ; then ng test --code-coverage ; fi</v>
+        <f t="shared" si="22"/>
+        <v>echo Build: TODO: Link to Build logs</v>
       </c>
       <c r="K57" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    "test": "if [ ! \"$TRAVIS\" ] &amp;&amp; [ ! \"$HEROKU\" ] ; then ng test --code-coverage ; fi",</v>
-      </c>
-      <c r="L57" s="2">
-        <v>1</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "dev:build-phase:build:report:action": "date &amp;&amp; time echo Build: TODO: Link to Build logs",</v>
+      </c>
+      <c r="L57" s="2"/>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="O57" si="25">IF(ISBLANK(N57),CONCATENATE(" ",$O$4," ")," ")</f>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P57" t="s">
-        <v>179</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="D58" t="s">
-        <v>142</v>
-      </c>
-      <c r="I58" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>dev:test-phase:test:package:integration:action</v>
-      </c>
       <c r="J58" t="str">
-        <f t="shared" si="24"/>
-        <v>npm-run-all e2e</v>
+        <f t="shared" si="22"/>
+        <v>:</v>
       </c>
       <c r="K58" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    "dev:test-phase:test:package:integration:action": "date &amp;&amp; time npm-run-all e2e",</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
-      <c r="N58" s="2" t="str">
-        <f>IF(ISBLANK(P58),"",$N$6)</f>
-        <v>npm-run-all</v>
-      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P58" t="s">
-        <v>56</v>
+        <f t="shared" ref="O58:O99" si="26">IF(ISBLANK(N58),CONCATENATE(" ",$O$4," ")," ")</f>
+        <v xml:space="preserve"> &amp;&amp; </v>
       </c>
     </row>
     <row r="59" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="F59" t="s">
-        <v>56</v>
+      <c r="C59" t="s">
+        <v>155</v>
+      </c>
+      <c r="E59" t="str">
+        <f xml:space="preserve"> CONCATENATE("// ",C59)</f>
+        <v>// TEST</v>
       </c>
       <c r="I59" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>e2e</v>
+        <f t="shared" ref="I59" si="27" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D59:H59)</f>
+        <v>// TEST</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="24"/>
-        <v>if [ ! \"$HEROKU\" ] ; then ng e2e ; fi</v>
+        <f t="shared" ref="J59" si="28" xml:space="preserve"> IF(NOT(COUNTA(P59:V59)),":",_xlfn.TEXTJOIN(O59,TRUE,N59,_xlfn.TEXTJOIN(O59,TRUE,P59:V59)))</f>
+        <v>:</v>
       </c>
       <c r="K59" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    "e2e": "date &amp;&amp; time if [ ! \"$HEROKU\" ] ; then ng e2e ; fi",</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "// TEST": ":",</v>
       </c>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve"> &amp;&amp; </v>
-      </c>
-      <c r="P59" t="s">
-        <v>180</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
       </c>
     </row>
     <row r="60" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I60" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>dev:test-phase:test:measure:action</v>
+        <f t="shared" ref="I60:I81" si="29" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D60:H60)</f>
+        <v>dev:test-phase:test:package:vulnerability:action</v>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="24"/>
-        <v>npm-run-all lint</v>
+        <f t="shared" ref="J60:J82" si="30" xml:space="preserve"> IF(NOT(COUNTA(P60:V60)),":",_xlfn.TEXTJOIN(O60,TRUE,N60,_xlfn.TEXTJOIN(O60,TRUE,P60:V60)))</f>
+        <v>npm-run-all vulnerability-check</v>
       </c>
       <c r="K60" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    "dev:test-phase:test:measure:action": "date &amp;&amp; time npm-run-all lint",</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "dev:test-phase:test:package:vulnerability:action": "date &amp;&amp; time npm-run-all vulnerability-check",</v>
       </c>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
@@ -2713,55 +2782,55 @@
         <v>npm-run-all</v>
       </c>
       <c r="O60" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P60" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F61" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I61" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>lint</v>
+        <f t="shared" si="29"/>
+        <v>vulnerability-check</v>
       </c>
       <c r="J61" t="str">
-        <f t="shared" si="24"/>
-        <v>ng  lint</v>
+        <f t="shared" si="30"/>
+        <v>snyk test</v>
       </c>
       <c r="K61" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    "lint": "date &amp;&amp; time ng  lint",</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "vulnerability-check": "date &amp;&amp; time snyk test",</v>
       </c>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P61" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="I62" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>dev:test-phase:codecover:package:action</v>
+        <f t="shared" si="29"/>
+        <v>dev:test-phase:test:package:unit:action</v>
       </c>
       <c r="J62" t="str">
-        <f t="shared" si="24"/>
-        <v>npm-run-all codecov coveralls</v>
+        <f t="shared" si="30"/>
+        <v>npm-run-all test-once</v>
       </c>
       <c r="K62" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    "dev:test-phase:codecover:package:action": "date &amp;&amp; time npm-run-all codecov coveralls",</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "dev:test-phase:test:package:unit:action": "date &amp;&amp; time npm-run-all test-once",</v>
       </c>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
@@ -2770,3769 +2839,3979 @@
         <v>npm-run-all</v>
       </c>
       <c r="O62" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P62" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F63" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="I63" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>codecov</v>
+        <f t="shared" si="29"/>
+        <v>test-once</v>
       </c>
       <c r="J63" t="str">
-        <f t="shared" si="24"/>
-        <v>codecov</v>
+        <f t="shared" si="30"/>
+        <v>env singleRun=true ng test --code-coverage</v>
       </c>
       <c r="K63" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    "codecov": "date &amp;&amp; time codecov",</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "test-once": "date &amp;&amp; time env singleRun=true ng test --code-coverage",</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P63" t="s">
-        <v>67</v>
+        <v>202</v>
       </c>
     </row>
     <row r="64" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>151</v>
+      </c>
       <c r="F64" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I64" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>coveralls</v>
+        <f t="shared" si="29"/>
+        <v>test</v>
       </c>
       <c r="J64" t="str">
-        <f t="shared" si="24"/>
-        <v>node ./node_modules/coveralls/bin/coveralls.js &lt; ./coverage/lcov.info</v>
+        <f t="shared" si="30"/>
+        <v>if [ ! \"$TRAVIS\" ] &amp;&amp; [ ! \"$HEROKU\" ] ; then ng test --code-coverage ; fi</v>
       </c>
       <c r="K64" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    "coveralls": "date &amp;&amp; time node ./node_modules/coveralls/bin/coveralls.js &lt; ./coverage/lcov.info",</v>
-      </c>
-      <c r="L64" s="2"/>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "test": "if [ ! \"$TRAVIS\" ] &amp;&amp; [ ! \"$HEROKU\" ] ; then ng test --code-coverage ; fi",</v>
+      </c>
+      <c r="L64" s="2">
+        <v>1</v>
+      </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P64" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="65" spans="3:22" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="65" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
         <v>140</v>
       </c>
       <c r="I65" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>dev:test-phase:document:package:action</v>
+        <f t="shared" si="29"/>
+        <v>dev:test-phase:test:package:integration:action</v>
       </c>
       <c r="J65" t="str">
-        <f t="shared" si="24"/>
-        <v>npm-run-all compodoc</v>
+        <f t="shared" si="30"/>
+        <v>npm-run-all e2e</v>
       </c>
       <c r="K65" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    "dev:test-phase:document:package:action": "date &amp;&amp; time npm-run-all compodoc",</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "dev:test-phase:test:package:integration:action": "date &amp;&amp; time npm-run-all e2e",</v>
       </c>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
       <c r="N65" s="2" t="str">
-        <f t="shared" ref="N65" si="25">IF(ISBLANK(P65),"",$N$6)</f>
+        <f>IF(ISBLANK(P65),"",$N$6)</f>
         <v>npm-run-all</v>
       </c>
       <c r="O65" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P65" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="66" spans="3:22" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="66" spans="4:22" x14ac:dyDescent="0.25">
       <c r="F66" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="I66" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>compodoc</v>
+        <f t="shared" si="29"/>
+        <v>e2e</v>
       </c>
       <c r="J66" t="str">
-        <f t="shared" si="24"/>
-        <v>compodoc -p src/tsconfig.app.json --theme vagrant --hideGenerator --disableSourceCode --disablePrivate --disableTemplateTab --customFavicon \"./src/favicon/android-chrome-512x512.png\" -n \"CV Generator Documentation\"</v>
+        <f t="shared" si="30"/>
+        <v>if [ ! \"$HEROKU\" ] ; then ng e2e ; fi</v>
       </c>
       <c r="K66" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    "compodoc": "date &amp;&amp; time compodoc -p src/tsconfig.app.json --theme vagrant --hideGenerator --disableSourceCode --disablePrivate --disableTemplateTab --customFavicon \"./src/favicon/android-chrome-512x512.png\" -n \"CV Generator Documentation\"",</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "e2e": "date &amp;&amp; time if [ ! \"$HEROKU\" ] ; then ng e2e ; fi",</v>
       </c>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P66" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="3:22" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="67" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="I67" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>dev:test-phase:integrate:package:action</v>
+        <f t="shared" si="29"/>
+        <v>dev:test-phase:test:measure:action</v>
       </c>
       <c r="J67" t="str">
-        <f t="shared" si="24"/>
-        <v>npm-run-all ngsw-config ngsw-copy favicon-copy google-copy manifest-copy cov-copy doc-copy</v>
+        <f t="shared" si="30"/>
+        <v>npm-run-all lint</v>
       </c>
       <c r="K67" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    "dev:test-phase:integrate:package:action": "date &amp;&amp; time npm-run-all ngsw-config ngsw-copy favicon-copy google-copy manifest-copy cov-copy doc-copy",</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "dev:test-phase:test:measure:action": "date &amp;&amp; time npm-run-all lint",</v>
       </c>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
       <c r="N67" s="2" t="str">
-        <f t="shared" ref="N67" si="26">IF(ISBLANK(P67),"",$N$6)</f>
+        <f>IF(ISBLANK(P67),"",$N$6)</f>
         <v>npm-run-all</v>
       </c>
       <c r="O67" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P67" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>25</v>
-      </c>
-      <c r="R67" t="s">
-        <v>26</v>
-      </c>
-      <c r="S67" t="s">
-        <v>44</v>
-      </c>
-      <c r="T67" t="s">
-        <v>45</v>
-      </c>
-      <c r="U67" t="s">
-        <v>43</v>
-      </c>
-      <c r="V67" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="68" spans="3:22" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="4:22" x14ac:dyDescent="0.25">
       <c r="F68" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="I68" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>ngsw-config</v>
+        <f t="shared" si="29"/>
+        <v>lint</v>
       </c>
       <c r="J68" t="str">
-        <f t="shared" si="24"/>
-        <v>node_modules/.bin/ngsw-config dist src/ngsw-config.json</v>
+        <f t="shared" si="30"/>
+        <v>ng  lint</v>
       </c>
       <c r="K68" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    "ngsw-config": "date &amp;&amp; time node_modules/.bin/ngsw-config dist src/ngsw-config.json",</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "lint": "date &amp;&amp; time ng  lint",</v>
       </c>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P68" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="69" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="F69" t="s">
-        <v>25</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>137</v>
       </c>
       <c r="I69" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>ngsw-copy</v>
+        <f t="shared" si="29"/>
+        <v>dev:test-phase:codecover:package:action</v>
       </c>
       <c r="J69" t="str">
-        <f t="shared" si="24"/>
-        <v>cp node_modules/@angular/service-worker/ngsw-worker.js dist/</v>
+        <f t="shared" si="30"/>
+        <v>npm-run-all codecov coveralls</v>
       </c>
       <c r="K69" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    "ngsw-copy": "date &amp;&amp; time cp node_modules/@angular/service-worker/ngsw-worker.js dist/",</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "dev:test-phase:codecover:package:action": "date &amp;&amp; time npm-run-all codecov coveralls",</v>
       </c>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+      <c r="N69" s="2" t="str">
+        <f>IF(ISBLANK(P69),"",$N$6)</f>
+        <v>npm-run-all</v>
+      </c>
       <c r="O69" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve"> &amp;&amp; </v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P69" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="70" spans="3:22" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="4:22" x14ac:dyDescent="0.25">
       <c r="F70" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="I70" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>favicon-copy</v>
+        <f t="shared" si="29"/>
+        <v>codecov</v>
       </c>
       <c r="J70" t="str">
-        <f t="shared" si="24"/>
-        <v>cp src/favicon/* dist/favicon/</v>
+        <f t="shared" si="30"/>
+        <v>codecov</v>
       </c>
       <c r="K70" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    "favicon-copy": "date &amp;&amp; time cp src/favicon/* dist/favicon/",</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "codecov": "date &amp;&amp; time codecov",</v>
       </c>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P70" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="71" spans="3:22" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="4:22" x14ac:dyDescent="0.25">
       <c r="F71" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="I71" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>google-copy</v>
+        <f t="shared" si="29"/>
+        <v>coveralls</v>
       </c>
       <c r="J71" t="str">
-        <f t="shared" si="24"/>
-        <v>cp src/google/*.* dist/</v>
+        <f t="shared" si="30"/>
+        <v>node ./node_modules/coveralls/bin/coveralls.js &lt; ./coverage/lcov.info</v>
       </c>
       <c r="K71" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    "google-copy": "date &amp;&amp; time cp src/google/*.* dist/",</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "coveralls": "date &amp;&amp; time node ./node_modules/coveralls/bin/coveralls.js &lt; ./coverage/lcov.info",</v>
       </c>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P71" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="72" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="F72" t="s">
-        <v>45</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>138</v>
       </c>
       <c r="I72" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>manifest-copy</v>
+        <f t="shared" si="29"/>
+        <v>dev:test-phase:document:package:action</v>
       </c>
       <c r="J72" t="str">
-        <f t="shared" si="24"/>
-        <v>cp src/manifest.json dist/</v>
+        <f t="shared" si="30"/>
+        <v>npm-run-all compodoc</v>
       </c>
       <c r="K72" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    "manifest-copy": "date &amp;&amp; time cp src/manifest.json dist/",</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "dev:test-phase:document:package:action": "date &amp;&amp; time npm-run-all compodoc",</v>
       </c>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+      <c r="N72" s="2" t="str">
+        <f t="shared" ref="N72" si="31">IF(ISBLANK(P72),"",$N$6)</f>
+        <v>npm-run-all</v>
+      </c>
       <c r="O72" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve"> &amp;&amp; </v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P72" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="73" spans="3:22" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="4:22" x14ac:dyDescent="0.25">
       <c r="F73" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I73" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>cov-copy</v>
+        <f t="shared" si="29"/>
+        <v>compodoc</v>
       </c>
       <c r="J73" t="str">
-        <f t="shared" si="24"/>
-        <v>cp -r coverage dist/coverage/</v>
+        <f t="shared" si="30"/>
+        <v>compodoc -p src/tsconfig.app.json --theme vagrant --hideGenerator --disableSourceCode --disablePrivate --disableTemplateTab --customFavicon \"./src/favicon/android-chrome-512x512.png\" -n \"CV Generator Documentation\"</v>
       </c>
       <c r="K73" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    "cov-copy": "date &amp;&amp; time cp -r coverage dist/coverage/",</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "compodoc": "date &amp;&amp; time compodoc -p src/tsconfig.app.json --theme vagrant --hideGenerator --disableSourceCode --disablePrivate --disableTemplateTab --customFavicon \"./src/favicon/android-chrome-512x512.png\" -n \"CV Generator Documentation\"",</v>
       </c>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P73" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="74" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="F74" t="s">
-        <v>42</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>121</v>
       </c>
       <c r="I74" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>doc-copy</v>
+        <f t="shared" si="29"/>
+        <v>dev:test-phase:integrate:package:action</v>
       </c>
       <c r="J74" t="str">
-        <f t="shared" si="24"/>
-        <v>cp -r documentation dist/documentation/</v>
+        <f t="shared" si="30"/>
+        <v>npm-run-all ngsw-config ngsw-copy favicon-copy google-copy manifest-copy cov-copy doc-copy</v>
       </c>
       <c r="K74" t="str">
-        <f t="shared" ref="K74:K137" si="27">IF(ISBLANK(I74),"",CONCATENATE("    """,I74,""": ","""",IF(LEN(J74)&gt;1,CONCATENATE(IF(L74,"",CONCATENATE(N$3," ")),""),""),IF(M74,"echo ",""),J74,""","))</f>
-        <v xml:space="preserve">    "doc-copy": "date &amp;&amp; time cp -r documentation dist/documentation/",</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "dev:test-phase:integrate:package:action": "date &amp;&amp; time npm-run-all ngsw-config ngsw-copy favicon-copy google-copy manifest-copy cov-copy doc-copy",</v>
       </c>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+      <c r="N74" s="2" t="str">
+        <f t="shared" ref="N74" si="32">IF(ISBLANK(P74),"",$N$6)</f>
+        <v>npm-run-all</v>
+      </c>
       <c r="O74" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve"> &amp;&amp; </v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P74" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="75" spans="3:22" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>25</v>
+      </c>
+      <c r="R74" t="s">
+        <v>26</v>
+      </c>
+      <c r="S74" t="s">
+        <v>44</v>
+      </c>
+      <c r="T74" t="s">
+        <v>45</v>
+      </c>
+      <c r="U74" t="s">
+        <v>43</v>
+      </c>
+      <c r="V74" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="F75" t="s">
+        <v>24</v>
+      </c>
+      <c r="I75" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>ngsw-config</v>
+      </c>
       <c r="J75" t="str">
-        <f t="shared" si="24"/>
-        <v>:</v>
+        <f t="shared" si="30"/>
+        <v>if [ \"$production\" ] ; then node_modules/.bin/ngsw-config dist src/ngsw-config.json ; fi</v>
       </c>
       <c r="K75" t="str">
-        <f t="shared" si="27"/>
-        <v/>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "ngsw-config": "date &amp;&amp; time if [ \"$production\" ] ; then node_modules/.bin/ngsw-config dist src/ngsw-config.json ; fi",</v>
       </c>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve"> &amp;&amp; </v>
-      </c>
-    </row>
-    <row r="76" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C76" t="s">
-        <v>163</v>
-      </c>
-      <c r="E76" t="str">
-        <f xml:space="preserve"> CONCATENATE("// ",C76)</f>
-        <v>// RELEASE</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
+      </c>
+      <c r="P75" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="76" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
+        <v>25</v>
       </c>
       <c r="I76" s="1" t="str">
-        <f t="shared" ref="I76" si="28" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D76:H76)</f>
-        <v>// RELEASE</v>
+        <f t="shared" si="29"/>
+        <v>ngsw-copy</v>
       </c>
       <c r="J76" t="str">
-        <f t="shared" ref="J76" si="29" xml:space="preserve"> IF(NOT(COUNTA(P76:V76)),":",_xlfn.TEXTJOIN(O76,TRUE,N76,_xlfn.TEXTJOIN(O76,TRUE,P76:V76)))</f>
-        <v>:</v>
+        <f t="shared" si="30"/>
+        <v>if [ \"$production\" ] ; then cp node_modules/@angular/service-worker/ngsw-worker.js dist/ ; fi</v>
       </c>
       <c r="K76" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "// RELEASE": ":",</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "ngsw-copy": "date &amp;&amp; time if [ \"$production\" ] ; then cp node_modules/@angular/service-worker/ngsw-worker.js dist/ ; fi",</v>
       </c>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve"> &amp;&amp; </v>
-      </c>
-    </row>
-    <row r="77" spans="3:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
+      </c>
+      <c r="P76" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="77" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="F77" t="s">
+        <v>26</v>
+      </c>
+      <c r="I77" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>favicon-copy</v>
+      </c>
       <c r="J77" t="str">
-        <f xml:space="preserve"> IF(NOT(COUNTA(P77:V77)),":",_xlfn.TEXTJOIN(O77,TRUE,N77,_xlfn.TEXTJOIN(O77,TRUE,P77:V77)))</f>
-        <v>:</v>
+        <f t="shared" si="30"/>
+        <v>cp src/favicon/* dist/favicon/</v>
       </c>
       <c r="K77" t="str">
-        <f t="shared" si="27"/>
-        <v/>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "favicon-copy": "date &amp;&amp; time cp src/favicon/* dist/favicon/",</v>
       </c>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve"> &amp;&amp; </v>
-      </c>
-    </row>
-    <row r="78" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C78" t="s">
-        <v>164</v>
-      </c>
-      <c r="E78" t="str">
-        <f xml:space="preserve"> CONCATENATE("// ",C78)</f>
-        <v>// CONFIGURE</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
+      </c>
+      <c r="P77" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="F78" t="s">
+        <v>44</v>
       </c>
       <c r="I78" s="1" t="str">
-        <f t="shared" ref="I78" si="30" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D78:H78)</f>
-        <v>// CONFIGURE</v>
+        <f t="shared" si="29"/>
+        <v>google-copy</v>
       </c>
       <c r="J78" t="str">
-        <f t="shared" ref="J78" si="31" xml:space="preserve"> IF(NOT(COUNTA(P78:V78)),":",_xlfn.TEXTJOIN(O78,TRUE,N78,_xlfn.TEXTJOIN(O78,TRUE,P78:V78)))</f>
-        <v>:</v>
+        <f t="shared" si="30"/>
+        <v>cp src/google/*.* dist/</v>
       </c>
       <c r="K78" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "// CONFIGURE": ":",</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "google-copy": "date &amp;&amp; time cp src/google/*.* dist/",</v>
       </c>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve"> &amp;&amp; </v>
-      </c>
-    </row>
-    <row r="79" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D79" t="s">
-        <v>147</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
+      </c>
+      <c r="P78" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="F79" t="s">
+        <v>45</v>
       </c>
       <c r="I79" s="1" t="str">
-        <f t="shared" ref="I79:I84" si="32" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D79:H79)</f>
-        <v>ops:deploy:package:dockerize:build:action</v>
+        <f t="shared" si="29"/>
+        <v>manifest-copy</v>
       </c>
       <c r="J79" t="str">
-        <f t="shared" si="1"/>
-        <v>npm-run-all dockerize-build</v>
+        <f t="shared" si="30"/>
+        <v>cp src/manifest.json dist/</v>
       </c>
       <c r="K79" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "ops:deploy:package:dockerize:build:action": "date &amp;&amp; time npm-run-all dockerize-build",</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "manifest-copy": "date &amp;&amp; time cp src/manifest.json dist/",</v>
       </c>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
-      <c r="N79" s="2" t="str">
-        <f>IF(ISBLANK(P79),"",$N$6)</f>
-        <v>npm-run-all</v>
-      </c>
+      <c r="N79" s="2"/>
       <c r="O79" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve"> </v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P79" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="3:22" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="80" spans="4:22" x14ac:dyDescent="0.25">
       <c r="F80" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="I80" s="1" t="str">
-        <f t="shared" si="32"/>
-        <v>dockerize-build</v>
+        <f t="shared" si="29"/>
+        <v>cov-copy</v>
       </c>
       <c r="J80" t="str">
-        <f t="shared" si="1"/>
-        <v>docker image build -t jorich/cv-generator-fe:%npm_package_version% -t jorich/cv-generator-fe .</v>
+        <f t="shared" si="30"/>
+        <v>cp -r coverage dist/coverage/</v>
       </c>
       <c r="K80" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "dockerize-build": "date &amp;&amp; time docker image build -t jorich/cv-generator-fe:%npm_package_version% -t jorich/cv-generator-fe .",</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "cov-copy": "date &amp;&amp; time cp -r coverage dist/coverage/",</v>
       </c>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P80" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="D81" t="s">
-        <v>148</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F81" t="s">
+        <v>42</v>
       </c>
       <c r="I81" s="1" t="str">
-        <f t="shared" si="32"/>
-        <v>ops:deploy:package:dockerize:push:action</v>
+        <f t="shared" si="29"/>
+        <v>doc-copy</v>
       </c>
       <c r="J81" t="str">
-        <f t="shared" si="1"/>
-        <v>npm-run-all dockerize-push</v>
+        <f t="shared" si="30"/>
+        <v>cp -r documentation dist/documentation/</v>
       </c>
       <c r="K81" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "ops:deploy:package:dockerize:push:action": "date &amp;&amp; time npm-run-all dockerize-push",</v>
+        <f t="shared" ref="K81:K144" si="33">IF(ISBLANK(I81),"",CONCATENATE("    """,I81,""": ","""",IF(LEN(J81)&gt;1,CONCATENATE(IF(L81,"",CONCATENATE(N$3," ")),""),""),IF(M81,"echo ",""),J81,""","))</f>
+        <v xml:space="preserve">    "doc-copy": "date &amp;&amp; time cp -r documentation dist/documentation/",</v>
       </c>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
-      <c r="N81" s="2" t="str">
-        <f>IF(ISBLANK(P81),"",$N$6)</f>
-        <v>npm-run-all</v>
-      </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve"> </v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P81" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="F82" t="s">
-        <v>79</v>
-      </c>
-      <c r="I82" s="1" t="str">
-        <f t="shared" si="32"/>
-        <v>dockerize-push</v>
-      </c>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.25">
       <c r="J82" t="str">
-        <f t="shared" si="1"/>
-        <v>docker push jorich/cv-generator-fe:%npm_package_version% &amp;&amp; docker push jorich/cv-generator-fe:latest</v>
+        <f t="shared" si="30"/>
+        <v>:</v>
       </c>
       <c r="K82" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "dockerize-push": "date &amp;&amp; time docker push jorich/cv-generator-fe:%npm_package_version% &amp;&amp; docker push jorich/cv-generator-fe:latest",</v>
+        <f t="shared" si="33"/>
+        <v/>
       </c>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve"> &amp;&amp; </v>
-      </c>
-      <c r="P82" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="D83" t="s">
-        <v>149</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
+      </c>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>160</v>
+      </c>
+      <c r="E83" t="str">
+        <f xml:space="preserve"> CONCATENATE("// ",C83)</f>
+        <v>// RELEASE</v>
       </c>
       <c r="I83" s="1" t="str">
-        <f t="shared" si="32"/>
-        <v>ops:deploy:package:provision:action</v>
+        <f t="shared" ref="I83" si="34" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D83:H83)</f>
+        <v>// RELEASE</v>
       </c>
       <c r="J83" t="str">
-        <f t="shared" si="1"/>
-        <v>npm-run-all provision</v>
+        <f t="shared" ref="J83" si="35" xml:space="preserve"> IF(NOT(COUNTA(P83:V83)),":",_xlfn.TEXTJOIN(O83,TRUE,N83,_xlfn.TEXTJOIN(O83,TRUE,P83:V83)))</f>
+        <v>:</v>
       </c>
       <c r="K83" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "ops:deploy:package:provision:action": "date &amp;&amp; time npm-run-all provision",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "// RELEASE": ":",</v>
       </c>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
-      <c r="N83" s="2" t="str">
-        <f>IF(ISBLANK(P83),"",$N$6)</f>
-        <v>npm-run-all</v>
-      </c>
+      <c r="N83" s="2"/>
       <c r="O83" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P83" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="F84" t="s">
-        <v>69</v>
-      </c>
-      <c r="I84" s="1" t="str">
-        <f t="shared" si="32"/>
-        <v>provision</v>
-      </c>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.25">
       <c r="J84" t="str">
-        <f t="shared" si="1"/>
-        <v>cd ../cv-generator-life-terraform &amp;&amp; terraform apply</v>
+        <f xml:space="preserve"> IF(NOT(COUNTA(P84:V84)),":",_xlfn.TEXTJOIN(O84,TRUE,N84,_xlfn.TEXTJOIN(O84,TRUE,P84:V84)))</f>
+        <v>:</v>
       </c>
       <c r="K84" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "provision": "date &amp;&amp; time cd ../cv-generator-life-terraform &amp;&amp; terraform apply",</v>
+        <f t="shared" si="33"/>
+        <v/>
       </c>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve"> &amp;&amp; </v>
-      </c>
-      <c r="P84" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>161</v>
+      </c>
+      <c r="E85" t="str">
+        <f xml:space="preserve"> CONCATENATE("// ",C85)</f>
+        <v>// CONFIGURE</v>
+      </c>
+      <c r="I85" s="1" t="str">
+        <f t="shared" ref="I85" si="36" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D85:H85)</f>
+        <v>// CONFIGURE</v>
+      </c>
       <c r="J85" t="str">
-        <f xml:space="preserve"> IF(NOT(COUNTA(P85:V85)),":",_xlfn.TEXTJOIN(O85,TRUE,N85,_xlfn.TEXTJOIN(O85,TRUE,P85:V85)))</f>
+        <f t="shared" ref="J85" si="37" xml:space="preserve"> IF(NOT(COUNTA(P85:V85)),":",_xlfn.TEXTJOIN(O85,TRUE,N85,_xlfn.TEXTJOIN(O85,TRUE,P85:V85)))</f>
         <v>:</v>
       </c>
       <c r="K85" t="str">
-        <f t="shared" si="27"/>
-        <v/>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "// CONFIGURE": ":",</v>
       </c>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve"> &amp;&amp; </v>
-      </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C86" t="s">
-        <v>161</v>
-      </c>
-      <c r="E86" t="str">
-        <f xml:space="preserve"> CONCATENATE("// ",C86)</f>
-        <v>// OPERATE</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>145</v>
       </c>
       <c r="I86" s="1" t="str">
-        <f t="shared" ref="I86" si="33" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D86:H86)</f>
-        <v>// OPERATE</v>
+        <f t="shared" ref="I86:I91" si="38" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D86:H86)</f>
+        <v>ops:deploy:package:dockerize:build:action</v>
       </c>
       <c r="J86" t="str">
-        <f t="shared" ref="J86" si="34" xml:space="preserve"> IF(NOT(COUNTA(P86:V86)),":",_xlfn.TEXTJOIN(O86,TRUE,N86,_xlfn.TEXTJOIN(O86,TRUE,P86:V86)))</f>
-        <v>:</v>
+        <f t="shared" si="1"/>
+        <v>npm-run-all dockerize-build</v>
       </c>
       <c r="K86" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "// OPERATE": ":",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "ops:deploy:package:dockerize:build:action": "date &amp;&amp; time npm-run-all dockerize-build",</v>
       </c>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
+      <c r="N86" s="2" t="str">
+        <f>IF(ISBLANK(P86),"",$N$6)</f>
+        <v>npm-run-all</v>
+      </c>
       <c r="O86" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve"> &amp;&amp; </v>
-      </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="D87" t="s">
-        <v>144</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P86" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="E87" t="s">
+        <v>220</v>
+      </c>
+      <c r="F87" t="s">
+        <v>76</v>
       </c>
       <c r="I87" s="1" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D87:H87)</f>
-        <v>ops:run:platform:action</v>
+        <f t="shared" si="38"/>
+        <v>off:dockerize-build</v>
       </c>
       <c r="J87" t="str">
-        <f xml:space="preserve"> IF(NOT(COUNTA(P87:V87)),":",_xlfn.TEXTJOIN(O87,TRUE,N87,_xlfn.TEXTJOIN(O87,TRUE,P87:V87)))</f>
-        <v>npm-run-all wake-up-the-dynos:*</v>
+        <f t="shared" si="1"/>
+        <v>docker image build -t jorich/cv-generator-fe:%npm_package_version% -t jorich/cv-generator-fe .</v>
       </c>
       <c r="K87" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "ops:run:platform:action": "date &amp;&amp; time npm-run-all wake-up-the-dynos:*",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "off:dockerize-build": "date &amp;&amp; time docker image build -t jorich/cv-generator-fe:%npm_package_version% -t jorich/cv-generator-fe .",</v>
       </c>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
-      <c r="N87" s="2" t="str">
-        <f>IF(ISBLANK(P87),"",$N$6)</f>
-        <v>npm-run-all</v>
-      </c>
+      <c r="N87" s="2"/>
       <c r="O87" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve"> </v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P87" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="F88" t="s">
-        <v>187</v>
-      </c>
-      <c r="G88" t="s">
-        <v>185</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>146</v>
       </c>
       <c r="I88" s="1" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D88:H88)</f>
-        <v>wake-up-the-dynos:heroku</v>
+        <f t="shared" si="38"/>
+        <v>ops:deploy:package:dockerize:push:action</v>
       </c>
       <c r="J88" t="str">
-        <f xml:space="preserve"> IF(NOT(COUNTA(P88:V88)),":",_xlfn.TEXTJOIN(O88,TRUE,N88,_xlfn.TEXTJOIN(O88,TRUE,P88:V88)))</f>
-        <v>if [ ! \"$HEROKU\" ] ; then curl https://cv-generator-fe.herokuapp.com/Webpage ; fi</v>
+        <f t="shared" si="1"/>
+        <v>npm-run-all dockerize-push</v>
       </c>
       <c r="K88" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "wake-up-the-dynos:heroku": "date &amp;&amp; time if [ ! \"$HEROKU\" ] ; then curl https://cv-generator-fe.herokuapp.com/Webpage ; fi",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "ops:deploy:package:dockerize:push:action": "date &amp;&amp; time npm-run-all dockerize-push",</v>
       </c>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
+      <c r="N88" s="2" t="str">
+        <f>IF(ISBLANK(P88),"",$N$6)</f>
+        <v>npm-run-all</v>
+      </c>
       <c r="O88" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve"> &amp;&amp; </v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P88" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="E89" t="s">
+        <v>220</v>
+      </c>
       <c r="F89" t="s">
-        <v>187</v>
-      </c>
-      <c r="G89" t="s">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="I89" s="1" t="str">
-        <f t="shared" ref="I89" si="35" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D89:H89)</f>
-        <v>wake-up-the-dynos:ml</v>
+        <f t="shared" si="38"/>
+        <v>off:dockerize-push</v>
       </c>
       <c r="J89" t="str">
-        <f t="shared" ref="J89" si="36" xml:space="preserve"> IF(NOT(COUNTA(P89:V89)),":",_xlfn.TEXTJOIN(O89,TRUE,N89,_xlfn.TEXTJOIN(O89,TRUE,P89:V89)))</f>
-        <v>if [ ! \"$CI\" ] ; then curl cvgenerator.ml ; fi</v>
+        <f t="shared" si="1"/>
+        <v>docker push jorich/cv-generator-fe:%npm_package_version% &amp;&amp; docker push jorich/cv-generator-fe:latest</v>
       </c>
       <c r="K89" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "wake-up-the-dynos:ml": "date &amp;&amp; time if [ ! \"$CI\" ] ; then curl cvgenerator.ml ; fi",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "off:dockerize-push": "date &amp;&amp; time docker push jorich/cv-generator-fe:%npm_package_version% &amp;&amp; docker push jorich/cv-generator-fe:latest",</v>
       </c>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P89" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C90" t="s">
-        <v>154</v>
-      </c>
-      <c r="F90" t="s">
-        <v>0</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>147</v>
       </c>
       <c r="I90" s="1" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D90:H90)</f>
-        <v>start</v>
+        <f t="shared" si="38"/>
+        <v>ops:deploy:package:provision:action</v>
       </c>
       <c r="J90" t="str">
-        <f xml:space="preserve"> IF(NOT(COUNTA(P90:V90)),":",_xlfn.TEXTJOIN(O90,TRUE,N90,_xlfn.TEXTJOIN(O90,TRUE,P90:V90)))</f>
-        <v>node server.js</v>
+        <f t="shared" si="1"/>
+        <v>npm-run-all provision</v>
       </c>
       <c r="K90" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "start": "node server.js",</v>
-      </c>
-      <c r="L90" s="2">
-        <v>1</v>
-      </c>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "ops:deploy:package:provision:action": "date &amp;&amp; time npm-run-all provision",</v>
+      </c>
+      <c r="L90" s="2"/>
       <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
+      <c r="N90" s="2" t="str">
+        <f>IF(ISBLANK(P90),"",$N$6)</f>
+        <v>npm-run-all</v>
+      </c>
       <c r="O90" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve"> &amp;&amp; </v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P90" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="E91" t="s">
+        <v>220</v>
+      </c>
+      <c r="F91" t="s">
+        <v>67</v>
+      </c>
+      <c r="I91" s="1" t="str">
+        <f t="shared" si="38"/>
+        <v>off:provision</v>
+      </c>
       <c r="J91" t="str">
-        <f t="shared" ref="J91:J151" si="37" xml:space="preserve"> IF(NOT(COUNTA(P91:V91)),":",_xlfn.TEXTJOIN(O91,TRUE,N91,_xlfn.TEXTJOIN(O91,TRUE,P91:V91)))</f>
-        <v>:</v>
+        <f t="shared" si="1"/>
+        <v>cd ../cv-generator-life-terraform &amp;&amp; terraform apply</v>
       </c>
       <c r="K91" t="str">
-        <f t="shared" si="27"/>
-        <v/>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "off:provision": "date &amp;&amp; time cd ../cv-generator-life-terraform &amp;&amp; terraform apply",</v>
       </c>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve"> &amp;&amp; </v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C92" t="s">
-        <v>162</v>
-      </c>
-      <c r="E92" t="str">
-        <f xml:space="preserve"> CONCATENATE("// ",C92)</f>
-        <v>// OBSERVE</v>
-      </c>
-      <c r="I92" s="1" t="str">
-        <f t="shared" ref="I92" si="38" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D92:H92)</f>
-        <v>// OBSERVE</v>
-      </c>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
+      </c>
+      <c r="P91" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.25">
       <c r="J92" t="str">
-        <f t="shared" si="37"/>
+        <f xml:space="preserve"> IF(NOT(COUNTA(P92:V92)),":",_xlfn.TEXTJOIN(O92,TRUE,N92,_xlfn.TEXTJOIN(O92,TRUE,P92:V92)))</f>
         <v>:</v>
       </c>
       <c r="K92" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "// OBSERVE": ":",</v>
+        <f t="shared" si="33"/>
+        <v/>
       </c>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve"> &amp;&amp; </v>
-      </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="D93" t="s">
-        <v>138</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>158</v>
+      </c>
+      <c r="E93" t="str">
+        <f xml:space="preserve"> CONCATENATE("// ",C93)</f>
+        <v>// OPERATE</v>
       </c>
       <c r="I93" s="1" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D93:H93)</f>
-        <v>ops:monitor:report:action</v>
+        <f t="shared" ref="I93" si="39" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D93:H93)</f>
+        <v>// OPERATE</v>
       </c>
       <c r="J93" t="str">
-        <f t="shared" si="37"/>
-        <v>echo Observe: TODO: Lanch the observability dashboard</v>
+        <f t="shared" ref="J93" si="40" xml:space="preserve"> IF(NOT(COUNTA(P93:V93)),":",_xlfn.TEXTJOIN(O93,TRUE,N93,_xlfn.TEXTJOIN(O93,TRUE,P93:V93)))</f>
+        <v>:</v>
       </c>
       <c r="K93" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "ops:monitor:report:action": "date &amp;&amp; time echo Observe: TODO: Lanch the observability dashboard",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "// OPERATE": ":",</v>
       </c>
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" s="2" t="str">
-        <f t="shared" ref="O93:O94" si="39">IF(ISBLANK(N93),CONCATENATE(" ",$O$4," ")," ")</f>
-        <v xml:space="preserve"> &amp;&amp; </v>
-      </c>
-      <c r="P93" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>142</v>
+      </c>
+      <c r="I94" s="1" t="str">
+        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D94:H94)</f>
+        <v>ops:run:platform:action</v>
+      </c>
       <c r="J94" t="str">
-        <f t="shared" si="37"/>
-        <v>:</v>
+        <f xml:space="preserve"> IF(NOT(COUNTA(P94:V94)),":",_xlfn.TEXTJOIN(O94,TRUE,N94,_xlfn.TEXTJOIN(O94,TRUE,P94:V94)))</f>
+        <v>npm-run-all wake-up-the-dynos:*</v>
       </c>
       <c r="K94" t="str">
-        <f t="shared" si="27"/>
-        <v/>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "ops:run:platform:action": "date &amp;&amp; time npm-run-all wake-up-the-dynos:*",</v>
       </c>
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
+      <c r="N94" s="2" t="str">
+        <f>IF(ISBLANK(P94),"",$N$6)</f>
+        <v>npm-run-all</v>
+      </c>
       <c r="O94" s="2" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve"> &amp;&amp; </v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C95" t="s">
-        <v>87</v>
-      </c>
-      <c r="D95" t="s">
-        <v>81</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P94" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F95" t="s">
+        <v>182</v>
+      </c>
+      <c r="G95" t="s">
+        <v>180</v>
       </c>
       <c r="I95" s="1" t="str">
-        <f t="shared" ref="I95:I127" si="40" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D95:H95)</f>
-        <v>PIPELINE</v>
+        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D95:H95)</f>
+        <v>wake-up-the-dynos:heroku</v>
       </c>
       <c r="J95" t="str">
-        <f t="shared" si="37"/>
-        <v>npm-run-all pipeline:start dev ops report pipeline:finish</v>
+        <f xml:space="preserve"> IF(NOT(COUNTA(P95:V95)),":",_xlfn.TEXTJOIN(O95,TRUE,N95,_xlfn.TEXTJOIN(O95,TRUE,P95:V95)))</f>
+        <v>if [ ! \"$HEROKU\" ] ; then curl https://cv-generator-fe.herokuapp.com/Webpage ; fi</v>
       </c>
       <c r="K95" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "PIPELINE": "date &amp;&amp; time npm-run-all pipeline:start dev ops report pipeline:finish",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "wake-up-the-dynos:heroku": "date &amp;&amp; time if [ ! \"$HEROKU\" ] ; then curl https://cv-generator-fe.herokuapp.com/Webpage ; fi",</v>
       </c>
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
-      <c r="N95" s="2" t="str">
-        <f>IF(ISBLANK(P95),"",$N$6)</f>
-        <v>npm-run-all</v>
-      </c>
+      <c r="N95" s="2"/>
       <c r="O95" s="2" t="str">
-        <f t="shared" ref="O95:O134" si="41">IF(ISBLANK(N95),CONCATENATE(" ",$O$4," ")," ")</f>
-        <v xml:space="preserve"> </v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P95" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>111</v>
-      </c>
-      <c r="R95" t="s">
-        <v>110</v>
-      </c>
-      <c r="S95" t="s">
-        <v>11</v>
-      </c>
-      <c r="T95" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="D96" t="s">
-        <v>194</v>
-      </c>
-      <c r="E96" t="s">
-        <v>0</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F96" t="s">
+        <v>182</v>
+      </c>
+      <c r="G96" t="s">
+        <v>181</v>
       </c>
       <c r="I96" s="1" t="str">
-        <f t="shared" ref="I96" si="42" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D96:H96)</f>
-        <v>pipeline:start</v>
+        <f t="shared" ref="I96" si="41" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D96:H96)</f>
+        <v>wake-up-the-dynos:ml</v>
       </c>
       <c r="J96" t="str">
-        <f t="shared" ref="J96" si="43" xml:space="preserve"> IF(NOT(COUNTA(P96:V96)),":",_xlfn.TEXTJOIN(O96,TRUE,N96,_xlfn.TEXTJOIN(O96,TRUE,P96:V96)))</f>
-        <v>npm-run-all pipeline:start:action</v>
+        <f t="shared" ref="J96" si="42" xml:space="preserve"> IF(NOT(COUNTA(P96:V96)),":",_xlfn.TEXTJOIN(O96,TRUE,N96,_xlfn.TEXTJOIN(O96,TRUE,P96:V96)))</f>
+        <v>if [ ! \"$CI\" ] ; then curl cvgenerator.ml ; fi</v>
       </c>
       <c r="K96" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "pipeline:start": "date &amp;&amp; time npm-run-all pipeline:start:action",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "wake-up-the-dynos:ml": "date &amp;&amp; time if [ ! \"$CI\" ] ; then curl cvgenerator.ml ; fi",</v>
       </c>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
-      <c r="N96" s="2" t="str">
-        <f t="shared" ref="N96" si="44">IF(ISBLANK(P96),"",IF(ISNUMBER(SEARCH(":*",P96)),$N$6,$N$4))</f>
-        <v>npm-run-all</v>
-      </c>
+      <c r="N96" s="2"/>
       <c r="O96" s="2" t="str">
-        <f t="shared" ref="O96" si="45">IF(ISBLANK(N96),CONCATENATE(" ",$O$4," ")," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P96" t="str">
-        <f t="shared" ref="P96" si="46" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I96,"action")</f>
-        <v>pipeline:start:action</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D97" t="s">
-        <v>111</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
+      </c>
+      <c r="P96" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>151</v>
+      </c>
+      <c r="F97" t="s">
+        <v>0</v>
       </c>
       <c r="I97" s="1" t="str">
-        <f t="shared" si="40"/>
-        <v>dev</v>
+        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D97:H97)</f>
+        <v>start</v>
       </c>
       <c r="J97" t="str">
-        <f t="shared" si="37"/>
-        <v>npm-run-all dev:*</v>
+        <f xml:space="preserve"> IF(NOT(COUNTA(P97:V97)),":",_xlfn.TEXTJOIN(O97,TRUE,N97,_xlfn.TEXTJOIN(O97,TRUE,P97:V97)))</f>
+        <v>node server.js</v>
       </c>
       <c r="K97" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "dev": "date &amp;&amp; time npm-run-all dev:*",</v>
-      </c>
-      <c r="L97" s="2"/>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "start": "node server.js",</v>
+      </c>
+      <c r="L97" s="2">
+        <v>1</v>
+      </c>
       <c r="M97" s="2"/>
-      <c r="N97" s="2" t="str">
-        <f>IF(ISBLANK(P97),"",IF(ISNUMBER(SEARCH(":*",P97)),$N$6,$N$4))</f>
-        <v>npm-run-all</v>
-      </c>
+      <c r="N97" s="2"/>
       <c r="O97" s="2" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P97" t="str">
-        <f t="shared" ref="P97" si="47">CONCATENATE(IF(CODE(I97)-CODE("a")&lt;0,LOWER(LEFT(I97,IF(ISERR(FIND(":",I97)),LEN(I97)+1,FIND(":",I97))-1)),I97),":*")</f>
-        <v>dev:*</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>1</v>
-      </c>
-      <c r="B98">
-        <v>11</v>
-      </c>
-      <c r="C98" t="s">
-        <v>120</v>
-      </c>
-      <c r="D98" t="s">
-        <v>111</v>
-      </c>
-      <c r="E98" t="s">
-        <v>116</v>
-      </c>
-      <c r="I98" s="1" t="str">
-        <f t="shared" si="40"/>
-        <v>dev:plan-phase</v>
-      </c>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
+      </c>
+      <c r="P97" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J98" t="str">
-        <f t="shared" si="37"/>
-        <v>npm-run-all dev:plan-phase:*</v>
+        <f t="shared" ref="J98:J158" si="43" xml:space="preserve"> IF(NOT(COUNTA(P98:V98)),":",_xlfn.TEXTJOIN(O98,TRUE,N98,_xlfn.TEXTJOIN(O98,TRUE,P98:V98)))</f>
+        <v>:</v>
       </c>
       <c r="K98" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "dev:plan-phase": "date &amp;&amp; time npm-run-all dev:plan-phase:*",</v>
+        <f t="shared" si="33"/>
+        <v/>
       </c>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
-      <c r="N98" s="2" t="str">
-        <f>IF(ISBLANK(P98),"",IF(ISNUMBER(SEARCH(":*",P98)),$N$6,$N$4))</f>
-        <v>npm-run-all</v>
-      </c>
+      <c r="N98" s="2"/>
       <c r="O98" s="2" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P98" t="str">
-        <f>CONCATENATE(IF(CODE(I98)-CODE("a")&lt;0,LOWER(LEFT(I98,IF(ISERR(FIND(":",I98)),LEN(I98)+1,FIND(":",I98))-1)),I98),":*")</f>
-        <v>dev:plan-phase:*</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D99" t="s">
-        <v>111</v>
-      </c>
-      <c r="E99" t="s">
-        <v>116</v>
-      </c>
-      <c r="F99" t="s">
-        <v>88</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>159</v>
+      </c>
+      <c r="E99" t="str">
+        <f xml:space="preserve"> CONCATENATE("// ",C99)</f>
+        <v>// OBSERVE</v>
       </c>
       <c r="I99" s="1" t="str">
-        <f t="shared" si="40"/>
-        <v>dev:plan-phase:plan</v>
+        <f t="shared" ref="I99" si="44" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D99:H99)</f>
+        <v>// OBSERVE</v>
       </c>
       <c r="J99" t="str">
-        <f t="shared" si="37"/>
-        <v>npm-run-all dev:plan-phase:plan:*</v>
+        <f t="shared" si="43"/>
+        <v>:</v>
       </c>
       <c r="K99" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "dev:plan-phase:plan": "date &amp;&amp; time npm-run-all dev:plan-phase:plan:*",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "// OBSERVE": ":",</v>
       </c>
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
-      <c r="N99" s="2" t="str">
-        <f>IF(ISBLANK(P99),"",IF(ISNUMBER(SEARCH(":*",P99)),$N$6,$N$4))</f>
-        <v>npm-run-all</v>
-      </c>
+      <c r="N99" s="2"/>
       <c r="O99" s="2" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P99" t="str">
-        <f t="shared" ref="P99:P113" si="48">CONCATENATE(IF(CODE(I99)-CODE("a")&lt;0,LOWER(LEFT(I99,IF(ISERR(FIND(":",I99)),LEN(I99)+1,FIND(":",I99))-1)),I99),":*")</f>
-        <v>dev:plan-phase:plan:*</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D100" t="s">
-        <v>111</v>
-      </c>
-      <c r="E100" t="s">
-        <v>116</v>
-      </c>
-      <c r="F100" t="s">
-        <v>88</v>
-      </c>
-      <c r="G100" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="I100" s="1" t="str">
-        <f t="shared" si="40"/>
-        <v>dev:plan-phase:plan:report</v>
+        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D100:H100)</f>
+        <v>ops:monitor:report:action</v>
       </c>
       <c r="J100" t="str">
-        <f t="shared" si="37"/>
-        <v>npm-run-all dev:plan-phase:plan:report:action</v>
+        <f t="shared" si="43"/>
+        <v>echo Observe: TODO: Lanch the observability dashboard</v>
       </c>
       <c r="K100" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "dev:plan-phase:plan:report": "date &amp;&amp; time npm-run-all dev:plan-phase:plan:report:action",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "ops:monitor:report:action": "date &amp;&amp; time echo Observe: TODO: Lanch the observability dashboard",</v>
       </c>
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
-      <c r="N100" s="2" t="str">
-        <f>IF(ISBLANK(P100),"",IF(ISNUMBER(SEARCH(":*",P100)),$N$6,$N$4))</f>
-        <v>npm-run-all</v>
-      </c>
+      <c r="N100" s="2"/>
       <c r="O100" s="2" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P100" t="str">
-        <f t="shared" ref="P100:P102" si="49" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I100,"action")</f>
-        <v>dev:plan-phase:plan:report:action</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B101">
-        <v>12</v>
-      </c>
-      <c r="D101" t="s">
-        <v>111</v>
-      </c>
-      <c r="E101" t="s">
-        <v>116</v>
-      </c>
-      <c r="F101" t="s">
-        <v>57</v>
-      </c>
-      <c r="I101" s="1" t="str">
-        <f t="shared" si="40"/>
-        <v>dev:plan-phase:update</v>
-      </c>
+        <f t="shared" ref="O100:O101" si="45">IF(ISBLANK(N100),CONCATENATE(" ",$O$4," ")," ")</f>
+        <v xml:space="preserve"> &amp;&amp; </v>
+      </c>
+      <c r="P100" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J101" t="str">
-        <f t="shared" si="37"/>
-        <v>npm-run-all dev:plan-phase:update:*</v>
+        <f t="shared" si="43"/>
+        <v>:</v>
       </c>
       <c r="K101" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "dev:plan-phase:update": "date &amp;&amp; time npm-run-all dev:plan-phase:update:*",</v>
+        <f t="shared" si="33"/>
+        <v/>
       </c>
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
-      <c r="N101" s="2" t="str">
-        <f>IF(ISBLANK(P101),"",IF(ISNUMBER(SEARCH(":*",P101)),$N$6,$N$4))</f>
-        <v>npm-run-all</v>
-      </c>
+      <c r="N101" s="2"/>
       <c r="O101" s="2" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P101" t="str">
-        <f t="shared" si="48"/>
-        <v>dev:plan-phase:update:*</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="45"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>85</v>
+      </c>
       <c r="D102" t="s">
-        <v>111</v>
-      </c>
-      <c r="E102" t="s">
-        <v>116</v>
-      </c>
-      <c r="F102" t="s">
-        <v>57</v>
-      </c>
-      <c r="G102" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="I102" s="1" t="str">
-        <f t="shared" si="40"/>
-        <v>dev:plan-phase:update:report</v>
+        <f t="shared" ref="I102:I134" si="46" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D102:H102)</f>
+        <v>PIPELINE</v>
       </c>
       <c r="J102" t="str">
-        <f t="shared" si="37"/>
-        <v>npm-run-all dev:plan-phase:update:report:action</v>
+        <f t="shared" si="43"/>
+        <v>npm-run-all pipeline:start dev ops report pipeline:finish</v>
       </c>
       <c r="K102" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "dev:plan-phase:update:report": "date &amp;&amp; time npm-run-all dev:plan-phase:update:report:action",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "PIPELINE": "date &amp;&amp; time npm-run-all pipeline:start dev ops report pipeline:finish",</v>
       </c>
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
       <c r="N102" s="2" t="str">
-        <f>IF(ISBLANK(P102),"",IF(ISNUMBER(SEARCH(":*",P102)),$N$6,$N$4))</f>
+        <f>IF(ISBLANK(P102),"",$N$6)</f>
         <v>npm-run-all</v>
       </c>
       <c r="O102" s="2" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P102" t="str">
-        <f t="shared" si="49"/>
-        <v>dev:plan-phase:update:report:action</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>2</v>
-      </c>
-      <c r="B103">
-        <v>13</v>
-      </c>
-      <c r="C103" t="s">
-        <v>121</v>
-      </c>
+        <f t="shared" ref="O102:O141" si="47">IF(ISBLANK(N102),CONCATENATE(" ",$O$4," ")," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P102" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>109</v>
+      </c>
+      <c r="R102" t="s">
+        <v>108</v>
+      </c>
+      <c r="S102" t="s">
+        <v>11</v>
+      </c>
+      <c r="T102" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="E103" t="s">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="I103" s="1" t="str">
-        <f t="shared" si="40"/>
-        <v>dev:code-phase</v>
+        <f t="shared" ref="I103" si="48" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D103:H103)</f>
+        <v>pipeline:start</v>
       </c>
       <c r="J103" t="str">
-        <f t="shared" si="37"/>
-        <v>npm-run-all dev:code-phase:*</v>
+        <f t="shared" ref="J103" si="49" xml:space="preserve"> IF(NOT(COUNTA(P103:V103)),":",_xlfn.TEXTJOIN(O103,TRUE,N103,_xlfn.TEXTJOIN(O103,TRUE,P103:V103)))</f>
+        <v>npm-run-all pipeline:start:action</v>
       </c>
       <c r="K103" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "dev:code-phase": "date &amp;&amp; time npm-run-all dev:code-phase:*",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "pipeline:start": "date &amp;&amp; time npm-run-all pipeline:start:action",</v>
       </c>
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
       <c r="N103" s="2" t="str">
-        <f>IF(ISBLANK(P103),"",IF(ISNUMBER(SEARCH(":*",P103)),$N$6,$N$4))</f>
+        <f t="shared" ref="N103" si="50">IF(ISBLANK(P103),"",IF(ISNUMBER(SEARCH(":*",P103)),$N$6,$N$4))</f>
         <v>npm-run-all</v>
       </c>
       <c r="O103" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="O103" si="51">IF(ISBLANK(N103),CONCATENATE(" ",$O$4," ")," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P103" t="str">
-        <f t="shared" si="48"/>
-        <v>dev:code-phase:*</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" ref="P103" si="52" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I103,"action")</f>
+        <v>pipeline:start:action</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
-        <v>111</v>
-      </c>
-      <c r="E104" t="s">
-        <v>115</v>
-      </c>
-      <c r="F104" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="I104" s="1" t="str">
-        <f t="shared" si="40"/>
-        <v>dev:code-phase:code</v>
+        <f t="shared" si="46"/>
+        <v>dev</v>
       </c>
       <c r="J104" t="str">
-        <f t="shared" si="37"/>
-        <v>npm-run-all dev:code-phase:code:*</v>
+        <f t="shared" si="43"/>
+        <v>npm-run-all dev:*</v>
       </c>
       <c r="K104" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "dev:code-phase:code": "date &amp;&amp; time npm-run-all dev:code-phase:code:*",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "dev": "date &amp;&amp; time npm-run-all dev:*",</v>
       </c>
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
       <c r="N104" s="2" t="str">
-        <f>IF(ISBLANK(P104),"",IF(ISNUMBER(SEARCH(":*",P104)),$N$6,$N$4))</f>
+        <f t="shared" ref="N104:N141" si="53">IF(ISBLANK(P104),"",IF(ISNUMBER(SEARCH(":*",P104)),$N$6,$N$4))</f>
         <v>npm-run-all</v>
       </c>
       <c r="O104" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P104" t="str">
-        <f t="shared" si="48"/>
-        <v>dev:code-phase:code:*</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" ref="P104" si="54">CONCATENATE(IF(CODE(I104)-CODE("a")&lt;0,LOWER(LEFT(I104,IF(ISERR(FIND(":",I104)),LEN(I104)+1,FIND(":",I104))-1)),I104),":*")</f>
+        <v>dev:*</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105">
+        <v>11</v>
+      </c>
+      <c r="C105" t="s">
+        <v>118</v>
+      </c>
       <c r="D105" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E105" t="s">
-        <v>115</v>
-      </c>
-      <c r="F105" t="s">
-        <v>89</v>
-      </c>
-      <c r="G105" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="I105" s="1" t="str">
-        <f t="shared" si="40"/>
-        <v>dev:code-phase:code:report</v>
+        <f t="shared" si="46"/>
+        <v>dev:plan-phase</v>
       </c>
       <c r="J105" t="str">
-        <f t="shared" si="37"/>
-        <v>npm-run-all dev:code-phase:code:report:action</v>
+        <f t="shared" si="43"/>
+        <v>npm-run-all dev:plan-phase:*</v>
       </c>
       <c r="K105" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "dev:code-phase:code:report": "date &amp;&amp; time npm-run-all dev:code-phase:code:report:action",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "dev:plan-phase": "date &amp;&amp; time npm-run-all dev:plan-phase:*",</v>
       </c>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
       <c r="N105" s="2" t="str">
-        <f>IF(ISBLANK(P105),"",IF(ISNUMBER(SEARCH(":*",P105)),$N$6,$N$4))</f>
+        <f t="shared" si="53"/>
         <v>npm-run-all</v>
       </c>
       <c r="O105" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P105" t="str">
-        <f t="shared" ref="P105" si="50" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I105,"action")</f>
-        <v>dev:code-phase:code:report:action</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>3</v>
-      </c>
-      <c r="C106" t="s">
-        <v>122</v>
-      </c>
+        <f>CONCATENATE(IF(CODE(I105)-CODE("a")&lt;0,LOWER(LEFT(I105,IF(ISERR(FIND(":",I105)),LEN(I105)+1,FIND(":",I105))-1)),I105),":*")</f>
+        <v>dev:plan-phase:*</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D106" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E106" t="s">
         <v>114</v>
       </c>
+      <c r="F106" t="s">
+        <v>86</v>
+      </c>
       <c r="I106" s="1" t="str">
-        <f t="shared" si="40"/>
-        <v>dev:build-phase</v>
+        <f t="shared" si="46"/>
+        <v>dev:plan-phase:plan</v>
       </c>
       <c r="J106" t="str">
-        <f t="shared" si="37"/>
-        <v>npm-run-all dev:build-phase:*</v>
+        <f t="shared" si="43"/>
+        <v>npm-run-all dev:plan-phase:plan:*</v>
       </c>
       <c r="K106" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "dev:build-phase": "date &amp;&amp; time npm-run-all dev:build-phase:*",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "dev:plan-phase:plan": "date &amp;&amp; time npm-run-all dev:plan-phase:plan:*",</v>
       </c>
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
       <c r="N106" s="2" t="str">
-        <f>IF(ISBLANK(P106),"",IF(ISNUMBER(SEARCH(":*",P106)),$N$6,$N$4))</f>
+        <f t="shared" si="53"/>
         <v>npm-run-all</v>
       </c>
       <c r="O106" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P106" t="str">
-        <f t="shared" si="48"/>
-        <v>dev:build-phase:*</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B107">
-        <v>1</v>
-      </c>
+        <f t="shared" ref="P106:P120" si="55">CONCATENATE(IF(CODE(I106)-CODE("a")&lt;0,LOWER(LEFT(I106,IF(ISERR(FIND(":",I106)),LEN(I106)+1,FIND(":",I106))-1)),I106),":*")</f>
+        <v>dev:plan-phase:plan:*</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E107" t="s">
         <v>114</v>
       </c>
       <c r="F107" t="s">
-        <v>5</v>
+        <v>86</v>
+      </c>
+      <c r="G107" t="s">
+        <v>11</v>
       </c>
       <c r="I107" s="1" t="str">
-        <f t="shared" si="40"/>
-        <v>dev:build-phase:install</v>
+        <f t="shared" si="46"/>
+        <v>dev:plan-phase:plan:report</v>
       </c>
       <c r="J107" t="str">
-        <f t="shared" si="37"/>
-        <v>npm-run-all dev:build-phase:install:*</v>
+        <f t="shared" si="43"/>
+        <v>npm-run-all dev:plan-phase:plan:report:action</v>
       </c>
       <c r="K107" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "dev:build-phase:install": "date &amp;&amp; time npm-run-all dev:build-phase:install:*",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "dev:plan-phase:plan:report": "date &amp;&amp; time npm-run-all dev:plan-phase:plan:report:action",</v>
       </c>
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
       <c r="N107" s="2" t="str">
-        <f>IF(ISBLANK(P107),"",IF(ISNUMBER(SEARCH(":*",P107)),$N$6,$N$4))</f>
+        <f t="shared" si="53"/>
         <v>npm-run-all</v>
       </c>
       <c r="O107" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P107" t="str">
-        <f t="shared" si="48"/>
-        <v>dev:build-phase:install:*</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" ref="P107:P109" si="56" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I107,"action")</f>
+        <v>dev:plan-phase:plan:report:action</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>12</v>
+      </c>
       <c r="D108" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E108" t="s">
         <v>114</v>
       </c>
       <c r="F108" t="s">
-        <v>5</v>
-      </c>
-      <c r="G108" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="I108" s="1" t="str">
-        <f t="shared" si="40"/>
-        <v>dev:build-phase:install:prepare</v>
+        <f t="shared" si="46"/>
+        <v>dev:plan-phase:update</v>
       </c>
       <c r="J108" t="str">
-        <f t="shared" si="37"/>
-        <v>npm-run-all dev:build-phase:install:prepare:action</v>
+        <f t="shared" si="43"/>
+        <v>npm-run-all dev:plan-phase:update:*</v>
       </c>
       <c r="K108" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "dev:build-phase:install:prepare": "date &amp;&amp; time npm-run-all dev:build-phase:install:prepare:action",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "dev:plan-phase:update": "date &amp;&amp; time npm-run-all dev:plan-phase:update:*",</v>
       </c>
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
       <c r="N108" s="2" t="str">
-        <f>IF(ISBLANK(P108),"",IF(ISNUMBER(SEARCH(":*",P108)),$N$6,$N$4))</f>
+        <f t="shared" si="53"/>
         <v>npm-run-all</v>
       </c>
       <c r="O108" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P108" t="str">
-        <f t="shared" ref="P108" si="51" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I108,"action")</f>
-        <v>dev:build-phase:install:prepare:action</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="55"/>
+        <v>dev:plan-phase:update:*</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D109" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E109" t="s">
         <v>114</v>
       </c>
       <c r="F109" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="G109" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I109" s="1" t="str">
-        <f t="shared" si="40"/>
-        <v>dev:build-phase:install:package</v>
+        <f t="shared" si="46"/>
+        <v>dev:plan-phase:update:report</v>
       </c>
       <c r="J109" t="str">
-        <f t="shared" si="37"/>
-        <v>npm-run-all dev:build-phase:install:package:*</v>
+        <f t="shared" si="43"/>
+        <v>npm-run-all dev:plan-phase:update:report:action</v>
       </c>
       <c r="K109" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "dev:build-phase:install:package": "date &amp;&amp; time npm-run-all dev:build-phase:install:package:*",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "dev:plan-phase:update:report": "date &amp;&amp; time npm-run-all dev:plan-phase:update:report:action",</v>
       </c>
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
       <c r="N109" s="2" t="str">
-        <f>IF(ISBLANK(P109),"",IF(ISNUMBER(SEARCH(":*",P109)),$N$6,$N$4))</f>
+        <f t="shared" si="53"/>
         <v>npm-run-all</v>
       </c>
       <c r="O109" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P109" t="str">
-        <f t="shared" si="48"/>
-        <v>dev:build-phase:install:package:*</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="56"/>
+        <v>dev:plan-phase:update:report:action</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>2</v>
+      </c>
+      <c r="B110">
+        <v>13</v>
+      </c>
+      <c r="C110" t="s">
+        <v>119</v>
+      </c>
       <c r="D110" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>114</v>
-      </c>
-      <c r="F110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G110" t="s">
-        <v>7</v>
-      </c>
-      <c r="H110" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="I110" s="1" t="str">
-        <f t="shared" si="40"/>
-        <v>dev:build-phase:install:package:environment</v>
+        <f t="shared" si="46"/>
+        <v>dev:code-phase</v>
       </c>
       <c r="J110" t="str">
-        <f t="shared" si="37"/>
-        <v>:</v>
+        <f t="shared" si="43"/>
+        <v>npm-run-all dev:code-phase:*</v>
       </c>
       <c r="K110" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "dev:build-phase:install:package:environment": ":",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "dev:code-phase": "date &amp;&amp; time npm-run-all dev:code-phase:*",</v>
       </c>
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
       <c r="N110" s="2" t="str">
-        <f>IF(ISBLANK(P110),"",IF(ISNUMBER(SEARCH(":*",P110)),$N$6,$N$4))</f>
-        <v/>
+        <f t="shared" si="53"/>
+        <v>npm-run-all</v>
       </c>
       <c r="O110" s="2" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P110" t="str">
+        <f t="shared" si="55"/>
+        <v>dev:code-phase:*</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D111" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E111" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F111" t="s">
-        <v>5</v>
-      </c>
-      <c r="G111" t="s">
-        <v>7</v>
-      </c>
-      <c r="H111" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="I111" s="1" t="str">
-        <f t="shared" si="40"/>
-        <v>dev:build-phase:install:package:package</v>
+        <f t="shared" si="46"/>
+        <v>dev:code-phase:code</v>
       </c>
       <c r="J111" t="str">
-        <f t="shared" si="37"/>
-        <v>npm-run-all dev:build-phase:install:package:package:action</v>
+        <f t="shared" si="43"/>
+        <v>npm-run-all dev:code-phase:code:*</v>
       </c>
       <c r="K111" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "dev:build-phase:install:package:package": "date &amp;&amp; time npm-run-all dev:build-phase:install:package:package:action",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "dev:code-phase:code": "date &amp;&amp; time npm-run-all dev:code-phase:code:*",</v>
       </c>
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
       <c r="N111" s="2" t="str">
-        <f>IF(ISBLANK(P111),"",IF(ISNUMBER(SEARCH(":*",P111)),$N$6,$N$4))</f>
+        <f t="shared" si="53"/>
         <v>npm-run-all</v>
       </c>
       <c r="O111" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P111" t="str">
-        <f t="shared" ref="P111:P112" si="52" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I111,"action")</f>
-        <v>dev:build-phase:install:package:package:action</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="55"/>
+        <v>dev:code-phase:code:*</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D112" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E112" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F112" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="G112" t="s">
         <v>11</v>
       </c>
       <c r="I112" s="1" t="str">
-        <f t="shared" si="40"/>
-        <v>dev:build-phase:install:report</v>
+        <f t="shared" si="46"/>
+        <v>dev:code-phase:code:report</v>
       </c>
       <c r="J112" t="str">
-        <f t="shared" si="37"/>
-        <v>npm-run-all dev:build-phase:install:report:action</v>
+        <f t="shared" si="43"/>
+        <v>npm-run-all dev:code-phase:code:report:action</v>
       </c>
       <c r="K112" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "dev:build-phase:install:report": "date &amp;&amp; time npm-run-all dev:build-phase:install:report:action",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "dev:code-phase:code:report": "date &amp;&amp; time npm-run-all dev:code-phase:code:report:action",</v>
       </c>
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
       <c r="N112" s="2" t="str">
-        <f>IF(ISBLANK(P112),"",IF(ISNUMBER(SEARCH(":*",P112)),$N$6,$N$4))</f>
+        <f t="shared" si="53"/>
         <v>npm-run-all</v>
       </c>
       <c r="O112" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P112" t="str">
-        <f t="shared" si="52"/>
-        <v>dev:build-phase:install:report:action</v>
+        <f t="shared" ref="P112" si="57" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I112,"action")</f>
+        <v>dev:code-phase:code:report:action</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B113">
-        <v>2</v>
+      <c r="A113">
+        <v>3</v>
+      </c>
+      <c r="C113" t="s">
+        <v>120</v>
       </c>
       <c r="D113" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E113" t="s">
-        <v>114</v>
-      </c>
-      <c r="F113" t="s">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="I113" s="1" t="str">
-        <f t="shared" si="40"/>
-        <v>dev:build-phase:build</v>
+        <f t="shared" si="46"/>
+        <v>dev:build-phase</v>
       </c>
       <c r="J113" t="str">
-        <f t="shared" si="37"/>
-        <v>npm-run-all dev:build-phase:build:*</v>
+        <f t="shared" si="43"/>
+        <v>npm-run-all dev:build-phase:*</v>
       </c>
       <c r="K113" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "dev:build-phase:build": "date &amp;&amp; time npm-run-all dev:build-phase:build:*",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "dev:build-phase": "date &amp;&amp; time npm-run-all dev:build-phase:*",</v>
       </c>
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
       <c r="N113" s="2" t="str">
-        <f>IF(ISBLANK(P113),"",IF(ISNUMBER(SEARCH(":*",P113)),$N$6,$N$4))</f>
+        <f t="shared" si="53"/>
         <v>npm-run-all</v>
       </c>
       <c r="O113" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P113" t="str">
-        <f t="shared" si="48"/>
-        <v>dev:build-phase:build:*</v>
+        <f t="shared" si="55"/>
+        <v>dev:build-phase:*</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>1</v>
+      </c>
       <c r="D114" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E114" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F114" t="s">
-        <v>1</v>
-      </c>
-      <c r="G114" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I114" s="1" t="str">
-        <f t="shared" si="40"/>
-        <v>dev:build-phase:build:package</v>
+        <f t="shared" si="46"/>
+        <v>dev:build-phase:install</v>
       </c>
       <c r="J114" t="str">
-        <f t="shared" si="37"/>
-        <v>npm-run-all dev:build-phase:build:package:action</v>
+        <f t="shared" si="43"/>
+        <v>npm-run-all dev:build-phase:install:*</v>
       </c>
       <c r="K114" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "dev:build-phase:build:package": "date &amp;&amp; time npm-run-all dev:build-phase:build:package:action",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "dev:build-phase:install": "date &amp;&amp; time npm-run-all dev:build-phase:install:*",</v>
       </c>
       <c r="L114" s="2"/>
       <c r="M114" s="2"/>
       <c r="N114" s="2" t="str">
-        <f>IF(ISBLANK(P114),"",IF(ISNUMBER(SEARCH(":*",P114)),$N$6,$N$4))</f>
+        <f t="shared" si="53"/>
         <v>npm-run-all</v>
       </c>
       <c r="O114" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P114" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I114,"action")</f>
-        <v>dev:build-phase:build:package:action</v>
+        <f t="shared" si="55"/>
+        <v>dev:build-phase:install:*</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D115" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E115" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F115" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G115" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="I115" s="1" t="str">
-        <f t="shared" si="40"/>
-        <v>dev:build-phase:build:report</v>
+        <f t="shared" si="46"/>
+        <v>dev:build-phase:install:prepare</v>
       </c>
       <c r="J115" t="str">
-        <f t="shared" si="37"/>
-        <v>npm-run-all dev:build-phase:build:report:action</v>
+        <f t="shared" si="43"/>
+        <v>npm-run-all dev:build-phase:install:prepare:action</v>
       </c>
       <c r="K115" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "dev:build-phase:build:report": "date &amp;&amp; time npm-run-all dev:build-phase:build:report:action",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "dev:build-phase:install:prepare": "date &amp;&amp; time npm-run-all dev:build-phase:install:prepare:action",</v>
       </c>
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
       <c r="N115" s="2" t="str">
-        <f>IF(ISBLANK(P115),"",IF(ISNUMBER(SEARCH(":*",P115)),$N$6,$N$4))</f>
+        <f t="shared" si="53"/>
         <v>npm-run-all</v>
       </c>
       <c r="O115" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P115" t="str">
-        <f t="shared" ref="P115" si="53" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I115,"action")</f>
-        <v>dev:build-phase:build:report:action</v>
+        <f t="shared" ref="P115" si="58" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I115,"action")</f>
+        <v>dev:build-phase:install:prepare:action</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>4</v>
-      </c>
-      <c r="B116">
-        <v>3</v>
-      </c>
-      <c r="C116" t="s">
-        <v>118</v>
-      </c>
       <c r="D116" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E116" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="F116" t="s">
+        <v>5</v>
+      </c>
+      <c r="G116" t="s">
+        <v>7</v>
       </c>
       <c r="I116" s="1" t="str">
-        <f t="shared" si="40"/>
-        <v>dev:test-phase</v>
+        <f t="shared" si="46"/>
+        <v>dev:build-phase:install:package</v>
       </c>
       <c r="J116" t="str">
-        <f t="shared" si="37"/>
-        <v>npm-run-all dev:test-phase:*</v>
+        <f t="shared" si="43"/>
+        <v>npm-run-all dev:build-phase:install:package:*</v>
       </c>
       <c r="K116" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "dev:test-phase": "date &amp;&amp; time npm-run-all dev:test-phase:*",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "dev:build-phase:install:package": "date &amp;&amp; time npm-run-all dev:build-phase:install:package:*",</v>
       </c>
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
       <c r="N116" s="2" t="str">
-        <f>IF(ISBLANK(P116),"",IF(ISNUMBER(SEARCH(":*",P116)),$N$6,$N$4))</f>
+        <f t="shared" si="53"/>
         <v>npm-run-all</v>
       </c>
       <c r="O116" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P116" t="str">
-        <f t="shared" ref="P116:P118" si="54">CONCATENATE(IF(CODE(I116)-CODE("a")&lt;0,LOWER(LEFT(I116,IF(ISERR(FIND(":",I116)),LEN(I116)+1,FIND(":",I116))-1)),I116),":*")</f>
-        <v>dev:test-phase:*</v>
+        <f t="shared" si="55"/>
+        <v>dev:build-phase:install:package:*</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D117" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E117" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F117" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="G117" t="s">
+        <v>7</v>
+      </c>
+      <c r="H117" t="s">
+        <v>6</v>
       </c>
       <c r="I117" s="1" t="str">
-        <f t="shared" si="40"/>
-        <v>dev:test-phase:test</v>
+        <f t="shared" si="46"/>
+        <v>dev:build-phase:install:package:environment</v>
       </c>
       <c r="J117" t="str">
-        <f t="shared" si="37"/>
-        <v>npm-run-all dev:test-phase:test:*</v>
+        <f t="shared" si="43"/>
+        <v>:</v>
       </c>
       <c r="K117" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "dev:test-phase:test": "date &amp;&amp; time npm-run-all dev:test-phase:test:*",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "dev:build-phase:install:package:environment": ":",</v>
       </c>
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
       <c r="N117" s="2" t="str">
-        <f>IF(ISBLANK(P117),"",IF(ISNUMBER(SEARCH(":*",P117)),$N$6,$N$4))</f>
-        <v>npm-run-all</v>
+        <f t="shared" si="53"/>
+        <v/>
       </c>
       <c r="O117" s="2" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P117" t="str">
-        <f t="shared" si="54"/>
-        <v>dev:test-phase:test:*</v>
+        <f t="shared" si="47"/>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D118" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E118" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F118" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G118" t="s">
         <v>7</v>
       </c>
+      <c r="H118" t="s">
+        <v>7</v>
+      </c>
       <c r="I118" s="1" t="str">
-        <f t="shared" si="40"/>
-        <v>dev:test-phase:test:package</v>
+        <f t="shared" si="46"/>
+        <v>dev:build-phase:install:package:package</v>
       </c>
       <c r="J118" t="str">
-        <f t="shared" si="37"/>
-        <v>npm-run-all dev:test-phase:test:package:*</v>
+        <f t="shared" si="43"/>
+        <v>npm-run-all dev:build-phase:install:package:package:action</v>
       </c>
       <c r="K118" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "dev:test-phase:test:package": "date &amp;&amp; time npm-run-all dev:test-phase:test:package:*",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "dev:build-phase:install:package:package": "date &amp;&amp; time npm-run-all dev:build-phase:install:package:package:action",</v>
       </c>
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
       <c r="N118" s="2" t="str">
-        <f>IF(ISBLANK(P118),"",IF(ISNUMBER(SEARCH(":*",P118)),$N$6,$N$4))</f>
+        <f t="shared" si="53"/>
         <v>npm-run-all</v>
       </c>
       <c r="O118" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P118" t="str">
-        <f t="shared" si="54"/>
-        <v>dev:test-phase:test:package:*</v>
+        <f t="shared" ref="P118:P119" si="59" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I118,"action")</f>
+        <v>dev:build-phase:install:package:package:action</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D119" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E119" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F119" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G119" t="s">
-        <v>7</v>
-      </c>
-      <c r="H119" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I119" s="1" t="str">
-        <f t="shared" si="40"/>
-        <v>dev:test-phase:test:package:vulnerability</v>
+        <f t="shared" si="46"/>
+        <v>dev:build-phase:install:report</v>
       </c>
       <c r="J119" t="str">
-        <f t="shared" si="37"/>
-        <v>npm-run-all dev:test-phase:test:package:vulnerability:action</v>
+        <f t="shared" si="43"/>
+        <v>npm-run-all dev:build-phase:install:report:action</v>
       </c>
       <c r="K119" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "dev:test-phase:test:package:vulnerability": "date &amp;&amp; time npm-run-all dev:test-phase:test:package:vulnerability:action",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "dev:build-phase:install:report": "date &amp;&amp; time npm-run-all dev:build-phase:install:report:action",</v>
       </c>
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
       <c r="N119" s="2" t="str">
-        <f>IF(ISBLANK(P119),"",IF(ISNUMBER(SEARCH(":*",P119)),$N$6,$N$4))</f>
+        <f t="shared" si="53"/>
         <v>npm-run-all</v>
       </c>
       <c r="O119" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P119" t="str">
-        <f t="shared" ref="P119" si="55" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I119,"action")</f>
-        <v>dev:test-phase:test:package:vulnerability:action</v>
+        <f t="shared" si="59"/>
+        <v>dev:build-phase:install:report:action</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>2</v>
+      </c>
       <c r="D120" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E120" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F120" t="s">
-        <v>2</v>
-      </c>
-      <c r="G120" t="s">
-        <v>7</v>
-      </c>
-      <c r="H120" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I120" s="1" t="str">
-        <f t="shared" si="40"/>
-        <v>dev:test-phase:test:package:unit</v>
+        <f t="shared" si="46"/>
+        <v>dev:build-phase:build</v>
       </c>
       <c r="J120" t="str">
-        <f t="shared" si="37"/>
-        <v>npm-run-all dev:test-phase:test:package:unit:action</v>
+        <f t="shared" si="43"/>
+        <v>npm-run-all dev:build-phase:build:*</v>
       </c>
       <c r="K120" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "dev:test-phase:test:package:unit": "date &amp;&amp; time npm-run-all dev:test-phase:test:package:unit:action",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "dev:build-phase:build": "date &amp;&amp; time npm-run-all dev:build-phase:build:*",</v>
       </c>
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
       <c r="N120" s="2" t="str">
-        <f>IF(ISBLANK(P120),"",IF(ISNUMBER(SEARCH(":*",P120)),$N$6,$N$4))</f>
+        <f t="shared" si="53"/>
         <v>npm-run-all</v>
       </c>
       <c r="O120" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P120" t="str">
-        <f t="shared" ref="P120:P122" si="56" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I120,"action")</f>
-        <v>dev:test-phase:test:package:unit:action</v>
+        <f t="shared" si="55"/>
+        <v>dev:build-phase:build:*</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D121" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E121" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F121" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G121" t="s">
         <v>7</v>
       </c>
-      <c r="H121" t="s">
-        <v>10</v>
-      </c>
       <c r="I121" s="1" t="str">
-        <f t="shared" si="40"/>
-        <v>dev:test-phase:test:package:integration</v>
+        <f t="shared" si="46"/>
+        <v>dev:build-phase:build:package</v>
       </c>
       <c r="J121" t="str">
-        <f t="shared" si="37"/>
-        <v>npm-run-all dev:test-phase:test:package:integration:action</v>
+        <f t="shared" si="43"/>
+        <v>npm-run-all dev:build-phase:build:package:action</v>
       </c>
       <c r="K121" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "dev:test-phase:test:package:integration": "date &amp;&amp; time npm-run-all dev:test-phase:test:package:integration:action",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "dev:build-phase:build:package": "date &amp;&amp; time npm-run-all dev:build-phase:build:package:action",</v>
       </c>
       <c r="L121" s="2"/>
       <c r="M121" s="2"/>
       <c r="N121" s="2" t="str">
-        <f>IF(ISBLANK(P121),"",IF(ISNUMBER(SEARCH(":*",P121)),$N$6,$N$4))</f>
+        <f t="shared" si="53"/>
         <v>npm-run-all</v>
       </c>
       <c r="O121" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P121" t="str">
-        <f t="shared" si="56"/>
-        <v>dev:test-phase:test:package:integration:action</v>
+        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I121,"action")</f>
+        <v>dev:build-phase:build:package:action</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D122" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E122" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F122" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G122" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="I122" s="1" t="str">
-        <f t="shared" si="40"/>
-        <v>dev:test-phase:test:measure</v>
+        <f t="shared" si="46"/>
+        <v>dev:build-phase:build:report</v>
       </c>
       <c r="J122" t="str">
-        <f t="shared" si="37"/>
-        <v>npm-run-all dev:test-phase:test:measure:action</v>
+        <f t="shared" si="43"/>
+        <v>npm-run-all dev:build-phase:build:report:action</v>
       </c>
       <c r="K122" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "dev:test-phase:test:measure": "date &amp;&amp; time npm-run-all dev:test-phase:test:measure:action",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "dev:build-phase:build:report": "date &amp;&amp; time npm-run-all dev:build-phase:build:report:action",</v>
       </c>
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
       <c r="N122" s="2" t="str">
-        <f>IF(ISBLANK(P122),"",IF(ISNUMBER(SEARCH(":*",P122)),$N$6,$N$4))</f>
+        <f t="shared" si="53"/>
         <v>npm-run-all</v>
       </c>
       <c r="O122" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P122" t="str">
-        <f t="shared" si="56"/>
-        <v>dev:test-phase:test:measure:action</v>
+        <f t="shared" ref="P122" si="60" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I122,"action")</f>
+        <v>dev:build-phase:build:report:action</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>4</v>
+      </c>
+      <c r="B123">
+        <v>3</v>
+      </c>
+      <c r="C123" t="s">
+        <v>116</v>
+      </c>
       <c r="D123" t="s">
+        <v>109</v>
+      </c>
+      <c r="E123" t="s">
         <v>111</v>
       </c>
-      <c r="E123" t="s">
-        <v>113</v>
-      </c>
-      <c r="F123" t="s">
-        <v>2</v>
-      </c>
-      <c r="G123" t="s">
-        <v>11</v>
-      </c>
       <c r="I123" s="1" t="str">
-        <f t="shared" si="40"/>
-        <v>dev:test-phase:test:report</v>
+        <f t="shared" si="46"/>
+        <v>dev:test-phase</v>
       </c>
       <c r="J123" t="str">
-        <f t="shared" si="37"/>
-        <v>:</v>
+        <f t="shared" si="43"/>
+        <v>npm-run-all dev:test-phase:*</v>
       </c>
       <c r="K123" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "dev:test-phase:test:report": ":",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "dev:test-phase": "date &amp;&amp; time npm-run-all dev:test-phase:*",</v>
       </c>
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
       <c r="N123" s="2" t="str">
-        <f>IF(ISBLANK(P123),"",IF(ISNUMBER(SEARCH(":*",P123)),$N$6,$N$4))</f>
-        <v/>
+        <f t="shared" si="53"/>
+        <v>npm-run-all</v>
       </c>
       <c r="O123" s="2" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve"> </v>
+        <f t="shared" si="47"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P123" t="str">
+        <f t="shared" ref="P123:P125" si="61">CONCATENATE(IF(CODE(I123)-CODE("a")&lt;0,LOWER(LEFT(I123,IF(ISERR(FIND(":",I123)),LEN(I123)+1,FIND(":",I123))-1)),I123),":*")</f>
+        <v>dev:test-phase:*</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B124">
-        <v>4</v>
-      </c>
       <c r="D124" t="s">
+        <v>109</v>
+      </c>
+      <c r="E124" t="s">
         <v>111</v>
       </c>
-      <c r="E124" t="s">
-        <v>113</v>
-      </c>
       <c r="F124" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I124" s="1" t="str">
-        <f t="shared" si="40"/>
-        <v>dev:test-phase:codecover</v>
+        <f t="shared" si="46"/>
+        <v>dev:test-phase:test</v>
       </c>
       <c r="J124" t="str">
-        <f t="shared" si="37"/>
-        <v>:</v>
+        <f t="shared" si="43"/>
+        <v>npm-run-all dev:test-phase:test:*</v>
       </c>
       <c r="K124" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "dev:test-phase:codecover": ":",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "dev:test-phase:test": "date &amp;&amp; time npm-run-all dev:test-phase:test:*",</v>
       </c>
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
       <c r="N124" s="2" t="str">
-        <f>IF(ISBLANK(P124),"",IF(ISNUMBER(SEARCH(":*",P124)),$N$6,$N$4))</f>
-        <v/>
+        <f t="shared" si="53"/>
+        <v>npm-run-all</v>
       </c>
       <c r="O124" s="2" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve"> </v>
+        <f t="shared" si="47"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P124" t="str">
+        <f t="shared" si="61"/>
+        <v>dev:test-phase:test:*</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D125" t="s">
+        <v>109</v>
+      </c>
+      <c r="E125" t="s">
         <v>111</v>
       </c>
-      <c r="E125" t="s">
-        <v>113</v>
-      </c>
       <c r="F125" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G125" t="s">
         <v>7</v>
       </c>
       <c r="I125" s="1" t="str">
-        <f t="shared" si="40"/>
-        <v>dev:test-phase:codecover:package</v>
+        <f t="shared" si="46"/>
+        <v>dev:test-phase:test:package</v>
       </c>
       <c r="J125" t="str">
-        <f t="shared" si="37"/>
-        <v>npm-run-all dev:test-phase:codecover:package:action</v>
+        <f t="shared" si="43"/>
+        <v>npm-run-all dev:test-phase:test:package:*</v>
       </c>
       <c r="K125" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "dev:test-phase:codecover:package": "date &amp;&amp; time npm-run-all dev:test-phase:codecover:package:action",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "dev:test-phase:test:package": "date &amp;&amp; time npm-run-all dev:test-phase:test:package:*",</v>
       </c>
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
       <c r="N125" s="2" t="str">
-        <f>IF(ISBLANK(P125),"",IF(ISNUMBER(SEARCH(":*",P125)),$N$6,$N$4))</f>
+        <f t="shared" si="53"/>
         <v>npm-run-all</v>
       </c>
       <c r="O125" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P125" t="str">
-        <f t="shared" ref="P125" si="57" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I125,"action")</f>
-        <v>dev:test-phase:codecover:package:action</v>
+        <f t="shared" si="61"/>
+        <v>dev:test-phase:test:package:*</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D126" t="s">
+        <v>109</v>
+      </c>
+      <c r="E126" t="s">
         <v>111</v>
       </c>
-      <c r="E126" t="s">
-        <v>113</v>
-      </c>
       <c r="F126" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G126" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="H126" t="s">
+        <v>8</v>
       </c>
       <c r="I126" s="1" t="str">
-        <f t="shared" si="40"/>
-        <v>dev:test-phase:codecover:report</v>
+        <f t="shared" si="46"/>
+        <v>dev:test-phase:test:package:vulnerability</v>
       </c>
       <c r="J126" t="str">
-        <f t="shared" si="37"/>
-        <v>:</v>
+        <f t="shared" si="43"/>
+        <v>npm-run-all dev:test-phase:test:package:vulnerability:action</v>
       </c>
       <c r="K126" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "dev:test-phase:codecover:report": ":",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "dev:test-phase:test:package:vulnerability": "date &amp;&amp; time npm-run-all dev:test-phase:test:package:vulnerability:action",</v>
       </c>
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
       <c r="N126" s="2" t="str">
-        <f>IF(ISBLANK(P126),"",IF(ISNUMBER(SEARCH(":*",P126)),$N$6,$N$4))</f>
-        <v/>
+        <f t="shared" si="53"/>
+        <v>npm-run-all</v>
       </c>
       <c r="O126" s="2" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve"> </v>
+        <f t="shared" si="47"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P126" t="str">
+        <f t="shared" ref="P126" si="62" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I126,"action")</f>
+        <v>dev:test-phase:test:package:vulnerability:action</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B127">
-        <v>5</v>
-      </c>
       <c r="D127" t="s">
+        <v>109</v>
+      </c>
+      <c r="E127" t="s">
         <v>111</v>
       </c>
-      <c r="E127" t="s">
-        <v>113</v>
-      </c>
       <c r="F127" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G127" t="s">
+        <v>7</v>
+      </c>
+      <c r="H127" t="s">
+        <v>9</v>
       </c>
       <c r="I127" s="1" t="str">
-        <f t="shared" si="40"/>
-        <v>dev:test-phase:document</v>
+        <f t="shared" si="46"/>
+        <v>dev:test-phase:test:package:unit</v>
       </c>
       <c r="J127" t="str">
-        <f t="shared" si="37"/>
-        <v>npm-run-all dev:test-phase:document:*</v>
+        <f t="shared" si="43"/>
+        <v>npm-run-all dev:test-phase:test:package:unit:action</v>
       </c>
       <c r="K127" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "dev:test-phase:document": "date &amp;&amp; time npm-run-all dev:test-phase:document:*",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "dev:test-phase:test:package:unit": "date &amp;&amp; time npm-run-all dev:test-phase:test:package:unit:action",</v>
       </c>
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
       <c r="N127" s="2" t="str">
-        <f>IF(ISBLANK(P127),"",IF(ISNUMBER(SEARCH(":*",P127)),$N$6,$N$4))</f>
+        <f t="shared" si="53"/>
         <v>npm-run-all</v>
       </c>
       <c r="O127" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P127" t="str">
-        <f t="shared" ref="P127" si="58">CONCATENATE(IF(CODE(I127)-CODE("a")&lt;0,LOWER(LEFT(I127,IF(ISERR(FIND(":",I127)),LEN(I127)+1,FIND(":",I127))-1)),I127),":*")</f>
-        <v>dev:test-phase:document:*</v>
+        <f t="shared" ref="P127:P129" si="63" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I127,"action")</f>
+        <v>dev:test-phase:test:package:unit:action</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D128" t="s">
+        <v>109</v>
+      </c>
+      <c r="E128" t="s">
         <v>111</v>
       </c>
-      <c r="E128" t="s">
-        <v>113</v>
-      </c>
       <c r="F128" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G128" t="s">
         <v>7</v>
       </c>
+      <c r="H128" t="s">
+        <v>10</v>
+      </c>
       <c r="I128" s="1" t="str">
-        <f t="shared" ref="I128:I161" si="59" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D128:H128)</f>
-        <v>dev:test-phase:document:package</v>
+        <f t="shared" si="46"/>
+        <v>dev:test-phase:test:package:integration</v>
       </c>
       <c r="J128" t="str">
-        <f t="shared" si="37"/>
-        <v>npm-run-all dev:test-phase:document:package:action</v>
+        <f t="shared" si="43"/>
+        <v>npm-run-all dev:test-phase:test:package:integration:action</v>
       </c>
       <c r="K128" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "dev:test-phase:document:package": "date &amp;&amp; time npm-run-all dev:test-phase:document:package:action",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "dev:test-phase:test:package:integration": "date &amp;&amp; time npm-run-all dev:test-phase:test:package:integration:action",</v>
       </c>
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
       <c r="N128" s="2" t="str">
-        <f>IF(ISBLANK(P128),"",IF(ISNUMBER(SEARCH(":*",P128)),$N$6,$N$4))</f>
+        <f t="shared" si="53"/>
         <v>npm-run-all</v>
       </c>
       <c r="O128" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P128" t="str">
-        <f t="shared" ref="P128" si="60" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I128,"action")</f>
-        <v>dev:test-phase:document:package:action</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="63"/>
+        <v>dev:test-phase:test:package:integration:action</v>
+      </c>
+    </row>
+    <row r="129" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D129" t="s">
+        <v>109</v>
+      </c>
+      <c r="E129" t="s">
         <v>111</v>
       </c>
-      <c r="E129" t="s">
-        <v>113</v>
-      </c>
       <c r="F129" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G129" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="I129" s="1" t="str">
-        <f t="shared" si="59"/>
-        <v>dev:test-phase:document:report</v>
+        <f t="shared" si="46"/>
+        <v>dev:test-phase:test:measure</v>
       </c>
       <c r="J129" t="str">
-        <f t="shared" si="37"/>
-        <v>:</v>
+        <f t="shared" si="43"/>
+        <v>npm-run-all dev:test-phase:test:measure:action</v>
       </c>
       <c r="K129" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "dev:test-phase:document:report": ":",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "dev:test-phase:test:measure": "date &amp;&amp; time npm-run-all dev:test-phase:test:measure:action",</v>
       </c>
       <c r="L129" s="2"/>
       <c r="M129" s="2"/>
       <c r="N129" s="2" t="str">
-        <f>IF(ISBLANK(P129),"",IF(ISNUMBER(SEARCH(":*",P129)),$N$6,$N$4))</f>
-        <v/>
+        <f t="shared" si="53"/>
+        <v>npm-run-all</v>
       </c>
       <c r="O129" s="2" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B130">
-        <v>6</v>
-      </c>
+        <f t="shared" si="47"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P129" t="str">
+        <f t="shared" si="63"/>
+        <v>dev:test-phase:test:measure:action</v>
+      </c>
+    </row>
+    <row r="130" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D130" t="s">
+        <v>109</v>
+      </c>
+      <c r="E130" t="s">
         <v>111</v>
       </c>
-      <c r="E130" t="s">
-        <v>113</v>
-      </c>
       <c r="F130" t="s">
-        <v>23</v>
+        <v>2</v>
+      </c>
+      <c r="G130" t="s">
+        <v>11</v>
       </c>
       <c r="I130" s="1" t="str">
-        <f t="shared" si="59"/>
-        <v>dev:test-phase:integrate</v>
+        <f t="shared" si="46"/>
+        <v>dev:test-phase:test:report</v>
       </c>
       <c r="J130" t="str">
-        <f t="shared" si="37"/>
-        <v>npm-run-all dev:test-phase:integrate:*</v>
+        <f t="shared" si="43"/>
+        <v>:</v>
       </c>
       <c r="K130" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "dev:test-phase:integrate": "date &amp;&amp; time npm-run-all dev:test-phase:integrate:*",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "dev:test-phase:test:report": ":",</v>
       </c>
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
       <c r="N130" s="2" t="str">
-        <f>IF(ISBLANK(P130),"",IF(ISNUMBER(SEARCH(":*",P130)),$N$6,$N$4))</f>
-        <v>npm-run-all</v>
+        <f t="shared" si="53"/>
+        <v/>
       </c>
       <c r="O130" s="2" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P130" t="str">
-        <f t="shared" ref="P130" si="61">CONCATENATE(IF(CODE(I130)-CODE("a")&lt;0,LOWER(LEFT(I130,IF(ISERR(FIND(":",I130)),LEN(I130)+1,FIND(":",I130))-1)),I130),":*")</f>
-        <v>dev:test-phase:integrate:*</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="131" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <v>4</v>
+      </c>
       <c r="D131" t="s">
+        <v>109</v>
+      </c>
+      <c r="E131" t="s">
         <v>111</v>
       </c>
-      <c r="E131" t="s">
-        <v>113</v>
-      </c>
       <c r="F131" t="s">
-        <v>23</v>
-      </c>
-      <c r="G131" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I131" s="1" t="str">
-        <f t="shared" si="59"/>
-        <v>dev:test-phase:integrate:package</v>
+        <f t="shared" si="46"/>
+        <v>dev:test-phase:codecover</v>
       </c>
       <c r="J131" t="str">
-        <f t="shared" si="37"/>
-        <v>npm-run-all dev:test-phase:integrate:package:action</v>
+        <f t="shared" si="43"/>
+        <v>:</v>
       </c>
       <c r="K131" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "dev:test-phase:integrate:package": "date &amp;&amp; time npm-run-all dev:test-phase:integrate:package:action",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "dev:test-phase:codecover": ":",</v>
       </c>
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
       <c r="N131" s="2" t="str">
-        <f>IF(ISBLANK(P131),"",IF(ISNUMBER(SEARCH(":*",P131)),$N$6,$N$4))</f>
-        <v>npm-run-all</v>
+        <f t="shared" si="53"/>
+        <v/>
       </c>
       <c r="O131" s="2" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P131" t="str">
-        <f t="shared" ref="P131" si="62" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I131,"action")</f>
-        <v>dev:test-phase:integrate:package:action</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="132" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D132" t="s">
+        <v>109</v>
+      </c>
+      <c r="E132" t="s">
         <v>111</v>
       </c>
-      <c r="E132" t="s">
-        <v>113</v>
-      </c>
       <c r="F132" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G132" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="I132" s="1" t="str">
-        <f t="shared" si="59"/>
-        <v>dev:test-phase:integrate:copy</v>
+        <f t="shared" si="46"/>
+        <v>dev:test-phase:codecover:package</v>
       </c>
       <c r="J132" t="str">
-        <f t="shared" si="37"/>
-        <v>:</v>
+        <f t="shared" si="43"/>
+        <v>npm-run-all dev:test-phase:codecover:package:action</v>
       </c>
       <c r="K132" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "dev:test-phase:integrate:copy": ":",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "dev:test-phase:codecover:package": "date &amp;&amp; time npm-run-all dev:test-phase:codecover:package:action",</v>
       </c>
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
       <c r="N132" s="2" t="str">
-        <f>IF(ISBLANK(P132),"",IF(ISNUMBER(SEARCH(":*",P132)),$N$6,$N$4))</f>
-        <v/>
+        <f t="shared" si="53"/>
+        <v>npm-run-all</v>
       </c>
       <c r="O132" s="2" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P132" t="str">
+        <f t="shared" ref="P132" si="64" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I132,"action")</f>
+        <v>dev:test-phase:codecover:package:action</v>
+      </c>
+    </row>
+    <row r="133" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D133" t="s">
+        <v>109</v>
+      </c>
+      <c r="E133" t="s">
         <v>111</v>
       </c>
-      <c r="E133" t="s">
-        <v>113</v>
-      </c>
       <c r="F133" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G133" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I133" s="1" t="str">
-        <f t="shared" si="59"/>
-        <v>dev:test-phase:integrate:test</v>
+        <f t="shared" si="46"/>
+        <v>dev:test-phase:codecover:report</v>
       </c>
       <c r="J133" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>:</v>
       </c>
       <c r="K133" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "dev:test-phase:integrate:test": ":",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "dev:test-phase:codecover:report": ":",</v>
       </c>
       <c r="L133" s="2"/>
       <c r="M133" s="2"/>
       <c r="N133" s="2" t="str">
-        <f>IF(ISBLANK(P133),"",IF(ISNUMBER(SEARCH(":*",P133)),$N$6,$N$4))</f>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="O133" s="2" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="134" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B134">
+        <v>5</v>
+      </c>
       <c r="D134" t="s">
+        <v>109</v>
+      </c>
+      <c r="E134" t="s">
         <v>111</v>
       </c>
-      <c r="E134" t="s">
-        <v>113</v>
-      </c>
       <c r="F134" t="s">
-        <v>23</v>
-      </c>
-      <c r="G134" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I134" s="1" t="str">
-        <f t="shared" si="59"/>
-        <v>dev:test-phase:integrate:report</v>
+        <f t="shared" si="46"/>
+        <v>dev:test-phase:document</v>
       </c>
       <c r="J134" t="str">
-        <f t="shared" si="37"/>
-        <v>:</v>
+        <f t="shared" si="43"/>
+        <v>npm-run-all dev:test-phase:document:*</v>
       </c>
       <c r="K134" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "dev:test-phase:integrate:report": ":",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "dev:test-phase:document": "date &amp;&amp; time npm-run-all dev:test-phase:document:*",</v>
       </c>
       <c r="L134" s="2"/>
       <c r="M134" s="2"/>
       <c r="N134" s="2" t="str">
-        <f>IF(ISBLANK(P134),"",IF(ISNUMBER(SEARCH(":*",P134)),$N$6,$N$4))</f>
-        <v/>
+        <f t="shared" si="53"/>
+        <v>npm-run-all</v>
       </c>
       <c r="O134" s="2" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P134" t="str">
+        <f t="shared" ref="P134" si="65">CONCATENATE(IF(CODE(I134)-CODE("a")&lt;0,LOWER(LEFT(I134,IF(ISERR(FIND(":",I134)),LEN(I134)+1,FIND(":",I134))-1)),I134),":*")</f>
+        <v>dev:test-phase:document:*</v>
+      </c>
+    </row>
+    <row r="135" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D135" t="s">
+        <v>109</v>
+      </c>
+      <c r="E135" t="s">
         <v>111</v>
       </c>
-      <c r="E135" t="s">
-        <v>113</v>
-      </c>
       <c r="F135" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="G135" t="s">
+        <v>7</v>
       </c>
       <c r="I135" s="1" t="str">
-        <f t="shared" ref="I135" si="63" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D135:H135)</f>
-        <v>dev:test-phase:report</v>
+        <f t="shared" ref="I135:I168" si="66" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D135:H135)</f>
+        <v>dev:test-phase:document:package</v>
       </c>
       <c r="J135" t="str">
-        <f t="shared" ref="J135" si="64" xml:space="preserve"> IF(NOT(COUNTA(P135:V135)),":",_xlfn.TEXTJOIN(O135,TRUE,N135,_xlfn.TEXTJOIN(O135,TRUE,P135:V135)))</f>
-        <v>:</v>
+        <f t="shared" si="43"/>
+        <v>npm-run-all dev:test-phase:document:package:action</v>
       </c>
       <c r="K135" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "dev:test-phase:report": ":",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "dev:test-phase:document:package": "date &amp;&amp; time npm-run-all dev:test-phase:document:package:action",</v>
       </c>
       <c r="L135" s="2"/>
       <c r="M135" s="2"/>
       <c r="N135" s="2" t="str">
-        <f t="shared" ref="N135" si="65">IF(ISBLANK(P135),"",IF(ISNUMBER(SEARCH(":*",P135)),$N$6,$N$4))</f>
-        <v/>
+        <f t="shared" si="53"/>
+        <v>npm-run-all</v>
       </c>
       <c r="O135" s="2" t="str">
-        <f t="shared" ref="O135" si="66">IF(ISBLANK(N135),CONCATENATE(" ",$O$4," ")," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P135" t="str">
+        <f t="shared" ref="P135" si="67" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I135,"action")</f>
+        <v>dev:test-phase:document:package:action</v>
+      </c>
+    </row>
+    <row r="136" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D136" t="s">
+        <v>109</v>
+      </c>
+      <c r="E136" t="s">
         <v>111</v>
       </c>
-      <c r="E136" t="s">
+      <c r="F136" t="s">
+        <v>3</v>
+      </c>
+      <c r="G136" t="s">
         <v>11</v>
       </c>
       <c r="I136" s="1" t="str">
-        <f t="shared" ref="I136" si="67" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D136:H136)</f>
-        <v>dev:report</v>
+        <f t="shared" si="66"/>
+        <v>dev:test-phase:document:report</v>
       </c>
       <c r="J136" t="str">
-        <f t="shared" ref="J136" si="68" xml:space="preserve"> IF(NOT(COUNTA(P136:V136)),":",_xlfn.TEXTJOIN(O136,TRUE,N136,_xlfn.TEXTJOIN(O136,TRUE,P136:V136)))</f>
+        <f t="shared" si="43"/>
         <v>:</v>
       </c>
       <c r="K136" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "dev:report": ":",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "dev:test-phase:document:report": ":",</v>
       </c>
       <c r="L136" s="2"/>
       <c r="M136" s="2"/>
       <c r="N136" s="2" t="str">
-        <f t="shared" ref="N136" si="69">IF(ISBLANK(P136),"",IF(ISNUMBER(SEARCH(":*",P136)),$N$6,$N$4))</f>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="O136" s="2" t="str">
-        <f t="shared" ref="O136" si="70">IF(ISBLANK(N136),CONCATENATE(" ",$O$4," ")," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="137" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>6</v>
+      </c>
       <c r="D137" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="E137" t="s">
+        <v>111</v>
+      </c>
+      <c r="F137" t="s">
+        <v>23</v>
       </c>
       <c r="I137" s="1" t="str">
-        <f t="shared" si="59"/>
-        <v>ops</v>
+        <f t="shared" si="66"/>
+        <v>dev:test-phase:integrate</v>
       </c>
       <c r="J137" t="str">
-        <f t="shared" si="37"/>
-        <v>npm-run-all ops:*</v>
+        <f t="shared" si="43"/>
+        <v>npm-run-all dev:test-phase:integrate:*</v>
       </c>
       <c r="K137" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    "ops": "date &amp;&amp; time npm-run-all ops:*",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "dev:test-phase:integrate": "date &amp;&amp; time npm-run-all dev:test-phase:integrate:*",</v>
       </c>
       <c r="L137" s="2"/>
       <c r="M137" s="2"/>
       <c r="N137" s="2" t="str">
-        <f t="shared" ref="N137:N138" si="71">IF(ISBLANK(P137),"",IF(ISNUMBER(SEARCH(":*",P137)),$N$6,$N$4))</f>
+        <f t="shared" si="53"/>
         <v>npm-run-all</v>
       </c>
       <c r="O137" s="2" t="str">
-        <f t="shared" ref="O137" si="72">IF(ISBLANK(N137),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" si="47"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P137" t="str">
-        <f>CONCATENATE(IF(CODE(I137)-CODE("a")&lt;0,LOWER(LEFT(I137,IF(ISERR(FIND(":",I137)),LEN(I137)+1,FIND(":",I137))-1)),I137),":*")</f>
-        <v>ops:*</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>5</v>
-      </c>
-      <c r="B138">
+        <f t="shared" ref="P137" si="68">CONCATENATE(IF(CODE(I137)-CODE("a")&lt;0,LOWER(LEFT(I137,IF(ISERR(FIND(":",I137)),LEN(I137)+1,FIND(":",I137))-1)),I137),":*")</f>
+        <v>dev:test-phase:integrate:*</v>
+      </c>
+    </row>
+    <row r="138" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
+        <v>109</v>
+      </c>
+      <c r="E138" t="s">
+        <v>111</v>
+      </c>
+      <c r="F138" t="s">
+        <v>23</v>
+      </c>
+      <c r="G138" t="s">
         <v>7</v>
       </c>
-      <c r="C138" t="s">
-        <v>119</v>
-      </c>
-      <c r="D138" t="s">
-        <v>110</v>
-      </c>
-      <c r="E138" t="s">
-        <v>83</v>
-      </c>
       <c r="I138" s="1" t="str">
-        <f t="shared" si="59"/>
-        <v>ops:release</v>
+        <f t="shared" si="66"/>
+        <v>dev:test-phase:integrate:package</v>
       </c>
       <c r="J138" t="str">
-        <f t="shared" si="37"/>
-        <v>npm-run-all ops:release:*</v>
+        <f t="shared" si="43"/>
+        <v>npm-run-all dev:test-phase:integrate:package:action</v>
       </c>
       <c r="K138" t="str">
-        <f t="shared" ref="K138:K168" si="73">IF(ISBLANK(I138),"",CONCATENATE("    """,I138,""": ","""",IF(LEN(J138)&gt;1,CONCATENATE(IF(L138,"",CONCATENATE(N$3," ")),""),""),IF(M138,"echo ",""),J138,""","))</f>
-        <v xml:space="preserve">    "ops:release": "date &amp;&amp; time npm-run-all ops:release:*",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "dev:test-phase:integrate:package": "date &amp;&amp; time npm-run-all dev:test-phase:integrate:package:action",</v>
       </c>
       <c r="L138" s="2"/>
       <c r="M138" s="2"/>
       <c r="N138" s="2" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="53"/>
         <v>npm-run-all</v>
       </c>
       <c r="O138" s="2" t="str">
-        <f t="shared" ref="O138" si="74">IF(ISBLANK(N138),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" si="47"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P138" t="str">
-        <f>CONCATENATE(IF(CODE(I138)-CODE("a")&lt;0,LOWER(LEFT(I138,IF(ISERR(FIND(":",I138)),LEN(I138)+1,FIND(":",I138))-1)),I138),":*")</f>
-        <v>ops:release:*</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" ref="P138" si="69" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I138,"action")</f>
+        <v>dev:test-phase:integrate:package:action</v>
+      </c>
+    </row>
+    <row r="139" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D139" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E139" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="F139" t="s">
-        <v>7</v>
+        <v>23</v>
+      </c>
+      <c r="G139" t="s">
+        <v>73</v>
       </c>
       <c r="I139" s="1" t="str">
-        <f t="shared" si="59"/>
-        <v>ops:release:package</v>
+        <f t="shared" si="66"/>
+        <v>dev:test-phase:integrate:copy</v>
       </c>
       <c r="J139" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>:</v>
       </c>
       <c r="K139" t="str">
-        <f t="shared" si="73"/>
-        <v xml:space="preserve">    "ops:release:package": ":",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "dev:test-phase:integrate:copy": ":",</v>
       </c>
       <c r="L139" s="2"/>
       <c r="M139" s="2"/>
       <c r="N139" s="2" t="str">
-        <f t="shared" ref="N139:N161" si="75">IF(ISBLANK(P139),"",IF(ISNUMBER(SEARCH(":*",P139)),$N$6,$N$4))</f>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="O139" s="2" t="str">
-        <f t="shared" ref="O139:O155" si="76">IF(ISBLANK(N139),CONCATENATE(" ",$O$4," ")," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="140" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D140" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E140" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="F140" t="s">
-        <v>75</v>
+        <v>23</v>
+      </c>
+      <c r="G140" t="s">
+        <v>2</v>
       </c>
       <c r="I140" s="1" t="str">
-        <f t="shared" si="59"/>
-        <v>ops:release:copy</v>
+        <f t="shared" si="66"/>
+        <v>dev:test-phase:integrate:test</v>
       </c>
       <c r="J140" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>:</v>
       </c>
       <c r="K140" t="str">
-        <f t="shared" si="73"/>
-        <v xml:space="preserve">    "ops:release:copy": ":",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "dev:test-phase:integrate:test": ":",</v>
       </c>
       <c r="L140" s="2"/>
       <c r="M140" s="2"/>
       <c r="N140" s="2" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="O140" s="2" t="str">
-        <f t="shared" si="76"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="141" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D141" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E141" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="F141" t="s">
+        <v>23</v>
+      </c>
+      <c r="G141" t="s">
         <v>11</v>
       </c>
       <c r="I141" s="1" t="str">
-        <f t="shared" si="59"/>
-        <v>ops:release:report</v>
+        <f t="shared" si="66"/>
+        <v>dev:test-phase:integrate:report</v>
       </c>
       <c r="J141" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>:</v>
       </c>
       <c r="K141" t="str">
-        <f t="shared" si="73"/>
-        <v xml:space="preserve">    "ops:release:report": ":",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "dev:test-phase:integrate:report": ":",</v>
       </c>
       <c r="L141" s="2"/>
       <c r="M141" s="2"/>
       <c r="N141" s="2" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="O141" s="2" t="str">
-        <f t="shared" si="76"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>6</v>
-      </c>
-      <c r="B142">
-        <v>8</v>
-      </c>
-      <c r="C142" t="s">
-        <v>86</v>
-      </c>
+        <f t="shared" si="47"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="142" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D142" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E142" t="s">
-        <v>4</v>
+        <v>111</v>
+      </c>
+      <c r="F142" t="s">
+        <v>11</v>
       </c>
       <c r="I142" s="1" t="str">
-        <f t="shared" si="59"/>
-        <v>ops:deploy</v>
+        <f t="shared" ref="I142" si="70" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D142:H142)</f>
+        <v>dev:test-phase:report</v>
       </c>
       <c r="J142" t="str">
-        <f t="shared" si="37"/>
-        <v>npm-run-all ops:deploy:*</v>
+        <f t="shared" ref="J142" si="71" xml:space="preserve"> IF(NOT(COUNTA(P142:V142)),":",_xlfn.TEXTJOIN(O142,TRUE,N142,_xlfn.TEXTJOIN(O142,TRUE,P142:V142)))</f>
+        <v>:</v>
       </c>
       <c r="K142" t="str">
-        <f t="shared" si="73"/>
-        <v xml:space="preserve">    "ops:deploy": "date &amp;&amp; time npm-run-all ops:deploy:*",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "dev:test-phase:report": ":",</v>
       </c>
       <c r="L142" s="2"/>
       <c r="M142" s="2"/>
       <c r="N142" s="2" t="str">
-        <f t="shared" si="75"/>
-        <v>npm-run-all</v>
+        <f t="shared" ref="N142" si="72">IF(ISBLANK(P142),"",IF(ISNUMBER(SEARCH(":*",P142)),$N$6,$N$4))</f>
+        <v/>
       </c>
       <c r="O142" s="2" t="str">
-        <f t="shared" si="76"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P142" t="str">
-        <f t="shared" ref="P142:P144" si="77">CONCATENATE(IF(CODE(I142)-CODE("a")&lt;0,LOWER(LEFT(I142,IF(ISERR(FIND(":",I142)),LEN(I142)+1,FIND(":",I142))-1)),I142),":*")</f>
-        <v>ops:deploy:*</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" ref="O142" si="73">IF(ISBLANK(N142),CONCATENATE(" ",$O$4," ")," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="143" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D143" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E143" t="s">
-        <v>4</v>
-      </c>
-      <c r="F143" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I143" s="1" t="str">
-        <f t="shared" si="59"/>
-        <v>ops:deploy:package</v>
+        <f t="shared" ref="I143" si="74" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D143:H143)</f>
+        <v>dev:report</v>
       </c>
       <c r="J143" t="str">
-        <f t="shared" si="37"/>
-        <v>npm-run-all ops:deploy:package:*</v>
+        <f t="shared" ref="J143" si="75" xml:space="preserve"> IF(NOT(COUNTA(P143:V143)),":",_xlfn.TEXTJOIN(O143,TRUE,N143,_xlfn.TEXTJOIN(O143,TRUE,P143:V143)))</f>
+        <v>:</v>
       </c>
       <c r="K143" t="str">
-        <f t="shared" si="73"/>
-        <v xml:space="preserve">    "ops:deploy:package": "date &amp;&amp; time echo npm-run-all ops:deploy:package:*",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "dev:report": ":",</v>
       </c>
       <c r="L143" s="2"/>
-      <c r="M143" s="2">
-        <v>1</v>
-      </c>
+      <c r="M143" s="2"/>
       <c r="N143" s="2" t="str">
-        <f t="shared" si="75"/>
-        <v>npm-run-all</v>
+        <f t="shared" ref="N143" si="76">IF(ISBLANK(P143),"",IF(ISNUMBER(SEARCH(":*",P143)),$N$6,$N$4))</f>
+        <v/>
       </c>
       <c r="O143" s="2" t="str">
-        <f t="shared" si="76"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P143" t="str">
-        <f t="shared" si="77"/>
-        <v>ops:deploy:package:*</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" ref="O143" si="77">IF(ISBLANK(N143),CONCATENATE(" ",$O$4," ")," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="144" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D144" t="s">
-        <v>110</v>
-      </c>
-      <c r="E144" t="s">
-        <v>4</v>
-      </c>
-      <c r="F144" t="s">
-        <v>7</v>
-      </c>
-      <c r="G144" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="I144" s="1" t="str">
-        <f t="shared" si="59"/>
-        <v>ops:deploy:package:dockerize</v>
+        <f t="shared" si="66"/>
+        <v>ops</v>
       </c>
       <c r="J144" t="str">
-        <f t="shared" si="37"/>
-        <v>npm-run-all ops:deploy:package:dockerize:*</v>
+        <f t="shared" si="43"/>
+        <v>npm-run-all ops:*</v>
       </c>
       <c r="K144" t="str">
-        <f t="shared" si="73"/>
-        <v xml:space="preserve">    "ops:deploy:package:dockerize": "date &amp;&amp; time npm-run-all ops:deploy:package:dockerize:*",</v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">    "ops": "date &amp;&amp; time npm-run-all ops:*",</v>
       </c>
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
       <c r="N144" s="2" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" ref="N144:N145" si="78">IF(ISBLANK(P144),"",IF(ISNUMBER(SEARCH(":*",P144)),$N$6,$N$4))</f>
         <v>npm-run-all</v>
       </c>
       <c r="O144" s="2" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" ref="O144" si="79">IF(ISBLANK(N144),CONCATENATE(" ",$O$4," ")," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P144" t="str">
-        <f t="shared" si="77"/>
-        <v>ops:deploy:package:dockerize:*</v>
+        <f>CONCATENATE(IF(CODE(I144)-CODE("a")&lt;0,LOWER(LEFT(I144,IF(ISERR(FIND(":",I144)),LEN(I144)+1,FIND(":",I144))-1)),I144),":*")</f>
+        <v>ops:*</v>
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>5</v>
+      </c>
+      <c r="B145">
+        <v>7</v>
+      </c>
+      <c r="C145" t="s">
+        <v>117</v>
+      </c>
       <c r="D145" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E145" t="s">
-        <v>4</v>
-      </c>
-      <c r="F145" t="s">
-        <v>7</v>
-      </c>
-      <c r="G145" t="s">
-        <v>63</v>
-      </c>
-      <c r="H145" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="I145" s="1" t="str">
-        <f t="shared" si="59"/>
-        <v>ops:deploy:package:dockerize:build</v>
+        <f t="shared" si="66"/>
+        <v>ops:release</v>
       </c>
       <c r="J145" t="str">
-        <f t="shared" si="37"/>
-        <v>npm-run-all ops:deploy:package:dockerize:build:action</v>
+        <f t="shared" si="43"/>
+        <v>npm-run-all ops:release:*</v>
       </c>
       <c r="K145" t="str">
-        <f t="shared" si="73"/>
-        <v xml:space="preserve">    "ops:deploy:package:dockerize:build": "date &amp;&amp; time npm-run-all ops:deploy:package:dockerize:build:action",</v>
+        <f t="shared" ref="K145:K174" si="80">IF(ISBLANK(I145),"",CONCATENATE("    """,I145,""": ","""",IF(LEN(J145)&gt;1,CONCATENATE(IF(L145,"",CONCATENATE(N$3," ")),""),""),IF(M145,"echo ",""),J145,""","))</f>
+        <v xml:space="preserve">    "ops:release": "date &amp;&amp; time npm-run-all ops:release:*",</v>
       </c>
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
       <c r="N145" s="2" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>npm-run-all</v>
       </c>
       <c r="O145" s="2" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" ref="O145" si="81">IF(ISBLANK(N145),CONCATENATE(" ",$O$4," ")," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P145" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I145,"action")</f>
-        <v>ops:deploy:package:dockerize:build:action</v>
+        <f>CONCATENATE(IF(CODE(I145)-CODE("a")&lt;0,LOWER(LEFT(I145,IF(ISERR(FIND(":",I145)),LEN(I145)+1,FIND(":",I145))-1)),I145),":*")</f>
+        <v>ops:release:*</v>
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D146" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E146" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="F146" t="s">
         <v>7</v>
       </c>
-      <c r="G146" t="s">
-        <v>63</v>
-      </c>
-      <c r="H146" t="s">
-        <v>70</v>
-      </c>
       <c r="I146" s="1" t="str">
-        <f t="shared" si="59"/>
-        <v>ops:deploy:package:dockerize:push</v>
+        <f t="shared" si="66"/>
+        <v>ops:release:package</v>
       </c>
       <c r="J146" t="str">
-        <f t="shared" si="37"/>
-        <v>npm-run-all ops:deploy:package:dockerize:push:action</v>
+        <f t="shared" si="43"/>
+        <v>:</v>
       </c>
       <c r="K146" t="str">
-        <f t="shared" si="73"/>
-        <v xml:space="preserve">    "ops:deploy:package:dockerize:push": "date &amp;&amp; time npm-run-all ops:deploy:package:dockerize:push:action",</v>
+        <f t="shared" si="80"/>
+        <v xml:space="preserve">    "ops:release:package": ":",</v>
       </c>
       <c r="L146" s="2"/>
       <c r="M146" s="2"/>
       <c r="N146" s="2" t="str">
-        <f t="shared" si="75"/>
-        <v>npm-run-all</v>
+        <f t="shared" ref="N146:N168" si="82">IF(ISBLANK(P146),"",IF(ISNUMBER(SEARCH(":*",P146)),$N$6,$N$4))</f>
+        <v/>
       </c>
       <c r="O146" s="2" t="str">
-        <f t="shared" si="76"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P146" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I146,"action")</f>
-        <v>ops:deploy:package:dockerize:push:action</v>
+        <f t="shared" ref="O146:O162" si="83">IF(ISBLANK(N146),CONCATENATE(" ",$O$4," ")," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D147" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E147" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="F147" t="s">
-        <v>7</v>
-      </c>
-      <c r="G147" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I147" s="1" t="str">
-        <f t="shared" si="59"/>
-        <v>ops:deploy:package:provision</v>
+        <f t="shared" si="66"/>
+        <v>ops:release:copy</v>
       </c>
       <c r="J147" t="str">
-        <f t="shared" si="37"/>
-        <v>npm-run-all ops:deploy:package:provision:action</v>
+        <f t="shared" si="43"/>
+        <v>:</v>
       </c>
       <c r="K147" t="str">
-        <f t="shared" si="73"/>
-        <v xml:space="preserve">    "ops:deploy:package:provision": "date &amp;&amp; time npm-run-all ops:deploy:package:provision:action",</v>
+        <f t="shared" si="80"/>
+        <v xml:space="preserve">    "ops:release:copy": ":",</v>
       </c>
       <c r="L147" s="2"/>
       <c r="M147" s="2"/>
       <c r="N147" s="2" t="str">
-        <f t="shared" si="75"/>
-        <v>npm-run-all</v>
+        <f t="shared" si="82"/>
+        <v/>
       </c>
       <c r="O147" s="2" t="str">
-        <f t="shared" si="76"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P147" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I147,"action")</f>
-        <v>ops:deploy:package:provision:action</v>
+        <f t="shared" si="83"/>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D148" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E148" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="F148" t="s">
-        <v>7</v>
-      </c>
-      <c r="G148" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="I148" s="1" t="str">
-        <f t="shared" si="59"/>
-        <v>ops:deploy:package:orchestrate</v>
+        <f t="shared" si="66"/>
+        <v>ops:release:report</v>
       </c>
       <c r="J148" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>:</v>
       </c>
       <c r="K148" t="str">
-        <f t="shared" si="73"/>
-        <v xml:space="preserve">    "ops:deploy:package:orchestrate": ":",</v>
+        <f t="shared" si="80"/>
+        <v xml:space="preserve">    "ops:release:report": ":",</v>
       </c>
       <c r="L148" s="2"/>
       <c r="M148" s="2"/>
       <c r="N148" s="2" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="O148" s="2" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>6</v>
+      </c>
+      <c r="B149">
+        <v>8</v>
+      </c>
+      <c r="C149" t="s">
+        <v>84</v>
+      </c>
       <c r="D149" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E149" t="s">
         <v>4</v>
       </c>
-      <c r="F149" t="s">
-        <v>11</v>
-      </c>
       <c r="I149" s="1" t="str">
-        <f t="shared" si="59"/>
-        <v>ops:deploy:report</v>
+        <f t="shared" si="66"/>
+        <v>ops:deploy</v>
       </c>
       <c r="J149" t="str">
-        <f t="shared" si="37"/>
-        <v>:</v>
+        <f t="shared" si="43"/>
+        <v>npm-run-all ops:deploy:*</v>
       </c>
       <c r="K149" t="str">
-        <f t="shared" si="73"/>
-        <v xml:space="preserve">    "ops:deploy:report": ":",</v>
+        <f t="shared" si="80"/>
+        <v xml:space="preserve">    "ops:deploy": "date &amp;&amp; time npm-run-all ops:deploy:*",</v>
       </c>
       <c r="L149" s="2"/>
       <c r="M149" s="2"/>
       <c r="N149" s="2" t="str">
-        <f t="shared" si="75"/>
-        <v/>
+        <f t="shared" si="82"/>
+        <v>npm-run-all</v>
       </c>
       <c r="O149" s="2" t="str">
-        <f t="shared" si="76"/>
-        <v xml:space="preserve"> </v>
+        <f t="shared" si="83"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P149" t="str">
+        <f t="shared" ref="P149:P151" si="84">CONCATENATE(IF(CODE(I149)-CODE("a")&lt;0,LOWER(LEFT(I149,IF(ISERR(FIND(":",I149)),LEN(I149)+1,FIND(":",I149))-1)),I149),":*")</f>
+        <v>ops:deploy:*</v>
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A150">
+      <c r="D150" t="s">
+        <v>108</v>
+      </c>
+      <c r="E150" t="s">
+        <v>4</v>
+      </c>
+      <c r="F150" t="s">
         <v>7</v>
       </c>
-      <c r="B150">
-        <v>9</v>
-      </c>
-      <c r="C150" t="s">
-        <v>85</v>
-      </c>
-      <c r="D150" t="s">
-        <v>110</v>
-      </c>
-      <c r="E150" t="s">
-        <v>12</v>
-      </c>
       <c r="I150" s="1" t="str">
-        <f t="shared" si="59"/>
-        <v>ops:run</v>
+        <f t="shared" si="66"/>
+        <v>ops:deploy:package</v>
       </c>
       <c r="J150" t="str">
-        <f t="shared" si="37"/>
-        <v>npm-run-all ops:run:*</v>
+        <f t="shared" si="43"/>
+        <v>npm-run-all ops:deploy:package:*</v>
       </c>
       <c r="K150" t="str">
-        <f t="shared" si="73"/>
-        <v xml:space="preserve">    "ops:run": "date &amp;&amp; time npm-run-all ops:run:*",</v>
+        <f t="shared" si="80"/>
+        <v xml:space="preserve">    "ops:deploy:package": "date &amp;&amp; time npm-run-all ops:deploy:package:*",</v>
       </c>
       <c r="L150" s="2"/>
       <c r="M150" s="2"/>
       <c r="N150" s="2" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v>npm-run-all</v>
       </c>
       <c r="O150" s="2" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P150" t="str">
-        <f t="shared" ref="P150" si="78">CONCATENATE(IF(CODE(I150)-CODE("a")&lt;0,LOWER(LEFT(I150,IF(ISERR(FIND(":",I150)),LEN(I150)+1,FIND(":",I150))-1)),I150),":*")</f>
-        <v>ops:run:*</v>
+        <f t="shared" si="84"/>
+        <v>ops:deploy:package:*</v>
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D151" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E151" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F151" t="s">
-        <v>31</v>
+        <v>7</v>
+      </c>
+      <c r="G151" t="s">
+        <v>61</v>
       </c>
       <c r="I151" s="1" t="str">
-        <f t="shared" si="59"/>
-        <v>ops:run:platform</v>
+        <f t="shared" si="66"/>
+        <v>ops:deploy:package:dockerize</v>
       </c>
       <c r="J151" t="str">
-        <f t="shared" si="37"/>
-        <v>npm-run-all ops:run:platform:action</v>
+        <f t="shared" si="43"/>
+        <v>npm-run-all ops:deploy:package:dockerize:*</v>
       </c>
       <c r="K151" t="str">
-        <f t="shared" si="73"/>
-        <v xml:space="preserve">    "ops:run:platform": "date &amp;&amp; time npm-run-all ops:run:platform:action",</v>
+        <f t="shared" si="80"/>
+        <v xml:space="preserve">    "ops:deploy:package:dockerize": "date &amp;&amp; time npm-run-all ops:deploy:package:dockerize:*",</v>
       </c>
       <c r="L151" s="2"/>
       <c r="M151" s="2"/>
       <c r="N151" s="2" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v>npm-run-all</v>
       </c>
       <c r="O151" s="2" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P151" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I151,"action")</f>
-        <v>ops:run:platform:action</v>
+        <f t="shared" si="84"/>
+        <v>ops:deploy:package:dockerize:*</v>
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D152" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E152" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F152" t="s">
         <v>7</v>
       </c>
+      <c r="G152" t="s">
+        <v>61</v>
+      </c>
+      <c r="H152" t="s">
+        <v>1</v>
+      </c>
       <c r="I152" s="1" t="str">
-        <f t="shared" si="59"/>
-        <v>ops:run:package</v>
+        <f t="shared" si="66"/>
+        <v>ops:deploy:package:dockerize:build</v>
       </c>
       <c r="J152" t="str">
-        <f t="shared" ref="J152:J168" si="79" xml:space="preserve"> IF(NOT(COUNTA(P152:V152)),":",_xlfn.TEXTJOIN(O152,TRUE,N152,_xlfn.TEXTJOIN(O152,TRUE,P152:V152)))</f>
-        <v>:</v>
+        <f t="shared" si="43"/>
+        <v>npm-run-all ops:deploy:package:dockerize:build:action</v>
       </c>
       <c r="K152" t="str">
-        <f t="shared" si="73"/>
-        <v xml:space="preserve">    "ops:run:package": ":",</v>
+        <f t="shared" si="80"/>
+        <v xml:space="preserve">    "ops:deploy:package:dockerize:build": "date &amp;&amp; time npm-run-all ops:deploy:package:dockerize:build:action",</v>
       </c>
       <c r="L152" s="2"/>
       <c r="M152" s="2"/>
       <c r="N152" s="2" t="str">
-        <f t="shared" si="75"/>
-        <v/>
+        <f t="shared" si="82"/>
+        <v>npm-run-all</v>
       </c>
       <c r="O152" s="2" t="str">
-        <f t="shared" si="76"/>
-        <v xml:space="preserve"> </v>
+        <f t="shared" si="83"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P152" t="str">
+        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I152,"action")</f>
+        <v>ops:deploy:package:dockerize:build:action</v>
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D153" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E153" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F153" t="s">
-        <v>94</v>
+        <v>7</v>
+      </c>
+      <c r="G153" t="s">
+        <v>61</v>
+      </c>
+      <c r="H153" t="s">
+        <v>68</v>
       </c>
       <c r="I153" s="1" t="str">
-        <f t="shared" si="59"/>
-        <v>ops:run:chaos</v>
+        <f t="shared" si="66"/>
+        <v>ops:deploy:package:dockerize:push</v>
       </c>
       <c r="J153" t="str">
-        <f t="shared" si="79"/>
-        <v>:</v>
+        <f t="shared" si="43"/>
+        <v>npm-run-all ops:deploy:package:dockerize:push:action</v>
       </c>
       <c r="K153" t="str">
-        <f t="shared" si="73"/>
-        <v xml:space="preserve">    "ops:run:chaos": ":",</v>
+        <f t="shared" si="80"/>
+        <v xml:space="preserve">    "ops:deploy:package:dockerize:push": "date &amp;&amp; time npm-run-all ops:deploy:package:dockerize:push:action",</v>
       </c>
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
       <c r="N153" s="2" t="str">
-        <f t="shared" si="75"/>
-        <v/>
+        <f t="shared" si="82"/>
+        <v>npm-run-all</v>
       </c>
       <c r="O153" s="2" t="str">
-        <f t="shared" si="76"/>
-        <v xml:space="preserve"> </v>
+        <f t="shared" si="83"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P153" t="str">
+        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I153,"action")</f>
+        <v>ops:deploy:package:dockerize:push:action</v>
       </c>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D154" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E154" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F154" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="G154" t="s">
+        <v>67</v>
       </c>
       <c r="I154" s="1" t="str">
-        <f t="shared" si="59"/>
-        <v>ops:run:report</v>
+        <f t="shared" si="66"/>
+        <v>ops:deploy:package:provision</v>
       </c>
       <c r="J154" t="str">
-        <f t="shared" si="79"/>
-        <v>:</v>
+        <f t="shared" si="43"/>
+        <v>npm-run-all ops:deploy:package:provision:action</v>
       </c>
       <c r="K154" t="str">
-        <f t="shared" si="73"/>
-        <v xml:space="preserve">    "ops:run:report": ":",</v>
+        <f t="shared" si="80"/>
+        <v xml:space="preserve">    "ops:deploy:package:provision": "date &amp;&amp; time npm-run-all ops:deploy:package:provision:action",</v>
       </c>
       <c r="L154" s="2"/>
       <c r="M154" s="2"/>
       <c r="N154" s="2" t="str">
-        <f t="shared" si="75"/>
-        <v/>
+        <f t="shared" si="82"/>
+        <v>npm-run-all</v>
       </c>
       <c r="O154" s="2" t="str">
-        <f t="shared" si="76"/>
-        <v xml:space="preserve"> </v>
+        <f t="shared" si="83"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P154" t="str">
+        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I154,"action")</f>
+        <v>ops:deploy:package:provision:action</v>
       </c>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>8</v>
-      </c>
-      <c r="B155">
-        <v>10</v>
-      </c>
-      <c r="C155" t="s">
-        <v>98</v>
-      </c>
       <c r="D155" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E155" t="s">
-        <v>84</v>
+        <v>4</v>
+      </c>
+      <c r="F155" t="s">
+        <v>7</v>
+      </c>
+      <c r="G155" t="s">
+        <v>93</v>
       </c>
       <c r="I155" s="1" t="str">
-        <f t="shared" si="59"/>
-        <v>ops:monitor</v>
+        <f t="shared" si="66"/>
+        <v>ops:deploy:package:orchestrate</v>
       </c>
       <c r="J155" t="str">
-        <f t="shared" si="79"/>
-        <v>npm-run-all ops:monitor:*</v>
+        <f t="shared" si="43"/>
+        <v>:</v>
       </c>
       <c r="K155" t="str">
-        <f t="shared" si="73"/>
-        <v xml:space="preserve">    "ops:monitor": "date &amp;&amp; time npm-run-all ops:monitor:*",</v>
+        <f t="shared" si="80"/>
+        <v xml:space="preserve">    "ops:deploy:package:orchestrate": ":",</v>
       </c>
       <c r="L155" s="2"/>
       <c r="M155" s="2"/>
       <c r="N155" s="2" t="str">
-        <f t="shared" si="75"/>
-        <v>npm-run-all</v>
+        <f t="shared" si="82"/>
+        <v/>
       </c>
       <c r="O155" s="2" t="str">
-        <f t="shared" si="76"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P155" t="str">
-        <f t="shared" ref="P155:P158" si="80">CONCATENATE(IF(CODE(I155)-CODE("a")&lt;0,LOWER(LEFT(I155,IF(ISERR(FIND(":",I155)),LEN(I155)+1,FIND(":",I155))-1)),I155),":*")</f>
-        <v>ops:monitor:*</v>
+        <f t="shared" si="83"/>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D156" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E156" t="s">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="F156" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="I156" s="1" t="str">
-        <f t="shared" si="59"/>
-        <v>ops:monitor:platform</v>
+        <f t="shared" si="66"/>
+        <v>ops:deploy:report</v>
       </c>
       <c r="J156" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="43"/>
         <v>:</v>
       </c>
       <c r="K156" t="str">
-        <f t="shared" si="73"/>
-        <v xml:space="preserve">    "ops:monitor:platform": ":",</v>
+        <f t="shared" si="80"/>
+        <v xml:space="preserve">    "ops:deploy:report": ":",</v>
       </c>
       <c r="L156" s="2"/>
       <c r="M156" s="2"/>
       <c r="N156" s="2" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="O156" s="2" t="str">
-        <f t="shared" ref="O156" si="81">IF(ISBLANK(N156),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" si="83"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>7</v>
+      </c>
+      <c r="B157">
+        <v>9</v>
+      </c>
+      <c r="C157" t="s">
+        <v>83</v>
+      </c>
       <c r="D157" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E157" t="s">
-        <v>84</v>
-      </c>
-      <c r="F157" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I157" s="1" t="str">
-        <f t="shared" si="59"/>
-        <v>ops:monitor:package</v>
+        <f t="shared" si="66"/>
+        <v>ops:run</v>
       </c>
       <c r="J157" t="str">
-        <f t="shared" si="79"/>
-        <v>npm-run-all ops:monitor:package:*</v>
+        <f t="shared" si="43"/>
+        <v>npm-run-all ops:run:*</v>
       </c>
       <c r="K157" t="str">
-        <f t="shared" si="73"/>
-        <v xml:space="preserve">    "ops:monitor:package": "date &amp;&amp; time npm-run-all ops:monitor:package:*",</v>
+        <f t="shared" si="80"/>
+        <v xml:space="preserve">    "ops:run": "date &amp;&amp; time npm-run-all ops:run:*",</v>
       </c>
       <c r="L157" s="2"/>
       <c r="M157" s="2"/>
       <c r="N157" s="2" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v>npm-run-all</v>
       </c>
       <c r="O157" s="2" t="str">
-        <f t="shared" ref="O157" si="82">IF(ISBLANK(N157),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" si="83"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P157" t="str">
-        <f t="shared" si="80"/>
-        <v>ops:monitor:package:*</v>
+        <f t="shared" ref="P157" si="85">CONCATENATE(IF(CODE(I157)-CODE("a")&lt;0,LOWER(LEFT(I157,IF(ISERR(FIND(":",I157)),LEN(I157)+1,FIND(":",I157))-1)),I157),":*")</f>
+        <v>ops:run:*</v>
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D158" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E158" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>7</v>
-      </c>
-      <c r="G158" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="I158" s="1" t="str">
-        <f t="shared" si="59"/>
-        <v>ops:monitor:package:trail</v>
+        <f t="shared" si="66"/>
+        <v>ops:run:platform</v>
       </c>
       <c r="J158" t="str">
-        <f t="shared" si="79"/>
-        <v>npm-run-all ops:monitor:package:trail:*</v>
+        <f t="shared" si="43"/>
+        <v>npm-run-all ops:run:platform:action</v>
       </c>
       <c r="K158" t="str">
-        <f t="shared" si="73"/>
-        <v xml:space="preserve">    "ops:monitor:package:trail": "date &amp;&amp; time npm-run-all ops:monitor:package:trail:*",</v>
+        <f t="shared" si="80"/>
+        <v xml:space="preserve">    "ops:run:platform": "date &amp;&amp; time npm-run-all ops:run:platform:action",</v>
       </c>
       <c r="L158" s="2"/>
       <c r="M158" s="2"/>
       <c r="N158" s="2" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v>npm-run-all</v>
       </c>
       <c r="O158" s="2" t="str">
-        <f t="shared" ref="O158" si="83">IF(ISBLANK(N158),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" si="83"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P158" t="str">
-        <f t="shared" si="80"/>
-        <v>ops:monitor:package:trail:*</v>
+        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I158,"action")</f>
+        <v>ops:run:platform:action</v>
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D159" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E159" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
         <v>7</v>
       </c>
-      <c r="G159" t="s">
-        <v>96</v>
-      </c>
-      <c r="H159" t="s">
-        <v>90</v>
-      </c>
       <c r="I159" s="1" t="str">
-        <f t="shared" si="59"/>
-        <v>ops:monitor:package:trail:health</v>
+        <f t="shared" si="66"/>
+        <v>ops:run:package</v>
       </c>
       <c r="J159" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" ref="J159:J175" si="86" xml:space="preserve"> IF(NOT(COUNTA(P159:V159)),":",_xlfn.TEXTJOIN(O159,TRUE,N159,_xlfn.TEXTJOIN(O159,TRUE,P159:V159)))</f>
         <v>:</v>
       </c>
       <c r="K159" t="str">
-        <f t="shared" si="73"/>
-        <v xml:space="preserve">    "ops:monitor:package:trail:health": ":",</v>
+        <f t="shared" si="80"/>
+        <v xml:space="preserve">    "ops:run:package": ":",</v>
       </c>
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
       <c r="N159" s="2" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="O159" s="2" t="str">
-        <f t="shared" ref="O159" si="84">IF(ISBLANK(N159),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" si="83"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D160" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E160" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>7</v>
-      </c>
-      <c r="G160" t="s">
-        <v>96</v>
-      </c>
-      <c r="H160" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I160" s="1" t="str">
-        <f t="shared" si="59"/>
-        <v>ops:monitor:package:trail:performance</v>
+        <f t="shared" si="66"/>
+        <v>ops:run:chaos</v>
       </c>
       <c r="J160" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="86"/>
         <v>:</v>
       </c>
       <c r="K160" t="str">
-        <f t="shared" si="73"/>
-        <v xml:space="preserve">    "ops:monitor:package:trail:performance": ":",</v>
+        <f t="shared" si="80"/>
+        <v xml:space="preserve">    "ops:run:chaos": ":",</v>
       </c>
       <c r="L160" s="2"/>
       <c r="M160" s="2"/>
       <c r="N160" s="2" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="O160" s="2" t="str">
-        <f t="shared" ref="O160" si="85">IF(ISBLANK(N160),CONCATENATE(" ",$O$4," ")," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="83"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D161" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E161" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>7</v>
-      </c>
-      <c r="G161" t="s">
-        <v>96</v>
-      </c>
-      <c r="H161" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="I161" s="1" t="str">
-        <f t="shared" si="59"/>
-        <v>ops:monitor:package:trail:resilience</v>
+        <f t="shared" si="66"/>
+        <v>ops:run:report</v>
       </c>
       <c r="J161" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="86"/>
         <v>:</v>
       </c>
       <c r="K161" t="str">
-        <f t="shared" si="73"/>
-        <v xml:space="preserve">    "ops:monitor:package:trail:resilience": ":",</v>
+        <f t="shared" si="80"/>
+        <v xml:space="preserve">    "ops:run:report": ":",</v>
       </c>
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
       <c r="N161" s="2" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="O161" s="2" t="str">
-        <f t="shared" ref="O161" si="86">IF(ISBLANK(N161),CONCATENATE(" ",$O$4," ")," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="83"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>8</v>
+      </c>
+      <c r="B162">
+        <v>10</v>
+      </c>
+      <c r="C162" t="s">
+        <v>96</v>
+      </c>
       <c r="D162" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E162" t="s">
-        <v>84</v>
-      </c>
-      <c r="F162" t="s">
-        <v>7</v>
-      </c>
-      <c r="G162" t="s">
-        <v>96</v>
-      </c>
-      <c r="H162" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I162" s="1" t="str">
-        <f t="shared" ref="I162:I168" si="87" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D162:H162)</f>
-        <v>ops:monitor:package:trail:security</v>
+        <f t="shared" si="66"/>
+        <v>ops:monitor</v>
       </c>
       <c r="J162" t="str">
-        <f t="shared" si="79"/>
-        <v>:</v>
+        <f t="shared" si="86"/>
+        <v>npm-run-all ops:monitor:*</v>
       </c>
       <c r="K162" t="str">
-        <f t="shared" si="73"/>
-        <v xml:space="preserve">    "ops:monitor:package:trail:security": ":",</v>
+        <f t="shared" si="80"/>
+        <v xml:space="preserve">    "ops:monitor": "date &amp;&amp; time npm-run-all ops:monitor:*",</v>
       </c>
       <c r="L162" s="2"/>
       <c r="M162" s="2"/>
       <c r="N162" s="2" t="str">
-        <f>IF(ISBLANK(P162),"",IF(ISNUMBER(SEARCH(":*",P162)),$N$6,$N$4))</f>
-        <v/>
+        <f t="shared" si="82"/>
+        <v>npm-run-all</v>
       </c>
       <c r="O162" s="2" t="str">
-        <f t="shared" ref="O162" si="88">IF(ISBLANK(N162),CONCATENATE(" ",$O$4," ")," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="83"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P162" t="str">
+        <f t="shared" ref="P162:P165" si="87">CONCATENATE(IF(CODE(I162)-CODE("a")&lt;0,LOWER(LEFT(I162,IF(ISERR(FIND(":",I162)),LEN(I162)+1,FIND(":",I162))-1)),I162),":*")</f>
+        <v>ops:monitor:*</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D163" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E163" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F163" t="s">
-        <v>7</v>
-      </c>
-      <c r="G163" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="I163" s="1" t="str">
-        <f t="shared" si="87"/>
-        <v>ops:monitor:package:showcase</v>
+        <f t="shared" si="66"/>
+        <v>ops:monitor:platform</v>
       </c>
       <c r="J163" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="86"/>
         <v>:</v>
       </c>
       <c r="K163" t="str">
-        <f t="shared" si="73"/>
-        <v xml:space="preserve">    "ops:monitor:package:showcase": ":",</v>
+        <f t="shared" si="80"/>
+        <v xml:space="preserve">    "ops:monitor:platform": ":",</v>
       </c>
       <c r="L163" s="2"/>
       <c r="M163" s="2"/>
       <c r="N163" s="2" t="str">
-        <f>IF(ISBLANK(P163),"",IF(ISNUMBER(SEARCH(":*",P163)),$N$6,$N$4))</f>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="O163" s="2" t="str">
-        <f>IF(ISBLANK(N163),CONCATENATE(" ",$O$4," ")," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" ref="O163" si="88">IF(ISBLANK(N163),CONCATENATE(" ",$O$4," ")," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D164" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E164" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F164" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I164" s="1" t="str">
-        <f t="shared" si="87"/>
-        <v>ops:monitor:report</v>
+        <f t="shared" si="66"/>
+        <v>ops:monitor:package</v>
       </c>
       <c r="J164" t="str">
-        <f t="shared" si="79"/>
-        <v>npm-run-all ops:monitor:report:action</v>
+        <f t="shared" si="86"/>
+        <v>npm-run-all ops:monitor:package:*</v>
       </c>
       <c r="K164" t="str">
-        <f t="shared" si="73"/>
-        <v xml:space="preserve">    "ops:monitor:report": "date &amp;&amp; time npm-run-all ops:monitor:report:action",</v>
+        <f t="shared" si="80"/>
+        <v xml:space="preserve">    "ops:monitor:package": "date &amp;&amp; time npm-run-all ops:monitor:package:*",</v>
       </c>
       <c r="L164" s="2"/>
       <c r="M164" s="2"/>
       <c r="N164" s="2" t="str">
-        <f>IF(ISBLANK(P164),"",IF(ISNUMBER(SEARCH(":*",P164)),$N$6,$N$4))</f>
+        <f t="shared" si="82"/>
         <v>npm-run-all</v>
       </c>
       <c r="O164" s="2" t="str">
-        <f>IF(ISBLANK(N164),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" ref="O164" si="89">IF(ISBLANK(N164),CONCATENATE(" ",$O$4," ")," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P164" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I164,"action")</f>
-        <v>ops:monitor:report:action</v>
-      </c>
-    </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="87"/>
+        <v>ops:monitor:package:*</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D165" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>82</v>
+      </c>
+      <c r="F165" t="s">
+        <v>7</v>
+      </c>
+      <c r="G165" t="s">
+        <v>94</v>
       </c>
       <c r="I165" s="1" t="str">
-        <f t="shared" ref="I165" si="89" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D165:H165)</f>
-        <v>ops:report</v>
+        <f t="shared" si="66"/>
+        <v>ops:monitor:package:trail</v>
       </c>
       <c r="J165" t="str">
-        <f t="shared" ref="J165" si="90" xml:space="preserve"> IF(NOT(COUNTA(P165:V165)),":",_xlfn.TEXTJOIN(O165,TRUE,N165,_xlfn.TEXTJOIN(O165,TRUE,P165:V165)))</f>
-        <v>:</v>
+        <f t="shared" si="86"/>
+        <v>npm-run-all ops:monitor:package:trail:*</v>
       </c>
       <c r="K165" t="str">
-        <f t="shared" si="73"/>
-        <v xml:space="preserve">    "ops:report": ":",</v>
+        <f t="shared" si="80"/>
+        <v xml:space="preserve">    "ops:monitor:package:trail": "date &amp;&amp; time npm-run-all ops:monitor:package:trail:*",</v>
       </c>
       <c r="L165" s="2"/>
       <c r="M165" s="2"/>
       <c r="N165" s="2" t="str">
-        <f>IF(ISBLANK(P165),"",IF(ISNUMBER(SEARCH(":*",P165)),$N$6,$N$4))</f>
-        <v/>
+        <f t="shared" si="82"/>
+        <v>npm-run-all</v>
       </c>
       <c r="O165" s="2" t="str">
-        <f>IF(ISBLANK(N165),CONCATENATE(" ",$O$4," ")," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" ref="O165" si="90">IF(ISBLANK(N165),CONCATENATE(" ",$O$4," ")," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P165" t="str">
+        <f t="shared" si="87"/>
+        <v>ops:monitor:package:trail:*</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D166" t="s">
-        <v>11</v>
+        <v>108</v>
+      </c>
+      <c r="E166" t="s">
+        <v>82</v>
+      </c>
+      <c r="F166" t="s">
+        <v>7</v>
+      </c>
+      <c r="G166" t="s">
+        <v>94</v>
+      </c>
+      <c r="H166" t="s">
+        <v>88</v>
       </c>
       <c r="I166" s="1" t="str">
-        <f t="shared" ref="I166:I167" si="91" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D166:H166)</f>
-        <v>report</v>
+        <f t="shared" si="66"/>
+        <v>ops:monitor:package:trail:health</v>
       </c>
       <c r="J166" t="str">
-        <f t="shared" ref="J166:J167" si="92" xml:space="preserve"> IF(NOT(COUNTA(P166:V166)),":",_xlfn.TEXTJOIN(O166,TRUE,N166,_xlfn.TEXTJOIN(O166,TRUE,P166:V166)))</f>
+        <f t="shared" si="86"/>
         <v>:</v>
       </c>
       <c r="K166" t="str">
-        <f t="shared" si="73"/>
-        <v xml:space="preserve">    "report": ":",</v>
+        <f t="shared" si="80"/>
+        <v xml:space="preserve">    "ops:monitor:package:trail:health": ":",</v>
       </c>
       <c r="L166" s="2"/>
       <c r="M166" s="2"/>
       <c r="N166" s="2" t="str">
-        <f t="shared" ref="N166:N167" si="93">IF(ISBLANK(P166),"",IF(ISNUMBER(SEARCH(":*",P166)),$N$6,$N$4))</f>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="O166" s="2" t="str">
-        <f>IF(ISBLANK(N166),CONCATENATE(" ",$O$4," ")," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" ref="O166" si="91">IF(ISBLANK(N166),CONCATENATE(" ",$O$4," ")," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D167" t="s">
-        <v>194</v>
+        <v>108</v>
       </c>
       <c r="E167" t="s">
-        <v>195</v>
+        <v>82</v>
+      </c>
+      <c r="F167" t="s">
+        <v>7</v>
+      </c>
+      <c r="G167" t="s">
+        <v>94</v>
+      </c>
+      <c r="H167" t="s">
+        <v>89</v>
       </c>
       <c r="I167" s="1" t="str">
-        <f t="shared" si="91"/>
-        <v>pipeline:finish</v>
+        <f t="shared" si="66"/>
+        <v>ops:monitor:package:trail:performance</v>
       </c>
       <c r="J167" t="str">
-        <f t="shared" si="92"/>
-        <v>npm-run-all pipeline:finish:action</v>
+        <f t="shared" si="86"/>
+        <v>:</v>
       </c>
       <c r="K167" t="str">
-        <f t="shared" si="73"/>
-        <v xml:space="preserve">    "pipeline:finish": "date &amp;&amp; time npm-run-all pipeline:finish:action",</v>
+        <f t="shared" si="80"/>
+        <v xml:space="preserve">    "ops:monitor:package:trail:performance": ":",</v>
       </c>
       <c r="L167" s="2"/>
       <c r="M167" s="2"/>
       <c r="N167" s="2" t="str">
-        <f t="shared" si="93"/>
-        <v>npm-run-all</v>
+        <f t="shared" si="82"/>
+        <v/>
       </c>
       <c r="O167" s="2" t="str">
-        <f>IF(ISBLANK(N167),CONCATENATE(" ",$O$4," ")," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P167" t="str">
-        <f t="shared" ref="P167" si="94" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I167,"action")</f>
-        <v>pipeline:finish:action</v>
-      </c>
-    </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" ref="O167" si="92">IF(ISBLANK(N167),CONCATENATE(" ",$O$4," ")," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
+        <v>108</v>
+      </c>
       <c r="E168" t="s">
-        <v>151</v>
+        <v>82</v>
+      </c>
+      <c r="F168" t="s">
+        <v>7</v>
+      </c>
+      <c r="G168" t="s">
+        <v>94</v>
+      </c>
+      <c r="H168" t="s">
+        <v>90</v>
       </c>
       <c r="I168" s="1" t="str">
-        <f t="shared" si="87"/>
-        <v>// END PIPELINE</v>
+        <f t="shared" si="66"/>
+        <v>ops:monitor:package:trail:resilience</v>
       </c>
       <c r="J168" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="86"/>
         <v>:</v>
       </c>
       <c r="K168" t="str">
-        <f>IF(ISBLANK(I168),"",CONCATENATE("    """,I168,""": ","""",IF(LEN(J168)&gt;1,CONCATENATE(IF(L168,"",CONCATENATE(N$3," ")),""),""),IF(M168,"echo ",""),J168,""""))</f>
-        <v xml:space="preserve">    "// END PIPELINE": ":"</v>
+        <f t="shared" si="80"/>
+        <v xml:space="preserve">    "ops:monitor:package:trail:resilience": ":",</v>
       </c>
       <c r="L168" s="2"/>
       <c r="M168" s="2"/>
       <c r="N168" s="2" t="str">
-        <f>IF(ISBLANK(P168),"",IF(ISNUMBER(SEARCH(":*",P168)),$N$6,$N$4))</f>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="O168" s="2" t="str">
-        <f>IF(ISBLANK(N168),CONCATENATE(" ",$O$4," ")," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <f>COUNTA(A8:A168)</f>
+        <f t="shared" ref="O168" si="93">IF(ISBLANK(N168),CONCATENATE(" ",$O$4," ")," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D169" t="s">
+        <v>108</v>
+      </c>
+      <c r="E169" t="s">
+        <v>82</v>
+      </c>
+      <c r="F169" t="s">
+        <v>7</v>
+      </c>
+      <c r="G169" t="s">
+        <v>94</v>
+      </c>
+      <c r="H169" t="s">
+        <v>91</v>
+      </c>
+      <c r="I169" s="1" t="str">
+        <f t="shared" ref="I169:I175" si="94" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D169:H169)</f>
+        <v>ops:monitor:package:trail:security</v>
+      </c>
+      <c r="J169" t="str">
+        <f t="shared" si="86"/>
+        <v>:</v>
+      </c>
+      <c r="K169" t="str">
+        <f t="shared" si="80"/>
+        <v xml:space="preserve">    "ops:monitor:package:trail:security": ":",</v>
+      </c>
+      <c r="L169" s="2"/>
+      <c r="M169" s="2"/>
+      <c r="N169" s="2" t="str">
+        <f>IF(ISBLANK(P169),"",IF(ISNUMBER(SEARCH(":*",P169)),$N$6,$N$4))</f>
+        <v/>
+      </c>
+      <c r="O169" s="2" t="str">
+        <f t="shared" ref="O169" si="95">IF(ISBLANK(N169),CONCATENATE(" ",$O$4," ")," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
+        <v>108</v>
+      </c>
+      <c r="E170" t="s">
+        <v>82</v>
+      </c>
+      <c r="F170" t="s">
+        <v>7</v>
+      </c>
+      <c r="G170" t="s">
+        <v>95</v>
+      </c>
+      <c r="I170" s="1" t="str">
+        <f t="shared" si="94"/>
+        <v>ops:monitor:package:showcase</v>
+      </c>
+      <c r="J170" t="str">
+        <f t="shared" si="86"/>
+        <v>:</v>
+      </c>
+      <c r="K170" t="str">
+        <f t="shared" si="80"/>
+        <v xml:space="preserve">    "ops:monitor:package:showcase": ":",</v>
+      </c>
+      <c r="L170" s="2"/>
+      <c r="M170" s="2"/>
+      <c r="N170" s="2" t="str">
+        <f>IF(ISBLANK(P170),"",IF(ISNUMBER(SEARCH(":*",P170)),$N$6,$N$4))</f>
+        <v/>
+      </c>
+      <c r="O170" s="2" t="str">
+        <f t="shared" ref="O170:O175" si="96">IF(ISBLANK(N170),CONCATENATE(" ",$O$4," ")," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D171" t="s">
+        <v>108</v>
+      </c>
+      <c r="E171" t="s">
+        <v>82</v>
+      </c>
+      <c r="F171" t="s">
+        <v>11</v>
+      </c>
+      <c r="I171" s="1" t="str">
+        <f t="shared" si="94"/>
+        <v>ops:monitor:report</v>
+      </c>
+      <c r="J171" t="str">
+        <f t="shared" si="86"/>
+        <v>npm-run-all ops:monitor:report:action</v>
+      </c>
+      <c r="K171" t="str">
+        <f t="shared" si="80"/>
+        <v xml:space="preserve">    "ops:monitor:report": "date &amp;&amp; time npm-run-all ops:monitor:report:action",</v>
+      </c>
+      <c r="L171" s="2"/>
+      <c r="M171" s="2"/>
+      <c r="N171" s="2" t="str">
+        <f>IF(ISBLANK(P171),"",IF(ISNUMBER(SEARCH(":*",P171)),$N$6,$N$4))</f>
+        <v>npm-run-all</v>
+      </c>
+      <c r="O171" s="2" t="str">
+        <f t="shared" si="96"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P171" t="str">
+        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I171,"action")</f>
+        <v>ops:monitor:report:action</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D172" t="s">
+        <v>108</v>
+      </c>
+      <c r="E172" t="s">
+        <v>11</v>
+      </c>
+      <c r="I172" s="1" t="str">
+        <f t="shared" ref="I172" si="97" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D172:H172)</f>
+        <v>ops:report</v>
+      </c>
+      <c r="J172" t="str">
+        <f t="shared" ref="J172" si="98" xml:space="preserve"> IF(NOT(COUNTA(P172:V172)),":",_xlfn.TEXTJOIN(O172,TRUE,N172,_xlfn.TEXTJOIN(O172,TRUE,P172:V172)))</f>
+        <v>:</v>
+      </c>
+      <c r="K172" t="str">
+        <f t="shared" si="80"/>
+        <v xml:space="preserve">    "ops:report": ":",</v>
+      </c>
+      <c r="L172" s="2"/>
+      <c r="M172" s="2"/>
+      <c r="N172" s="2" t="str">
+        <f>IF(ISBLANK(P172),"",IF(ISNUMBER(SEARCH(":*",P172)),$N$6,$N$4))</f>
+        <v/>
+      </c>
+      <c r="O172" s="2" t="str">
+        <f t="shared" si="96"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D173" t="s">
+        <v>11</v>
+      </c>
+      <c r="I173" s="1" t="str">
+        <f t="shared" ref="I173:I174" si="99" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D173:H173)</f>
+        <v>report</v>
+      </c>
+      <c r="J173" t="str">
+        <f t="shared" ref="J173:J174" si="100" xml:space="preserve"> IF(NOT(COUNTA(P173:V173)),":",_xlfn.TEXTJOIN(O173,TRUE,N173,_xlfn.TEXTJOIN(O173,TRUE,P173:V173)))</f>
+        <v>:</v>
+      </c>
+      <c r="K173" t="str">
+        <f t="shared" si="80"/>
+        <v xml:space="preserve">    "report": ":",</v>
+      </c>
+      <c r="L173" s="2"/>
+      <c r="M173" s="2"/>
+      <c r="N173" s="2" t="str">
+        <f t="shared" ref="N173:N174" si="101">IF(ISBLANK(P173),"",IF(ISNUMBER(SEARCH(":*",P173)),$N$6,$N$4))</f>
+        <v/>
+      </c>
+      <c r="O173" s="2" t="str">
+        <f t="shared" si="96"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D174" t="s">
+        <v>189</v>
+      </c>
+      <c r="E174" t="s">
+        <v>190</v>
+      </c>
+      <c r="I174" s="1" t="str">
+        <f t="shared" si="99"/>
+        <v>pipeline:finish</v>
+      </c>
+      <c r="J174" t="str">
+        <f t="shared" si="100"/>
+        <v>npm-run-all pipeline:finish:action</v>
+      </c>
+      <c r="K174" t="str">
+        <f t="shared" si="80"/>
+        <v xml:space="preserve">    "pipeline:finish": "date &amp;&amp; time npm-run-all pipeline:finish:action",</v>
+      </c>
+      <c r="L174" s="2"/>
+      <c r="M174" s="2"/>
+      <c r="N174" s="2" t="str">
+        <f t="shared" si="101"/>
+        <v>npm-run-all</v>
+      </c>
+      <c r="O174" s="2" t="str">
+        <f t="shared" si="96"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P174" t="str">
+        <f t="shared" ref="P174" si="102" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I174,"action")</f>
+        <v>pipeline:finish:action</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E175" t="s">
+        <v>148</v>
+      </c>
+      <c r="I175" s="1" t="str">
+        <f t="shared" si="94"/>
+        <v>// END PIPELINE</v>
+      </c>
+      <c r="J175" t="str">
+        <f t="shared" si="86"/>
+        <v>:</v>
+      </c>
+      <c r="K175" t="str">
+        <f>IF(ISBLANK(I175),"",CONCATENATE("    """,I175,""": ","""",IF(LEN(J175)&gt;1,CONCATENATE(IF(L175,"",CONCATENATE(N$3," ")),""),""),IF(M175,"echo ",""),J175,""""))</f>
+        <v xml:space="preserve">    "// END PIPELINE": ":"</v>
+      </c>
+      <c r="L175" s="2"/>
+      <c r="M175" s="2"/>
+      <c r="N175" s="2" t="str">
+        <f>IF(ISBLANK(P175),"",IF(ISNUMBER(SEARCH(":*",P175)),$N$6,$N$4))</f>
+        <v/>
+      </c>
+      <c r="O175" s="2" t="str">
+        <f t="shared" si="96"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="177" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <f>COUNTA(A8:A175)</f>
         <v>8</v>
       </c>
-      <c r="B170">
-        <f>COUNTA(B8:B168)</f>
+      <c r="B177">
+        <f>COUNTA(B8:B175)</f>
         <v>13</v>
       </c>
-      <c r="D170">
-        <f>COUNTA(D8:D168)</f>
+      <c r="D177">
+        <f t="shared" ref="D177:V177" si="103">COUNTA(D8:D175)</f>
         <v>93</v>
       </c>
-      <c r="E170">
-        <f>COUNTA(E8:E168)</f>
-        <v>79</v>
-      </c>
-      <c r="F170">
-        <f>COUNTA(F8:F168)</f>
-        <v>106</v>
-      </c>
-      <c r="G170">
-        <f>COUNTA(G8:G168)</f>
-        <v>50</v>
-      </c>
-      <c r="H170">
-        <f>COUNTA(H8:H168)</f>
+      <c r="E177">
+        <f t="shared" si="103"/>
+        <v>87</v>
+      </c>
+      <c r="F177">
+        <f t="shared" si="103"/>
+        <v>113</v>
+      </c>
+      <c r="G177">
+        <f t="shared" si="103"/>
+        <v>57</v>
+      </c>
+      <c r="H177">
+        <f t="shared" si="103"/>
         <v>11</v>
       </c>
-      <c r="I170" s="1">
-        <f>COUNTA(I8:I168)</f>
-        <v>152</v>
-      </c>
-      <c r="J170">
-        <f>COUNTA(J8:J168)</f>
-        <v>161</v>
-      </c>
-      <c r="K170">
-        <f>COUNTA(K8:K168)</f>
-        <v>161</v>
-      </c>
-      <c r="L170">
-        <f>COUNTA(L8:L168)</f>
-        <v>15</v>
-      </c>
-      <c r="M170">
-        <f>COUNTA(M8:M168)</f>
+      <c r="I177" s="1">
+        <f t="shared" si="103"/>
+        <v>159</v>
+      </c>
+      <c r="J177">
+        <f t="shared" si="103"/>
+        <v>168</v>
+      </c>
+      <c r="K177">
+        <f t="shared" si="103"/>
+        <v>168</v>
+      </c>
+      <c r="L177">
+        <f t="shared" si="103"/>
+        <v>22</v>
+      </c>
+      <c r="M177">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <f t="shared" si="103"/>
+        <v>94</v>
+      </c>
+      <c r="O177">
+        <f t="shared" si="103"/>
+        <v>168</v>
+      </c>
+      <c r="P177">
+        <f t="shared" si="103"/>
+        <v>123</v>
+      </c>
+      <c r="Q177">
+        <f t="shared" si="103"/>
+        <v>8</v>
+      </c>
+      <c r="R177">
+        <f t="shared" si="103"/>
+        <v>3</v>
+      </c>
+      <c r="S177">
+        <f t="shared" si="103"/>
+        <v>3</v>
+      </c>
+      <c r="T177">
+        <f t="shared" si="103"/>
+        <v>3</v>
+      </c>
+      <c r="U177">
+        <f t="shared" si="103"/>
         <v>1</v>
       </c>
-      <c r="N170">
-        <f>COUNTA(N8:N168)</f>
-        <v>94</v>
-      </c>
-      <c r="O170">
-        <f>COUNTA(O8:O168)</f>
-        <v>161</v>
-      </c>
-      <c r="P170">
-        <f>COUNTA(P8:P168)</f>
-        <v>116</v>
-      </c>
-      <c r="Q170">
-        <f>COUNTA(Q8:Q168)</f>
-        <v>8</v>
-      </c>
-      <c r="R170">
-        <f>COUNTA(R8:R168)</f>
-        <v>3</v>
-      </c>
-      <c r="S170">
-        <f>COUNTA(S8:S168)</f>
-        <v>3</v>
-      </c>
-      <c r="T170">
-        <f>COUNTA(T8:T168)</f>
-        <v>3</v>
-      </c>
-      <c r="U170">
-        <f>COUNTA(U8:U168)</f>
-        <v>1</v>
-      </c>
-      <c r="V170">
-        <f>COUNTA(V8:V168)</f>
+      <c r="V177">
+        <f t="shared" si="103"/>
         <v>1</v>
       </c>
     </row>

--- a/pipeline.xlsx
+++ b/pipeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorich\AppData\Local\Packages\C27EB4BA.DROPBOX_xbfy0k16fey96\LocalState\users\85455724\FilesCache\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089337B2-7F2A-4BC4-B168-C7E705838F4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA813A50-12A6-497B-B850-29756AD9CBAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="10845" xr2:uid="{85A6193D-6764-4870-9E6C-E861DF98152E}"/>
   </bookViews>
@@ -16,9 +16,10 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$175</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$177</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="228">
   <si>
     <t>start</t>
   </si>
@@ -675,9 +676,6 @@
     <t>npm-outdated</t>
   </si>
   <si>
-    <t>if [ \"$CI\" ] ; then snyk auth $SNYK_TOKEN ; fi</t>
-  </si>
-  <si>
     <t>if [ \"$CI\" ] ; then npm run build-ci ; else npm run build ; fi</t>
   </si>
   <si>
@@ -709,6 +707,18 @@
   </si>
   <si>
     <t>if [ \"$production\" ] ; then cp node_modules/@angular/service-worker/ngsw-worker.js dist/ ; fi</t>
+  </si>
+  <si>
+    <t>once</t>
+  </si>
+  <si>
+    <t>postinstall</t>
+  </si>
+  <si>
+    <t>ngcc</t>
+  </si>
+  <si>
+    <t>if [ \"$CI\" ] ; then echo snyk auth $SNYK_TOKEN ; fi</t>
   </si>
 </sst>
 </file>
@@ -1079,13 +1089,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD3F8E8-C4F8-4500-8DB7-FA9EF76D4FDE}">
-  <dimension ref="A1:V177"/>
+  <dimension ref="A1:V179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="9" ySplit="7" topLeftCell="K46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="7" topLeftCell="K41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="K46" sqref="K46"/>
+      <selection pane="bottomRight" activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,7 +1234,7 @@
         <v>// TOOLS</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" ref="J8:J91" si="1" xml:space="preserve"> IF(NOT(COUNTA(P8:V8)),":",_xlfn.TEXTJOIN(O8,TRUE,N8,_xlfn.TEXTJOIN(O8,TRUE,P8:V8)))</f>
+        <f t="shared" ref="J8:J93" si="1" xml:space="preserve"> IF(NOT(COUNTA(P8:V8)),":",_xlfn.TEXTJOIN(O8,TRUE,N8,_xlfn.TEXTJOIN(O8,TRUE,P8:V8)))</f>
         <v>:</v>
       </c>
       <c r="K8" t="str">
@@ -1235,7 +1245,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2" t="str">
-        <f t="shared" ref="O8:O43" si="3">IF(ISBLANK(N8),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" ref="O8:O44" si="3">IF(ISBLANK(N8),CONCATENATE(" ",$O$4," ")," ")</f>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
     </row>
@@ -1281,7 +1291,7 @@
         <v>ng version &amp;&amp; echo Node, NPM and NVM version: &amp;&amp; node -v &amp;&amp; npm -v &amp;&amp; nvm v</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" ref="K10:K80" si="4">IF(ISBLANK(I10),"",CONCATENATE("    """,I10,""": ","""",IF(LEN(J10)&gt;1,CONCATENATE(IF(L10,"",CONCATENATE(N$3," ")),""),""),IF(M10,"echo ",""),J10,""","))</f>
+        <f t="shared" ref="K10:K82" si="4">IF(ISBLANK(I10),"",CONCATENATE("    """,I10,""": ","""",IF(LEN(J10)&gt;1,CONCATENATE(IF(L10,"",CONCATENATE(N$3," ")),""),""),IF(M10,"echo ",""),J10,""","))</f>
         <v xml:space="preserve">    "ver": "date &amp;&amp; time ng version &amp;&amp; echo Node, NPM and NVM version: &amp;&amp; node -v &amp;&amp; npm -v &amp;&amp; nvm v",</v>
       </c>
       <c r="L10" s="2"/>
@@ -1342,11 +1352,11 @@
         <v>170</v>
       </c>
       <c r="I12" s="1" t="str">
-        <f t="shared" ref="I12:I18" si="5" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D12:H12)</f>
+        <f t="shared" ref="I12:I19" si="5" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D12:H12)</f>
         <v>build:plain</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" ref="J12:J18" si="6" xml:space="preserve"> IF(NOT(COUNTA(P12:V12)),":",_xlfn.TEXTJOIN(O12,TRUE,N12,_xlfn.TEXTJOIN(O12,TRUE,P12:V12)))</f>
+        <f t="shared" ref="J12:J19" si="6" xml:space="preserve"> IF(NOT(COUNTA(P12:V12)),":",_xlfn.TEXTJOIN(O12,TRUE,N12,_xlfn.TEXTJOIN(O12,TRUE,P12:V12)))</f>
         <v>npm-run-all build</v>
       </c>
       <c r="K12" t="str">
@@ -1358,7 +1368,7 @@
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2" t="str">
-        <f t="shared" ref="N12:N18" si="7">IF(ISBLANK(P12),"",$N$6)</f>
+        <f t="shared" ref="N12:N19" si="7">IF(ISBLANK(P12),"",$N$6)</f>
         <v>npm-run-all</v>
       </c>
       <c r="O12" s="2" t="str">
@@ -1407,26 +1417,26 @@
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="I14" s="1" t="str">
-        <f>N4</f>
-        <v>npm run</v>
+        <f t="shared" ref="I14" si="8" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D14:H14)</f>
+        <v>test:once</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="6"/>
-        <v>npm-run-all test</v>
+        <f t="shared" ref="J14" si="9" xml:space="preserve"> IF(NOT(COUNTA(P14:V14)),":",_xlfn.TEXTJOIN(O14,TRUE,N14,_xlfn.TEXTJOIN(O14,TRUE,P14:V14)))</f>
+        <v>npm-run-all test-once</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    "npm run": "npm-run-all test",</v>
+        <f t="shared" ref="K14" si="10">IF(ISBLANK(I14),"",CONCATENATE("    """,I14,""": ","""",IF(LEN(J14)&gt;1,CONCATENATE(IF(L14,"",CONCATENATE(N$3," ")),""),""),IF(M14,"echo ",""),J14,""","))</f>
+        <v xml:space="preserve">    "test:once": "npm-run-all test-once",</v>
       </c>
       <c r="L14" s="2">
         <v>1</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="N14" si="11">IF(ISBLANK(P14),"",$N$6)</f>
         <v>npm-run-all</v>
       </c>
       <c r="O14" s="2" t="str">
@@ -1434,7 +1444,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="P14" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -1442,21 +1452,23 @@
         <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="I15" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>test:full</v>
+        <v>test:plain</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="6"/>
-        <v>npm-run-all dev:test-phase</v>
+        <v>npm-run-all test</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "test:full": "date &amp;&amp; time npm-run-all dev:test-phase",</v>
-      </c>
-      <c r="L15" s="2"/>
+        <v xml:space="preserve">    "test:plain": "npm-run-all test",</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1</v>
+      </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2" t="str">
         <f t="shared" si="7"/>
@@ -1467,31 +1479,29 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="P15" t="s">
-        <v>168</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I16" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>start:plain</v>
+        <v>test:full</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="6"/>
-        <v>npm-run-all start</v>
+        <v>npm-run-all dev:test-phase</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "start:plain": "npm-run-all start",</v>
-      </c>
-      <c r="L16" s="2">
-        <v>1</v>
-      </c>
+        <v xml:space="preserve">    "test:full": "date &amp;&amp; time npm-run-all dev:test-phase",</v>
+      </c>
+      <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2" t="str">
         <f t="shared" si="7"/>
@@ -1502,7 +1512,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="P16" t="s">
-        <v>0</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="3:17" x14ac:dyDescent="0.25">
@@ -1510,21 +1520,23 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="I17" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>start:full</v>
+        <v>start:plain</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="6"/>
-        <v>npm-run-all ops:run</v>
+        <v>npm-run-all start</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "start:full": "date &amp;&amp; time npm-run-all ops:run",</v>
-      </c>
-      <c r="L17" s="2"/>
+        <v xml:space="preserve">    "start:plain": "npm-run-all start",</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1</v>
+      </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2" t="str">
         <f t="shared" si="7"/>
@@ -1535,24 +1547,27 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="P17" t="s">
-        <v>167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>128</v>
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>166</v>
       </c>
       <c r="I18" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>START-PIPELINE</v>
+        <v>start:full</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="6"/>
-        <v>npm-run-all PIPELINE</v>
+        <v>npm-run-all ops:run</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "START-PIPELINE": "date &amp;&amp; time npm-run-all PIPELINE",</v>
+        <v xml:space="preserve">    "start:full": "date &amp;&amp; time npm-run-all ops:run",</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1565,53 +1580,54 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="P18" t="s">
-        <v>79</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="I19" s="1" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D19:H19)</f>
-        <v>pipeline:start:action</v>
+        <f t="shared" si="5"/>
+        <v>START-PIPELINE</v>
       </c>
       <c r="J19" t="str">
-        <f xml:space="preserve"> IF(NOT(COUNTA(P19:V19)),":",_xlfn.TEXTJOIN(O19,TRUE,N19,_xlfn.TEXTJOIN(O19,TRUE,P19:V19)))</f>
-        <v>echo CI/CD pipeline START</v>
+        <f t="shared" si="6"/>
+        <v>npm-run-all PIPELINE</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "pipeline:start:action": "echo CI/CD pipeline START",</v>
-      </c>
-      <c r="L19" s="2">
-        <v>1</v>
-      </c>
+        <v xml:space="preserve">    "START-PIPELINE": "date &amp;&amp; time npm-run-all PIPELINE",</v>
+      </c>
+      <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="N19" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>npm-run-all</v>
+      </c>
       <c r="O19" s="2" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> &amp;&amp; </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P19" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I20" s="1" t="str">
         <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D20:H20)</f>
-        <v>pipeline:finish:action</v>
+        <v>pipeline:start:action</v>
       </c>
       <c r="J20" t="str">
         <f xml:space="preserve"> IF(NOT(COUNTA(P20:V20)),":",_xlfn.TEXTJOIN(O20,TRUE,N20,_xlfn.TEXTJOIN(O20,TRUE,P20:V20)))</f>
-        <v>echo CI/CD pipeline FINISH</v>
+        <v>echo CI/CD pipeline START</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "pipeline:finish:action": "echo CI/CD pipeline FINISH",</v>
+        <v xml:space="preserve">    "pipeline:start:action": "echo CI/CD pipeline START",</v>
       </c>
       <c r="L20" s="2">
         <v>1</v>
@@ -1623,45 +1639,46 @@
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>191</v>
+      </c>
+      <c r="I21" s="1" t="str">
+        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D21:H21)</f>
+        <v>pipeline:finish:action</v>
+      </c>
       <c r="J21" t="str">
-        <f t="shared" si="1"/>
-        <v>:</v>
+        <f xml:space="preserve"> IF(NOT(COUNTA(P21:V21)),":",_xlfn.TEXTJOIN(O21,TRUE,N21,_xlfn.TEXTJOIN(O21,TRUE,P21:V21)))</f>
+        <v>echo CI/CD pipeline FINISH</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L21" s="2"/>
+        <v xml:space="preserve">    "pipeline:finish:action": "echo CI/CD pipeline FINISH",</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1</v>
+      </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
+      <c r="P21" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="22" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>156</v>
-      </c>
-      <c r="E22" t="str">
-        <f xml:space="preserve"> CONCATENATE("// ",C22)</f>
-        <v>// PLAN</v>
-      </c>
-      <c r="I22" s="1" t="str">
-        <f t="shared" ref="I22" si="8" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D22:H22)</f>
-        <v>// PLAN</v>
-      </c>
       <c r="J22" t="str">
-        <f t="shared" ref="J22" si="9" xml:space="preserve"> IF(NOT(COUNTA(P22:V22)),":",_xlfn.TEXTJOIN(O22,TRUE,N22,_xlfn.TEXTJOIN(O22,TRUE,P22:V22)))</f>
+        <f t="shared" si="1"/>
         <v>:</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "// PLAN": ":",</v>
+        <v/>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1672,72 +1689,64 @@
       </c>
     </row>
     <row r="23" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>131</v>
+      <c r="C23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" t="str">
+        <f xml:space="preserve"> CONCATENATE("// ",C23)</f>
+        <v>// PLAN</v>
       </c>
       <c r="I23" s="1" t="str">
-        <f t="shared" ref="I23:I40" si="10" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D23:H23)</f>
-        <v>dev:plan-phase:plan:report:action</v>
+        <f t="shared" ref="I23" si="12" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D23:H23)</f>
+        <v>// PLAN</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" ref="J23:J40" si="11" xml:space="preserve"> IF(NOT(COUNTA(P23:V23)),":",_xlfn.TEXTJOIN(O23,TRUE,N23,_xlfn.TEXTJOIN(O23,TRUE,P23:V23)))</f>
-        <v>npm-run-all sys-info:* report-goal</v>
+        <f t="shared" ref="J23" si="13" xml:space="preserve"> IF(NOT(COUNTA(P23:V23)),":",_xlfn.TEXTJOIN(O23,TRUE,N23,_xlfn.TEXTJOIN(O23,TRUE,P23:V23)))</f>
+        <v>:</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "dev:plan-phase:plan:report:action": "date &amp;&amp; time npm-run-all sys-info:* report-goal",</v>
+        <v xml:space="preserve">    "// PLAN": ":",</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="2" t="str">
-        <f>IF(ISBLANK(P23),"",$N$6)</f>
-        <v>npm-run-all</v>
-      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P23" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>185</v>
+        <v xml:space="preserve"> &amp;&amp; </v>
       </c>
     </row>
     <row r="24" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="F24" t="s">
-        <v>183</v>
-      </c>
-      <c r="G24" t="s">
-        <v>180</v>
+      <c r="D24" t="s">
+        <v>131</v>
       </c>
       <c r="I24" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>sys-info:heroku</v>
+        <f t="shared" ref="I24:I41" si="14" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D24:H24)</f>
+        <v>dev:plan-phase:plan:report:action</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="11"/>
-        <v>if [ \"$HEROKU\" ] ; then npm run heroku-config | grep -v _TOKEN ; fi &amp;&amp; if [ \"$HEROKU\" ] ; then env | grep -F HEROKU | grep -Fv _TOKEN ; fi</v>
+        <f t="shared" ref="J24:J41" si="15" xml:space="preserve"> IF(NOT(COUNTA(P24:V24)),":",_xlfn.TEXTJOIN(O24,TRUE,N24,_xlfn.TEXTJOIN(O24,TRUE,P24:V24)))</f>
+        <v>npm-run-all sys-info:* report-goal</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "sys-info:heroku": "if [ \"$HEROKU\" ] ; then npm run heroku-config | grep -v _TOKEN ; fi &amp;&amp; if [ \"$HEROKU\" ] ; then env | grep -F HEROKU | grep -Fv _TOKEN ; fi",</v>
-      </c>
-      <c r="L24" s="2">
-        <v>1</v>
-      </c>
+        <v xml:space="preserve">    "dev:plan-phase:plan:report:action": "date &amp;&amp; time npm-run-all sys-info:* report-goal",</v>
+      </c>
+      <c r="L24" s="2"/>
       <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+      <c r="N24" s="2" t="str">
+        <f>IF(ISBLANK(P24),"",$N$6)</f>
+        <v>npm-run-all</v>
+      </c>
       <c r="O24" s="2" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> &amp;&amp; </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P24" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q24" t="str">
-        <f xml:space="preserve"> CONCATENATE("if [ \""$",UPPER($G24),"\"" ] ; then env | grep -F ",UPPER($G24)," | grep -Fv _TOKEN ; fi", "")</f>
-        <v>if [ \"$HEROKU\" ] ; then env | grep -F HEROKU | grep -Fv _TOKEN ; fi</v>
+        <v>184</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="3:17" x14ac:dyDescent="0.25">
@@ -1745,19 +1754,19 @@
         <v>183</v>
       </c>
       <c r="G25" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="I25" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>sys-info:appveyor</v>
+        <f t="shared" si="14"/>
+        <v>sys-info:heroku</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="11"/>
-        <v>if [ \"$APPVEYOR\" ] ; then env | grep -F APPVEYOR | grep -Fv _TOKEN ; fi</v>
+        <f t="shared" si="15"/>
+        <v>if [ \"$HEROKU\" ] ; then npm run heroku-config | grep -v _TOKEN ; fi &amp;&amp; if [ \"$HEROKU\" ] ; then env | grep -F HEROKU | grep -Fv _TOKEN ; fi</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "sys-info:appveyor": "if [ \"$APPVEYOR\" ] ; then env | grep -F APPVEYOR | grep -Fv _TOKEN ; fi",</v>
+        <v xml:space="preserve">    "sys-info:heroku": "if [ \"$HEROKU\" ] ; then npm run heroku-config | grep -v _TOKEN ; fi &amp;&amp; if [ \"$HEROKU\" ] ; then env | grep -F HEROKU | grep -Fv _TOKEN ; fi",</v>
       </c>
       <c r="L25" s="2">
         <v>1</v>
@@ -1768,9 +1777,12 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
-      <c r="P25" t="str">
-        <f t="shared" ref="P25:P30" si="12" xml:space="preserve"> CONCATENATE("if [ \""$",UPPER($G25),"\"" ] ; then env | grep -F ",UPPER($G25)," | grep -Fv _TOKEN ; fi", "")</f>
-        <v>if [ \"$APPVEYOR\" ] ; then env | grep -F APPVEYOR | grep -Fv _TOKEN ; fi</v>
+      <c r="P25" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q25" t="str">
+        <f xml:space="preserve"> CONCATENATE("if [ \""$",UPPER($G25),"\"" ] ; then env | grep -F ",UPPER($G25)," | grep -Fv _TOKEN ; fi", "")</f>
+        <v>if [ \"$HEROKU\" ] ; then env | grep -F HEROKU | grep -Fv _TOKEN ; fi</v>
       </c>
     </row>
     <row r="26" spans="3:17" x14ac:dyDescent="0.25">
@@ -1778,19 +1790,19 @@
         <v>183</v>
       </c>
       <c r="G26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I26" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>sys-info:travis</v>
+        <f t="shared" si="14"/>
+        <v>sys-info:appveyor</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="11"/>
-        <v>if [ \"$TRAVIS\" ] ; then env | grep -F TRAVIS | grep -Fv _TOKEN ; fi</v>
+        <f t="shared" si="15"/>
+        <v>if [ \"$APPVEYOR\" ] ; then env | grep -F APPVEYOR | grep -Fv _TOKEN ; fi</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "sys-info:travis": "if [ \"$TRAVIS\" ] ; then env | grep -F TRAVIS | grep -Fv _TOKEN ; fi",</v>
+        <v xml:space="preserve">    "sys-info:appveyor": "if [ \"$APPVEYOR\" ] ; then env | grep -F APPVEYOR | grep -Fv _TOKEN ; fi",</v>
       </c>
       <c r="L26" s="2">
         <v>1</v>
@@ -1802,8 +1814,8 @@
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P26" t="str">
-        <f t="shared" si="12"/>
-        <v>if [ \"$TRAVIS\" ] ; then env | grep -F TRAVIS | grep -Fv _TOKEN ; fi</v>
+        <f t="shared" ref="P26:P31" si="16" xml:space="preserve"> CONCATENATE("if [ \""$",UPPER($G26),"\"" ] ; then env | grep -F ",UPPER($G26)," | grep -Fv _TOKEN ; fi", "")</f>
+        <v>if [ \"$APPVEYOR\" ] ; then env | grep -F APPVEYOR | grep -Fv _TOKEN ; fi</v>
       </c>
     </row>
     <row r="27" spans="3:17" x14ac:dyDescent="0.25">
@@ -1811,19 +1823,19 @@
         <v>183</v>
       </c>
       <c r="G27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I27" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>sys-info:angular</v>
+        <f t="shared" si="14"/>
+        <v>sys-info:travis</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="11"/>
-        <v>if [ \"$ANGULAR\" ] ; then env | grep -F ANGULAR | grep -Fv _TOKEN ; fi</v>
+        <f t="shared" si="15"/>
+        <v>if [ \"$TRAVIS\" ] ; then env | grep -F TRAVIS | grep -Fv _TOKEN ; fi</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "sys-info:angular": "if [ \"$ANGULAR\" ] ; then env | grep -F ANGULAR | grep -Fv _TOKEN ; fi",</v>
+        <v xml:space="preserve">    "sys-info:travis": "if [ \"$TRAVIS\" ] ; then env | grep -F TRAVIS | grep -Fv _TOKEN ; fi",</v>
       </c>
       <c r="L27" s="2">
         <v>1</v>
@@ -1835,8 +1847,8 @@
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P27" t="str">
-        <f t="shared" si="12"/>
-        <v>if [ \"$ANGULAR\" ] ; then env | grep -F ANGULAR | grep -Fv _TOKEN ; fi</v>
+        <f t="shared" si="16"/>
+        <v>if [ \"$TRAVIS\" ] ; then env | grep -F TRAVIS | grep -Fv _TOKEN ; fi</v>
       </c>
     </row>
     <row r="28" spans="3:17" x14ac:dyDescent="0.25">
@@ -1844,19 +1856,19 @@
         <v>183</v>
       </c>
       <c r="G28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I28" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>sys-info:node</v>
+        <f t="shared" si="14"/>
+        <v>sys-info:angular</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="11"/>
-        <v>if [ \"$NODE\" ] ; then env | grep -F NODE | grep -Fv _TOKEN ; fi</v>
+        <f t="shared" si="15"/>
+        <v>if [ \"$ANGULAR\" ] ; then env | grep -F ANGULAR | grep -Fv _TOKEN ; fi</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "sys-info:node": "if [ \"$NODE\" ] ; then env | grep -F NODE | grep -Fv _TOKEN ; fi",</v>
+        <v xml:space="preserve">    "sys-info:angular": "if [ \"$ANGULAR\" ] ; then env | grep -F ANGULAR | grep -Fv _TOKEN ; fi",</v>
       </c>
       <c r="L28" s="2">
         <v>1</v>
@@ -1868,8 +1880,8 @@
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P28" t="str">
-        <f t="shared" si="12"/>
-        <v>if [ \"$NODE\" ] ; then env | grep -F NODE | grep -Fv _TOKEN ; fi</v>
+        <f t="shared" si="16"/>
+        <v>if [ \"$ANGULAR\" ] ; then env | grep -F ANGULAR | grep -Fv _TOKEN ; fi</v>
       </c>
     </row>
     <row r="29" spans="3:17" x14ac:dyDescent="0.25">
@@ -1877,19 +1889,19 @@
         <v>183</v>
       </c>
       <c r="G29" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="I29" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>sys-info:npm</v>
+        <f t="shared" si="14"/>
+        <v>sys-info:node</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="11"/>
-        <v>if [ \"$NPM\" ] ; then env | grep -F NPM | grep -Fv _TOKEN ; fi</v>
+        <f t="shared" si="15"/>
+        <v>if [ \"$NODE\" ] ; then env | grep -F NODE | grep -Fv _TOKEN ; fi</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "sys-info:npm": "if [ \"$NPM\" ] ; then env | grep -F NPM | grep -Fv _TOKEN ; fi",</v>
+        <v xml:space="preserve">    "sys-info:node": "if [ \"$NODE\" ] ; then env | grep -F NODE | grep -Fv _TOKEN ; fi",</v>
       </c>
       <c r="L29" s="2">
         <v>1</v>
@@ -1901,8 +1913,8 @@
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P29" t="str">
-        <f t="shared" si="12"/>
-        <v>if [ \"$NPM\" ] ; then env | grep -F NPM | grep -Fv _TOKEN ; fi</v>
+        <f t="shared" si="16"/>
+        <v>if [ \"$NODE\" ] ; then env | grep -F NODE | grep -Fv _TOKEN ; fi</v>
       </c>
     </row>
     <row r="30" spans="3:17" x14ac:dyDescent="0.25">
@@ -1910,19 +1922,19 @@
         <v>183</v>
       </c>
       <c r="G30" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="I30" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>sys-info:nvm</v>
+        <f t="shared" si="14"/>
+        <v>sys-info:npm</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="11"/>
-        <v>if [ \"$NVM\" ] ; then env | grep -F NVM | grep -Fv _TOKEN ; fi</v>
+        <f t="shared" si="15"/>
+        <v>if [ \"$NPM\" ] ; then env | grep -F NPM | grep -Fv _TOKEN ; fi</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "sys-info:nvm": "if [ \"$NVM\" ] ; then env | grep -F NVM | grep -Fv _TOKEN ; fi",</v>
+        <v xml:space="preserve">    "sys-info:npm": "if [ \"$NPM\" ] ; then env | grep -F NPM | grep -Fv _TOKEN ; fi",</v>
       </c>
       <c r="L30" s="2">
         <v>1</v>
@@ -1934,52 +1946,58 @@
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P30" t="str">
-        <f t="shared" si="12"/>
-        <v>if [ \"$NVM\" ] ; then env | grep -F NVM | grep -Fv _TOKEN ; fi</v>
+        <f t="shared" si="16"/>
+        <v>if [ \"$NPM\" ] ; then env | grep -F NPM | grep -Fv _TOKEN ; fi</v>
       </c>
     </row>
     <row r="31" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
-        <v>185</v>
+        <v>183</v>
+      </c>
+      <c r="G31" t="s">
+        <v>200</v>
       </c>
       <c r="I31" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>report-goal</v>
+        <f t="shared" si="14"/>
+        <v>sys-info:nvm</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="11"/>
-        <v>echo Plan: Include a full SD process in CI/CD pipeline</v>
+        <f t="shared" si="15"/>
+        <v>if [ \"$NVM\" ] ; then env | grep -F NVM | grep -Fv _TOKEN ; fi</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "report-goal": "date &amp;&amp; time echo Plan: Include a full SD process in CI/CD pipeline",</v>
-      </c>
-      <c r="L31" s="2"/>
+        <v xml:space="preserve">    "sys-info:nvm": "if [ \"$NVM\" ] ; then env | grep -F NVM | grep -Fv _TOKEN ; fi",</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1</v>
+      </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
-      <c r="P31" t="s">
-        <v>122</v>
+      <c r="P31" t="str">
+        <f t="shared" si="16"/>
+        <v>if [ \"$NVM\" ] ; then env | grep -F NVM | grep -Fv _TOKEN ; fi</v>
       </c>
     </row>
     <row r="32" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>132</v>
+      <c r="F32" t="s">
+        <v>185</v>
       </c>
       <c r="I32" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>dev:plan-phase:update:report:action</v>
+        <f t="shared" si="14"/>
+        <v>report-goal</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="11"/>
-        <v>if [ ! \"$CI\" ] ; then npm-run-all update-packages:* ; fi</v>
+        <f t="shared" si="15"/>
+        <v>echo Plan: Include a full SD process in CI/CD pipeline</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "dev:plan-phase:update:report:action": "date &amp;&amp; time if [ ! \"$CI\" ] ; then npm-run-all update-packages:* ; fi",</v>
+        <v xml:space="preserve">    "report-goal": "date &amp;&amp; time echo Plan: Include a full SD process in CI/CD pipeline",</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -1989,34 +2007,26 @@
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P32" t="s">
-        <v>217</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="E33" t="s">
-        <v>220</v>
-      </c>
-      <c r="F33" t="s">
-        <v>149</v>
-      </c>
-      <c r="G33" t="s">
-        <v>212</v>
+      <c r="D33" t="s">
+        <v>132</v>
       </c>
       <c r="I33" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>off:update-packages:npm-outdated</v>
+        <f t="shared" si="14"/>
+        <v>dev:plan-phase:update:report:action</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="11"/>
-        <v>npm outdated</v>
+        <f t="shared" si="15"/>
+        <v>if [ ! \"$CI\" ] ; then npm-run-all update-packages:* ; fi</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" ref="K33" si="13">IF(ISBLANK(I33),"",CONCATENATE("    """,I33,""": ","""",IF(LEN(J33)&gt;1,CONCATENATE(IF(L33,"",CONCATENATE(N$3," ")),""),""),IF(M33,"echo ",""),J33,""","))</f>
-        <v xml:space="preserve">    "off:update-packages:npm-outdated": "npm outdated",</v>
-      </c>
-      <c r="L33" s="2">
-        <v>1</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "dev:plan-phase:update:report:action": "date &amp;&amp; time if [ ! \"$CI\" ] ; then npm-run-all update-packages:* ; fi",</v>
+      </c>
+      <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2" t="str">
@@ -2024,30 +2034,30 @@
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P33" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="3:16" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F34" t="s">
         <v>149</v>
       </c>
       <c r="G34" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="I34" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>off:update-packages:npm-update-save-dev</v>
+        <f t="shared" si="14"/>
+        <v>off:update-packages:npm-outdated</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="11"/>
-        <v>npm update --save-dev</v>
+        <f t="shared" si="15"/>
+        <v>npm outdated</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" ref="K34:K39" si="14">IF(ISBLANK(I34),"",CONCATENATE("    """,I34,""": ","""",IF(LEN(J34)&gt;1,CONCATENATE(IF(L34,"",CONCATENATE(N$3," ")),""),""),IF(M34,"echo ",""),J34,""","))</f>
-        <v xml:space="preserve">    "off:update-packages:npm-update-save-dev": "npm update --save-dev",</v>
+        <f t="shared" ref="K34" si="17">IF(ISBLANK(I34),"",CONCATENATE("    """,I34,""": ","""",IF(LEN(J34)&gt;1,CONCATENATE(IF(L34,"",CONCATENATE(N$3," ")),""),""),IF(M34,"echo ",""),J34,""","))</f>
+        <v xml:space="preserve">    "off:update-packages:npm-outdated": "npm outdated",</v>
       </c>
       <c r="L34" s="2">
         <v>1</v>
@@ -2059,30 +2069,30 @@
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P34" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="3:16" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F35" t="s">
         <v>149</v>
       </c>
       <c r="G35" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="I35" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>off:update-packages:npm-update-save</v>
+        <f t="shared" si="14"/>
+        <v>off:update-packages:npm-update-save-dev</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="11"/>
-        <v>npm update --save</v>
+        <f t="shared" si="15"/>
+        <v>npm update --save-dev</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">    "off:update-packages:npm-update-save": "npm update --save",</v>
+        <f t="shared" ref="K35:K40" si="18">IF(ISBLANK(I35),"",CONCATENATE("    """,I35,""": ","""",IF(LEN(J35)&gt;1,CONCATENATE(IF(L35,"",CONCATENATE(N$3," ")),""),""),IF(M35,"echo ",""),J35,""","))</f>
+        <v xml:space="preserve">    "off:update-packages:npm-update-save-dev": "npm update --save-dev",</v>
       </c>
       <c r="L35" s="2">
         <v>1</v>
@@ -2094,30 +2104,30 @@
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="3:16" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F36" t="s">
         <v>149</v>
       </c>
       <c r="G36" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I36" s="1" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D36:H36)</f>
-        <v>off:update-packages:ng-update-all</v>
+        <f t="shared" si="14"/>
+        <v>off:update-packages:npm-update-save</v>
       </c>
       <c r="J36" t="str">
-        <f xml:space="preserve"> IF(NOT(COUNTA(P36:V36)),":",_xlfn.TEXTJOIN(O36,TRUE,N36,_xlfn.TEXTJOIN(O36,TRUE,P36:V36)))</f>
-        <v>ng update --all --allowDirty --force</v>
+        <f t="shared" si="15"/>
+        <v>npm update --save</v>
       </c>
       <c r="K36" t="str">
-        <f>IF(ISBLANK(I36),"",CONCATENATE("    """,I36,""": ","""",IF(LEN(J36)&gt;1,CONCATENATE(IF(L36,"",CONCATENATE(N$3," ")),""),""),IF(M36,"echo ",""),J36,""","))</f>
-        <v xml:space="preserve">    "off:update-packages:ng-update-all": "ng update --all --allowDirty --force",</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    "off:update-packages:npm-update-save": "npm update --save",</v>
       </c>
       <c r="L36" s="2">
         <v>1</v>
@@ -2125,31 +2135,34 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2" t="str">
-        <f>IF(ISBLANK(N36),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P36" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>219</v>
+      </c>
       <c r="F37" t="s">
         <v>149</v>
       </c>
       <c r="G37" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I37" s="1" t="str">
         <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D37:H37)</f>
-        <v>update-packages:ng-update</v>
+        <v>off:update-packages:ng-update-all</v>
       </c>
       <c r="J37" t="str">
         <f xml:space="preserve"> IF(NOT(COUNTA(P37:V37)),":",_xlfn.TEXTJOIN(O37,TRUE,N37,_xlfn.TEXTJOIN(O37,TRUE,P37:V37)))</f>
-        <v>ng update</v>
+        <v>ng update --all --allowDirty --force</v>
       </c>
       <c r="K37" t="str">
         <f>IF(ISBLANK(I37),"",CONCATENATE("    """,I37,""": ","""",IF(LEN(J37)&gt;1,CONCATENATE(IF(L37,"",CONCATENATE(N$3," ")),""),""),IF(M37,"echo ",""),J37,""","))</f>
-        <v xml:space="preserve">    "update-packages:ng-update": "ng update",</v>
+        <v xml:space="preserve">    "off:update-packages:ng-update-all": "ng update --all --allowDirty --force",</v>
       </c>
       <c r="L37" s="2">
         <v>1</v>
@@ -2161,7 +2174,7 @@
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P37" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="3:16" x14ac:dyDescent="0.25">
@@ -2169,21 +2182,23 @@
         <v>149</v>
       </c>
       <c r="G38" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I38" s="1" t="str">
         <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D38:H38)</f>
-        <v>update-packages:npx-npm-check-updates-u</v>
+        <v>update-packages:ng-update</v>
       </c>
       <c r="J38" t="str">
         <f xml:space="preserve"> IF(NOT(COUNTA(P38:V38)),":",_xlfn.TEXTJOIN(O38,TRUE,N38,_xlfn.TEXTJOIN(O38,TRUE,P38:V38)))</f>
-        <v>npx npm-check-updates -u -x typescript</v>
+        <v>ng update</v>
       </c>
       <c r="K38" t="str">
         <f>IF(ISBLANK(I38),"",CONCATENATE("    """,I38,""": ","""",IF(LEN(J38)&gt;1,CONCATENATE(IF(L38,"",CONCATENATE(N$3," ")),""),""),IF(M38,"echo ",""),J38,""","))</f>
-        <v xml:space="preserve">    "update-packages:npx-npm-check-updates-u": "date &amp;&amp; time npx npm-check-updates -u -x typescript",</v>
-      </c>
-      <c r="L38" s="2"/>
+        <v xml:space="preserve">    "update-packages:ng-update": "ng update",</v>
+      </c>
+      <c r="L38" s="2">
+        <v>1</v>
+      </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2" t="str">
@@ -2191,59 +2206,57 @@
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P38" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="E39" t="s">
-        <v>218</v>
-      </c>
       <c r="F39" t="s">
         <v>149</v>
       </c>
+      <c r="G39" t="s">
+        <v>211</v>
+      </c>
       <c r="I39" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>deprecated:update-packages</v>
+        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D39:H39)</f>
+        <v>update-packages:npx-npm-check-updates-u</v>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="11"/>
-        <v>node wipe-dependencies.js &amp;&amp; rm -rf node_modules &amp;&amp; npm update --save-dev &amp;&amp; npm update --save</v>
+        <f xml:space="preserve"> IF(NOT(COUNTA(P39:V39)),":",_xlfn.TEXTJOIN(O39,TRUE,N39,_xlfn.TEXTJOIN(O39,TRUE,P39:V39)))</f>
+        <v>npx npm-check-updates -u -x typescript</v>
       </c>
       <c r="K39" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">    "deprecated:update-packages": "node wipe-dependencies.js &amp;&amp; rm -rf node_modules &amp;&amp; npm update --save-dev &amp;&amp; npm update --save",</v>
-      </c>
-      <c r="L39" s="2">
-        <v>1</v>
-      </c>
+        <f>IF(ISBLANK(I39),"",CONCATENATE("    """,I39,""": ","""",IF(LEN(J39)&gt;1,CONCATENATE(IF(L39,"",CONCATENATE(N$3," ")),""),""),IF(M39,"echo ",""),J39,""","))</f>
+        <v xml:space="preserve">    "update-packages:npx-npm-check-updates-u": "date &amp;&amp; time npx npm-check-updates -u -x typescript",</v>
+      </c>
+      <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(N39),CONCATENATE(" ",$O$4," ")," ")</f>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P39" t="s">
-        <v>78</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>217</v>
+      </c>
       <c r="F40" t="s">
         <v>149</v>
       </c>
-      <c r="G40" t="s">
-        <v>11</v>
-      </c>
       <c r="I40" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>update-packages:report</v>
+        <f t="shared" si="14"/>
+        <v>deprecated:update-packages</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="11"/>
-        <v>echo Update: TODO: Update the dependencies to latest</v>
+        <f t="shared" si="15"/>
+        <v>node wipe-dependencies.js &amp;&amp; rm -rf node_modules &amp;&amp; npm update --save-dev &amp;&amp; npm update --save</v>
       </c>
       <c r="K40" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    "update-packages:report": "echo Update: TODO: Update the dependencies to latest",</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    "deprecated:update-packages": "node wipe-dependencies.js &amp;&amp; rm -rf node_modules &amp;&amp; npm update --save-dev &amp;&amp; npm update --save",</v>
       </c>
       <c r="L40" s="2">
         <v>1</v>
@@ -2255,45 +2268,49 @@
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P40" t="s">
-        <v>150</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>149</v>
+      </c>
+      <c r="G41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>update-packages:report</v>
+      </c>
       <c r="J41" t="str">
-        <f t="shared" si="1"/>
-        <v>:</v>
+        <f t="shared" si="15"/>
+        <v>echo Update: TODO: Update the dependencies to latest</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L41" s="2"/>
+        <v xml:space="preserve">    "update-packages:report": "echo Update: TODO: Update the dependencies to latest",</v>
+      </c>
+      <c r="L41" s="2">
+        <v>1</v>
+      </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
+      <c r="P41" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="42" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
-        <v>157</v>
-      </c>
-      <c r="E42" t="str">
-        <f xml:space="preserve"> CONCATENATE("// ",C42)</f>
-        <v>// CODE</v>
-      </c>
-      <c r="I42" s="1" t="str">
-        <f t="shared" ref="I42" si="15" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D42:H42)</f>
-        <v>// CODE</v>
-      </c>
       <c r="J42" t="str">
         <f t="shared" si="1"/>
         <v>:</v>
       </c>
       <c r="K42" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "// CODE": ":",</v>
+        <v/>
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
@@ -2304,20 +2321,24 @@
       </c>
     </row>
     <row r="43" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
-        <v>133</v>
+      <c r="C43" t="s">
+        <v>157</v>
+      </c>
+      <c r="E43" t="str">
+        <f xml:space="preserve"> CONCATENATE("// ",C43)</f>
+        <v>// CODE</v>
       </c>
       <c r="I43" s="1" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D43:H43)</f>
-        <v>dev:code-phase:code:report:action</v>
+        <f t="shared" ref="I43" si="19" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D43:H43)</f>
+        <v>// CODE</v>
       </c>
       <c r="J43" t="str">
-        <f xml:space="preserve"> IF(NOT(COUNTA(P43:V43)),":",_xlfn.TEXTJOIN(O43,TRUE,N43,_xlfn.TEXTJOIN(O43,TRUE,P43:V43)))</f>
-        <v>echo TODO: Code: Implement the new features planned</v>
+        <f t="shared" si="1"/>
+        <v>:</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "dev:code-phase:code:report:action": "date &amp;&amp; time echo TODO: Code: Implement the new features planned",</v>
+        <v xml:space="preserve">    "// CODE": ":",</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
@@ -2326,511 +2347,509 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
-      <c r="P43" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="44" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>133</v>
+      </c>
+      <c r="I44" s="1" t="str">
+        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D44:H44)</f>
+        <v>dev:code-phase:code:report:action</v>
+      </c>
       <c r="J44" t="str">
-        <f t="shared" ref="J44:J45" si="16" xml:space="preserve"> IF(NOT(COUNTA(P44:V44)),":",_xlfn.TEXTJOIN(O44,TRUE,N44,_xlfn.TEXTJOIN(O44,TRUE,P44:V44)))</f>
-        <v>:</v>
+        <f xml:space="preserve"> IF(NOT(COUNTA(P44:V44)),":",_xlfn.TEXTJOIN(O44,TRUE,N44,_xlfn.TEXTJOIN(O44,TRUE,P44:V44)))</f>
+        <v>echo TODO: Code: Implement the new features planned</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v xml:space="preserve">    "dev:code-phase:code:report:action": "date &amp;&amp; time echo TODO: Code: Implement the new features planned",</v>
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2" t="str">
-        <f t="shared" ref="O44" si="17">IF(ISBLANK(N44),CONCATENATE(" ",$O$4," ")," ")</f>
-        <v xml:space="preserve"> &amp;&amp; </v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
+      </c>
+      <c r="P44" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
-        <v>154</v>
-      </c>
-      <c r="E45" t="str">
-        <f xml:space="preserve"> CONCATENATE("// ",C45)</f>
-        <v>// BUILD</v>
-      </c>
-      <c r="I45" s="1" t="str">
-        <f t="shared" ref="I45" si="18" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D45:H45)</f>
-        <v>// BUILD</v>
-      </c>
       <c r="J45" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="J45:J46" si="20" xml:space="preserve"> IF(NOT(COUNTA(P45:V45)),":",_xlfn.TEXTJOIN(O45,TRUE,N45,_xlfn.TEXTJOIN(O45,TRUE,P45:V45)))</f>
         <v>:</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "// BUILD": ":",</v>
+        <v/>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2" t="str">
-        <f>IF(ISBLANK(N45),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" ref="O45" si="21">IF(ISBLANK(N45),CONCATENATE(" ",$O$4," ")," ")</f>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
     </row>
     <row r="46" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
-        <v>130</v>
+      <c r="C46" t="s">
+        <v>154</v>
+      </c>
+      <c r="E46" t="str">
+        <f xml:space="preserve"> CONCATENATE("// ",C46)</f>
+        <v>// BUILD</v>
       </c>
       <c r="I46" s="1" t="str">
-        <f t="shared" ref="I46:I55" si="19" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D46:H46)</f>
-        <v>dev:build-phase:install:prepare:action</v>
+        <f t="shared" ref="I46" si="22" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D46:H46)</f>
+        <v>// BUILD</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" ref="J46" si="20" xml:space="preserve"> IF(NOT(COUNTA(P46:V46)),":",_xlfn.TEXTJOIN(O46,TRUE,N46,_xlfn.TEXTJOIN(O46,TRUE,P46:V46)))</f>
-        <v>if [ \"$CI\" ] ; then snyk auth $SNYK_TOKEN ; fi</v>
+        <f t="shared" si="20"/>
+        <v>:</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "dev:build-phase:install:prepare:action": "date &amp;&amp; time if [ \"$CI\" ] ; then snyk auth $SNYK_TOKEN ; fi",</v>
+        <v xml:space="preserve">    "// BUILD": ":",</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2" t="str">
-        <f t="shared" ref="O46" si="21">IF(ISBLANK(N46),CONCATENATE(" ",$O$4," ")," ")</f>
-        <v xml:space="preserve"> &amp;&amp; </v>
-      </c>
-      <c r="P46" t="s">
-        <v>213</v>
+        <f>IF(ISBLANK(N46),CONCATENATE(" ",$O$4," ")," ")</f>
+        <v xml:space="preserve"> &amp;&amp; </v>
       </c>
     </row>
     <row r="47" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="F47" t="s">
-        <v>59</v>
+      <c r="D47" t="s">
+        <v>130</v>
       </c>
       <c r="I47" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>snyk-protect</v>
+        <f t="shared" ref="I47:I57" si="23" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D47:H47)</f>
+        <v>dev:build-phase:install:prepare:action</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" ref="J47:J58" si="22" xml:space="preserve"> IF(NOT(COUNTA(P47:V47)),":",_xlfn.TEXTJOIN(O47,TRUE,N47,_xlfn.TEXTJOIN(O47,TRUE,P47:V47)))</f>
-        <v>snyk protect</v>
+        <f t="shared" ref="J47" si="24" xml:space="preserve"> IF(NOT(COUNTA(P47:V47)),":",_xlfn.TEXTJOIN(O47,TRUE,N47,_xlfn.TEXTJOIN(O47,TRUE,P47:V47)))</f>
+        <v>if [ \"$CI\" ] ; then echo snyk auth $SNYK_TOKEN ; fi</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "snyk-protect": "date &amp;&amp; time snyk protect",</v>
+        <v xml:space="preserve">    "dev:build-phase:install:prepare:action": "date &amp;&amp; time if [ \"$CI\" ] ; then echo snyk auth $SNYK_TOKEN ; fi",</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2" t="str">
-        <f t="shared" ref="O47:O56" si="23">IF(ISBLANK(N47),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" ref="O47" si="25">IF(ISBLANK(N47),CONCATENATE(" ",$O$4," ")," ")</f>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P47" t="s">
-        <v>60</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
-        <v>151</v>
-      </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="I48" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>prepare</v>
+        <f t="shared" si="23"/>
+        <v>snyk-protect</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="22"/>
-        <v>npm-run-all snyk-protect</v>
+        <f t="shared" ref="J48:J60" si="26" xml:space="preserve"> IF(NOT(COUNTA(P48:V48)),":",_xlfn.TEXTJOIN(O48,TRUE,N48,_xlfn.TEXTJOIN(O48,TRUE,P48:V48)))</f>
+        <v>snyk protect</v>
       </c>
       <c r="K48" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "prepare": "date &amp;&amp; time npm-run-all snyk-protect",</v>
+        <v xml:space="preserve">    "snyk-protect": "date &amp;&amp; time echo snyk protect",</v>
       </c>
       <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2" t="str">
-        <f>IF(ISBLANK(P48),"",$N$6)</f>
-        <v>npm-run-all</v>
-      </c>
+      <c r="M48" s="2">
+        <v>1</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2" t="str">
+        <f t="shared" ref="O48:O58" si="27">IF(ISBLANK(N48),CONCATENATE(" ",$O$4," ")," ")</f>
+        <v xml:space="preserve"> &amp;&amp; </v>
+      </c>
+      <c r="P48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>151</v>
+      </c>
+      <c r="F49" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" s="1" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P48" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
-        <v>152</v>
-      </c>
-      <c r="I49" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>dev:build-phase:install:package:package:action</v>
+        <v>prepare</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="22"/>
-        <v>npm install</v>
+        <f t="shared" si="26"/>
+        <v>npm-run-all snyk-protect</v>
       </c>
       <c r="K49" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "dev:build-phase:install:package:package:action": "date &amp;&amp; time npm install",</v>
+        <v xml:space="preserve">    "prepare": "date &amp;&amp; time npm-run-all snyk-protect",</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+      <c r="N49" s="2" t="str">
+        <f>IF(ISBLANK(P49),"",$N$6)</f>
+        <v>npm-run-all</v>
+      </c>
       <c r="O49" s="2" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve"> &amp;&amp; </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P49" t="s">
-        <v>153</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I50" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>dev:build-phase:install:report:action</v>
+        <f t="shared" si="23"/>
+        <v>dev:build-phase:install:package:package:action</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="22"/>
-        <v>echo Install: TODO: Link to install logs</v>
+        <f t="shared" si="26"/>
+        <v>npm install</v>
       </c>
       <c r="K50" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "dev:build-phase:install:report:action": "date &amp;&amp; time echo Install: TODO: Link to install logs",</v>
+        <v xml:space="preserve">    "dev:build-phase:install:package:package:action": "date &amp;&amp; time npm install",</v>
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P50" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="I51" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>dev:build-phase:build:package:action</v>
+        <f t="shared" ref="I51" si="28" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D51:H51)</f>
+        <v>dev:build-phase:install:report:action</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="22"/>
-        <v>if [ \"$CI\" ] ; then npm run build-ci ; else npm run build ; fi</v>
+        <f t="shared" ref="J51" si="29" xml:space="preserve"> IF(NOT(COUNTA(P51:V51)),":",_xlfn.TEXTJOIN(O51,TRUE,N51,_xlfn.TEXTJOIN(O51,TRUE,P51:V51)))</f>
+        <v>echo Install: TODO: Link to install logs</v>
       </c>
       <c r="K51" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    "dev:build-phase:build:package:action": "date &amp;&amp; time if [ \"$CI\" ] ; then npm run build-ci ; else npm run build ; fi",</v>
+        <f t="shared" ref="K51" si="30">IF(ISBLANK(I51),"",CONCATENATE("    """,I51,""": ","""",IF(LEN(J51)&gt;1,CONCATENATE(IF(L51,"",CONCATENATE(N$3," ")),""),""),IF(M51,"echo ",""),J51,""","))</f>
+        <v xml:space="preserve">    "dev:build-phase:install:report:action": "date &amp;&amp; time echo Install: TODO: Link to install logs",</v>
       </c>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="O51" si="31">IF(ISBLANK(N51),CONCATENATE(" ",$O$4," ")," ")</f>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P51" t="s">
-        <v>214</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F52" t="s">
-        <v>1</v>
+        <v>225</v>
       </c>
       <c r="I52" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>build</v>
+        <f t="shared" si="23"/>
+        <v>postinstall</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="22"/>
-        <v>if [ \"$CI\" ] ; then npm run PIPELINE ; else ng build ; fi</v>
+        <f t="shared" si="26"/>
+        <v>ngcc</v>
       </c>
       <c r="K52" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "build": "date &amp;&amp; time if [ \"$CI\" ] ; then npm run PIPELINE ; else ng build ; fi",</v>
-      </c>
-      <c r="L52" s="2"/>
+        <v xml:space="preserve">    "postinstall": "ngcc",</v>
+      </c>
+      <c r="L52" s="2">
+        <v>1</v>
+      </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
+      </c>
+      <c r="P52" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>144</v>
+      </c>
+      <c r="I53" s="1" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve"> &amp;&amp; </v>
-      </c>
-      <c r="P52" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="F53" t="s">
-        <v>164</v>
-      </c>
-      <c r="I53" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>build-prod</v>
+        <v>dev:build-phase:build:package:action</v>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="22"/>
-        <v>ng build --configuration=\"production\"</v>
+        <f t="shared" si="26"/>
+        <v>if [ \"$CI\" ] ; then npm run build-ci ; else npm run build ; fi</v>
       </c>
       <c r="K53" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "build-prod": "date &amp;&amp; time ng build --configuration=\"production\"",</v>
+        <v xml:space="preserve">    "dev:build-phase:build:package:action": "date &amp;&amp; time if [ \"$CI\" ] ; then npm run build-ci ; else npm run build ; fi",</v>
       </c>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P53" t="s">
-        <v>165</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F54" t="s">
-        <v>163</v>
+        <v>1</v>
       </c>
       <c r="I54" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>build-ci</v>
+        <f t="shared" si="23"/>
+        <v>build</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="22"/>
-        <v>ng build --configuration=\"heroku\"</v>
+        <f t="shared" si="26"/>
+        <v>if [ \"$CI\" ] ; then npm run PIPELINE ; else ng build ; fi</v>
       </c>
       <c r="K54" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "build-ci": "date &amp;&amp; time ng build --configuration=\"heroku\"",</v>
+        <v xml:space="preserve">    "build": "date &amp;&amp; time if [ \"$CI\" ] ; then npm run PIPELINE ; else ng build ; fi",</v>
       </c>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P54" t="s">
-        <v>162</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F55" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="I55" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>rebuild-heroku</v>
+        <f t="shared" si="23"/>
+        <v>build-prod</v>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="22"/>
-        <v>git commit --allow-empty -m \"empty commit\" &amp;&amp; git push heroku master</v>
+        <f t="shared" si="26"/>
+        <v>ng build --configuration=\"production\"</v>
       </c>
       <c r="K55" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "rebuild-heroku": "date &amp;&amp; time git commit --allow-empty -m \"empty commit\" &amp;&amp; git push heroku master",</v>
+        <v xml:space="preserve">    "build-prod": "date &amp;&amp; time ng build --configuration=\"production\"",</v>
       </c>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
+      </c>
+      <c r="P55" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
+        <v>163</v>
+      </c>
+      <c r="I56" s="1" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve"> &amp;&amp; </v>
-      </c>
-      <c r="P55" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
-        <v>151</v>
-      </c>
-      <c r="F56" t="s">
-        <v>58</v>
-      </c>
-      <c r="I56" s="1" t="str">
-        <f t="shared" ref="I56" si="24" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D56:H56)</f>
-        <v>version</v>
+        <v>build-ci</v>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="22"/>
-        <v>auto-changelog -p &amp;&amp; git add CHANGELOG.md</v>
+        <f t="shared" si="26"/>
+        <v>ng build --configuration=\"heroku\"</v>
       </c>
       <c r="K56" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "version": "date &amp;&amp; time auto-changelog -p &amp;&amp; git add CHANGELOG.md",</v>
+        <v xml:space="preserve">    "build-ci": "date &amp;&amp; time ng build --configuration=\"heroku\"",</v>
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
+      </c>
+      <c r="P56" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>171</v>
+      </c>
+      <c r="I57" s="1" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve"> &amp;&amp; </v>
-      </c>
-      <c r="P56" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="D57" t="s">
-        <v>135</v>
-      </c>
-      <c r="I57" s="1" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D57:H57)</f>
-        <v>dev:build-phase:build:report:action</v>
+        <v>rebuild-heroku</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" si="22"/>
-        <v>echo Build: TODO: Link to Build logs</v>
+        <f t="shared" si="26"/>
+        <v>git commit --allow-empty -m \"empty commit\" &amp;&amp; git push heroku master</v>
       </c>
       <c r="K57" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "dev:build-phase:build:report:action": "date &amp;&amp; time echo Build: TODO: Link to Build logs",</v>
+        <v xml:space="preserve">    "rebuild-heroku": "date &amp;&amp; time git commit --allow-empty -m \"empty commit\" &amp;&amp; git push heroku master",</v>
       </c>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2" t="str">
-        <f t="shared" ref="O57" si="25">IF(ISBLANK(N57),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" si="27"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P57" t="s">
-        <v>124</v>
+        <v>172</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>151</v>
+      </c>
+      <c r="F58" t="s">
+        <v>58</v>
+      </c>
+      <c r="I58" s="1" t="str">
+        <f t="shared" ref="I58" si="32" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D58:H58)</f>
+        <v>version</v>
+      </c>
       <c r="J58" t="str">
-        <f t="shared" si="22"/>
-        <v>:</v>
+        <f t="shared" si="26"/>
+        <v>auto-changelog -p &amp;&amp; git add CHANGELOG.md</v>
       </c>
       <c r="K58" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v xml:space="preserve">    "version": "date &amp;&amp; time auto-changelog -p &amp;&amp; git add CHANGELOG.md",</v>
       </c>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" s="2" t="str">
-        <f t="shared" ref="O58:O99" si="26">IF(ISBLANK(N58),CONCATENATE(" ",$O$4," ")," ")</f>
-        <v xml:space="preserve"> &amp;&amp; </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
+      </c>
+      <c r="P58" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
-        <v>155</v>
-      </c>
-      <c r="E59" t="str">
-        <f xml:space="preserve"> CONCATENATE("// ",C59)</f>
-        <v>// TEST</v>
+      <c r="D59" t="s">
+        <v>135</v>
       </c>
       <c r="I59" s="1" t="str">
-        <f t="shared" ref="I59" si="27" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D59:H59)</f>
-        <v>// TEST</v>
+        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D59:H59)</f>
+        <v>dev:build-phase:build:report:action</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" ref="J59" si="28" xml:space="preserve"> IF(NOT(COUNTA(P59:V59)),":",_xlfn.TEXTJOIN(O59,TRUE,N59,_xlfn.TEXTJOIN(O59,TRUE,P59:V59)))</f>
-        <v>:</v>
+        <f t="shared" si="26"/>
+        <v>echo Build: TODO: Link to Build logs</v>
       </c>
       <c r="K59" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "// TEST": ":",</v>
+        <v xml:space="preserve">    "dev:build-phase:build:report:action": "date &amp;&amp; time echo Build: TODO: Link to Build logs",</v>
       </c>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" s="2" t="str">
+        <f t="shared" ref="O59" si="33">IF(ISBLANK(N59),CONCATENATE(" ",$O$4," ")," ")</f>
+        <v xml:space="preserve"> &amp;&amp; </v>
+      </c>
+      <c r="P59" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="J60" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve"> &amp;&amp; </v>
-      </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="D60" t="s">
-        <v>139</v>
-      </c>
-      <c r="I60" s="1" t="str">
-        <f t="shared" ref="I60:I81" si="29" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D60:H60)</f>
-        <v>dev:test-phase:test:package:vulnerability:action</v>
-      </c>
-      <c r="J60" t="str">
-        <f t="shared" ref="J60:J82" si="30" xml:space="preserve"> IF(NOT(COUNTA(P60:V60)),":",_xlfn.TEXTJOIN(O60,TRUE,N60,_xlfn.TEXTJOIN(O60,TRUE,P60:V60)))</f>
-        <v>npm-run-all vulnerability-check</v>
+        <v>:</v>
       </c>
       <c r="K60" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "dev:test-phase:test:package:vulnerability:action": "date &amp;&amp; time npm-run-all vulnerability-check",</v>
+        <v/>
       </c>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
-      <c r="N60" s="2" t="str">
-        <f>IF(ISBLANK(P60),"",$N$6)</f>
-        <v>npm-run-all</v>
-      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P60" t="s">
-        <v>51</v>
+        <f t="shared" ref="O60:O101" si="34">IF(ISBLANK(N60),CONCATENATE(" ",$O$4," ")," ")</f>
+        <v xml:space="preserve"> &amp;&amp; </v>
       </c>
     </row>
     <row r="61" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="F61" t="s">
-        <v>51</v>
+      <c r="C61" t="s">
+        <v>155</v>
+      </c>
+      <c r="E61" t="str">
+        <f xml:space="preserve"> CONCATENATE("// ",C61)</f>
+        <v>// TEST</v>
       </c>
       <c r="I61" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>vulnerability-check</v>
+        <f t="shared" ref="I61" si="35" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D61:H61)</f>
+        <v>// TEST</v>
       </c>
       <c r="J61" t="str">
-        <f t="shared" si="30"/>
-        <v>snyk test</v>
+        <f t="shared" ref="J61" si="36" xml:space="preserve"> IF(NOT(COUNTA(P61:V61)),":",_xlfn.TEXTJOIN(O61,TRUE,N61,_xlfn.TEXTJOIN(O61,TRUE,P61:V61)))</f>
+        <v>:</v>
       </c>
       <c r="K61" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "vulnerability-check": "date &amp;&amp; time snyk test",</v>
+        <v xml:space="preserve">    "// TEST": ":",</v>
       </c>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" s="2" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve"> &amp;&amp; </v>
-      </c>
-      <c r="P61" t="s">
-        <v>52</v>
+        <f t="shared" si="34"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
       </c>
     </row>
     <row r="62" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I62" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>dev:test-phase:test:package:unit:action</v>
+        <f t="shared" ref="I62:I83" si="37" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D62:H62)</f>
+        <v>dev:test-phase:test:package:vulnerability:action</v>
       </c>
       <c r="J62" t="str">
-        <f t="shared" si="30"/>
-        <v>npm-run-all test-once</v>
+        <f t="shared" ref="J62:J84" si="38" xml:space="preserve"> IF(NOT(COUNTA(P62:V62)),":",_xlfn.TEXTJOIN(O62,TRUE,N62,_xlfn.TEXTJOIN(O62,TRUE,P62:V62)))</f>
+        <v>npm-run-all vulnerability-check</v>
       </c>
       <c r="K62" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "dev:test-phase:test:package:unit:action": "date &amp;&amp; time npm-run-all test-once",</v>
+        <v xml:space="preserve">    "dev:test-phase:test:package:vulnerability:action": "date &amp;&amp; time npm-run-all vulnerability-check",</v>
       </c>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
@@ -2839,144 +2858,146 @@
         <v>npm-run-all</v>
       </c>
       <c r="O62" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P62" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F63" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I63" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>test-once</v>
+        <f t="shared" si="37"/>
+        <v>vulnerability-check</v>
       </c>
       <c r="J63" t="str">
-        <f t="shared" si="30"/>
-        <v>env singleRun=true ng test --code-coverage</v>
+        <f t="shared" si="38"/>
+        <v>snyk test</v>
       </c>
       <c r="K63" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "test-once": "date &amp;&amp; time env singleRun=true ng test --code-coverage",</v>
+        <v xml:space="preserve">    "vulnerability-check": "date &amp;&amp; time echo snyk test",</v>
       </c>
       <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
+      <c r="M63" s="2">
+        <v>1</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P63" t="s">
-        <v>202</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
-        <v>151</v>
-      </c>
-      <c r="F64" t="s">
-        <v>2</v>
+      <c r="D64" t="s">
+        <v>143</v>
       </c>
       <c r="I64" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>test</v>
+        <f t="shared" si="37"/>
+        <v>dev:test-phase:test:package:unit:action</v>
       </c>
       <c r="J64" t="str">
-        <f t="shared" si="30"/>
-        <v>if [ ! \"$TRAVIS\" ] &amp;&amp; [ ! \"$HEROKU\" ] ; then ng test --code-coverage ; fi</v>
+        <f t="shared" si="38"/>
+        <v>npm-run-all test-once</v>
       </c>
       <c r="K64" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "test": "if [ ! \"$TRAVIS\" ] &amp;&amp; [ ! \"$HEROKU\" ] ; then ng test --code-coverage ; fi",</v>
-      </c>
-      <c r="L64" s="2">
-        <v>1</v>
-      </c>
+        <v xml:space="preserve">    "dev:test-phase:test:package:unit:action": "date &amp;&amp; time npm-run-all test-once",</v>
+      </c>
+      <c r="L64" s="2"/>
       <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+      <c r="N64" s="2" t="str">
+        <f>IF(ISBLANK(P64),"",$N$6)</f>
+        <v>npm-run-all</v>
+      </c>
       <c r="O64" s="2" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve"> &amp;&amp; </v>
+        <f t="shared" si="34"/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P64" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="65" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D65" t="s">
-        <v>140</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
+        <v>46</v>
       </c>
       <c r="I65" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>dev:test-phase:test:package:integration:action</v>
+        <f t="shared" si="37"/>
+        <v>test-once</v>
       </c>
       <c r="J65" t="str">
-        <f t="shared" si="30"/>
-        <v>npm-run-all e2e</v>
+        <f t="shared" si="38"/>
+        <v>env singleRun=true ng test --code-coverage</v>
       </c>
       <c r="K65" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "dev:test-phase:test:package:integration:action": "date &amp;&amp; time npm-run-all e2e",</v>
+        <v xml:space="preserve">    "test-once": "date &amp;&amp; time env singleRun=true ng test --code-coverage",</v>
       </c>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
-      <c r="N65" s="2" t="str">
-        <f>IF(ISBLANK(P65),"",$N$6)</f>
-        <v>npm-run-all</v>
-      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve"> </v>
+        <f t="shared" si="34"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P65" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="66" spans="4:22" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="66" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>151</v>
+      </c>
       <c r="F66" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="I66" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>e2e</v>
+        <f t="shared" si="37"/>
+        <v>test</v>
       </c>
       <c r="J66" t="str">
-        <f t="shared" si="30"/>
-        <v>if [ ! \"$HEROKU\" ] ; then ng e2e ; fi</v>
+        <f t="shared" si="38"/>
+        <v>if [ ! \"$TRAVIS\" ] &amp;&amp; [ ! \"$HEROKU\" ] ; then ng test --code-coverage ; fi</v>
       </c>
       <c r="K66" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "e2e": "date &amp;&amp; time if [ ! \"$HEROKU\" ] ; then ng e2e ; fi",</v>
-      </c>
-      <c r="L66" s="2"/>
+        <v xml:space="preserve">    "test": "if [ ! \"$TRAVIS\" ] &amp;&amp; [ ! \"$HEROKU\" ] ; then ng test --code-coverage ; fi",</v>
+      </c>
+      <c r="L66" s="2">
+        <v>1</v>
+      </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P66" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="67" spans="4:22" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="67" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I67" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>dev:test-phase:test:measure:action</v>
+        <f t="shared" si="37"/>
+        <v>dev:test-phase:test:package:integration:action</v>
       </c>
       <c r="J67" t="str">
-        <f t="shared" si="30"/>
-        <v>npm-run-all lint</v>
+        <f t="shared" si="38"/>
+        <v>npm-run-all e2e</v>
       </c>
       <c r="K67" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "dev:test-phase:test:measure:action": "date &amp;&amp; time npm-run-all lint",</v>
+        <v xml:space="preserve">    "dev:test-phase:test:package:integration:action": "date &amp;&amp; time npm-run-all e2e",</v>
       </c>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
@@ -2985,55 +3006,55 @@
         <v>npm-run-all</v>
       </c>
       <c r="O67" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P67" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="68" spans="4:22" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="3:22" x14ac:dyDescent="0.25">
       <c r="F68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I68" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>lint</v>
+        <f t="shared" si="37"/>
+        <v>e2e</v>
       </c>
       <c r="J68" t="str">
-        <f t="shared" si="30"/>
-        <v>ng  lint</v>
+        <f t="shared" si="38"/>
+        <v>if [ ! \"$HEROKU\" ] ; then ng e2e ; fi</v>
       </c>
       <c r="K68" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "lint": "date &amp;&amp; time ng  lint",</v>
+        <v xml:space="preserve">    "e2e": "date &amp;&amp; time if [ ! \"$HEROKU\" ] ; then ng e2e ; fi",</v>
       </c>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P68" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="69" spans="4:22" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="69" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I69" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>dev:test-phase:codecover:package:action</v>
+        <f t="shared" si="37"/>
+        <v>dev:test-phase:test:measure:action</v>
       </c>
       <c r="J69" t="str">
-        <f t="shared" si="30"/>
-        <v>npm-run-all codecov coveralls</v>
+        <f t="shared" si="38"/>
+        <v>npm-run-all lint</v>
       </c>
       <c r="K69" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "dev:test-phase:codecover:package:action": "date &amp;&amp; time npm-run-all codecov coveralls",</v>
+        <v xml:space="preserve">    "dev:test-phase:test:measure:action": "date &amp;&amp; time npm-run-all lint",</v>
       </c>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
@@ -3042,1124 +3063,1098 @@
         <v>npm-run-all</v>
       </c>
       <c r="O69" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P69" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="4:22" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="3:22" x14ac:dyDescent="0.25">
       <c r="F70" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="I70" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>codecov</v>
+        <f t="shared" si="37"/>
+        <v>lint</v>
       </c>
       <c r="J70" t="str">
-        <f t="shared" si="30"/>
-        <v>codecov</v>
+        <f t="shared" si="38"/>
+        <v>ng  lint</v>
       </c>
       <c r="K70" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "codecov": "date &amp;&amp; time codecov",</v>
+        <v xml:space="preserve">    "lint": "date &amp;&amp; time ng  lint",</v>
       </c>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P70" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="71" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="F71" t="s">
-        <v>17</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>137</v>
       </c>
       <c r="I71" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>coveralls</v>
+        <f t="shared" si="37"/>
+        <v>dev:test-phase:codecover:package:action</v>
       </c>
       <c r="J71" t="str">
-        <f t="shared" si="30"/>
-        <v>node ./node_modules/coveralls/bin/coveralls.js &lt; ./coverage/lcov.info</v>
+        <f t="shared" si="38"/>
+        <v>npm-run-all codecov coveralls</v>
       </c>
       <c r="K71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "coveralls": "date &amp;&amp; time node ./node_modules/coveralls/bin/coveralls.js &lt; ./coverage/lcov.info",</v>
+        <v xml:space="preserve">    "dev:test-phase:codecover:package:action": "date &amp;&amp; time npm-run-all codecov coveralls",</v>
       </c>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+      <c r="N71" s="2" t="str">
+        <f>IF(ISBLANK(P71),"",$N$6)</f>
+        <v>npm-run-all</v>
+      </c>
       <c r="O71" s="2" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve"> &amp;&amp; </v>
+        <f t="shared" si="34"/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P71" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="72" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D72" t="s">
-        <v>138</v>
+        <v>65</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="F72" t="s">
+        <v>65</v>
       </c>
       <c r="I72" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>dev:test-phase:document:package:action</v>
+        <f t="shared" si="37"/>
+        <v>codecov</v>
       </c>
       <c r="J72" t="str">
-        <f t="shared" si="30"/>
-        <v>npm-run-all compodoc</v>
+        <f t="shared" si="38"/>
+        <v>codecov</v>
       </c>
       <c r="K72" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "dev:test-phase:document:package:action": "date &amp;&amp; time npm-run-all compodoc",</v>
+        <v xml:space="preserve">    "codecov": "date &amp;&amp; time codecov",</v>
       </c>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
-      <c r="N72" s="2" t="str">
-        <f t="shared" ref="N72" si="31">IF(ISBLANK(P72),"",$N$6)</f>
-        <v>npm-run-all</v>
-      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve"> </v>
+        <f t="shared" si="34"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P72" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="73" spans="4:22" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="3:22" x14ac:dyDescent="0.25">
       <c r="F73" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I73" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>compodoc</v>
+        <f t="shared" si="37"/>
+        <v>coveralls</v>
       </c>
       <c r="J73" t="str">
-        <f t="shared" si="30"/>
-        <v>compodoc -p src/tsconfig.app.json --theme vagrant --hideGenerator --disableSourceCode --disablePrivate --disableTemplateTab --customFavicon \"./src/favicon/android-chrome-512x512.png\" -n \"CV Generator Documentation\"</v>
+        <f t="shared" si="38"/>
+        <v>node ./node_modules/coveralls/bin/coveralls.js &lt; ./coverage/lcov.info</v>
       </c>
       <c r="K73" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "compodoc": "date &amp;&amp; time compodoc -p src/tsconfig.app.json --theme vagrant --hideGenerator --disableSourceCode --disablePrivate --disableTemplateTab --customFavicon \"./src/favicon/android-chrome-512x512.png\" -n \"CV Generator Documentation\"",</v>
+        <v xml:space="preserve">    "coveralls": "date &amp;&amp; time node ./node_modules/coveralls/bin/coveralls.js &lt; ./coverage/lcov.info",</v>
       </c>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P73" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="74" spans="4:22" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="I74" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>dev:test-phase:integrate:package:action</v>
+        <f t="shared" si="37"/>
+        <v>dev:test-phase:document:package:action</v>
       </c>
       <c r="J74" t="str">
-        <f t="shared" si="30"/>
-        <v>npm-run-all ngsw-config ngsw-copy favicon-copy google-copy manifest-copy cov-copy doc-copy</v>
+        <f t="shared" si="38"/>
+        <v>npm-run-all compodoc</v>
       </c>
       <c r="K74" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "dev:test-phase:integrate:package:action": "date &amp;&amp; time npm-run-all ngsw-config ngsw-copy favicon-copy google-copy manifest-copy cov-copy doc-copy",</v>
+        <v xml:space="preserve">    "dev:test-phase:document:package:action": "date &amp;&amp; time npm-run-all compodoc",</v>
       </c>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
       <c r="N74" s="2" t="str">
-        <f t="shared" ref="N74" si="32">IF(ISBLANK(P74),"",$N$6)</f>
+        <f t="shared" ref="N74" si="39">IF(ISBLANK(P74),"",$N$6)</f>
         <v>npm-run-all</v>
       </c>
       <c r="O74" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P74" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>25</v>
-      </c>
-      <c r="R74" t="s">
-        <v>26</v>
-      </c>
-      <c r="S74" t="s">
-        <v>44</v>
-      </c>
-      <c r="T74" t="s">
-        <v>45</v>
-      </c>
-      <c r="U74" t="s">
-        <v>43</v>
-      </c>
-      <c r="V74" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="75" spans="4:22" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="3:22" x14ac:dyDescent="0.25">
       <c r="F75" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I75" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>ngsw-config</v>
+        <f t="shared" si="37"/>
+        <v>compodoc</v>
       </c>
       <c r="J75" t="str">
-        <f t="shared" si="30"/>
-        <v>if [ \"$production\" ] ; then node_modules/.bin/ngsw-config dist src/ngsw-config.json ; fi</v>
+        <f t="shared" si="38"/>
+        <v>compodoc -p src/tsconfig.app.json --theme vagrant --hideGenerator --disableSourceCode --disablePrivate --disableTemplateTab --customFavicon \"./src/favicon/android-chrome-512x512.png\" -n \"CV Generator Documentation\"</v>
       </c>
       <c r="K75" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "ngsw-config": "date &amp;&amp; time if [ \"$production\" ] ; then node_modules/.bin/ngsw-config dist src/ngsw-config.json ; fi",</v>
+        <v xml:space="preserve">    "compodoc": "date &amp;&amp; time compodoc -p src/tsconfig.app.json --theme vagrant --hideGenerator --disableSourceCode --disablePrivate --disableTemplateTab --customFavicon \"./src/favicon/android-chrome-512x512.png\" -n \"CV Generator Documentation\"",</v>
       </c>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P75" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="76" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="F76" t="s">
-        <v>25</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>121</v>
       </c>
       <c r="I76" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>ngsw-copy</v>
+        <f t="shared" si="37"/>
+        <v>dev:test-phase:integrate:package:action</v>
       </c>
       <c r="J76" t="str">
-        <f t="shared" si="30"/>
-        <v>if [ \"$production\" ] ; then cp node_modules/@angular/service-worker/ngsw-worker.js dist/ ; fi</v>
+        <f t="shared" si="38"/>
+        <v>npm-run-all ngsw-config ngsw-copy favicon-copy google-copy manifest-copy cov-copy doc-copy</v>
       </c>
       <c r="K76" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "ngsw-copy": "date &amp;&amp; time if [ \"$production\" ] ; then cp node_modules/@angular/service-worker/ngsw-worker.js dist/ ; fi",</v>
+        <v xml:space="preserve">    "dev:test-phase:integrate:package:action": "date &amp;&amp; time npm-run-all ngsw-config ngsw-copy favicon-copy google-copy manifest-copy cov-copy doc-copy",</v>
       </c>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
+      <c r="N76" s="2" t="str">
+        <f t="shared" ref="N76" si="40">IF(ISBLANK(P76),"",$N$6)</f>
+        <v>npm-run-all</v>
+      </c>
       <c r="O76" s="2" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve"> &amp;&amp; </v>
+        <f t="shared" si="34"/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P76" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="77" spans="4:22" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>25</v>
+      </c>
+      <c r="R76" t="s">
+        <v>26</v>
+      </c>
+      <c r="S76" t="s">
+        <v>44</v>
+      </c>
+      <c r="T76" t="s">
+        <v>45</v>
+      </c>
+      <c r="U76" t="s">
+        <v>43</v>
+      </c>
+      <c r="V76" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77" spans="3:22" x14ac:dyDescent="0.25">
       <c r="F77" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I77" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>favicon-copy</v>
+        <f t="shared" si="37"/>
+        <v>ngsw-config</v>
       </c>
       <c r="J77" t="str">
-        <f t="shared" si="30"/>
-        <v>cp src/favicon/* dist/favicon/</v>
+        <f t="shared" si="38"/>
+        <v>if [ \"$production\" ] ; then node_modules/.bin/ngsw-config dist src/ngsw-config.json ; fi</v>
       </c>
       <c r="K77" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "favicon-copy": "date &amp;&amp; time cp src/favicon/* dist/favicon/",</v>
+        <v xml:space="preserve">    "ngsw-config": "date &amp;&amp; time if [ \"$production\" ] ; then node_modules/.bin/ngsw-config dist src/ngsw-config.json ; fi",</v>
       </c>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P77" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="78" spans="4:22" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="78" spans="3:22" x14ac:dyDescent="0.25">
       <c r="F78" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="I78" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>google-copy</v>
+        <f t="shared" si="37"/>
+        <v>ngsw-copy</v>
       </c>
       <c r="J78" t="str">
-        <f t="shared" si="30"/>
-        <v>cp src/google/*.* dist/</v>
+        <f t="shared" si="38"/>
+        <v>if [ \"$production\" ] ; then cp node_modules/@angular/service-worker/ngsw-worker.js dist/ ; fi</v>
       </c>
       <c r="K78" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "google-copy": "date &amp;&amp; time cp src/google/*.* dist/",</v>
+        <v xml:space="preserve">    "ngsw-copy": "date &amp;&amp; time if [ \"$production\" ] ; then cp node_modules/@angular/service-worker/ngsw-worker.js dist/ ; fi",</v>
       </c>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P78" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="79" spans="4:22" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="79" spans="3:22" x14ac:dyDescent="0.25">
       <c r="F79" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="I79" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>manifest-copy</v>
+        <f t="shared" si="37"/>
+        <v>favicon-copy</v>
       </c>
       <c r="J79" t="str">
-        <f t="shared" si="30"/>
-        <v>cp src/manifest.json dist/</v>
+        <f t="shared" si="38"/>
+        <v>cp src/favicon/* dist/favicon/</v>
       </c>
       <c r="K79" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "manifest-copy": "date &amp;&amp; time cp src/manifest.json dist/",</v>
+        <v xml:space="preserve">    "favicon-copy": "date &amp;&amp; time cp src/favicon/* dist/favicon/",</v>
       </c>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P79" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="80" spans="4:22" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="3:22" x14ac:dyDescent="0.25">
       <c r="F80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I80" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>cov-copy</v>
+        <f t="shared" si="37"/>
+        <v>google-copy</v>
       </c>
       <c r="J80" t="str">
-        <f t="shared" si="30"/>
-        <v>cp -r coverage dist/coverage/</v>
+        <f t="shared" si="38"/>
+        <v>cp src/google/*.* dist/</v>
       </c>
       <c r="K80" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    "cov-copy": "date &amp;&amp; time cp -r coverage dist/coverage/",</v>
+        <v xml:space="preserve">    "google-copy": "date &amp;&amp; time cp src/google/*.* dist/",</v>
       </c>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P80" t="s">
-        <v>203</v>
+        <v>48</v>
       </c>
     </row>
     <row r="81" spans="3:16" x14ac:dyDescent="0.25">
       <c r="F81" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I81" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>doc-copy</v>
+        <f t="shared" si="37"/>
+        <v>manifest-copy</v>
       </c>
       <c r="J81" t="str">
-        <f t="shared" si="30"/>
-        <v>cp -r documentation dist/documentation/</v>
+        <f t="shared" si="38"/>
+        <v>cp src/manifest.json dist/</v>
       </c>
       <c r="K81" t="str">
-        <f t="shared" ref="K81:K144" si="33">IF(ISBLANK(I81),"",CONCATENATE("    """,I81,""": ","""",IF(LEN(J81)&gt;1,CONCATENATE(IF(L81,"",CONCATENATE(N$3," ")),""),""),IF(M81,"echo ",""),J81,""","))</f>
-        <v xml:space="preserve">    "doc-copy": "date &amp;&amp; time cp -r documentation dist/documentation/",</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "manifest-copy": "date &amp;&amp; time cp src/manifest.json dist/",</v>
       </c>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P81" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F82" t="s">
+        <v>43</v>
+      </c>
+      <c r="I82" s="1" t="str">
+        <f t="shared" si="37"/>
+        <v>cov-copy</v>
+      </c>
       <c r="J82" t="str">
-        <f t="shared" si="30"/>
-        <v>:</v>
+        <f t="shared" si="38"/>
+        <v>cp -r coverage dist/coverage/</v>
       </c>
       <c r="K82" t="str">
-        <f t="shared" si="33"/>
-        <v/>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "cov-copy": "date &amp;&amp; time cp -r coverage dist/coverage/",</v>
       </c>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" s="2" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve"> &amp;&amp; </v>
+        <f t="shared" si="34"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
+      </c>
+      <c r="P82" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="83" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C83" t="s">
-        <v>160</v>
-      </c>
-      <c r="E83" t="str">
-        <f xml:space="preserve"> CONCATENATE("// ",C83)</f>
-        <v>// RELEASE</v>
+      <c r="F83" t="s">
+        <v>42</v>
       </c>
       <c r="I83" s="1" t="str">
-        <f t="shared" ref="I83" si="34" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D83:H83)</f>
-        <v>// RELEASE</v>
+        <f t="shared" si="37"/>
+        <v>doc-copy</v>
       </c>
       <c r="J83" t="str">
-        <f t="shared" ref="J83" si="35" xml:space="preserve"> IF(NOT(COUNTA(P83:V83)),":",_xlfn.TEXTJOIN(O83,TRUE,N83,_xlfn.TEXTJOIN(O83,TRUE,P83:V83)))</f>
-        <v>:</v>
+        <f t="shared" si="38"/>
+        <v>cp -r documentation dist/documentation/</v>
       </c>
       <c r="K83" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "// RELEASE": ":",</v>
+        <f t="shared" ref="K83:K146" si="41">IF(ISBLANK(I83),"",CONCATENATE("    """,I83,""": ","""",IF(LEN(J83)&gt;1,CONCATENATE(IF(L83,"",CONCATENATE(N$3," ")),""),""),IF(M83,"echo ",""),J83,""","))</f>
+        <v xml:space="preserve">    "doc-copy": "date &amp;&amp; time cp -r documentation dist/documentation/",</v>
       </c>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" s="2" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve"> &amp;&amp; </v>
+        <f t="shared" si="34"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
+      </c>
+      <c r="P83" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="84" spans="3:16" x14ac:dyDescent="0.25">
       <c r="J84" t="str">
-        <f xml:space="preserve"> IF(NOT(COUNTA(P84:V84)),":",_xlfn.TEXTJOIN(O84,TRUE,N84,_xlfn.TEXTJOIN(O84,TRUE,P84:V84)))</f>
+        <f t="shared" si="38"/>
         <v>:</v>
       </c>
       <c r="K84" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
     </row>
     <row r="85" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E85" t="str">
         <f xml:space="preserve"> CONCATENATE("// ",C85)</f>
-        <v>// CONFIGURE</v>
+        <v>// RELEASE</v>
       </c>
       <c r="I85" s="1" t="str">
-        <f t="shared" ref="I85" si="36" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D85:H85)</f>
-        <v>// CONFIGURE</v>
+        <f t="shared" ref="I85" si="42" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D85:H85)</f>
+        <v>// RELEASE</v>
       </c>
       <c r="J85" t="str">
-        <f t="shared" ref="J85" si="37" xml:space="preserve"> IF(NOT(COUNTA(P85:V85)),":",_xlfn.TEXTJOIN(O85,TRUE,N85,_xlfn.TEXTJOIN(O85,TRUE,P85:V85)))</f>
+        <f t="shared" ref="J85" si="43" xml:space="preserve"> IF(NOT(COUNTA(P85:V85)),":",_xlfn.TEXTJOIN(O85,TRUE,N85,_xlfn.TEXTJOIN(O85,TRUE,P85:V85)))</f>
         <v>:</v>
       </c>
       <c r="K85" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "// CONFIGURE": ":",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "// RELEASE": ":",</v>
       </c>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
     </row>
     <row r="86" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D86" t="s">
-        <v>145</v>
-      </c>
-      <c r="I86" s="1" t="str">
-        <f t="shared" ref="I86:I91" si="38" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D86:H86)</f>
-        <v>ops:deploy:package:dockerize:build:action</v>
-      </c>
       <c r="J86" t="str">
-        <f t="shared" si="1"/>
-        <v>npm-run-all dockerize-build</v>
+        <f xml:space="preserve"> IF(NOT(COUNTA(P86:V86)),":",_xlfn.TEXTJOIN(O86,TRUE,N86,_xlfn.TEXTJOIN(O86,TRUE,P86:V86)))</f>
+        <v>:</v>
       </c>
       <c r="K86" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "ops:deploy:package:dockerize:build:action": "date &amp;&amp; time npm-run-all dockerize-build",</v>
+        <f t="shared" si="41"/>
+        <v/>
       </c>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
-      <c r="N86" s="2" t="str">
-        <f>IF(ISBLANK(P86),"",$N$6)</f>
-        <v>npm-run-all</v>
-      </c>
+      <c r="N86" s="2"/>
       <c r="O86" s="2" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P86" t="s">
-        <v>76</v>
+        <f t="shared" si="34"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
       </c>
     </row>
     <row r="87" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="E87" t="s">
-        <v>220</v>
-      </c>
-      <c r="F87" t="s">
-        <v>76</v>
+      <c r="C87" t="s">
+        <v>161</v>
+      </c>
+      <c r="E87" t="str">
+        <f xml:space="preserve"> CONCATENATE("// ",C87)</f>
+        <v>// CONFIGURE</v>
       </c>
       <c r="I87" s="1" t="str">
-        <f t="shared" si="38"/>
-        <v>off:dockerize-build</v>
+        <f t="shared" ref="I87" si="44" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D87:H87)</f>
+        <v>// CONFIGURE</v>
       </c>
       <c r="J87" t="str">
-        <f t="shared" si="1"/>
-        <v>docker image build -t jorich/cv-generator-fe:%npm_package_version% -t jorich/cv-generator-fe .</v>
+        <f t="shared" ref="J87" si="45" xml:space="preserve"> IF(NOT(COUNTA(P87:V87)),":",_xlfn.TEXTJOIN(O87,TRUE,N87,_xlfn.TEXTJOIN(O87,TRUE,P87:V87)))</f>
+        <v>:</v>
       </c>
       <c r="K87" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "off:dockerize-build": "date &amp;&amp; time docker image build -t jorich/cv-generator-fe:%npm_package_version% -t jorich/cv-generator-fe .",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "// CONFIGURE": ":",</v>
       </c>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" s="2" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve"> &amp;&amp; </v>
-      </c>
-      <c r="P87" t="s">
-        <v>62</v>
+        <f t="shared" si="34"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
       </c>
     </row>
     <row r="88" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I88" s="1" t="str">
-        <f t="shared" si="38"/>
-        <v>ops:deploy:package:dockerize:push:action</v>
+        <f t="shared" ref="I88:I93" si="46" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D88:H88)</f>
+        <v>ops:deploy:package:dockerize:build:action</v>
       </c>
       <c r="J88" t="str">
         <f t="shared" si="1"/>
-        <v>npm-run-all dockerize-push</v>
+        <v>npm-run-all dockerize-build</v>
       </c>
       <c r="K88" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "ops:deploy:package:dockerize:push:action": "date &amp;&amp; time npm-run-all dockerize-push",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "ops:deploy:package:dockerize:build:action": "date &amp;&amp; time echo npm-run-all dockerize-build",</v>
       </c>
       <c r="L88" s="2"/>
-      <c r="M88" s="2"/>
+      <c r="M88" s="2">
+        <v>1</v>
+      </c>
       <c r="N88" s="2" t="str">
         <f>IF(ISBLANK(P88),"",$N$6)</f>
         <v>npm-run-all</v>
       </c>
       <c r="O88" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P88" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="89" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="E89" t="s">
-        <v>220</v>
-      </c>
       <c r="F89" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I89" s="1" t="str">
-        <f t="shared" si="38"/>
-        <v>off:dockerize-push</v>
+        <f t="shared" si="46"/>
+        <v>dockerize-build</v>
       </c>
       <c r="J89" t="str">
         <f t="shared" si="1"/>
-        <v>docker push jorich/cv-generator-fe:%npm_package_version% &amp;&amp; docker push jorich/cv-generator-fe:latest</v>
+        <v>docker image build -t jorich/cv-generator-fe:%npm_package_version% -t jorich/cv-generator-fe .</v>
       </c>
       <c r="K89" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "off:dockerize-push": "date &amp;&amp; time docker push jorich/cv-generator-fe:%npm_package_version% &amp;&amp; docker push jorich/cv-generator-fe:latest",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "dockerize-build": "date &amp;&amp; time docker image build -t jorich/cv-generator-fe:%npm_package_version% -t jorich/cv-generator-fe .",</v>
       </c>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P89" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="90" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I90" s="1" t="str">
-        <f t="shared" si="38"/>
-        <v>ops:deploy:package:provision:action</v>
+        <f t="shared" si="46"/>
+        <v>ops:deploy:package:dockerize:push:action</v>
       </c>
       <c r="J90" t="str">
         <f t="shared" si="1"/>
-        <v>npm-run-all provision</v>
+        <v>npm-run-all dockerize-push</v>
       </c>
       <c r="K90" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "ops:deploy:package:provision:action": "date &amp;&amp; time npm-run-all provision",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "ops:deploy:package:dockerize:push:action": "date &amp;&amp; time echo npm-run-all dockerize-push",</v>
       </c>
       <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
+      <c r="M90" s="2">
+        <v>1</v>
+      </c>
       <c r="N90" s="2" t="str">
         <f>IF(ISBLANK(P90),"",$N$6)</f>
         <v>npm-run-all</v>
       </c>
       <c r="O90" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P90" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="91" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="E91" t="s">
-        <v>220</v>
-      </c>
       <c r="F91" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="I91" s="1" t="str">
-        <f t="shared" si="38"/>
-        <v>off:provision</v>
+        <f t="shared" si="46"/>
+        <v>dockerize-push</v>
       </c>
       <c r="J91" t="str">
         <f t="shared" si="1"/>
-        <v>cd ../cv-generator-life-terraform &amp;&amp; terraform apply</v>
+        <v>docker push jorich/cv-generator-fe:%npm_package_version% &amp;&amp; docker push jorich/cv-generator-fe:latest</v>
       </c>
       <c r="K91" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "off:provision": "date &amp;&amp; time cd ../cv-generator-life-terraform &amp;&amp; terraform apply",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "dockerize-push": "date &amp;&amp; time docker push jorich/cv-generator-fe:%npm_package_version% &amp;&amp; docker push jorich/cv-generator-fe:latest",</v>
       </c>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P91" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="92" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>147</v>
+      </c>
+      <c r="I92" s="1" t="str">
+        <f t="shared" si="46"/>
+        <v>ops:deploy:package:provision:action</v>
+      </c>
       <c r="J92" t="str">
-        <f xml:space="preserve"> IF(NOT(COUNTA(P92:V92)),":",_xlfn.TEXTJOIN(O92,TRUE,N92,_xlfn.TEXTJOIN(O92,TRUE,P92:V92)))</f>
-        <v>:</v>
+        <f t="shared" si="1"/>
+        <v>npm-run-all provision</v>
       </c>
       <c r="K92" t="str">
-        <f t="shared" si="33"/>
-        <v/>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "ops:deploy:package:provision:action": "date &amp;&amp; time echo npm-run-all provision",</v>
       </c>
       <c r="L92" s="2"/>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
+      <c r="M92" s="2">
+        <v>1</v>
+      </c>
+      <c r="N92" s="2" t="str">
+        <f>IF(ISBLANK(P92),"",$N$6)</f>
+        <v>npm-run-all</v>
+      </c>
       <c r="O92" s="2" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve"> &amp;&amp; </v>
+        <f t="shared" si="34"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P92" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="93" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C93" t="s">
-        <v>158</v>
-      </c>
-      <c r="E93" t="str">
-        <f xml:space="preserve"> CONCATENATE("// ",C93)</f>
-        <v>// OPERATE</v>
+      <c r="F93" t="s">
+        <v>67</v>
       </c>
       <c r="I93" s="1" t="str">
-        <f t="shared" ref="I93" si="39" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D93:H93)</f>
-        <v>// OPERATE</v>
+        <f t="shared" si="46"/>
+        <v>provision</v>
       </c>
       <c r="J93" t="str">
-        <f t="shared" ref="J93" si="40" xml:space="preserve"> IF(NOT(COUNTA(P93:V93)),":",_xlfn.TEXTJOIN(O93,TRUE,N93,_xlfn.TEXTJOIN(O93,TRUE,P93:V93)))</f>
-        <v>:</v>
+        <f t="shared" si="1"/>
+        <v>cd ../cv-generator-life-terraform &amp;&amp; terraform apply</v>
       </c>
       <c r="K93" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "// OPERATE": ":",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "provision": "date &amp;&amp; time cd ../cv-generator-life-terraform &amp;&amp; terraform apply",</v>
       </c>
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" s="2" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve"> &amp;&amp; </v>
+        <f t="shared" si="34"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
+      </c>
+      <c r="P93" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="94" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D94" t="s">
-        <v>142</v>
-      </c>
-      <c r="I94" s="1" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D94:H94)</f>
-        <v>ops:run:platform:action</v>
-      </c>
       <c r="J94" t="str">
         <f xml:space="preserve"> IF(NOT(COUNTA(P94:V94)),":",_xlfn.TEXTJOIN(O94,TRUE,N94,_xlfn.TEXTJOIN(O94,TRUE,P94:V94)))</f>
-        <v>npm-run-all wake-up-the-dynos:*</v>
+        <v>:</v>
       </c>
       <c r="K94" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "ops:run:platform:action": "date &amp;&amp; time npm-run-all wake-up-the-dynos:*",</v>
+        <f t="shared" si="41"/>
+        <v/>
       </c>
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
-      <c r="N94" s="2" t="str">
-        <f>IF(ISBLANK(P94),"",$N$6)</f>
-        <v>npm-run-all</v>
-      </c>
+      <c r="N94" s="2"/>
       <c r="O94" s="2" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P94" t="s">
-        <v>129</v>
+        <f t="shared" si="34"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
       </c>
     </row>
     <row r="95" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="F95" t="s">
-        <v>182</v>
-      </c>
-      <c r="G95" t="s">
-        <v>180</v>
+      <c r="C95" t="s">
+        <v>158</v>
+      </c>
+      <c r="E95" t="str">
+        <f xml:space="preserve"> CONCATENATE("// ",C95)</f>
+        <v>// OPERATE</v>
       </c>
       <c r="I95" s="1" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D95:H95)</f>
-        <v>wake-up-the-dynos:heroku</v>
+        <f t="shared" ref="I95" si="47" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D95:H95)</f>
+        <v>// OPERATE</v>
       </c>
       <c r="J95" t="str">
-        <f xml:space="preserve"> IF(NOT(COUNTA(P95:V95)),":",_xlfn.TEXTJOIN(O95,TRUE,N95,_xlfn.TEXTJOIN(O95,TRUE,P95:V95)))</f>
-        <v>if [ ! \"$HEROKU\" ] ; then curl https://cv-generator-fe.herokuapp.com/Webpage ; fi</v>
+        <f t="shared" ref="J95" si="48" xml:space="preserve"> IF(NOT(COUNTA(P95:V95)),":",_xlfn.TEXTJOIN(O95,TRUE,N95,_xlfn.TEXTJOIN(O95,TRUE,P95:V95)))</f>
+        <v>:</v>
       </c>
       <c r="K95" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "wake-up-the-dynos:heroku": "date &amp;&amp; time if [ ! \"$HEROKU\" ] ; then curl https://cv-generator-fe.herokuapp.com/Webpage ; fi",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "// OPERATE": ":",</v>
       </c>
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
       <c r="O95" s="2" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve"> &amp;&amp; </v>
-      </c>
-      <c r="P95" t="s">
-        <v>176</v>
+        <f t="shared" si="34"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
       </c>
     </row>
     <row r="96" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="F96" t="s">
-        <v>182</v>
-      </c>
-      <c r="G96" t="s">
-        <v>181</v>
+      <c r="D96" t="s">
+        <v>142</v>
       </c>
       <c r="I96" s="1" t="str">
-        <f t="shared" ref="I96" si="41" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D96:H96)</f>
-        <v>wake-up-the-dynos:ml</v>
+        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D96:H96)</f>
+        <v>ops:run:platform:action</v>
       </c>
       <c r="J96" t="str">
-        <f t="shared" ref="J96" si="42" xml:space="preserve"> IF(NOT(COUNTA(P96:V96)),":",_xlfn.TEXTJOIN(O96,TRUE,N96,_xlfn.TEXTJOIN(O96,TRUE,P96:V96)))</f>
-        <v>if [ ! \"$CI\" ] ; then curl cvgenerator.ml ; fi</v>
+        <f xml:space="preserve"> IF(NOT(COUNTA(P96:V96)),":",_xlfn.TEXTJOIN(O96,TRUE,N96,_xlfn.TEXTJOIN(O96,TRUE,P96:V96)))</f>
+        <v>npm-run-all wake-up-the-dynos:*</v>
       </c>
       <c r="K96" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "wake-up-the-dynos:ml": "date &amp;&amp; time if [ ! \"$CI\" ] ; then curl cvgenerator.ml ; fi",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "ops:run:platform:action": "date &amp;&amp; time npm-run-all wake-up-the-dynos:*",</v>
       </c>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
+      <c r="N96" s="2" t="str">
+        <f>IF(ISBLANK(P96),"",$N$6)</f>
+        <v>npm-run-all</v>
+      </c>
       <c r="O96" s="2" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve"> &amp;&amp; </v>
+        <f t="shared" si="34"/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P96" t="s">
-        <v>177</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C97" t="s">
-        <v>151</v>
-      </c>
       <c r="F97" t="s">
-        <v>0</v>
+        <v>182</v>
+      </c>
+      <c r="G97" t="s">
+        <v>180</v>
       </c>
       <c r="I97" s="1" t="str">
         <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D97:H97)</f>
-        <v>start</v>
+        <v>wake-up-the-dynos:heroku</v>
       </c>
       <c r="J97" t="str">
         <f xml:space="preserve"> IF(NOT(COUNTA(P97:V97)),":",_xlfn.TEXTJOIN(O97,TRUE,N97,_xlfn.TEXTJOIN(O97,TRUE,P97:V97)))</f>
-        <v>node server.js</v>
+        <v>if [ ! \"$HEROKU\" ] ; then curl https://cv-generator-fe.herokuapp.com/Webpage ; fi</v>
       </c>
       <c r="K97" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "start": "node server.js",</v>
-      </c>
-      <c r="L97" s="2">
-        <v>1</v>
-      </c>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "wake-up-the-dynos:heroku": "date &amp;&amp; time if [ ! \"$HEROKU\" ] ; then curl https://cv-generator-fe.herokuapp.com/Webpage ; fi",</v>
+      </c>
+      <c r="L97" s="2"/>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
       <c r="O97" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P97" t="s">
-        <v>41</v>
+        <v>176</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F98" t="s">
+        <v>182</v>
+      </c>
+      <c r="G98" t="s">
+        <v>181</v>
+      </c>
+      <c r="I98" s="1" t="str">
+        <f t="shared" ref="I98" si="49" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D98:H98)</f>
+        <v>wake-up-the-dynos:ml</v>
+      </c>
       <c r="J98" t="str">
-        <f t="shared" ref="J98:J158" si="43" xml:space="preserve"> IF(NOT(COUNTA(P98:V98)),":",_xlfn.TEXTJOIN(O98,TRUE,N98,_xlfn.TEXTJOIN(O98,TRUE,P98:V98)))</f>
-        <v>:</v>
+        <f t="shared" ref="J98" si="50" xml:space="preserve"> IF(NOT(COUNTA(P98:V98)),":",_xlfn.TEXTJOIN(O98,TRUE,N98,_xlfn.TEXTJOIN(O98,TRUE,P98:V98)))</f>
+        <v>if [ ! \"$CI\" ] ; then curl cvgenerator.ml ; fi</v>
       </c>
       <c r="K98" t="str">
-        <f t="shared" si="33"/>
-        <v/>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "wake-up-the-dynos:ml": "date &amp;&amp; time if [ ! \"$CI\" ] ; then curl cvgenerator.ml ; fi",</v>
       </c>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
       <c r="O98" s="2" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve"> &amp;&amp; </v>
+        <f t="shared" si="34"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
+      </c>
+      <c r="P98" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
-        <v>159</v>
-      </c>
-      <c r="E99" t="str">
-        <f xml:space="preserve"> CONCATENATE("// ",C99)</f>
-        <v>// OBSERVE</v>
+        <v>151</v>
+      </c>
+      <c r="F99" t="s">
+        <v>0</v>
       </c>
       <c r="I99" s="1" t="str">
-        <f t="shared" ref="I99" si="44" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D99:H99)</f>
-        <v>// OBSERVE</v>
+        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D99:H99)</f>
+        <v>start</v>
       </c>
       <c r="J99" t="str">
-        <f t="shared" si="43"/>
-        <v>:</v>
+        <f xml:space="preserve"> IF(NOT(COUNTA(P99:V99)),":",_xlfn.TEXTJOIN(O99,TRUE,N99,_xlfn.TEXTJOIN(O99,TRUE,P99:V99)))</f>
+        <v>node server.js</v>
       </c>
       <c r="K99" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "// OBSERVE": ":",</v>
-      </c>
-      <c r="L99" s="2"/>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "start": "node server.js",</v>
+      </c>
+      <c r="L99" s="2">
+        <v>1</v>
+      </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
       <c r="O99" s="2" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve"> &amp;&amp; </v>
+        <f t="shared" si="34"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
+      </c>
+      <c r="P99" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D100" t="s">
-        <v>136</v>
-      </c>
-      <c r="I100" s="1" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D100:H100)</f>
-        <v>ops:monitor:report:action</v>
-      </c>
       <c r="J100" t="str">
-        <f t="shared" si="43"/>
-        <v>echo Observe: TODO: Lanch the observability dashboard</v>
+        <f t="shared" ref="J100:J160" si="51" xml:space="preserve"> IF(NOT(COUNTA(P100:V100)),":",_xlfn.TEXTJOIN(O100,TRUE,N100,_xlfn.TEXTJOIN(O100,TRUE,P100:V100)))</f>
+        <v>:</v>
       </c>
       <c r="K100" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "ops:monitor:report:action": "date &amp;&amp; time echo Observe: TODO: Lanch the observability dashboard",</v>
+        <f t="shared" si="41"/>
+        <v/>
       </c>
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
       <c r="O100" s="2" t="str">
-        <f t="shared" ref="O100:O101" si="45">IF(ISBLANK(N100),CONCATENATE(" ",$O$4," ")," ")</f>
-        <v xml:space="preserve"> &amp;&amp; </v>
-      </c>
-      <c r="P100" t="s">
-        <v>126</v>
+        <f t="shared" si="34"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>159</v>
+      </c>
+      <c r="E101" t="str">
+        <f xml:space="preserve"> CONCATENATE("// ",C101)</f>
+        <v>// OBSERVE</v>
+      </c>
+      <c r="I101" s="1" t="str">
+        <f t="shared" ref="I101" si="52" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D101:H101)</f>
+        <v>// OBSERVE</v>
+      </c>
       <c r="J101" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>:</v>
       </c>
       <c r="K101" t="str">
-        <f t="shared" si="33"/>
-        <v/>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "// OBSERVE": ":",</v>
       </c>
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
       <c r="O101" s="2" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="34"/>
         <v xml:space="preserve"> &amp;&amp; </v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C102" t="s">
-        <v>85</v>
-      </c>
       <c r="D102" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="I102" s="1" t="str">
-        <f t="shared" ref="I102:I134" si="46" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D102:H102)</f>
-        <v>PIPELINE</v>
+        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D102:H102)</f>
+        <v>ops:monitor:report:action</v>
       </c>
       <c r="J102" t="str">
-        <f t="shared" si="43"/>
-        <v>npm-run-all pipeline:start dev ops report pipeline:finish</v>
+        <f t="shared" si="51"/>
+        <v>echo Observe: TODO: Lanch the observability dashboard</v>
       </c>
       <c r="K102" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "PIPELINE": "date &amp;&amp; time npm-run-all pipeline:start dev ops report pipeline:finish",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "ops:monitor:report:action": "date &amp;&amp; time echo Observe: TODO: Lanch the observability dashboard",</v>
       </c>
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
-      <c r="N102" s="2" t="str">
-        <f>IF(ISBLANK(P102),"",$N$6)</f>
-        <v>npm-run-all</v>
-      </c>
+      <c r="N102" s="2"/>
       <c r="O102" s="2" t="str">
-        <f t="shared" ref="O102:O141" si="47">IF(ISBLANK(N102),CONCATENATE(" ",$O$4," ")," ")</f>
-        <v xml:space="preserve"> </v>
+        <f t="shared" ref="O102:O103" si="53">IF(ISBLANK(N102),CONCATENATE(" ",$O$4," ")," ")</f>
+        <v xml:space="preserve"> &amp;&amp; </v>
       </c>
       <c r="P102" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>109</v>
-      </c>
-      <c r="R102" t="s">
-        <v>108</v>
-      </c>
-      <c r="S102" t="s">
-        <v>11</v>
-      </c>
-      <c r="T102" t="s">
-        <v>194</v>
+        <v>126</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D103" t="s">
-        <v>189</v>
-      </c>
-      <c r="E103" t="s">
-        <v>0</v>
-      </c>
-      <c r="I103" s="1" t="str">
-        <f t="shared" ref="I103" si="48" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D103:H103)</f>
-        <v>pipeline:start</v>
-      </c>
       <c r="J103" t="str">
-        <f t="shared" ref="J103" si="49" xml:space="preserve"> IF(NOT(COUNTA(P103:V103)),":",_xlfn.TEXTJOIN(O103,TRUE,N103,_xlfn.TEXTJOIN(O103,TRUE,P103:V103)))</f>
-        <v>npm-run-all pipeline:start:action</v>
+        <f t="shared" si="51"/>
+        <v>:</v>
       </c>
       <c r="K103" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "pipeline:start": "date &amp;&amp; time npm-run-all pipeline:start:action",</v>
+        <f t="shared" si="41"/>
+        <v/>
       </c>
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
-      <c r="N103" s="2" t="str">
-        <f t="shared" ref="N103" si="50">IF(ISBLANK(P103),"",IF(ISNUMBER(SEARCH(":*",P103)),$N$6,$N$4))</f>
-        <v>npm-run-all</v>
-      </c>
+      <c r="N103" s="2"/>
       <c r="O103" s="2" t="str">
-        <f t="shared" ref="O103" si="51">IF(ISBLANK(N103),CONCATENATE(" ",$O$4," ")," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P103" t="str">
-        <f t="shared" ref="P103" si="52" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I103,"action")</f>
-        <v>pipeline:start:action</v>
+        <f t="shared" si="53"/>
+        <v xml:space="preserve"> &amp;&amp; </v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>85</v>
+      </c>
       <c r="D104" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="I104" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>dev</v>
+        <f t="shared" ref="I104:I136" si="54" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D104:H104)</f>
+        <v>PIPELINE</v>
       </c>
       <c r="J104" t="str">
-        <f t="shared" si="43"/>
-        <v>npm-run-all dev:*</v>
+        <f t="shared" si="51"/>
+        <v>npm-run-all pipeline:start dev ops report pipeline:finish</v>
       </c>
       <c r="K104" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "dev": "date &amp;&amp; time npm-run-all dev:*",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "PIPELINE": "date &amp;&amp; time npm-run-all pipeline:start dev ops report pipeline:finish",</v>
       </c>
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
       <c r="N104" s="2" t="str">
-        <f t="shared" ref="N104:N141" si="53">IF(ISBLANK(P104),"",IF(ISNUMBER(SEARCH(":*",P104)),$N$6,$N$4))</f>
+        <f>IF(ISBLANK(P104),"",$N$6)</f>
         <v>npm-run-all</v>
       </c>
       <c r="O104" s="2" t="str">
-        <f t="shared" si="47"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P104" t="str">
-        <f t="shared" ref="P104" si="54">CONCATENATE(IF(CODE(I104)-CODE("a")&lt;0,LOWER(LEFT(I104,IF(ISERR(FIND(":",I104)),LEN(I104)+1,FIND(":",I104))-1)),I104),":*")</f>
-        <v>dev:*</v>
+        <f t="shared" ref="O104:O143" si="55">IF(ISBLANK(N104),CONCATENATE(" ",$O$4," ")," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P104" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>109</v>
+      </c>
+      <c r="R104" t="s">
+        <v>108</v>
+      </c>
+      <c r="S104" t="s">
+        <v>11</v>
+      </c>
+      <c r="T104" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>1</v>
-      </c>
-      <c r="B105">
-        <v>11</v>
-      </c>
-      <c r="C105" t="s">
-        <v>118</v>
-      </c>
       <c r="D105" t="s">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="E105" t="s">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="I105" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>dev:plan-phase</v>
+        <f t="shared" ref="I105" si="56" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D105:H105)</f>
+        <v>pipeline:start</v>
       </c>
       <c r="J105" t="str">
-        <f t="shared" si="43"/>
-        <v>npm-run-all dev:plan-phase:*</v>
+        <f t="shared" ref="J105" si="57" xml:space="preserve"> IF(NOT(COUNTA(P105:V105)),":",_xlfn.TEXTJOIN(O105,TRUE,N105,_xlfn.TEXTJOIN(O105,TRUE,P105:V105)))</f>
+        <v>npm-run-all pipeline:start:action</v>
       </c>
       <c r="K105" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "dev:plan-phase": "date &amp;&amp; time npm-run-all dev:plan-phase:*",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "pipeline:start": "date &amp;&amp; time npm-run-all pipeline:start:action",</v>
       </c>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
       <c r="N105" s="2" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="N105" si="58">IF(ISBLANK(P105),"",IF(ISNUMBER(SEARCH(":*",P105)),$N$6,$N$4))</f>
         <v>npm-run-all</v>
       </c>
       <c r="O105" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="O105" si="59">IF(ISBLANK(N105),CONCATENATE(" ",$O$4," ")," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P105" t="str">
-        <f>CONCATENATE(IF(CODE(I105)-CODE("a")&lt;0,LOWER(LEFT(I105,IF(ISERR(FIND(":",I105)),LEN(I105)+1,FIND(":",I105))-1)),I105),":*")</f>
-        <v>dev:plan-phase:*</v>
+        <f t="shared" ref="P105" si="60" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I105,"action")</f>
+        <v>pipeline:start:action</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D106" t="s">
         <v>109</v>
       </c>
-      <c r="E106" t="s">
-        <v>114</v>
-      </c>
-      <c r="F106" t="s">
-        <v>86</v>
-      </c>
       <c r="I106" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>dev:plan-phase:plan</v>
+        <f t="shared" si="54"/>
+        <v>dev</v>
       </c>
       <c r="J106" t="str">
-        <f t="shared" si="43"/>
-        <v>npm-run-all dev:plan-phase:plan:*</v>
+        <f t="shared" si="51"/>
+        <v>npm-run-all dev:*</v>
       </c>
       <c r="K106" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "dev:plan-phase:plan": "date &amp;&amp; time npm-run-all dev:plan-phase:plan:*",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "dev": "date &amp;&amp; time npm-run-all dev:*",</v>
       </c>
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
       <c r="N106" s="2" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="N106:N143" si="61">IF(ISBLANK(P106),"",IF(ISNUMBER(SEARCH(":*",P106)),$N$6,$N$4))</f>
         <v>npm-run-all</v>
       </c>
       <c r="O106" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P106" t="str">
-        <f t="shared" ref="P106:P120" si="55">CONCATENATE(IF(CODE(I106)-CODE("a")&lt;0,LOWER(LEFT(I106,IF(ISERR(FIND(":",I106)),LEN(I106)+1,FIND(":",I106))-1)),I106),":*")</f>
-        <v>dev:plan-phase:plan:*</v>
+        <f t="shared" ref="P106" si="62">CONCATENATE(IF(CODE(I106)-CODE("a")&lt;0,LOWER(LEFT(I106,IF(ISERR(FIND(":",I106)),LEN(I106)+1,FIND(":",I106))-1)),I106),":*")</f>
+        <v>dev:*</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107">
+        <v>11</v>
+      </c>
+      <c r="C107" t="s">
+        <v>118</v>
+      </c>
       <c r="D107" t="s">
         <v>109</v>
       </c>
       <c r="E107" t="s">
         <v>114</v>
       </c>
-      <c r="F107" t="s">
-        <v>86</v>
-      </c>
-      <c r="G107" t="s">
-        <v>11</v>
-      </c>
       <c r="I107" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>dev:plan-phase:plan:report</v>
+        <f t="shared" si="54"/>
+        <v>dev:plan-phase</v>
       </c>
       <c r="J107" t="str">
-        <f t="shared" si="43"/>
-        <v>npm-run-all dev:plan-phase:plan:report:action</v>
+        <f t="shared" si="51"/>
+        <v>npm-run-all dev:plan-phase:*</v>
       </c>
       <c r="K107" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "dev:plan-phase:plan:report": "date &amp;&amp; time npm-run-all dev:plan-phase:plan:report:action",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "dev:plan-phase": "date &amp;&amp; time npm-run-all dev:plan-phase:*",</v>
       </c>
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
       <c r="N107" s="2" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>npm-run-all</v>
       </c>
       <c r="O107" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P107" t="str">
-        <f t="shared" ref="P107:P109" si="56" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I107,"action")</f>
-        <v>dev:plan-phase:plan:report:action</v>
+        <f>CONCATENATE(IF(CODE(I107)-CODE("a")&lt;0,LOWER(LEFT(I107,IF(ISERR(FIND(":",I107)),LEN(I107)+1,FIND(":",I107))-1)),I107),":*")</f>
+        <v>dev:plan-phase:*</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B108">
-        <v>12</v>
-      </c>
       <c r="D108" t="s">
         <v>109</v>
       </c>
@@ -4167,33 +4162,33 @@
         <v>114</v>
       </c>
       <c r="F108" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="I108" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>dev:plan-phase:update</v>
+        <f t="shared" si="54"/>
+        <v>dev:plan-phase:plan</v>
       </c>
       <c r="J108" t="str">
-        <f t="shared" si="43"/>
-        <v>npm-run-all dev:plan-phase:update:*</v>
+        <f t="shared" si="51"/>
+        <v>npm-run-all dev:plan-phase:plan:*</v>
       </c>
       <c r="K108" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "dev:plan-phase:update": "date &amp;&amp; time npm-run-all dev:plan-phase:update:*",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "dev:plan-phase:plan": "date &amp;&amp; time npm-run-all dev:plan-phase:plan:*",</v>
       </c>
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
       <c r="N108" s="2" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>npm-run-all</v>
       </c>
       <c r="O108" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P108" t="str">
-        <f t="shared" si="55"/>
-        <v>dev:plan-phase:update:*</v>
+        <f t="shared" ref="P108:P122" si="63">CONCATENATE(IF(CODE(I108)-CODE("a")&lt;0,LOWER(LEFT(I108,IF(ISERR(FIND(":",I108)),LEN(I108)+1,FIND(":",I108))-1)),I108),":*")</f>
+        <v>dev:plan-phase:plan:*</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
@@ -4204,79 +4199,76 @@
         <v>114</v>
       </c>
       <c r="F109" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="G109" t="s">
         <v>11</v>
       </c>
       <c r="I109" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>dev:plan-phase:update:report</v>
+        <f t="shared" si="54"/>
+        <v>dev:plan-phase:plan:report</v>
       </c>
       <c r="J109" t="str">
-        <f t="shared" si="43"/>
-        <v>npm-run-all dev:plan-phase:update:report:action</v>
+        <f t="shared" si="51"/>
+        <v>npm-run-all dev:plan-phase:plan:report:action</v>
       </c>
       <c r="K109" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "dev:plan-phase:update:report": "date &amp;&amp; time npm-run-all dev:plan-phase:update:report:action",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "dev:plan-phase:plan:report": "date &amp;&amp; time npm-run-all dev:plan-phase:plan:report:action",</v>
       </c>
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
       <c r="N109" s="2" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>npm-run-all</v>
       </c>
       <c r="O109" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P109" t="str">
-        <f t="shared" si="56"/>
-        <v>dev:plan-phase:update:report:action</v>
+        <f t="shared" ref="P109:P111" si="64" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I109,"action")</f>
+        <v>dev:plan-phase:plan:report:action</v>
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>2</v>
-      </c>
       <c r="B110">
-        <v>13</v>
-      </c>
-      <c r="C110" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="D110" t="s">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="F110" t="s">
+        <v>55</v>
       </c>
       <c r="I110" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>dev:code-phase</v>
+        <f t="shared" si="54"/>
+        <v>dev:plan-phase:update</v>
       </c>
       <c r="J110" t="str">
-        <f t="shared" si="43"/>
-        <v>npm-run-all dev:code-phase:*</v>
+        <f t="shared" si="51"/>
+        <v>npm-run-all dev:plan-phase:update:*</v>
       </c>
       <c r="K110" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "dev:code-phase": "date &amp;&amp; time npm-run-all dev:code-phase:*",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "dev:plan-phase:update": "date &amp;&amp; time npm-run-all dev:plan-phase:update:*",</v>
       </c>
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
       <c r="N110" s="2" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>npm-run-all</v>
       </c>
       <c r="O110" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P110" t="str">
-        <f t="shared" si="55"/>
-        <v>dev:code-phase:*</v>
+        <f t="shared" si="63"/>
+        <v>dev:plan-phase:update:*</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
@@ -4284,199 +4276,205 @@
         <v>109</v>
       </c>
       <c r="E111" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F111" t="s">
-        <v>87</v>
+        <v>55</v>
+      </c>
+      <c r="G111" t="s">
+        <v>11</v>
       </c>
       <c r="I111" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>dev:code-phase:code</v>
+        <f t="shared" si="54"/>
+        <v>dev:plan-phase:update:report</v>
       </c>
       <c r="J111" t="str">
-        <f t="shared" si="43"/>
-        <v>npm-run-all dev:code-phase:code:*</v>
+        <f t="shared" si="51"/>
+        <v>npm-run-all dev:plan-phase:update:report:action</v>
       </c>
       <c r="K111" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "dev:code-phase:code": "date &amp;&amp; time npm-run-all dev:code-phase:code:*",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "dev:plan-phase:update:report": "date &amp;&amp; time npm-run-all dev:plan-phase:update:report:action",</v>
       </c>
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
       <c r="N111" s="2" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>npm-run-all</v>
       </c>
       <c r="O111" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P111" t="str">
-        <f t="shared" si="55"/>
-        <v>dev:code-phase:code:*</v>
+        <f t="shared" si="64"/>
+        <v>dev:plan-phase:update:report:action</v>
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>2</v>
+      </c>
+      <c r="B112">
+        <v>13</v>
+      </c>
+      <c r="C112" t="s">
+        <v>119</v>
+      </c>
       <c r="D112" t="s">
         <v>109</v>
       </c>
       <c r="E112" t="s">
         <v>113</v>
       </c>
-      <c r="F112" t="s">
-        <v>87</v>
-      </c>
-      <c r="G112" t="s">
-        <v>11</v>
-      </c>
       <c r="I112" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>dev:code-phase:code:report</v>
+        <f t="shared" si="54"/>
+        <v>dev:code-phase</v>
       </c>
       <c r="J112" t="str">
-        <f t="shared" si="43"/>
-        <v>npm-run-all dev:code-phase:code:report:action</v>
+        <f t="shared" si="51"/>
+        <v>npm-run-all dev:code-phase:*</v>
       </c>
       <c r="K112" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "dev:code-phase:code:report": "date &amp;&amp; time npm-run-all dev:code-phase:code:report:action",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "dev:code-phase": "date &amp;&amp; time npm-run-all dev:code-phase:*",</v>
       </c>
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
       <c r="N112" s="2" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>npm-run-all</v>
       </c>
       <c r="O112" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P112" t="str">
-        <f t="shared" ref="P112" si="57" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I112,"action")</f>
-        <v>dev:code-phase:code:report:action</v>
+        <f t="shared" si="63"/>
+        <v>dev:code-phase:*</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>3</v>
-      </c>
-      <c r="C113" t="s">
-        <v>120</v>
-      </c>
       <c r="D113" t="s">
         <v>109</v>
       </c>
       <c r="E113" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="F113" t="s">
+        <v>87</v>
       </c>
       <c r="I113" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>dev:build-phase</v>
+        <f t="shared" si="54"/>
+        <v>dev:code-phase:code</v>
       </c>
       <c r="J113" t="str">
-        <f t="shared" si="43"/>
-        <v>npm-run-all dev:build-phase:*</v>
+        <f t="shared" si="51"/>
+        <v>npm-run-all dev:code-phase:code:*</v>
       </c>
       <c r="K113" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "dev:build-phase": "date &amp;&amp; time npm-run-all dev:build-phase:*",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "dev:code-phase:code": "date &amp;&amp; time npm-run-all dev:code-phase:code:*",</v>
       </c>
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
       <c r="N113" s="2" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>npm-run-all</v>
       </c>
       <c r="O113" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P113" t="str">
-        <f t="shared" si="55"/>
-        <v>dev:build-phase:*</v>
+        <f t="shared" si="63"/>
+        <v>dev:code-phase:code:*</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B114">
-        <v>1</v>
-      </c>
       <c r="D114" t="s">
         <v>109</v>
       </c>
       <c r="E114" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>5</v>
+        <v>87</v>
+      </c>
+      <c r="G114" t="s">
+        <v>11</v>
       </c>
       <c r="I114" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>dev:build-phase:install</v>
+        <f t="shared" si="54"/>
+        <v>dev:code-phase:code:report</v>
       </c>
       <c r="J114" t="str">
-        <f t="shared" si="43"/>
-        <v>npm-run-all dev:build-phase:install:*</v>
+        <f t="shared" si="51"/>
+        <v>npm-run-all dev:code-phase:code:report:action</v>
       </c>
       <c r="K114" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "dev:build-phase:install": "date &amp;&amp; time npm-run-all dev:build-phase:install:*",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "dev:code-phase:code:report": "date &amp;&amp; time npm-run-all dev:code-phase:code:report:action",</v>
       </c>
       <c r="L114" s="2"/>
       <c r="M114" s="2"/>
       <c r="N114" s="2" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>npm-run-all</v>
       </c>
       <c r="O114" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P114" t="str">
-        <f t="shared" si="55"/>
-        <v>dev:build-phase:install:*</v>
+        <f t="shared" ref="P114" si="65" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I114,"action")</f>
+        <v>dev:code-phase:code:report:action</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>3</v>
+      </c>
+      <c r="C115" t="s">
+        <v>120</v>
+      </c>
       <c r="D115" t="s">
         <v>109</v>
       </c>
       <c r="E115" t="s">
         <v>112</v>
       </c>
-      <c r="F115" t="s">
-        <v>5</v>
-      </c>
-      <c r="G115" t="s">
-        <v>32</v>
-      </c>
       <c r="I115" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>dev:build-phase:install:prepare</v>
+        <f t="shared" si="54"/>
+        <v>dev:build-phase</v>
       </c>
       <c r="J115" t="str">
-        <f t="shared" si="43"/>
-        <v>npm-run-all dev:build-phase:install:prepare:action</v>
+        <f t="shared" si="51"/>
+        <v>npm-run-all dev:build-phase:*</v>
       </c>
       <c r="K115" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "dev:build-phase:install:prepare": "date &amp;&amp; time npm-run-all dev:build-phase:install:prepare:action",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "dev:build-phase": "date &amp;&amp; time npm-run-all dev:build-phase:*",</v>
       </c>
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
       <c r="N115" s="2" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>npm-run-all</v>
       </c>
       <c r="O115" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P115" t="str">
-        <f t="shared" ref="P115" si="58" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I115,"action")</f>
-        <v>dev:build-phase:install:prepare:action</v>
+        <f t="shared" si="63"/>
+        <v>dev:build-phase:*</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>1</v>
+      </c>
       <c r="D116" t="s">
         <v>109</v>
       </c>
@@ -4486,34 +4484,31 @@
       <c r="F116" t="s">
         <v>5</v>
       </c>
-      <c r="G116" t="s">
-        <v>7</v>
-      </c>
       <c r="I116" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>dev:build-phase:install:package</v>
+        <f t="shared" si="54"/>
+        <v>dev:build-phase:install</v>
       </c>
       <c r="J116" t="str">
-        <f t="shared" si="43"/>
-        <v>npm-run-all dev:build-phase:install:package:*</v>
+        <f t="shared" si="51"/>
+        <v>npm-run-all dev:build-phase:install:*</v>
       </c>
       <c r="K116" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "dev:build-phase:install:package": "date &amp;&amp; time npm-run-all dev:build-phase:install:package:*",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "dev:build-phase:install": "date &amp;&amp; time npm-run-all dev:build-phase:install:*",</v>
       </c>
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
       <c r="N116" s="2" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>npm-run-all</v>
       </c>
       <c r="O116" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P116" t="str">
-        <f t="shared" si="55"/>
-        <v>dev:build-phase:install:package:*</v>
+        <f t="shared" si="63"/>
+        <v>dev:build-phase:install:*</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
@@ -4527,32 +4522,33 @@
         <v>5</v>
       </c>
       <c r="G117" t="s">
-        <v>7</v>
-      </c>
-      <c r="H117" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="I117" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>dev:build-phase:install:package:environment</v>
+        <f t="shared" si="54"/>
+        <v>dev:build-phase:install:prepare</v>
       </c>
       <c r="J117" t="str">
-        <f t="shared" si="43"/>
-        <v>:</v>
+        <f t="shared" si="51"/>
+        <v>npm-run-all dev:build-phase:install:prepare:action</v>
       </c>
       <c r="K117" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "dev:build-phase:install:package:environment": ":",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "dev:build-phase:install:prepare": "date &amp;&amp; time npm-run-all dev:build-phase:install:prepare:action",</v>
       </c>
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
       <c r="N117" s="2" t="str">
-        <f t="shared" si="53"/>
-        <v/>
+        <f t="shared" si="61"/>
+        <v>npm-run-all</v>
       </c>
       <c r="O117" s="2" t="str">
-        <f t="shared" si="47"/>
-        <v xml:space="preserve"> </v>
+        <f t="shared" si="55"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P117" t="str">
+        <f t="shared" ref="P117" si="66" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I117,"action")</f>
+        <v>dev:build-phase:install:prepare:action</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
@@ -4568,34 +4564,31 @@
       <c r="G118" t="s">
         <v>7</v>
       </c>
-      <c r="H118" t="s">
-        <v>7</v>
-      </c>
       <c r="I118" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>dev:build-phase:install:package:package</v>
+        <f t="shared" si="54"/>
+        <v>dev:build-phase:install:package</v>
       </c>
       <c r="J118" t="str">
-        <f t="shared" si="43"/>
-        <v>npm-run-all dev:build-phase:install:package:package:action</v>
+        <f t="shared" si="51"/>
+        <v>npm-run-all dev:build-phase:install:package:*</v>
       </c>
       <c r="K118" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "dev:build-phase:install:package:package": "date &amp;&amp; time npm-run-all dev:build-phase:install:package:package:action",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "dev:build-phase:install:package": "date &amp;&amp; time npm-run-all dev:build-phase:install:package:*",</v>
       </c>
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
       <c r="N118" s="2" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>npm-run-all</v>
       </c>
       <c r="O118" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P118" t="str">
-        <f t="shared" ref="P118:P119" si="59" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I118,"action")</f>
-        <v>dev:build-phase:install:package:package:action</v>
+        <f t="shared" si="63"/>
+        <v>dev:build-phase:install:package:*</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
@@ -4609,39 +4602,35 @@
         <v>5</v>
       </c>
       <c r="G119" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="H119" t="s">
+        <v>6</v>
       </c>
       <c r="I119" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>dev:build-phase:install:report</v>
+        <f t="shared" si="54"/>
+        <v>dev:build-phase:install:package:environment</v>
       </c>
       <c r="J119" t="str">
-        <f t="shared" si="43"/>
-        <v>npm-run-all dev:build-phase:install:report:action</v>
+        <f t="shared" si="51"/>
+        <v>:</v>
       </c>
       <c r="K119" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "dev:build-phase:install:report": "date &amp;&amp; time npm-run-all dev:build-phase:install:report:action",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "dev:build-phase:install:package:environment": ":",</v>
       </c>
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
       <c r="N119" s="2" t="str">
-        <f t="shared" si="53"/>
-        <v>npm-run-all</v>
+        <f t="shared" si="61"/>
+        <v/>
       </c>
       <c r="O119" s="2" t="str">
-        <f t="shared" si="47"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P119" t="str">
-        <f t="shared" si="59"/>
-        <v>dev:build-phase:install:report:action</v>
+        <f t="shared" si="55"/>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B120">
-        <v>2</v>
-      </c>
       <c r="D120" t="s">
         <v>109</v>
       </c>
@@ -4649,33 +4638,39 @@
         <v>112</v>
       </c>
       <c r="F120" t="s">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="G120" t="s">
+        <v>7</v>
+      </c>
+      <c r="H120" t="s">
+        <v>7</v>
       </c>
       <c r="I120" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>dev:build-phase:build</v>
+        <f t="shared" si="54"/>
+        <v>dev:build-phase:install:package:package</v>
       </c>
       <c r="J120" t="str">
-        <f t="shared" si="43"/>
-        <v>npm-run-all dev:build-phase:build:*</v>
+        <f t="shared" si="51"/>
+        <v>npm-run-all dev:build-phase:install:package:package:action</v>
       </c>
       <c r="K120" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "dev:build-phase:build": "date &amp;&amp; time npm-run-all dev:build-phase:build:*",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "dev:build-phase:install:package:package": "date &amp;&amp; time npm-run-all dev:build-phase:install:package:package:action",</v>
       </c>
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
       <c r="N120" s="2" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>npm-run-all</v>
       </c>
       <c r="O120" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P120" t="str">
-        <f t="shared" si="55"/>
-        <v>dev:build-phase:build:*</v>
+        <f t="shared" ref="P120:P121" si="67" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I120,"action")</f>
+        <v>dev:build-phase:install:package:package:action</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
@@ -4686,39 +4681,42 @@
         <v>112</v>
       </c>
       <c r="F121" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G121" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I121" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>dev:build-phase:build:package</v>
+        <f t="shared" si="54"/>
+        <v>dev:build-phase:install:report</v>
       </c>
       <c r="J121" t="str">
-        <f t="shared" si="43"/>
-        <v>npm-run-all dev:build-phase:build:package:action</v>
+        <f t="shared" si="51"/>
+        <v>npm-run-all dev:build-phase:install:report:action</v>
       </c>
       <c r="K121" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "dev:build-phase:build:package": "date &amp;&amp; time npm-run-all dev:build-phase:build:package:action",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "dev:build-phase:install:report": "date &amp;&amp; time npm-run-all dev:build-phase:install:report:action",</v>
       </c>
       <c r="L121" s="2"/>
       <c r="M121" s="2"/>
       <c r="N121" s="2" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>npm-run-all</v>
       </c>
       <c r="O121" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P121" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I121,"action")</f>
-        <v>dev:build-phase:build:package:action</v>
+        <f t="shared" si="67"/>
+        <v>dev:build-phase:install:report:action</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>2</v>
+      </c>
       <c r="D122" t="s">
         <v>109</v>
       </c>
@@ -4728,77 +4726,71 @@
       <c r="F122" t="s">
         <v>1</v>
       </c>
-      <c r="G122" t="s">
-        <v>11</v>
-      </c>
       <c r="I122" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>dev:build-phase:build:report</v>
+        <f t="shared" si="54"/>
+        <v>dev:build-phase:build</v>
       </c>
       <c r="J122" t="str">
-        <f t="shared" si="43"/>
-        <v>npm-run-all dev:build-phase:build:report:action</v>
+        <f t="shared" si="51"/>
+        <v>npm-run-all dev:build-phase:build:*</v>
       </c>
       <c r="K122" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "dev:build-phase:build:report": "date &amp;&amp; time npm-run-all dev:build-phase:build:report:action",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "dev:build-phase:build": "date &amp;&amp; time npm-run-all dev:build-phase:build:*",</v>
       </c>
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
       <c r="N122" s="2" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>npm-run-all</v>
       </c>
       <c r="O122" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P122" t="str">
-        <f t="shared" ref="P122" si="60" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I122,"action")</f>
-        <v>dev:build-phase:build:report:action</v>
+        <f t="shared" si="63"/>
+        <v>dev:build-phase:build:*</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>4</v>
-      </c>
-      <c r="B123">
-        <v>3</v>
-      </c>
-      <c r="C123" t="s">
-        <v>116</v>
-      </c>
       <c r="D123" t="s">
         <v>109</v>
       </c>
       <c r="E123" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="F123" t="s">
+        <v>1</v>
+      </c>
+      <c r="G123" t="s">
+        <v>7</v>
       </c>
       <c r="I123" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>dev:test-phase</v>
+        <f t="shared" si="54"/>
+        <v>dev:build-phase:build:package</v>
       </c>
       <c r="J123" t="str">
-        <f t="shared" si="43"/>
-        <v>npm-run-all dev:test-phase:*</v>
+        <f t="shared" si="51"/>
+        <v>npm-run-all dev:build-phase:build:package:action</v>
       </c>
       <c r="K123" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "dev:test-phase": "date &amp;&amp; time npm-run-all dev:test-phase:*",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "dev:build-phase:build:package": "date &amp;&amp; time npm-run-all dev:build-phase:build:package:action",</v>
       </c>
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
       <c r="N123" s="2" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>npm-run-all</v>
       </c>
       <c r="O123" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P123" t="str">
-        <f t="shared" ref="P123:P125" si="61">CONCATENATE(IF(CODE(I123)-CODE("a")&lt;0,LOWER(LEFT(I123,IF(ISERR(FIND(":",I123)),LEN(I123)+1,FIND(":",I123))-1)),I123),":*")</f>
-        <v>dev:test-phase:*</v>
+        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I123,"action")</f>
+        <v>dev:build-phase:build:package:action</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
@@ -4806,76 +4798,82 @@
         <v>109</v>
       </c>
       <c r="E124" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F124" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G124" t="s">
+        <v>11</v>
       </c>
       <c r="I124" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>dev:test-phase:test</v>
+        <f t="shared" si="54"/>
+        <v>dev:build-phase:build:report</v>
       </c>
       <c r="J124" t="str">
-        <f t="shared" si="43"/>
-        <v>npm-run-all dev:test-phase:test:*</v>
+        <f t="shared" si="51"/>
+        <v>npm-run-all dev:build-phase:build:report:action</v>
       </c>
       <c r="K124" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "dev:test-phase:test": "date &amp;&amp; time npm-run-all dev:test-phase:test:*",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "dev:build-phase:build:report": "date &amp;&amp; time npm-run-all dev:build-phase:build:report:action",</v>
       </c>
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
       <c r="N124" s="2" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>npm-run-all</v>
       </c>
       <c r="O124" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P124" t="str">
-        <f t="shared" si="61"/>
-        <v>dev:test-phase:test:*</v>
+        <f t="shared" ref="P124" si="68" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I124,"action")</f>
+        <v>dev:build-phase:build:report:action</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>4</v>
+      </c>
+      <c r="B125">
+        <v>3</v>
+      </c>
+      <c r="C125" t="s">
+        <v>116</v>
+      </c>
       <c r="D125" t="s">
         <v>109</v>
       </c>
       <c r="E125" t="s">
         <v>111</v>
       </c>
-      <c r="F125" t="s">
-        <v>2</v>
-      </c>
-      <c r="G125" t="s">
-        <v>7</v>
-      </c>
       <c r="I125" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>dev:test-phase:test:package</v>
+        <f t="shared" si="54"/>
+        <v>dev:test-phase</v>
       </c>
       <c r="J125" t="str">
-        <f t="shared" si="43"/>
-        <v>npm-run-all dev:test-phase:test:package:*</v>
+        <f t="shared" si="51"/>
+        <v>npm-run-all dev:test-phase:*</v>
       </c>
       <c r="K125" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "dev:test-phase:test:package": "date &amp;&amp; time npm-run-all dev:test-phase:test:package:*",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "dev:test-phase": "date &amp;&amp; time npm-run-all dev:test-phase:*",</v>
       </c>
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
       <c r="N125" s="2" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>npm-run-all</v>
       </c>
       <c r="O125" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P125" t="str">
-        <f t="shared" si="61"/>
-        <v>dev:test-phase:test:package:*</v>
+        <f t="shared" ref="P125:P127" si="69">CONCATENATE(IF(CODE(I125)-CODE("a")&lt;0,LOWER(LEFT(I125,IF(ISERR(FIND(":",I125)),LEN(I125)+1,FIND(":",I125))-1)),I125),":*")</f>
+        <v>dev:test-phase:*</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
@@ -4888,37 +4886,31 @@
       <c r="F126" t="s">
         <v>2</v>
       </c>
-      <c r="G126" t="s">
-        <v>7</v>
-      </c>
-      <c r="H126" t="s">
-        <v>8</v>
-      </c>
       <c r="I126" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>dev:test-phase:test:package:vulnerability</v>
+        <f t="shared" si="54"/>
+        <v>dev:test-phase:test</v>
       </c>
       <c r="J126" t="str">
-        <f t="shared" si="43"/>
-        <v>npm-run-all dev:test-phase:test:package:vulnerability:action</v>
+        <f t="shared" si="51"/>
+        <v>npm-run-all dev:test-phase:test:*</v>
       </c>
       <c r="K126" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "dev:test-phase:test:package:vulnerability": "date &amp;&amp; time npm-run-all dev:test-phase:test:package:vulnerability:action",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "dev:test-phase:test": "date &amp;&amp; time npm-run-all dev:test-phase:test:*",</v>
       </c>
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
       <c r="N126" s="2" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>npm-run-all</v>
       </c>
       <c r="O126" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P126" t="str">
-        <f t="shared" ref="P126" si="62" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I126,"action")</f>
-        <v>dev:test-phase:test:package:vulnerability:action</v>
+        <f t="shared" si="69"/>
+        <v>dev:test-phase:test:*</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
@@ -4934,34 +4926,31 @@
       <c r="G127" t="s">
         <v>7</v>
       </c>
-      <c r="H127" t="s">
-        <v>9</v>
-      </c>
       <c r="I127" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>dev:test-phase:test:package:unit</v>
+        <f t="shared" si="54"/>
+        <v>dev:test-phase:test:package</v>
       </c>
       <c r="J127" t="str">
-        <f t="shared" si="43"/>
-        <v>npm-run-all dev:test-phase:test:package:unit:action</v>
+        <f t="shared" si="51"/>
+        <v>npm-run-all dev:test-phase:test:package:*</v>
       </c>
       <c r="K127" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "dev:test-phase:test:package:unit": "date &amp;&amp; time npm-run-all dev:test-phase:test:package:unit:action",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "dev:test-phase:test:package": "date &amp;&amp; time npm-run-all dev:test-phase:test:package:*",</v>
       </c>
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
       <c r="N127" s="2" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>npm-run-all</v>
       </c>
       <c r="O127" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P127" t="str">
-        <f t="shared" ref="P127:P129" si="63" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I127,"action")</f>
-        <v>dev:test-phase:test:package:unit:action</v>
+        <f t="shared" si="69"/>
+        <v>dev:test-phase:test:package:*</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
@@ -4978,33 +4967,33 @@
         <v>7</v>
       </c>
       <c r="H128" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I128" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>dev:test-phase:test:package:integration</v>
+        <f t="shared" si="54"/>
+        <v>dev:test-phase:test:package:vulnerability</v>
       </c>
       <c r="J128" t="str">
-        <f t="shared" si="43"/>
-        <v>npm-run-all dev:test-phase:test:package:integration:action</v>
+        <f t="shared" si="51"/>
+        <v>npm-run-all dev:test-phase:test:package:vulnerability:action</v>
       </c>
       <c r="K128" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "dev:test-phase:test:package:integration": "date &amp;&amp; time npm-run-all dev:test-phase:test:package:integration:action",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "dev:test-phase:test:package:vulnerability": "date &amp;&amp; time npm-run-all dev:test-phase:test:package:vulnerability:action",</v>
       </c>
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
       <c r="N128" s="2" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>npm-run-all</v>
       </c>
       <c r="O128" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P128" t="str">
-        <f t="shared" si="63"/>
-        <v>dev:test-phase:test:package:integration:action</v>
+        <f t="shared" ref="P128" si="70" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I128,"action")</f>
+        <v>dev:test-phase:test:package:vulnerability:action</v>
       </c>
     </row>
     <row r="129" spans="2:16" x14ac:dyDescent="0.25">
@@ -5018,33 +5007,36 @@
         <v>2</v>
       </c>
       <c r="G129" t="s">
-        <v>75</v>
+        <v>7</v>
+      </c>
+      <c r="H129" t="s">
+        <v>9</v>
       </c>
       <c r="I129" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>dev:test-phase:test:measure</v>
+        <f t="shared" si="54"/>
+        <v>dev:test-phase:test:package:unit</v>
       </c>
       <c r="J129" t="str">
-        <f t="shared" si="43"/>
-        <v>npm-run-all dev:test-phase:test:measure:action</v>
+        <f t="shared" si="51"/>
+        <v>npm-run-all dev:test-phase:test:package:unit:action</v>
       </c>
       <c r="K129" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "dev:test-phase:test:measure": "date &amp;&amp; time npm-run-all dev:test-phase:test:measure:action",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "dev:test-phase:test:package:unit": "date &amp;&amp; time npm-run-all dev:test-phase:test:package:unit:action",</v>
       </c>
       <c r="L129" s="2"/>
       <c r="M129" s="2"/>
       <c r="N129" s="2" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>npm-run-all</v>
       </c>
       <c r="O129" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P129" t="str">
-        <f t="shared" si="63"/>
-        <v>dev:test-phase:test:measure:action</v>
+        <f t="shared" ref="P129:P131" si="71" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I129,"action")</f>
+        <v>dev:test-phase:test:package:unit:action</v>
       </c>
     </row>
     <row r="130" spans="2:16" x14ac:dyDescent="0.25">
@@ -5058,35 +5050,39 @@
         <v>2</v>
       </c>
       <c r="G130" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="H130" t="s">
+        <v>10</v>
       </c>
       <c r="I130" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>dev:test-phase:test:report</v>
+        <f t="shared" si="54"/>
+        <v>dev:test-phase:test:package:integration</v>
       </c>
       <c r="J130" t="str">
-        <f t="shared" si="43"/>
-        <v>:</v>
+        <f t="shared" si="51"/>
+        <v>npm-run-all dev:test-phase:test:package:integration:action</v>
       </c>
       <c r="K130" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "dev:test-phase:test:report": ":",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "dev:test-phase:test:package:integration": "date &amp;&amp; time npm-run-all dev:test-phase:test:package:integration:action",</v>
       </c>
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
       <c r="N130" s="2" t="str">
-        <f t="shared" si="53"/>
-        <v/>
+        <f t="shared" si="61"/>
+        <v>npm-run-all</v>
       </c>
       <c r="O130" s="2" t="str">
-        <f t="shared" si="47"/>
-        <v xml:space="preserve"> </v>
+        <f t="shared" si="55"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P130" t="str">
+        <f t="shared" si="71"/>
+        <v>dev:test-phase:test:package:integration:action</v>
       </c>
     </row>
     <row r="131" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B131">
-        <v>4</v>
-      </c>
       <c r="D131" t="s">
         <v>109</v>
       </c>
@@ -5094,29 +5090,36 @@
         <v>111</v>
       </c>
       <c r="F131" t="s">
-        <v>16</v>
+        <v>2</v>
+      </c>
+      <c r="G131" t="s">
+        <v>75</v>
       </c>
       <c r="I131" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>dev:test-phase:codecover</v>
+        <f t="shared" si="54"/>
+        <v>dev:test-phase:test:measure</v>
       </c>
       <c r="J131" t="str">
-        <f t="shared" si="43"/>
-        <v>:</v>
+        <f t="shared" si="51"/>
+        <v>npm-run-all dev:test-phase:test:measure:action</v>
       </c>
       <c r="K131" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "dev:test-phase:codecover": ":",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "dev:test-phase:test:measure": "date &amp;&amp; time npm-run-all dev:test-phase:test:measure:action",</v>
       </c>
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
       <c r="N131" s="2" t="str">
-        <f t="shared" si="53"/>
-        <v/>
+        <f t="shared" si="61"/>
+        <v>npm-run-all</v>
       </c>
       <c r="O131" s="2" t="str">
-        <f t="shared" si="47"/>
-        <v xml:space="preserve"> </v>
+        <f t="shared" si="55"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P131" t="str">
+        <f t="shared" si="71"/>
+        <v>dev:test-phase:test:measure:action</v>
       </c>
     </row>
     <row r="132" spans="2:16" x14ac:dyDescent="0.25">
@@ -5127,39 +5130,38 @@
         <v>111</v>
       </c>
       <c r="F132" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G132" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I132" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>dev:test-phase:codecover:package</v>
+        <f t="shared" si="54"/>
+        <v>dev:test-phase:test:report</v>
       </c>
       <c r="J132" t="str">
-        <f t="shared" si="43"/>
-        <v>npm-run-all dev:test-phase:codecover:package:action</v>
+        <f t="shared" si="51"/>
+        <v>:</v>
       </c>
       <c r="K132" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "dev:test-phase:codecover:package": "date &amp;&amp; time npm-run-all dev:test-phase:codecover:package:action",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "dev:test-phase:test:report": ":",</v>
       </c>
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
       <c r="N132" s="2" t="str">
-        <f t="shared" si="53"/>
-        <v>npm-run-all</v>
+        <f t="shared" si="61"/>
+        <v/>
       </c>
       <c r="O132" s="2" t="str">
-        <f t="shared" si="47"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P132" t="str">
-        <f t="shared" ref="P132" si="64" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I132,"action")</f>
-        <v>dev:test-phase:codecover:package:action</v>
+        <f t="shared" si="55"/>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="133" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <v>4</v>
+      </c>
       <c r="D133" t="s">
         <v>109</v>
       </c>
@@ -5169,36 +5171,30 @@
       <c r="F133" t="s">
         <v>16</v>
       </c>
-      <c r="G133" t="s">
-        <v>11</v>
-      </c>
       <c r="I133" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>dev:test-phase:codecover:report</v>
+        <f t="shared" si="54"/>
+        <v>dev:test-phase:codecover</v>
       </c>
       <c r="J133" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>:</v>
       </c>
       <c r="K133" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "dev:test-phase:codecover:report": ":",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "dev:test-phase:codecover": ":",</v>
       </c>
       <c r="L133" s="2"/>
       <c r="M133" s="2"/>
       <c r="N133" s="2" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="O133" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="134" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B134">
-        <v>5</v>
-      </c>
       <c r="D134" t="s">
         <v>109</v>
       </c>
@@ -5206,33 +5202,36 @@
         <v>111</v>
       </c>
       <c r="F134" t="s">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="G134" t="s">
+        <v>7</v>
       </c>
       <c r="I134" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>dev:test-phase:document</v>
+        <f t="shared" si="54"/>
+        <v>dev:test-phase:codecover:package</v>
       </c>
       <c r="J134" t="str">
-        <f t="shared" si="43"/>
-        <v>npm-run-all dev:test-phase:document:*</v>
+        <f t="shared" si="51"/>
+        <v>npm-run-all dev:test-phase:codecover:package:action</v>
       </c>
       <c r="K134" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "dev:test-phase:document": "date &amp;&amp; time npm-run-all dev:test-phase:document:*",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "dev:test-phase:codecover:package": "date &amp;&amp; time npm-run-all dev:test-phase:codecover:package:action",</v>
       </c>
       <c r="L134" s="2"/>
       <c r="M134" s="2"/>
       <c r="N134" s="2" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>npm-run-all</v>
       </c>
       <c r="O134" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P134" t="str">
-        <f t="shared" ref="P134" si="65">CONCATENATE(IF(CODE(I134)-CODE("a")&lt;0,LOWER(LEFT(I134,IF(ISERR(FIND(":",I134)),LEN(I134)+1,FIND(":",I134))-1)),I134),":*")</f>
-        <v>dev:test-phase:document:*</v>
+        <f t="shared" ref="P134" si="72" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I134,"action")</f>
+        <v>dev:test-phase:codecover:package:action</v>
       </c>
     </row>
     <row r="135" spans="2:16" x14ac:dyDescent="0.25">
@@ -5243,39 +5242,38 @@
         <v>111</v>
       </c>
       <c r="F135" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G135" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I135" s="1" t="str">
-        <f t="shared" ref="I135:I168" si="66" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D135:H135)</f>
-        <v>dev:test-phase:document:package</v>
+        <f t="shared" si="54"/>
+        <v>dev:test-phase:codecover:report</v>
       </c>
       <c r="J135" t="str">
-        <f t="shared" si="43"/>
-        <v>npm-run-all dev:test-phase:document:package:action</v>
+        <f t="shared" si="51"/>
+        <v>:</v>
       </c>
       <c r="K135" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "dev:test-phase:document:package": "date &amp;&amp; time npm-run-all dev:test-phase:document:package:action",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "dev:test-phase:codecover:report": ":",</v>
       </c>
       <c r="L135" s="2"/>
       <c r="M135" s="2"/>
       <c r="N135" s="2" t="str">
-        <f t="shared" si="53"/>
-        <v>npm-run-all</v>
+        <f t="shared" si="61"/>
+        <v/>
       </c>
       <c r="O135" s="2" t="str">
-        <f t="shared" si="47"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P135" t="str">
-        <f t="shared" ref="P135" si="67" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I135,"action")</f>
-        <v>dev:test-phase:document:package:action</v>
+        <f t="shared" si="55"/>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="136" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>5</v>
+      </c>
       <c r="D136" t="s">
         <v>109</v>
       </c>
@@ -5285,36 +5283,34 @@
       <c r="F136" t="s">
         <v>3</v>
       </c>
-      <c r="G136" t="s">
-        <v>11</v>
-      </c>
       <c r="I136" s="1" t="str">
-        <f t="shared" si="66"/>
-        <v>dev:test-phase:document:report</v>
+        <f t="shared" si="54"/>
+        <v>dev:test-phase:document</v>
       </c>
       <c r="J136" t="str">
-        <f t="shared" si="43"/>
-        <v>:</v>
+        <f t="shared" si="51"/>
+        <v>npm-run-all dev:test-phase:document:*</v>
       </c>
       <c r="K136" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "dev:test-phase:document:report": ":",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "dev:test-phase:document": "date &amp;&amp; time npm-run-all dev:test-phase:document:*",</v>
       </c>
       <c r="L136" s="2"/>
       <c r="M136" s="2"/>
       <c r="N136" s="2" t="str">
-        <f t="shared" si="53"/>
-        <v/>
+        <f t="shared" si="61"/>
+        <v>npm-run-all</v>
       </c>
       <c r="O136" s="2" t="str">
-        <f t="shared" si="47"/>
-        <v xml:space="preserve"> </v>
+        <f t="shared" si="55"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P136" t="str">
+        <f t="shared" ref="P136" si="73">CONCATENATE(IF(CODE(I136)-CODE("a")&lt;0,LOWER(LEFT(I136,IF(ISERR(FIND(":",I136)),LEN(I136)+1,FIND(":",I136))-1)),I136),":*")</f>
+        <v>dev:test-phase:document:*</v>
       </c>
     </row>
     <row r="137" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B137">
-        <v>6</v>
-      </c>
       <c r="D137" t="s">
         <v>109</v>
       </c>
@@ -5322,33 +5318,36 @@
         <v>111</v>
       </c>
       <c r="F137" t="s">
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="G137" t="s">
+        <v>7</v>
       </c>
       <c r="I137" s="1" t="str">
-        <f t="shared" si="66"/>
-        <v>dev:test-phase:integrate</v>
+        <f t="shared" ref="I137:I170" si="74" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D137:H137)</f>
+        <v>dev:test-phase:document:package</v>
       </c>
       <c r="J137" t="str">
-        <f t="shared" si="43"/>
-        <v>npm-run-all dev:test-phase:integrate:*</v>
+        <f t="shared" si="51"/>
+        <v>npm-run-all dev:test-phase:document:package:action</v>
       </c>
       <c r="K137" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "dev:test-phase:integrate": "date &amp;&amp; time npm-run-all dev:test-phase:integrate:*",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "dev:test-phase:document:package": "date &amp;&amp; time npm-run-all dev:test-phase:document:package:action",</v>
       </c>
       <c r="L137" s="2"/>
       <c r="M137" s="2"/>
       <c r="N137" s="2" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>npm-run-all</v>
       </c>
       <c r="O137" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P137" t="str">
-        <f t="shared" ref="P137" si="68">CONCATENATE(IF(CODE(I137)-CODE("a")&lt;0,LOWER(LEFT(I137,IF(ISERR(FIND(":",I137)),LEN(I137)+1,FIND(":",I137))-1)),I137),":*")</f>
-        <v>dev:test-phase:integrate:*</v>
+        <f t="shared" ref="P137" si="75" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I137,"action")</f>
+        <v>dev:test-phase:document:package:action</v>
       </c>
     </row>
     <row r="138" spans="2:16" x14ac:dyDescent="0.25">
@@ -5359,39 +5358,38 @@
         <v>111</v>
       </c>
       <c r="F138" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="G138" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I138" s="1" t="str">
-        <f t="shared" si="66"/>
-        <v>dev:test-phase:integrate:package</v>
+        <f t="shared" si="74"/>
+        <v>dev:test-phase:document:report</v>
       </c>
       <c r="J138" t="str">
-        <f t="shared" si="43"/>
-        <v>npm-run-all dev:test-phase:integrate:package:action</v>
+        <f t="shared" si="51"/>
+        <v>:</v>
       </c>
       <c r="K138" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "dev:test-phase:integrate:package": "date &amp;&amp; time npm-run-all dev:test-phase:integrate:package:action",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "dev:test-phase:document:report": ":",</v>
       </c>
       <c r="L138" s="2"/>
       <c r="M138" s="2"/>
       <c r="N138" s="2" t="str">
-        <f t="shared" si="53"/>
-        <v>npm-run-all</v>
+        <f t="shared" si="61"/>
+        <v/>
       </c>
       <c r="O138" s="2" t="str">
-        <f t="shared" si="47"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P138" t="str">
-        <f t="shared" ref="P138" si="69" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I138,"action")</f>
-        <v>dev:test-phase:integrate:package:action</v>
+        <f t="shared" si="55"/>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="139" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <v>6</v>
+      </c>
       <c r="D139" t="s">
         <v>109</v>
       </c>
@@ -5401,30 +5399,31 @@
       <c r="F139" t="s">
         <v>23</v>
       </c>
-      <c r="G139" t="s">
-        <v>73</v>
-      </c>
       <c r="I139" s="1" t="str">
-        <f t="shared" si="66"/>
-        <v>dev:test-phase:integrate:copy</v>
+        <f t="shared" si="74"/>
+        <v>dev:test-phase:integrate</v>
       </c>
       <c r="J139" t="str">
-        <f t="shared" si="43"/>
-        <v>:</v>
+        <f t="shared" si="51"/>
+        <v>npm-run-all dev:test-phase:integrate:*</v>
       </c>
       <c r="K139" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "dev:test-phase:integrate:copy": ":",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "dev:test-phase:integrate": "date &amp;&amp; time npm-run-all dev:test-phase:integrate:*",</v>
       </c>
       <c r="L139" s="2"/>
       <c r="M139" s="2"/>
       <c r="N139" s="2" t="str">
-        <f t="shared" si="53"/>
-        <v/>
+        <f t="shared" si="61"/>
+        <v>npm-run-all</v>
       </c>
       <c r="O139" s="2" t="str">
-        <f t="shared" si="47"/>
-        <v xml:space="preserve"> </v>
+        <f t="shared" si="55"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P139" t="str">
+        <f t="shared" ref="P139" si="76">CONCATENATE(IF(CODE(I139)-CODE("a")&lt;0,LOWER(LEFT(I139,IF(ISERR(FIND(":",I139)),LEN(I139)+1,FIND(":",I139))-1)),I139),":*")</f>
+        <v>dev:test-phase:integrate:*</v>
       </c>
     </row>
     <row r="140" spans="2:16" x14ac:dyDescent="0.25">
@@ -5438,29 +5437,33 @@
         <v>23</v>
       </c>
       <c r="G140" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I140" s="1" t="str">
-        <f t="shared" si="66"/>
-        <v>dev:test-phase:integrate:test</v>
+        <f t="shared" si="74"/>
+        <v>dev:test-phase:integrate:package</v>
       </c>
       <c r="J140" t="str">
-        <f t="shared" si="43"/>
-        <v>:</v>
+        <f t="shared" si="51"/>
+        <v>npm-run-all dev:test-phase:integrate:package:action</v>
       </c>
       <c r="K140" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "dev:test-phase:integrate:test": ":",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "dev:test-phase:integrate:package": "date &amp;&amp; time npm-run-all dev:test-phase:integrate:package:action",</v>
       </c>
       <c r="L140" s="2"/>
       <c r="M140" s="2"/>
       <c r="N140" s="2" t="str">
-        <f t="shared" si="53"/>
-        <v/>
+        <f t="shared" si="61"/>
+        <v>npm-run-all</v>
       </c>
       <c r="O140" s="2" t="str">
-        <f t="shared" si="47"/>
-        <v xml:space="preserve"> </v>
+        <f t="shared" si="55"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P140" t="str">
+        <f t="shared" ref="P140" si="77" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I140,"action")</f>
+        <v>dev:test-phase:integrate:package:action</v>
       </c>
     </row>
     <row r="141" spans="2:16" x14ac:dyDescent="0.25">
@@ -5474,28 +5477,28 @@
         <v>23</v>
       </c>
       <c r="G141" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="I141" s="1" t="str">
-        <f t="shared" si="66"/>
-        <v>dev:test-phase:integrate:report</v>
+        <f t="shared" si="74"/>
+        <v>dev:test-phase:integrate:copy</v>
       </c>
       <c r="J141" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>:</v>
       </c>
       <c r="K141" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "dev:test-phase:integrate:report": ":",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "dev:test-phase:integrate:copy": ":",</v>
       </c>
       <c r="L141" s="2"/>
       <c r="M141" s="2"/>
       <c r="N141" s="2" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="O141" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -5507,28 +5510,31 @@
         <v>111</v>
       </c>
       <c r="F142" t="s">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="G142" t="s">
+        <v>2</v>
       </c>
       <c r="I142" s="1" t="str">
-        <f t="shared" ref="I142" si="70" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D142:H142)</f>
-        <v>dev:test-phase:report</v>
+        <f t="shared" si="74"/>
+        <v>dev:test-phase:integrate:test</v>
       </c>
       <c r="J142" t="str">
-        <f t="shared" ref="J142" si="71" xml:space="preserve"> IF(NOT(COUNTA(P142:V142)),":",_xlfn.TEXTJOIN(O142,TRUE,N142,_xlfn.TEXTJOIN(O142,TRUE,P142:V142)))</f>
+        <f t="shared" si="51"/>
         <v>:</v>
       </c>
       <c r="K142" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "dev:test-phase:report": ":",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "dev:test-phase:integrate:test": ":",</v>
       </c>
       <c r="L142" s="2"/>
       <c r="M142" s="2"/>
       <c r="N142" s="2" t="str">
-        <f t="shared" ref="N142" si="72">IF(ISBLANK(P142),"",IF(ISNUMBER(SEARCH(":*",P142)),$N$6,$N$4))</f>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="O142" s="2" t="str">
-        <f t="shared" ref="O142" si="73">IF(ISBLANK(N142),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" si="55"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -5537,169 +5543,172 @@
         <v>109</v>
       </c>
       <c r="E143" t="s">
+        <v>111</v>
+      </c>
+      <c r="F143" t="s">
+        <v>23</v>
+      </c>
+      <c r="G143" t="s">
         <v>11</v>
       </c>
       <c r="I143" s="1" t="str">
-        <f t="shared" ref="I143" si="74" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D143:H143)</f>
-        <v>dev:report</v>
+        <f t="shared" si="74"/>
+        <v>dev:test-phase:integrate:report</v>
       </c>
       <c r="J143" t="str">
-        <f t="shared" ref="J143" si="75" xml:space="preserve"> IF(NOT(COUNTA(P143:V143)),":",_xlfn.TEXTJOIN(O143,TRUE,N143,_xlfn.TEXTJOIN(O143,TRUE,P143:V143)))</f>
+        <f t="shared" si="51"/>
         <v>:</v>
       </c>
       <c r="K143" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "dev:report": ":",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "dev:test-phase:integrate:report": ":",</v>
       </c>
       <c r="L143" s="2"/>
       <c r="M143" s="2"/>
       <c r="N143" s="2" t="str">
-        <f t="shared" ref="N143" si="76">IF(ISBLANK(P143),"",IF(ISNUMBER(SEARCH(":*",P143)),$N$6,$N$4))</f>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="O143" s="2" t="str">
-        <f t="shared" ref="O143" si="77">IF(ISBLANK(N143),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" si="55"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="144" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D144" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="E144" t="s">
+        <v>111</v>
+      </c>
+      <c r="F144" t="s">
+        <v>11</v>
       </c>
       <c r="I144" s="1" t="str">
-        <f t="shared" si="66"/>
-        <v>ops</v>
+        <f t="shared" ref="I144" si="78" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D144:H144)</f>
+        <v>dev:test-phase:report</v>
       </c>
       <c r="J144" t="str">
-        <f t="shared" si="43"/>
-        <v>npm-run-all ops:*</v>
+        <f t="shared" ref="J144" si="79" xml:space="preserve"> IF(NOT(COUNTA(P144:V144)),":",_xlfn.TEXTJOIN(O144,TRUE,N144,_xlfn.TEXTJOIN(O144,TRUE,P144:V144)))</f>
+        <v>:</v>
       </c>
       <c r="K144" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">    "ops": "date &amp;&amp; time npm-run-all ops:*",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "dev:test-phase:report": ":",</v>
       </c>
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
       <c r="N144" s="2" t="str">
-        <f t="shared" ref="N144:N145" si="78">IF(ISBLANK(P144),"",IF(ISNUMBER(SEARCH(":*",P144)),$N$6,$N$4))</f>
-        <v>npm-run-all</v>
+        <f t="shared" ref="N144" si="80">IF(ISBLANK(P144),"",IF(ISNUMBER(SEARCH(":*",P144)),$N$6,$N$4))</f>
+        <v/>
       </c>
       <c r="O144" s="2" t="str">
-        <f t="shared" ref="O144" si="79">IF(ISBLANK(N144),CONCATENATE(" ",$O$4," ")," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P144" t="str">
-        <f>CONCATENATE(IF(CODE(I144)-CODE("a")&lt;0,LOWER(LEFT(I144,IF(ISERR(FIND(":",I144)),LEN(I144)+1,FIND(":",I144))-1)),I144),":*")</f>
-        <v>ops:*</v>
+        <f t="shared" ref="O144" si="81">IF(ISBLANK(N144),CONCATENATE(" ",$O$4," ")," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>5</v>
-      </c>
-      <c r="B145">
-        <v>7</v>
-      </c>
-      <c r="C145" t="s">
-        <v>117</v>
-      </c>
       <c r="D145" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E145" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="I145" s="1" t="str">
-        <f t="shared" si="66"/>
-        <v>ops:release</v>
+        <f t="shared" ref="I145" si="82" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D145:H145)</f>
+        <v>dev:report</v>
       </c>
       <c r="J145" t="str">
-        <f t="shared" si="43"/>
-        <v>npm-run-all ops:release:*</v>
+        <f t="shared" ref="J145" si="83" xml:space="preserve"> IF(NOT(COUNTA(P145:V145)),":",_xlfn.TEXTJOIN(O145,TRUE,N145,_xlfn.TEXTJOIN(O145,TRUE,P145:V145)))</f>
+        <v>:</v>
       </c>
       <c r="K145" t="str">
-        <f t="shared" ref="K145:K174" si="80">IF(ISBLANK(I145),"",CONCATENATE("    """,I145,""": ","""",IF(LEN(J145)&gt;1,CONCATENATE(IF(L145,"",CONCATENATE(N$3," ")),""),""),IF(M145,"echo ",""),J145,""","))</f>
-        <v xml:space="preserve">    "ops:release": "date &amp;&amp; time npm-run-all ops:release:*",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "dev:report": ":",</v>
       </c>
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
       <c r="N145" s="2" t="str">
-        <f t="shared" si="78"/>
-        <v>npm-run-all</v>
+        <f t="shared" ref="N145" si="84">IF(ISBLANK(P145),"",IF(ISNUMBER(SEARCH(":*",P145)),$N$6,$N$4))</f>
+        <v/>
       </c>
       <c r="O145" s="2" t="str">
-        <f t="shared" ref="O145" si="81">IF(ISBLANK(N145),CONCATENATE(" ",$O$4," ")," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P145" t="str">
-        <f>CONCATENATE(IF(CODE(I145)-CODE("a")&lt;0,LOWER(LEFT(I145,IF(ISERR(FIND(":",I145)),LEN(I145)+1,FIND(":",I145))-1)),I145),":*")</f>
-        <v>ops:release:*</v>
+        <f t="shared" ref="O145" si="85">IF(ISBLANK(N145),CONCATENATE(" ",$O$4," ")," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D146" t="s">
         <v>108</v>
       </c>
-      <c r="E146" t="s">
-        <v>81</v>
-      </c>
-      <c r="F146" t="s">
-        <v>7</v>
-      </c>
       <c r="I146" s="1" t="str">
-        <f t="shared" si="66"/>
-        <v>ops:release:package</v>
+        <f t="shared" si="74"/>
+        <v>ops</v>
       </c>
       <c r="J146" t="str">
-        <f t="shared" si="43"/>
-        <v>:</v>
+        <f t="shared" si="51"/>
+        <v>npm-run-all ops:*</v>
       </c>
       <c r="K146" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve">    "ops:release:package": ":",</v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">    "ops": "date &amp;&amp; time npm-run-all ops:*",</v>
       </c>
       <c r="L146" s="2"/>
       <c r="M146" s="2"/>
       <c r="N146" s="2" t="str">
-        <f t="shared" ref="N146:N168" si="82">IF(ISBLANK(P146),"",IF(ISNUMBER(SEARCH(":*",P146)),$N$6,$N$4))</f>
-        <v/>
+        <f t="shared" ref="N146:N147" si="86">IF(ISBLANK(P146),"",IF(ISNUMBER(SEARCH(":*",P146)),$N$6,$N$4))</f>
+        <v>npm-run-all</v>
       </c>
       <c r="O146" s="2" t="str">
-        <f t="shared" ref="O146:O162" si="83">IF(ISBLANK(N146),CONCATENATE(" ",$O$4," ")," ")</f>
-        <v xml:space="preserve"> </v>
+        <f t="shared" ref="O146" si="87">IF(ISBLANK(N146),CONCATENATE(" ",$O$4," ")," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P146" t="str">
+        <f>CONCATENATE(IF(CODE(I146)-CODE("a")&lt;0,LOWER(LEFT(I146,IF(ISERR(FIND(":",I146)),LEN(I146)+1,FIND(":",I146))-1)),I146),":*")</f>
+        <v>ops:*</v>
       </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>5</v>
+      </c>
+      <c r="B147">
+        <v>7</v>
+      </c>
+      <c r="C147" t="s">
+        <v>117</v>
+      </c>
       <c r="D147" t="s">
         <v>108</v>
       </c>
       <c r="E147" t="s">
         <v>81</v>
       </c>
-      <c r="F147" t="s">
-        <v>73</v>
-      </c>
       <c r="I147" s="1" t="str">
-        <f t="shared" si="66"/>
-        <v>ops:release:copy</v>
+        <f t="shared" si="74"/>
+        <v>ops:release</v>
       </c>
       <c r="J147" t="str">
-        <f t="shared" si="43"/>
-        <v>:</v>
+        <f t="shared" si="51"/>
+        <v>npm-run-all ops:release:*</v>
       </c>
       <c r="K147" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve">    "ops:release:copy": ":",</v>
+        <f t="shared" ref="K147:K176" si="88">IF(ISBLANK(I147),"",CONCATENATE("    """,I147,""": ","""",IF(LEN(J147)&gt;1,CONCATENATE(IF(L147,"",CONCATENATE(N$3," ")),""),""),IF(M147,"echo ",""),J147,""","))</f>
+        <v xml:space="preserve">    "ops:release": "date &amp;&amp; time npm-run-all ops:release:*",</v>
       </c>
       <c r="L147" s="2"/>
       <c r="M147" s="2"/>
       <c r="N147" s="2" t="str">
-        <f t="shared" si="82"/>
-        <v/>
+        <f t="shared" si="86"/>
+        <v>npm-run-all</v>
       </c>
       <c r="O147" s="2" t="str">
-        <f t="shared" si="83"/>
-        <v xml:space="preserve"> </v>
+        <f t="shared" ref="O147" si="89">IF(ISBLANK(N147),CONCATENATE(" ",$O$4," ")," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P147" t="str">
+        <f>CONCATENATE(IF(CODE(I147)-CODE("a")&lt;0,LOWER(LEFT(I147,IF(ISERR(FIND(":",I147)),LEN(I147)+1,FIND(":",I147))-1)),I147),":*")</f>
+        <v>ops:release:*</v>
       </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
@@ -5710,72 +5719,62 @@
         <v>81</v>
       </c>
       <c r="F148" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I148" s="1" t="str">
-        <f t="shared" si="66"/>
-        <v>ops:release:report</v>
+        <f t="shared" si="74"/>
+        <v>ops:release:package</v>
       </c>
       <c r="J148" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>:</v>
       </c>
       <c r="K148" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve">    "ops:release:report": ":",</v>
+        <f t="shared" si="88"/>
+        <v xml:space="preserve">    "ops:release:package": ":",</v>
       </c>
       <c r="L148" s="2"/>
       <c r="M148" s="2"/>
       <c r="N148" s="2" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" ref="N148:N170" si="90">IF(ISBLANK(P148),"",IF(ISNUMBER(SEARCH(":*",P148)),$N$6,$N$4))</f>
         <v/>
       </c>
       <c r="O148" s="2" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" ref="O148:O164" si="91">IF(ISBLANK(N148),CONCATENATE(" ",$O$4," ")," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>6</v>
-      </c>
-      <c r="B149">
-        <v>8</v>
-      </c>
-      <c r="C149" t="s">
-        <v>84</v>
-      </c>
       <c r="D149" t="s">
         <v>108</v>
       </c>
       <c r="E149" t="s">
-        <v>4</v>
+        <v>81</v>
+      </c>
+      <c r="F149" t="s">
+        <v>73</v>
       </c>
       <c r="I149" s="1" t="str">
-        <f t="shared" si="66"/>
-        <v>ops:deploy</v>
+        <f t="shared" si="74"/>
+        <v>ops:release:copy</v>
       </c>
       <c r="J149" t="str">
-        <f t="shared" si="43"/>
-        <v>npm-run-all ops:deploy:*</v>
+        <f t="shared" si="51"/>
+        <v>:</v>
       </c>
       <c r="K149" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve">    "ops:deploy": "date &amp;&amp; time npm-run-all ops:deploy:*",</v>
+        <f t="shared" si="88"/>
+        <v xml:space="preserve">    "ops:release:copy": ":",</v>
       </c>
       <c r="L149" s="2"/>
       <c r="M149" s="2"/>
       <c r="N149" s="2" t="str">
-        <f t="shared" si="82"/>
-        <v>npm-run-all</v>
+        <f t="shared" si="90"/>
+        <v/>
       </c>
       <c r="O149" s="2" t="str">
-        <f t="shared" si="83"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P149" t="str">
-        <f t="shared" ref="P149:P151" si="84">CONCATENATE(IF(CODE(I149)-CODE("a")&lt;0,LOWER(LEFT(I149,IF(ISERR(FIND(":",I149)),LEN(I149)+1,FIND(":",I149))-1)),I149),":*")</f>
-        <v>ops:deploy:*</v>
+        <f t="shared" si="91"/>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
@@ -5783,76 +5782,75 @@
         <v>108</v>
       </c>
       <c r="E150" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="F150" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I150" s="1" t="str">
-        <f t="shared" si="66"/>
-        <v>ops:deploy:package</v>
+        <f t="shared" si="74"/>
+        <v>ops:release:report</v>
       </c>
       <c r="J150" t="str">
-        <f t="shared" si="43"/>
-        <v>npm-run-all ops:deploy:package:*</v>
+        <f t="shared" si="51"/>
+        <v>:</v>
       </c>
       <c r="K150" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve">    "ops:deploy:package": "date &amp;&amp; time npm-run-all ops:deploy:package:*",</v>
+        <f t="shared" si="88"/>
+        <v xml:space="preserve">    "ops:release:report": ":",</v>
       </c>
       <c r="L150" s="2"/>
       <c r="M150" s="2"/>
       <c r="N150" s="2" t="str">
-        <f t="shared" si="82"/>
-        <v>npm-run-all</v>
+        <f t="shared" si="90"/>
+        <v/>
       </c>
       <c r="O150" s="2" t="str">
-        <f t="shared" si="83"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P150" t="str">
-        <f t="shared" si="84"/>
-        <v>ops:deploy:package:*</v>
+        <f t="shared" si="91"/>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>6</v>
+      </c>
+      <c r="B151">
+        <v>8</v>
+      </c>
+      <c r="C151" t="s">
+        <v>84</v>
+      </c>
       <c r="D151" t="s">
         <v>108</v>
       </c>
       <c r="E151" t="s">
         <v>4</v>
       </c>
-      <c r="F151" t="s">
-        <v>7</v>
-      </c>
-      <c r="G151" t="s">
-        <v>61</v>
-      </c>
       <c r="I151" s="1" t="str">
-        <f t="shared" si="66"/>
-        <v>ops:deploy:package:dockerize</v>
+        <f t="shared" si="74"/>
+        <v>ops:deploy</v>
       </c>
       <c r="J151" t="str">
-        <f t="shared" si="43"/>
-        <v>npm-run-all ops:deploy:package:dockerize:*</v>
+        <f t="shared" si="51"/>
+        <v>npm-run-all ops:deploy:*</v>
       </c>
       <c r="K151" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve">    "ops:deploy:package:dockerize": "date &amp;&amp; time npm-run-all ops:deploy:package:dockerize:*",</v>
+        <f t="shared" si="88"/>
+        <v xml:space="preserve">    "ops:deploy": "date &amp;&amp; time npm-run-all ops:deploy:*",</v>
       </c>
       <c r="L151" s="2"/>
       <c r="M151" s="2"/>
       <c r="N151" s="2" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>npm-run-all</v>
       </c>
       <c r="O151" s="2" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P151" t="str">
-        <f t="shared" si="84"/>
-        <v>ops:deploy:package:dockerize:*</v>
+        <f t="shared" ref="P151:P153" si="92">CONCATENATE(IF(CODE(I151)-CODE("a")&lt;0,LOWER(LEFT(I151,IF(ISERR(FIND(":",I151)),LEN(I151)+1,FIND(":",I151))-1)),I151),":*")</f>
+        <v>ops:deploy:*</v>
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
@@ -5865,37 +5863,31 @@
       <c r="F152" t="s">
         <v>7</v>
       </c>
-      <c r="G152" t="s">
-        <v>61</v>
-      </c>
-      <c r="H152" t="s">
-        <v>1</v>
-      </c>
       <c r="I152" s="1" t="str">
-        <f t="shared" si="66"/>
-        <v>ops:deploy:package:dockerize:build</v>
+        <f t="shared" si="74"/>
+        <v>ops:deploy:package</v>
       </c>
       <c r="J152" t="str">
-        <f t="shared" si="43"/>
-        <v>npm-run-all ops:deploy:package:dockerize:build:action</v>
+        <f t="shared" si="51"/>
+        <v>npm-run-all ops:deploy:package:*</v>
       </c>
       <c r="K152" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve">    "ops:deploy:package:dockerize:build": "date &amp;&amp; time npm-run-all ops:deploy:package:dockerize:build:action",</v>
+        <f t="shared" si="88"/>
+        <v xml:space="preserve">    "ops:deploy:package": "date &amp;&amp; time npm-run-all ops:deploy:package:*",</v>
       </c>
       <c r="L152" s="2"/>
       <c r="M152" s="2"/>
       <c r="N152" s="2" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>npm-run-all</v>
       </c>
       <c r="O152" s="2" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P152" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I152,"action")</f>
-        <v>ops:deploy:package:dockerize:build:action</v>
+        <f t="shared" si="92"/>
+        <v>ops:deploy:package:*</v>
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
@@ -5911,34 +5903,31 @@
       <c r="G153" t="s">
         <v>61</v>
       </c>
-      <c r="H153" t="s">
-        <v>68</v>
-      </c>
       <c r="I153" s="1" t="str">
-        <f t="shared" si="66"/>
-        <v>ops:deploy:package:dockerize:push</v>
+        <f t="shared" si="74"/>
+        <v>ops:deploy:package:dockerize</v>
       </c>
       <c r="J153" t="str">
-        <f t="shared" si="43"/>
-        <v>npm-run-all ops:deploy:package:dockerize:push:action</v>
+        <f t="shared" si="51"/>
+        <v>npm-run-all ops:deploy:package:dockerize:*</v>
       </c>
       <c r="K153" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve">    "ops:deploy:package:dockerize:push": "date &amp;&amp; time npm-run-all ops:deploy:package:dockerize:push:action",</v>
+        <f t="shared" si="88"/>
+        <v xml:space="preserve">    "ops:deploy:package:dockerize": "date &amp;&amp; time npm-run-all ops:deploy:package:dockerize:*",</v>
       </c>
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
       <c r="N153" s="2" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>npm-run-all</v>
       </c>
       <c r="O153" s="2" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P153" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I153,"action")</f>
-        <v>ops:deploy:package:dockerize:push:action</v>
+        <f t="shared" si="92"/>
+        <v>ops:deploy:package:dockerize:*</v>
       </c>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
@@ -5952,33 +5941,36 @@
         <v>7</v>
       </c>
       <c r="G154" t="s">
-        <v>67</v>
+        <v>61</v>
+      </c>
+      <c r="H154" t="s">
+        <v>1</v>
       </c>
       <c r="I154" s="1" t="str">
-        <f t="shared" si="66"/>
-        <v>ops:deploy:package:provision</v>
+        <f t="shared" si="74"/>
+        <v>ops:deploy:package:dockerize:build</v>
       </c>
       <c r="J154" t="str">
-        <f t="shared" si="43"/>
-        <v>npm-run-all ops:deploy:package:provision:action</v>
+        <f t="shared" si="51"/>
+        <v>npm-run-all ops:deploy:package:dockerize:build:action</v>
       </c>
       <c r="K154" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve">    "ops:deploy:package:provision": "date &amp;&amp; time npm-run-all ops:deploy:package:provision:action",</v>
+        <f t="shared" si="88"/>
+        <v xml:space="preserve">    "ops:deploy:package:dockerize:build": "date &amp;&amp; time npm-run-all ops:deploy:package:dockerize:build:action",</v>
       </c>
       <c r="L154" s="2"/>
       <c r="M154" s="2"/>
       <c r="N154" s="2" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>npm-run-all</v>
       </c>
       <c r="O154" s="2" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P154" t="str">
         <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I154,"action")</f>
-        <v>ops:deploy:package:provision:action</v>
+        <v>ops:deploy:package:dockerize:build:action</v>
       </c>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
@@ -5992,29 +5984,36 @@
         <v>7</v>
       </c>
       <c r="G155" t="s">
-        <v>93</v>
+        <v>61</v>
+      </c>
+      <c r="H155" t="s">
+        <v>68</v>
       </c>
       <c r="I155" s="1" t="str">
-        <f t="shared" si="66"/>
-        <v>ops:deploy:package:orchestrate</v>
+        <f t="shared" si="74"/>
+        <v>ops:deploy:package:dockerize:push</v>
       </c>
       <c r="J155" t="str">
-        <f t="shared" si="43"/>
-        <v>:</v>
+        <f t="shared" si="51"/>
+        <v>npm-run-all ops:deploy:package:dockerize:push:action</v>
       </c>
       <c r="K155" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve">    "ops:deploy:package:orchestrate": ":",</v>
+        <f t="shared" si="88"/>
+        <v xml:space="preserve">    "ops:deploy:package:dockerize:push": "date &amp;&amp; time npm-run-all ops:deploy:package:dockerize:push:action",</v>
       </c>
       <c r="L155" s="2"/>
       <c r="M155" s="2"/>
       <c r="N155" s="2" t="str">
-        <f t="shared" si="82"/>
-        <v/>
+        <f t="shared" si="90"/>
+        <v>npm-run-all</v>
       </c>
       <c r="O155" s="2" t="str">
-        <f t="shared" si="83"/>
-        <v xml:space="preserve"> </v>
+        <f t="shared" si="91"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P155" t="str">
+        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I155,"action")</f>
+        <v>ops:deploy:package:dockerize:push:action</v>
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
@@ -6025,72 +6024,72 @@
         <v>4</v>
       </c>
       <c r="F156" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="G156" t="s">
+        <v>67</v>
       </c>
       <c r="I156" s="1" t="str">
-        <f t="shared" si="66"/>
-        <v>ops:deploy:report</v>
+        <f t="shared" si="74"/>
+        <v>ops:deploy:package:provision</v>
       </c>
       <c r="J156" t="str">
-        <f t="shared" si="43"/>
-        <v>:</v>
+        <f t="shared" si="51"/>
+        <v>npm-run-all ops:deploy:package:provision:action</v>
       </c>
       <c r="K156" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve">    "ops:deploy:report": ":",</v>
+        <f t="shared" si="88"/>
+        <v xml:space="preserve">    "ops:deploy:package:provision": "date &amp;&amp; time npm-run-all ops:deploy:package:provision:action",</v>
       </c>
       <c r="L156" s="2"/>
       <c r="M156" s="2"/>
       <c r="N156" s="2" t="str">
-        <f t="shared" si="82"/>
-        <v/>
+        <f t="shared" si="90"/>
+        <v>npm-run-all</v>
       </c>
       <c r="O156" s="2" t="str">
-        <f t="shared" si="83"/>
-        <v xml:space="preserve"> </v>
+        <f t="shared" si="91"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P156" t="str">
+        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I156,"action")</f>
+        <v>ops:deploy:package:provision:action</v>
       </c>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>7</v>
-      </c>
-      <c r="B157">
-        <v>9</v>
-      </c>
-      <c r="C157" t="s">
-        <v>83</v>
-      </c>
       <c r="D157" t="s">
         <v>108</v>
       </c>
       <c r="E157" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="F157" t="s">
+        <v>7</v>
+      </c>
+      <c r="G157" t="s">
+        <v>93</v>
       </c>
       <c r="I157" s="1" t="str">
-        <f t="shared" si="66"/>
-        <v>ops:run</v>
+        <f t="shared" si="74"/>
+        <v>ops:deploy:package:orchestrate</v>
       </c>
       <c r="J157" t="str">
-        <f t="shared" si="43"/>
-        <v>npm-run-all ops:run:*</v>
+        <f t="shared" si="51"/>
+        <v>:</v>
       </c>
       <c r="K157" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve">    "ops:run": "date &amp;&amp; time npm-run-all ops:run:*",</v>
+        <f t="shared" si="88"/>
+        <v xml:space="preserve">    "ops:deploy:package:orchestrate": ":",</v>
       </c>
       <c r="L157" s="2"/>
       <c r="M157" s="2"/>
       <c r="N157" s="2" t="str">
-        <f t="shared" si="82"/>
-        <v>npm-run-all</v>
+        <f t="shared" si="90"/>
+        <v/>
       </c>
       <c r="O157" s="2" t="str">
-        <f t="shared" si="83"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P157" t="str">
-        <f t="shared" ref="P157" si="85">CONCATENATE(IF(CODE(I157)-CODE("a")&lt;0,LOWER(LEFT(I157,IF(ISERR(FIND(":",I157)),LEN(I157)+1,FIND(":",I157))-1)),I157),":*")</f>
-        <v>ops:run:*</v>
+        <f t="shared" si="91"/>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
@@ -6098,69 +6097,75 @@
         <v>108</v>
       </c>
       <c r="E158" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F158" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="I158" s="1" t="str">
-        <f t="shared" si="66"/>
-        <v>ops:run:platform</v>
+        <f t="shared" si="74"/>
+        <v>ops:deploy:report</v>
       </c>
       <c r="J158" t="str">
-        <f t="shared" si="43"/>
-        <v>npm-run-all ops:run:platform:action</v>
+        <f t="shared" si="51"/>
+        <v>:</v>
       </c>
       <c r="K158" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve">    "ops:run:platform": "date &amp;&amp; time npm-run-all ops:run:platform:action",</v>
+        <f t="shared" si="88"/>
+        <v xml:space="preserve">    "ops:deploy:report": ":",</v>
       </c>
       <c r="L158" s="2"/>
       <c r="M158" s="2"/>
       <c r="N158" s="2" t="str">
-        <f t="shared" si="82"/>
-        <v>npm-run-all</v>
+        <f t="shared" si="90"/>
+        <v/>
       </c>
       <c r="O158" s="2" t="str">
-        <f t="shared" si="83"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P158" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I158,"action")</f>
-        <v>ops:run:platform:action</v>
+        <f t="shared" si="91"/>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>7</v>
+      </c>
+      <c r="B159">
+        <v>9</v>
+      </c>
+      <c r="C159" t="s">
+        <v>83</v>
+      </c>
       <c r="D159" t="s">
         <v>108</v>
       </c>
       <c r="E159" t="s">
         <v>12</v>
       </c>
-      <c r="F159" t="s">
-        <v>7</v>
-      </c>
       <c r="I159" s="1" t="str">
-        <f t="shared" si="66"/>
-        <v>ops:run:package</v>
+        <f t="shared" si="74"/>
+        <v>ops:run</v>
       </c>
       <c r="J159" t="str">
-        <f t="shared" ref="J159:J175" si="86" xml:space="preserve"> IF(NOT(COUNTA(P159:V159)),":",_xlfn.TEXTJOIN(O159,TRUE,N159,_xlfn.TEXTJOIN(O159,TRUE,P159:V159)))</f>
-        <v>:</v>
+        <f t="shared" si="51"/>
+        <v>npm-run-all ops:run:*</v>
       </c>
       <c r="K159" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve">    "ops:run:package": ":",</v>
+        <f t="shared" si="88"/>
+        <v xml:space="preserve">    "ops:run": "date &amp;&amp; time npm-run-all ops:run:*",</v>
       </c>
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
       <c r="N159" s="2" t="str">
-        <f t="shared" si="82"/>
-        <v/>
+        <f t="shared" si="90"/>
+        <v>npm-run-all</v>
       </c>
       <c r="O159" s="2" t="str">
-        <f t="shared" si="83"/>
-        <v xml:space="preserve"> </v>
+        <f t="shared" si="91"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P159" t="str">
+        <f t="shared" ref="P159" si="93">CONCATENATE(IF(CODE(I159)-CODE("a")&lt;0,LOWER(LEFT(I159,IF(ISERR(FIND(":",I159)),LEN(I159)+1,FIND(":",I159))-1)),I159),":*")</f>
+        <v>ops:run:*</v>
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
@@ -6171,29 +6176,33 @@
         <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="I160" s="1" t="str">
-        <f t="shared" si="66"/>
-        <v>ops:run:chaos</v>
+        <f t="shared" si="74"/>
+        <v>ops:run:platform</v>
       </c>
       <c r="J160" t="str">
-        <f t="shared" si="86"/>
-        <v>:</v>
+        <f t="shared" si="51"/>
+        <v>npm-run-all ops:run:platform:action</v>
       </c>
       <c r="K160" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve">    "ops:run:chaos": ":",</v>
+        <f t="shared" si="88"/>
+        <v xml:space="preserve">    "ops:run:platform": "date &amp;&amp; time npm-run-all ops:run:platform:action",</v>
       </c>
       <c r="L160" s="2"/>
       <c r="M160" s="2"/>
       <c r="N160" s="2" t="str">
-        <f t="shared" si="82"/>
-        <v/>
+        <f t="shared" si="90"/>
+        <v>npm-run-all</v>
       </c>
       <c r="O160" s="2" t="str">
-        <f t="shared" si="83"/>
-        <v xml:space="preserve"> </v>
+        <f t="shared" si="91"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P160" t="str">
+        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I160,"action")</f>
+        <v>ops:run:platform:action</v>
       </c>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
@@ -6204,72 +6213,62 @@
         <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I161" s="1" t="str">
-        <f t="shared" si="66"/>
-        <v>ops:run:report</v>
+        <f t="shared" si="74"/>
+        <v>ops:run:package</v>
       </c>
       <c r="J161" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" ref="J161:J177" si="94" xml:space="preserve"> IF(NOT(COUNTA(P161:V161)),":",_xlfn.TEXTJOIN(O161,TRUE,N161,_xlfn.TEXTJOIN(O161,TRUE,P161:V161)))</f>
         <v>:</v>
       </c>
       <c r="K161" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve">    "ops:run:report": ":",</v>
+        <f t="shared" si="88"/>
+        <v xml:space="preserve">    "ops:run:package": ":",</v>
       </c>
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
       <c r="N161" s="2" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="O161" s="2" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>8</v>
-      </c>
-      <c r="B162">
-        <v>10</v>
-      </c>
-      <c r="C162" t="s">
-        <v>96</v>
-      </c>
       <c r="D162" t="s">
         <v>108</v>
       </c>
       <c r="E162" t="s">
-        <v>82</v>
+        <v>12</v>
+      </c>
+      <c r="F162" t="s">
+        <v>92</v>
       </c>
       <c r="I162" s="1" t="str">
-        <f t="shared" si="66"/>
-        <v>ops:monitor</v>
+        <f t="shared" si="74"/>
+        <v>ops:run:chaos</v>
       </c>
       <c r="J162" t="str">
-        <f t="shared" si="86"/>
-        <v>npm-run-all ops:monitor:*</v>
+        <f t="shared" si="94"/>
+        <v>:</v>
       </c>
       <c r="K162" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve">    "ops:monitor": "date &amp;&amp; time npm-run-all ops:monitor:*",</v>
+        <f t="shared" si="88"/>
+        <v xml:space="preserve">    "ops:run:chaos": ":",</v>
       </c>
       <c r="L162" s="2"/>
       <c r="M162" s="2"/>
       <c r="N162" s="2" t="str">
-        <f t="shared" si="82"/>
-        <v>npm-run-all</v>
+        <f t="shared" si="90"/>
+        <v/>
       </c>
       <c r="O162" s="2" t="str">
-        <f t="shared" si="83"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P162" t="str">
-        <f t="shared" ref="P162:P165" si="87">CONCATENATE(IF(CODE(I162)-CODE("a")&lt;0,LOWER(LEFT(I162,IF(ISERR(FIND(":",I162)),LEN(I162)+1,FIND(":",I162))-1)),I162),":*")</f>
-        <v>ops:monitor:*</v>
+        <f t="shared" si="91"/>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.25">
@@ -6277,69 +6276,75 @@
         <v>108</v>
       </c>
       <c r="E163" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="I163" s="1" t="str">
-        <f t="shared" si="66"/>
-        <v>ops:monitor:platform</v>
+        <f t="shared" si="74"/>
+        <v>ops:run:report</v>
       </c>
       <c r="J163" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="94"/>
         <v>:</v>
       </c>
       <c r="K163" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve">    "ops:monitor:platform": ":",</v>
+        <f t="shared" si="88"/>
+        <v xml:space="preserve">    "ops:run:report": ":",</v>
       </c>
       <c r="L163" s="2"/>
       <c r="M163" s="2"/>
       <c r="N163" s="2" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="O163" s="2" t="str">
-        <f t="shared" ref="O163" si="88">IF(ISBLANK(N163),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" si="91"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>8</v>
+      </c>
+      <c r="B164">
+        <v>10</v>
+      </c>
+      <c r="C164" t="s">
+        <v>96</v>
+      </c>
       <c r="D164" t="s">
         <v>108</v>
       </c>
       <c r="E164" t="s">
         <v>82</v>
       </c>
-      <c r="F164" t="s">
-        <v>7</v>
-      </c>
       <c r="I164" s="1" t="str">
-        <f t="shared" si="66"/>
-        <v>ops:monitor:package</v>
+        <f t="shared" si="74"/>
+        <v>ops:monitor</v>
       </c>
       <c r="J164" t="str">
-        <f t="shared" si="86"/>
-        <v>npm-run-all ops:monitor:package:*</v>
+        <f t="shared" si="94"/>
+        <v>npm-run-all ops:monitor:*</v>
       </c>
       <c r="K164" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve">    "ops:monitor:package": "date &amp;&amp; time npm-run-all ops:monitor:package:*",</v>
+        <f t="shared" si="88"/>
+        <v xml:space="preserve">    "ops:monitor": "date &amp;&amp; time npm-run-all ops:monitor:*",</v>
       </c>
       <c r="L164" s="2"/>
       <c r="M164" s="2"/>
       <c r="N164" s="2" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>npm-run-all</v>
       </c>
       <c r="O164" s="2" t="str">
-        <f t="shared" ref="O164" si="89">IF(ISBLANK(N164),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" si="91"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P164" t="str">
-        <f t="shared" si="87"/>
-        <v>ops:monitor:package:*</v>
+        <f t="shared" ref="P164:P167" si="95">CONCATENATE(IF(CODE(I164)-CODE("a")&lt;0,LOWER(LEFT(I164,IF(ISERR(FIND(":",I164)),LEN(I164)+1,FIND(":",I164))-1)),I164),":*")</f>
+        <v>ops:monitor:*</v>
       </c>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.25">
@@ -6350,36 +6355,29 @@
         <v>82</v>
       </c>
       <c r="F165" t="s">
-        <v>7</v>
-      </c>
-      <c r="G165" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="I165" s="1" t="str">
-        <f t="shared" si="66"/>
-        <v>ops:monitor:package:trail</v>
+        <f t="shared" si="74"/>
+        <v>ops:monitor:platform</v>
       </c>
       <c r="J165" t="str">
-        <f t="shared" si="86"/>
-        <v>npm-run-all ops:monitor:package:trail:*</v>
+        <f t="shared" si="94"/>
+        <v>:</v>
       </c>
       <c r="K165" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve">    "ops:monitor:package:trail": "date &amp;&amp; time npm-run-all ops:monitor:package:trail:*",</v>
+        <f t="shared" si="88"/>
+        <v xml:space="preserve">    "ops:monitor:platform": ":",</v>
       </c>
       <c r="L165" s="2"/>
       <c r="M165" s="2"/>
       <c r="N165" s="2" t="str">
-        <f t="shared" si="82"/>
-        <v>npm-run-all</v>
+        <f t="shared" si="90"/>
+        <v/>
       </c>
       <c r="O165" s="2" t="str">
-        <f t="shared" ref="O165" si="90">IF(ISBLANK(N165),CONCATENATE(" ",$O$4," ")," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P165" t="str">
-        <f t="shared" si="87"/>
-        <v>ops:monitor:package:trail:*</v>
+        <f t="shared" ref="O165" si="96">IF(ISBLANK(N165),CONCATENATE(" ",$O$4," ")," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.25">
@@ -6392,33 +6390,31 @@
       <c r="F166" t="s">
         <v>7</v>
       </c>
-      <c r="G166" t="s">
-        <v>94</v>
-      </c>
-      <c r="H166" t="s">
-        <v>88</v>
-      </c>
       <c r="I166" s="1" t="str">
-        <f t="shared" si="66"/>
-        <v>ops:monitor:package:trail:health</v>
+        <f t="shared" si="74"/>
+        <v>ops:monitor:package</v>
       </c>
       <c r="J166" t="str">
-        <f t="shared" si="86"/>
-        <v>:</v>
+        <f t="shared" si="94"/>
+        <v>npm-run-all ops:monitor:package:*</v>
       </c>
       <c r="K166" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve">    "ops:monitor:package:trail:health": ":",</v>
+        <f t="shared" si="88"/>
+        <v xml:space="preserve">    "ops:monitor:package": "date &amp;&amp; time npm-run-all ops:monitor:package:*",</v>
       </c>
       <c r="L166" s="2"/>
       <c r="M166" s="2"/>
       <c r="N166" s="2" t="str">
-        <f t="shared" si="82"/>
-        <v/>
+        <f t="shared" si="90"/>
+        <v>npm-run-all</v>
       </c>
       <c r="O166" s="2" t="str">
-        <f t="shared" ref="O166" si="91">IF(ISBLANK(N166),CONCATENATE(" ",$O$4," ")," ")</f>
-        <v xml:space="preserve"> </v>
+        <f t="shared" ref="O166" si="97">IF(ISBLANK(N166),CONCATENATE(" ",$O$4," ")," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P166" t="str">
+        <f t="shared" si="95"/>
+        <v>ops:monitor:package:*</v>
       </c>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.25">
@@ -6434,30 +6430,31 @@
       <c r="G167" t="s">
         <v>94</v>
       </c>
-      <c r="H167" t="s">
-        <v>89</v>
-      </c>
       <c r="I167" s="1" t="str">
-        <f t="shared" si="66"/>
-        <v>ops:monitor:package:trail:performance</v>
+        <f t="shared" si="74"/>
+        <v>ops:monitor:package:trail</v>
       </c>
       <c r="J167" t="str">
-        <f t="shared" si="86"/>
-        <v>:</v>
+        <f t="shared" si="94"/>
+        <v>npm-run-all ops:monitor:package:trail:*</v>
       </c>
       <c r="K167" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve">    "ops:monitor:package:trail:performance": ":",</v>
+        <f t="shared" si="88"/>
+        <v xml:space="preserve">    "ops:monitor:package:trail": "date &amp;&amp; time npm-run-all ops:monitor:package:trail:*",</v>
       </c>
       <c r="L167" s="2"/>
       <c r="M167" s="2"/>
       <c r="N167" s="2" t="str">
-        <f t="shared" si="82"/>
-        <v/>
+        <f t="shared" si="90"/>
+        <v>npm-run-all</v>
       </c>
       <c r="O167" s="2" t="str">
-        <f t="shared" ref="O167" si="92">IF(ISBLANK(N167),CONCATENATE(" ",$O$4," ")," ")</f>
-        <v xml:space="preserve"> </v>
+        <f t="shared" ref="O167" si="98">IF(ISBLANK(N167),CONCATENATE(" ",$O$4," ")," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P167" t="str">
+        <f t="shared" si="95"/>
+        <v>ops:monitor:package:trail:*</v>
       </c>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.25">
@@ -6474,28 +6471,28 @@
         <v>94</v>
       </c>
       <c r="H168" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I168" s="1" t="str">
-        <f t="shared" si="66"/>
-        <v>ops:monitor:package:trail:resilience</v>
+        <f t="shared" si="74"/>
+        <v>ops:monitor:package:trail:health</v>
       </c>
       <c r="J168" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="94"/>
         <v>:</v>
       </c>
       <c r="K168" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve">    "ops:monitor:package:trail:resilience": ":",</v>
+        <f t="shared" si="88"/>
+        <v xml:space="preserve">    "ops:monitor:package:trail:health": ":",</v>
       </c>
       <c r="L168" s="2"/>
       <c r="M168" s="2"/>
       <c r="N168" s="2" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="O168" s="2" t="str">
-        <f t="shared" ref="O168" si="93">IF(ISBLANK(N168),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" ref="O168" si="99">IF(ISBLANK(N168),CONCATENATE(" ",$O$4," ")," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -6513,28 +6510,28 @@
         <v>94</v>
       </c>
       <c r="H169" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I169" s="1" t="str">
-        <f t="shared" ref="I169:I175" si="94" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D169:H169)</f>
-        <v>ops:monitor:package:trail:security</v>
+        <f t="shared" si="74"/>
+        <v>ops:monitor:package:trail:performance</v>
       </c>
       <c r="J169" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="94"/>
         <v>:</v>
       </c>
       <c r="K169" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve">    "ops:monitor:package:trail:security": ":",</v>
+        <f t="shared" si="88"/>
+        <v xml:space="preserve">    "ops:monitor:package:trail:performance": ":",</v>
       </c>
       <c r="L169" s="2"/>
       <c r="M169" s="2"/>
       <c r="N169" s="2" t="str">
-        <f>IF(ISBLANK(P169),"",IF(ISNUMBER(SEARCH(":*",P169)),$N$6,$N$4))</f>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="O169" s="2" t="str">
-        <f t="shared" ref="O169" si="95">IF(ISBLANK(N169),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" ref="O169" si="100">IF(ISBLANK(N169),CONCATENATE(" ",$O$4," ")," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -6549,28 +6546,31 @@
         <v>7</v>
       </c>
       <c r="G170" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="H170" t="s">
+        <v>90</v>
       </c>
       <c r="I170" s="1" t="str">
+        <f t="shared" si="74"/>
+        <v>ops:monitor:package:trail:resilience</v>
+      </c>
+      <c r="J170" t="str">
         <f t="shared" si="94"/>
-        <v>ops:monitor:package:showcase</v>
-      </c>
-      <c r="J170" t="str">
-        <f t="shared" si="86"/>
         <v>:</v>
       </c>
       <c r="K170" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve">    "ops:monitor:package:showcase": ":",</v>
+        <f t="shared" si="88"/>
+        <v xml:space="preserve">    "ops:monitor:package:trail:resilience": ":",</v>
       </c>
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
       <c r="N170" s="2" t="str">
-        <f>IF(ISBLANK(P170),"",IF(ISNUMBER(SEARCH(":*",P170)),$N$6,$N$4))</f>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="O170" s="2" t="str">
-        <f t="shared" ref="O170:O175" si="96">IF(ISBLANK(N170),CONCATENATE(" ",$O$4," ")," ")</f>
+        <f t="shared" ref="O170" si="101">IF(ISBLANK(N170),CONCATENATE(" ",$O$4," ")," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -6582,33 +6582,35 @@
         <v>82</v>
       </c>
       <c r="F171" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="G171" t="s">
+        <v>94</v>
+      </c>
+      <c r="H171" t="s">
+        <v>91</v>
       </c>
       <c r="I171" s="1" t="str">
+        <f t="shared" ref="I171:I177" si="102" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D171:H171)</f>
+        <v>ops:monitor:package:trail:security</v>
+      </c>
+      <c r="J171" t="str">
         <f t="shared" si="94"/>
-        <v>ops:monitor:report</v>
-      </c>
-      <c r="J171" t="str">
-        <f t="shared" si="86"/>
-        <v>npm-run-all ops:monitor:report:action</v>
+        <v>:</v>
       </c>
       <c r="K171" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve">    "ops:monitor:report": "date &amp;&amp; time npm-run-all ops:monitor:report:action",</v>
+        <f t="shared" si="88"/>
+        <v xml:space="preserve">    "ops:monitor:package:trail:security": ":",</v>
       </c>
       <c r="L171" s="2"/>
       <c r="M171" s="2"/>
       <c r="N171" s="2" t="str">
         <f>IF(ISBLANK(P171),"",IF(ISNUMBER(SEARCH(":*",P171)),$N$6,$N$4))</f>
-        <v>npm-run-all</v>
+        <v/>
       </c>
       <c r="O171" s="2" t="str">
-        <f t="shared" si="96"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P171" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I171,"action")</f>
-        <v>ops:monitor:report:action</v>
+        <f t="shared" ref="O171" si="103">IF(ISBLANK(N171),CONCATENATE(" ",$O$4," ")," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.25">
@@ -6616,19 +6618,25 @@
         <v>108</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>82</v>
+      </c>
+      <c r="F172" t="s">
+        <v>7</v>
+      </c>
+      <c r="G172" t="s">
+        <v>95</v>
       </c>
       <c r="I172" s="1" t="str">
-        <f t="shared" ref="I172" si="97" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D172:H172)</f>
-        <v>ops:report</v>
+        <f t="shared" si="102"/>
+        <v>ops:monitor:package:showcase</v>
       </c>
       <c r="J172" t="str">
-        <f t="shared" ref="J172" si="98" xml:space="preserve"> IF(NOT(COUNTA(P172:V172)),":",_xlfn.TEXTJOIN(O172,TRUE,N172,_xlfn.TEXTJOIN(O172,TRUE,P172:V172)))</f>
+        <f t="shared" si="94"/>
         <v>:</v>
       </c>
       <c r="K172" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve">    "ops:report": ":",</v>
+        <f t="shared" si="88"/>
+        <v xml:space="preserve">    "ops:monitor:package:showcase": ":",</v>
       </c>
       <c r="L172" s="2"/>
       <c r="M172" s="2"/>
@@ -6637,181 +6645,248 @@
         <v/>
       </c>
       <c r="O172" s="2" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" ref="O172:O177" si="104">IF(ISBLANK(N172),CONCATENATE(" ",$O$4," ")," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D173" t="s">
+        <v>108</v>
+      </c>
+      <c r="E173" t="s">
+        <v>82</v>
+      </c>
+      <c r="F173" t="s">
         <v>11</v>
       </c>
       <c r="I173" s="1" t="str">
-        <f t="shared" ref="I173:I174" si="99" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D173:H173)</f>
-        <v>report</v>
+        <f t="shared" si="102"/>
+        <v>ops:monitor:report</v>
       </c>
       <c r="J173" t="str">
-        <f t="shared" ref="J173:J174" si="100" xml:space="preserve"> IF(NOT(COUNTA(P173:V173)),":",_xlfn.TEXTJOIN(O173,TRUE,N173,_xlfn.TEXTJOIN(O173,TRUE,P173:V173)))</f>
-        <v>:</v>
+        <f t="shared" si="94"/>
+        <v>npm-run-all ops:monitor:report:action</v>
       </c>
       <c r="K173" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve">    "report": ":",</v>
+        <f t="shared" si="88"/>
+        <v xml:space="preserve">    "ops:monitor:report": "date &amp;&amp; time npm-run-all ops:monitor:report:action",</v>
       </c>
       <c r="L173" s="2"/>
       <c r="M173" s="2"/>
       <c r="N173" s="2" t="str">
-        <f t="shared" ref="N173:N174" si="101">IF(ISBLANK(P173),"",IF(ISNUMBER(SEARCH(":*",P173)),$N$6,$N$4))</f>
-        <v/>
+        <f>IF(ISBLANK(P173),"",IF(ISNUMBER(SEARCH(":*",P173)),$N$6,$N$4))</f>
+        <v>npm-run-all</v>
       </c>
       <c r="O173" s="2" t="str">
-        <f t="shared" si="96"/>
-        <v xml:space="preserve"> </v>
+        <f t="shared" si="104"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P173" t="str">
+        <f xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I173,"action")</f>
+        <v>ops:monitor:report:action</v>
       </c>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D174" t="s">
-        <v>189</v>
+        <v>108</v>
       </c>
       <c r="E174" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
       <c r="I174" s="1" t="str">
-        <f t="shared" si="99"/>
-        <v>pipeline:finish</v>
+        <f t="shared" ref="I174" si="105" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D174:H174)</f>
+        <v>ops:report</v>
       </c>
       <c r="J174" t="str">
-        <f t="shared" si="100"/>
-        <v>npm-run-all pipeline:finish:action</v>
+        <f t="shared" ref="J174" si="106" xml:space="preserve"> IF(NOT(COUNTA(P174:V174)),":",_xlfn.TEXTJOIN(O174,TRUE,N174,_xlfn.TEXTJOIN(O174,TRUE,P174:V174)))</f>
+        <v>:</v>
       </c>
       <c r="K174" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve">    "pipeline:finish": "date &amp;&amp; time npm-run-all pipeline:finish:action",</v>
+        <f t="shared" si="88"/>
+        <v xml:space="preserve">    "ops:report": ":",</v>
       </c>
       <c r="L174" s="2"/>
       <c r="M174" s="2"/>
       <c r="N174" s="2" t="str">
-        <f t="shared" si="101"/>
-        <v>npm-run-all</v>
+        <f>IF(ISBLANK(P174),"",IF(ISNUMBER(SEARCH(":*",P174)),$N$6,$N$4))</f>
+        <v/>
       </c>
       <c r="O174" s="2" t="str">
-        <f t="shared" si="96"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P174" t="str">
-        <f t="shared" ref="P174" si="102" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I174,"action")</f>
-        <v>pipeline:finish:action</v>
+        <f t="shared" si="104"/>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E175" t="s">
-        <v>148</v>
+      <c r="D175" t="s">
+        <v>11</v>
       </c>
       <c r="I175" s="1" t="str">
-        <f t="shared" si="94"/>
-        <v>// END PIPELINE</v>
+        <f t="shared" ref="I175:I176" si="107" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,D175:H175)</f>
+        <v>report</v>
       </c>
       <c r="J175" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" ref="J175:J176" si="108" xml:space="preserve"> IF(NOT(COUNTA(P175:V175)),":",_xlfn.TEXTJOIN(O175,TRUE,N175,_xlfn.TEXTJOIN(O175,TRUE,P175:V175)))</f>
         <v>:</v>
       </c>
       <c r="K175" t="str">
-        <f>IF(ISBLANK(I175),"",CONCATENATE("    """,I175,""": ","""",IF(LEN(J175)&gt;1,CONCATENATE(IF(L175,"",CONCATENATE(N$3," ")),""),""),IF(M175,"echo ",""),J175,""""))</f>
-        <v xml:space="preserve">    "// END PIPELINE": ":"</v>
+        <f t="shared" si="88"/>
+        <v xml:space="preserve">    "report": ":",</v>
       </c>
       <c r="L175" s="2"/>
       <c r="M175" s="2"/>
       <c r="N175" s="2" t="str">
-        <f>IF(ISBLANK(P175),"",IF(ISNUMBER(SEARCH(":*",P175)),$N$6,$N$4))</f>
+        <f t="shared" ref="N175:N176" si="109">IF(ISBLANK(P175),"",IF(ISNUMBER(SEARCH(":*",P175)),$N$6,$N$4))</f>
         <v/>
       </c>
       <c r="O175" s="2" t="str">
-        <f t="shared" si="96"/>
-        <v xml:space="preserve"> </v>
+        <f t="shared" si="104"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D176" t="s">
+        <v>189</v>
+      </c>
+      <c r="E176" t="s">
+        <v>190</v>
+      </c>
+      <c r="I176" s="1" t="str">
+        <f t="shared" si="107"/>
+        <v>pipeline:finish</v>
+      </c>
+      <c r="J176" t="str">
+        <f t="shared" si="108"/>
+        <v>npm-run-all pipeline:finish:action</v>
+      </c>
+      <c r="K176" t="str">
+        <f t="shared" si="88"/>
+        <v xml:space="preserve">    "pipeline:finish": "date &amp;&amp; time npm-run-all pipeline:finish:action",</v>
+      </c>
+      <c r="L176" s="2"/>
+      <c r="M176" s="2"/>
+      <c r="N176" s="2" t="str">
+        <f t="shared" si="109"/>
+        <v>npm-run-all</v>
+      </c>
+      <c r="O176" s="2" t="str">
+        <f t="shared" si="104"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P176" t="str">
+        <f t="shared" ref="P176" si="110" xml:space="preserve"> _xlfn.TEXTJOIN(":",TRUE,I176,"action")</f>
+        <v>pipeline:finish:action</v>
       </c>
     </row>
     <row r="177" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <f>COUNTA(A8:A175)</f>
+      <c r="E177" t="s">
+        <v>148</v>
+      </c>
+      <c r="I177" s="1" t="str">
+        <f t="shared" si="102"/>
+        <v>// END PIPELINE</v>
+      </c>
+      <c r="J177" t="str">
+        <f t="shared" si="94"/>
+        <v>:</v>
+      </c>
+      <c r="K177" t="str">
+        <f>IF(ISBLANK(I177),"",CONCATENATE("    """,I177,""": ","""",IF(LEN(J177)&gt;1,CONCATENATE(IF(L177,"",CONCATENATE(N$3," ")),""),""),IF(M177,"echo ",""),J177,""""))</f>
+        <v xml:space="preserve">    "// END PIPELINE": ":"</v>
+      </c>
+      <c r="L177" s="2"/>
+      <c r="M177" s="2"/>
+      <c r="N177" s="2" t="str">
+        <f>IF(ISBLANK(P177),"",IF(ISNUMBER(SEARCH(":*",P177)),$N$6,$N$4))</f>
+        <v/>
+      </c>
+      <c r="O177" s="2" t="str">
+        <f t="shared" si="104"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="179" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <f>COUNTA(A8:A177)</f>
         <v>8</v>
       </c>
-      <c r="B177">
-        <f>COUNTA(B8:B175)</f>
+      <c r="B179">
+        <f>COUNTA(B8:B177)</f>
         <v>13</v>
       </c>
-      <c r="D177">
-        <f t="shared" ref="D177:V177" si="103">COUNTA(D8:D175)</f>
+      <c r="D179">
+        <f t="shared" ref="D179:V179" si="111">COUNTA(D8:D177)</f>
         <v>93</v>
       </c>
-      <c r="E177">
-        <f t="shared" si="103"/>
-        <v>87</v>
-      </c>
-      <c r="F177">
-        <f t="shared" si="103"/>
-        <v>113</v>
-      </c>
-      <c r="G177">
-        <f t="shared" si="103"/>
-        <v>57</v>
-      </c>
-      <c r="H177">
-        <f t="shared" si="103"/>
+      <c r="E179">
+        <f t="shared" si="111"/>
+        <v>84</v>
+      </c>
+      <c r="F179">
+        <f t="shared" si="111"/>
+        <v>115</v>
+      </c>
+      <c r="G179">
+        <f t="shared" si="111"/>
+        <v>58</v>
+      </c>
+      <c r="H179">
+        <f t="shared" si="111"/>
         <v>11</v>
       </c>
-      <c r="I177" s="1">
-        <f t="shared" si="103"/>
-        <v>159</v>
-      </c>
-      <c r="J177">
-        <f t="shared" si="103"/>
-        <v>168</v>
-      </c>
-      <c r="K177">
-        <f t="shared" si="103"/>
-        <v>168</v>
-      </c>
-      <c r="L177">
-        <f t="shared" si="103"/>
-        <v>22</v>
-      </c>
-      <c r="M177">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="N177">
-        <f t="shared" si="103"/>
-        <v>94</v>
-      </c>
-      <c r="O177">
-        <f t="shared" si="103"/>
-        <v>168</v>
-      </c>
-      <c r="P177">
-        <f t="shared" si="103"/>
-        <v>123</v>
-      </c>
-      <c r="Q177">
-        <f t="shared" si="103"/>
+      <c r="I179" s="1">
+        <f t="shared" si="111"/>
+        <v>161</v>
+      </c>
+      <c r="J179">
+        <f t="shared" si="111"/>
+        <v>170</v>
+      </c>
+      <c r="K179">
+        <f t="shared" si="111"/>
+        <v>170</v>
+      </c>
+      <c r="L179">
+        <f t="shared" si="111"/>
+        <v>24</v>
+      </c>
+      <c r="M179">
+        <f t="shared" si="111"/>
+        <v>5</v>
+      </c>
+      <c r="N179">
+        <f t="shared" si="111"/>
+        <v>95</v>
+      </c>
+      <c r="O179">
+        <f t="shared" si="111"/>
+        <v>170</v>
+      </c>
+      <c r="P179">
+        <f t="shared" si="111"/>
+        <v>125</v>
+      </c>
+      <c r="Q179">
+        <f t="shared" si="111"/>
         <v>8</v>
       </c>
-      <c r="R177">
-        <f t="shared" si="103"/>
+      <c r="R179">
+        <f t="shared" si="111"/>
         <v>3</v>
       </c>
-      <c r="S177">
-        <f t="shared" si="103"/>
+      <c r="S179">
+        <f t="shared" si="111"/>
         <v>3</v>
       </c>
-      <c r="T177">
-        <f t="shared" si="103"/>
+      <c r="T179">
+        <f t="shared" si="111"/>
         <v>3</v>
       </c>
-      <c r="U177">
-        <f t="shared" si="103"/>
+      <c r="U179">
+        <f t="shared" si="111"/>
         <v>1</v>
       </c>
-      <c r="V177">
-        <f t="shared" si="103"/>
+      <c r="V179">
+        <f t="shared" si="111"/>
         <v>1</v>
       </c>
     </row>
